--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ca05c72b348f169/Documenten/GitHub/Bigger_is_Better/excel_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floyd\OneDrive\Documenten\GitHub\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19990A9F-ADAB-4B30-B801-651EE355D75D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{19990A9F-ADAB-4B30-B801-651EE355D75D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{802B2718-828F-4951-9ADB-E9DAD214999B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Take off weight [N]</t>
   </si>
@@ -180,6 +181,15 @@
   </si>
   <si>
     <t>Design 36 HIGH 4E DD STRUT</t>
+  </si>
+  <si>
+    <t>Design 42 LOW 2E SEMIDD</t>
+  </si>
+  <si>
+    <t>Design 12 HIGH 2E SEMIDD</t>
+  </si>
+  <si>
+    <t>Design 29 HIGH 2E SEMIDD STRUT</t>
   </si>
 </sst>
 </file>
@@ -544,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7600BF27-F912-46FB-8B46-E334C0FEB69F}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9191,4 +9201,1867 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
+  <dimension ref="A1:D2735"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1580051.3060698099</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1597097.40303844</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1474914.2672244101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>472485.24524999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>472485.24524999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>472485.24524999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>141375.518052842</v>
+      </c>
+      <c r="C4" s="1">
+        <v>142824.683749816</v>
+      </c>
+      <c r="D4" s="1">
+        <v>131089.07847274601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>966190.54276697105</v>
+      </c>
+      <c r="C5" s="1">
+        <v>981787.474038632</v>
+      </c>
+      <c r="D5" s="1">
+        <v>871339.94350167201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>214922.15532104301</v>
+      </c>
+      <c r="C6" s="1">
+        <v>222815.35528357999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>137586.79017798501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20916.9344340469</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19596.413771753501</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16381.0027715162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>244231.168107957</v>
+      </c>
+      <c r="C8" s="1">
+        <v>248720.80338146401</v>
+      </c>
+      <c r="D8" s="1">
+        <v>246937.263629383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>27753.271561695699</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30114.6264674866</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27640.1706520767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>126254.55726617599</v>
+      </c>
+      <c r="C10" s="1">
+        <v>126249.70425092999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>126200.83276709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>293675.049641572</v>
+      </c>
+      <c r="C11" s="1">
+        <v>295522.473491907</v>
+      </c>
+      <c r="D11" s="1">
+        <v>280519.77486059198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.697994414465406</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.69726809353464103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.622110056992491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.7449999999999997E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.8159999999999999E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.6240000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18.638035099209699</v>
+      </c>
+      <c r="C14" s="1">
+        <v>18.272224673339601</v>
+      </c>
+      <c r="D14" s="1">
+        <v>17.166392301117298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.29195015028586E-5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.33501515529539E-5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.31063130205086E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>210.85106599578799</v>
+      </c>
+      <c r="C18" s="1">
+        <v>199.69911450587901</v>
+      </c>
+      <c r="D18" s="1">
+        <v>183.29025631350601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>52.355170307671202</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50.951825174143003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>50.656328216611598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.1516127777055098</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.04218540712652</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.5268596659399396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.9030288080900499</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.7965569273570099</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.70975865071886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.45322773323204502</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.51332191392368598</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.45322773323204502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.30935445335359002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.29733561721526203</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.30935445335359002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>53.998516569010597</v>
+      </c>
+      <c r="C24" s="1">
+        <v>53.998516569010597</v>
+      </c>
+      <c r="D24" s="1">
+        <v>53.998516569010597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6.2877186341350804</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6.2877186341350804</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.2877186341350804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11.6322794731499</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11.6322794731499</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11.6322794731499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20.7494714926457</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20.7494714926457</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20.7494714926457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>28.910976055334501</v>
+      </c>
+      <c r="C28" s="1">
+        <v>29.016455845168501</v>
+      </c>
+      <c r="D28" s="1">
+        <v>29.133929444647801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>31.776773710913002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>29.317448869129102</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24.627513095698902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29.9970534087016</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27.583785442710901</v>
+      </c>
+      <c r="D30" s="1">
+        <v>25.139915722426601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>426973.40864147199</v>
+      </c>
+      <c r="C31" s="1">
+        <v>463301.94565364101</v>
+      </c>
+      <c r="D31" s="1">
+        <v>425233.394647334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>224.576689295661</v>
+      </c>
+      <c r="C33" s="1">
+        <v>232.06257893885001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>227.82399045096099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.1351725770621598E-3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.3830977597687695E-3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.1899295050168394E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>13.4556108823174</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10.818108938629999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12.873090372161199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>24.283709451511498</v>
+      </c>
+      <c r="C37" s="1">
+        <v>21.9762015295493</v>
+      </c>
+      <c r="D37" s="1">
+        <v>29.224562289017399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10.397479204424799</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11.9942466975647</v>
+      </c>
+      <c r="D38" s="1">
+        <v>11.336181647266001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B559" s="2"/>
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B593" s="2"/>
+      <c r="C593" s="2"/>
+      <c r="D593" s="2"/>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B627" s="2"/>
+      <c r="C627" s="2"/>
+      <c r="D627" s="2"/>
+    </row>
+    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B661" s="2"/>
+      <c r="C661" s="2"/>
+      <c r="D661" s="2"/>
+    </row>
+    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B695" s="2"/>
+      <c r="C695" s="2"/>
+      <c r="D695" s="2"/>
+    </row>
+    <row r="729" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B729" s="2"/>
+      <c r="C729" s="2"/>
+      <c r="D729" s="2"/>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B763" s="2"/>
+      <c r="C763" s="2"/>
+      <c r="D763" s="2"/>
+    </row>
+    <row r="797" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B797" s="2"/>
+      <c r="C797" s="2"/>
+      <c r="D797" s="2"/>
+    </row>
+    <row r="831" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B831" s="2"/>
+      <c r="C831" s="2"/>
+      <c r="D831" s="2"/>
+    </row>
+    <row r="865" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B865" s="2"/>
+      <c r="C865" s="2"/>
+      <c r="D865" s="2"/>
+    </row>
+    <row r="899" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B899" s="2"/>
+      <c r="C899" s="2"/>
+      <c r="D899" s="2"/>
+    </row>
+    <row r="933" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B933" s="2"/>
+      <c r="C933" s="2"/>
+      <c r="D933" s="2"/>
+    </row>
+    <row r="967" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B967" s="2"/>
+      <c r="C967" s="2"/>
+      <c r="D967" s="2"/>
+    </row>
+    <row r="1001" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+    </row>
+    <row r="1035" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+    </row>
+    <row r="1069" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1069" s="2"/>
+      <c r="C1069" s="2"/>
+      <c r="D1069" s="2"/>
+    </row>
+    <row r="1103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1103" s="2"/>
+      <c r="C1103" s="2"/>
+      <c r="D1103" s="2"/>
+    </row>
+    <row r="1137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1137" s="2"/>
+      <c r="C1137" s="2"/>
+      <c r="D1137" s="2"/>
+    </row>
+    <row r="1171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1171" s="2"/>
+      <c r="C1171" s="2"/>
+      <c r="D1171" s="2"/>
+    </row>
+    <row r="1205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1205" s="2"/>
+      <c r="C1205" s="2"/>
+      <c r="D1205" s="2"/>
+    </row>
+    <row r="1239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1239" s="2"/>
+      <c r="C1239" s="2"/>
+      <c r="D1239" s="2"/>
+    </row>
+    <row r="1273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1273" s="2"/>
+      <c r="C1273" s="2"/>
+      <c r="D1273" s="2"/>
+    </row>
+    <row r="1307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1307" s="2"/>
+      <c r="C1307" s="2"/>
+      <c r="D1307" s="2"/>
+    </row>
+    <row r="1341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1341" s="2"/>
+      <c r="C1341" s="2"/>
+      <c r="D1341" s="2"/>
+    </row>
+    <row r="1375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1375" s="2"/>
+      <c r="C1375" s="2"/>
+      <c r="D1375" s="2"/>
+    </row>
+    <row r="1409" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1409" s="2"/>
+      <c r="C1409" s="2"/>
+      <c r="D1409" s="2"/>
+    </row>
+    <row r="1443" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1443" s="2"/>
+      <c r="C1443" s="2"/>
+      <c r="D1443" s="2"/>
+    </row>
+    <row r="1477" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1477" s="2"/>
+      <c r="C1477" s="2"/>
+      <c r="D1477" s="2"/>
+    </row>
+    <row r="1511" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1511" s="2"/>
+      <c r="C1511" s="2"/>
+      <c r="D1511" s="2"/>
+    </row>
+    <row r="1545" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1545" s="2"/>
+      <c r="C1545" s="2"/>
+      <c r="D1545" s="2"/>
+    </row>
+    <row r="1579" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1579" s="2"/>
+      <c r="C1579" s="2"/>
+      <c r="D1579" s="2"/>
+    </row>
+    <row r="1613" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1613" s="2"/>
+      <c r="C1613" s="2"/>
+      <c r="D1613" s="2"/>
+    </row>
+    <row r="1647" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1647" s="2"/>
+      <c r="C1647" s="2"/>
+      <c r="D1647" s="2"/>
+    </row>
+    <row r="1681" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1681" s="2"/>
+      <c r="C1681" s="2"/>
+      <c r="D1681" s="2"/>
+    </row>
+    <row r="1715" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1715" s="2"/>
+      <c r="C1715" s="2"/>
+      <c r="D1715" s="2"/>
+    </row>
+    <row r="1749" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1749" s="2"/>
+      <c r="C1749" s="2"/>
+      <c r="D1749" s="2"/>
+    </row>
+    <row r="1783" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1783" s="2"/>
+      <c r="C1783" s="2"/>
+      <c r="D1783" s="2"/>
+    </row>
+    <row r="1817" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1817" s="2"/>
+      <c r="C1817" s="2"/>
+      <c r="D1817" s="2"/>
+    </row>
+    <row r="1851" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1851" s="2"/>
+      <c r="C1851" s="2"/>
+      <c r="D1851" s="2"/>
+    </row>
+    <row r="1885" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1885" s="2"/>
+      <c r="C1885" s="2"/>
+      <c r="D1885" s="2"/>
+    </row>
+    <row r="1919" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1919" s="2"/>
+      <c r="C1919" s="2"/>
+      <c r="D1919" s="2"/>
+    </row>
+    <row r="1953" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1953" s="2"/>
+      <c r="C1953" s="2"/>
+      <c r="D1953" s="2"/>
+    </row>
+    <row r="1987" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1987" s="2"/>
+      <c r="C1987" s="2"/>
+      <c r="D1987" s="2"/>
+    </row>
+    <row r="2021" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2021" s="2"/>
+      <c r="C2021" s="2"/>
+      <c r="D2021" s="2"/>
+    </row>
+    <row r="2055" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2055" s="2"/>
+      <c r="C2055" s="2"/>
+      <c r="D2055" s="2"/>
+    </row>
+    <row r="2089" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2089" s="2"/>
+      <c r="C2089" s="2"/>
+      <c r="D2089" s="2"/>
+    </row>
+    <row r="2123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2123" s="2"/>
+      <c r="C2123" s="2"/>
+      <c r="D2123" s="2"/>
+    </row>
+    <row r="2157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2157" s="2"/>
+      <c r="C2157" s="2"/>
+      <c r="D2157" s="2"/>
+    </row>
+    <row r="2191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2191" s="2"/>
+      <c r="C2191" s="2"/>
+      <c r="D2191" s="2"/>
+    </row>
+    <row r="2225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2225" s="2"/>
+      <c r="C2225" s="2"/>
+      <c r="D2225" s="2"/>
+    </row>
+    <row r="2259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2259" s="2"/>
+      <c r="C2259" s="2"/>
+      <c r="D2259" s="2"/>
+    </row>
+    <row r="2293" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2293" s="2"/>
+      <c r="C2293" s="2"/>
+      <c r="D2293" s="2"/>
+    </row>
+    <row r="2327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2327" s="2"/>
+      <c r="C2327" s="2"/>
+      <c r="D2327" s="2"/>
+    </row>
+    <row r="2361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2361" s="2"/>
+      <c r="C2361" s="2"/>
+      <c r="D2361" s="2"/>
+    </row>
+    <row r="2395" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2395" s="2"/>
+      <c r="C2395" s="2"/>
+      <c r="D2395" s="2"/>
+    </row>
+    <row r="2429" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2429" s="2"/>
+      <c r="C2429" s="2"/>
+      <c r="D2429" s="2"/>
+    </row>
+    <row r="2463" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2463" s="2"/>
+      <c r="C2463" s="2"/>
+      <c r="D2463" s="2"/>
+    </row>
+    <row r="2497" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2497" s="2"/>
+      <c r="C2497" s="2"/>
+      <c r="D2497" s="2"/>
+    </row>
+    <row r="2531" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2531" s="2"/>
+      <c r="C2531" s="2"/>
+      <c r="D2531" s="2"/>
+    </row>
+    <row r="2565" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2565" s="2"/>
+      <c r="C2565" s="2"/>
+      <c r="D2565" s="2"/>
+    </row>
+    <row r="2599" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2599" s="2"/>
+      <c r="C2599" s="2"/>
+      <c r="D2599" s="2"/>
+    </row>
+    <row r="2633" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2633" s="2"/>
+      <c r="C2633" s="2"/>
+      <c r="D2633" s="2"/>
+    </row>
+    <row r="2667" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2667" s="2"/>
+      <c r="C2667" s="2"/>
+      <c r="D2667" s="2"/>
+    </row>
+    <row r="2701" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2701" s="2"/>
+      <c r="C2701" s="2"/>
+      <c r="D2701" s="2"/>
+    </row>
+    <row r="2735" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2735" s="2"/>
+      <c r="C2735" s="2"/>
+      <c r="D2735" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floyd\OneDrive\Documenten\GitHub\Bigger_is_Better\excel_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{19990A9F-ADAB-4B30-B801-651EE355D75D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{802B2718-828F-4951-9ADB-E9DAD214999B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBCA82-4B6B-4D94-B790-5CD8CFBFF5D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
+    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Take off weight [N]</t>
   </si>
@@ -191,6 +192,21 @@
   <si>
     <t>Design 29 HIGH 2E SEMIDD STRUT</t>
   </si>
+  <si>
+    <t>Design 33 HIGH 2E DD STRUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design 54 HIGH 2E DD </t>
+  </si>
+  <si>
+    <t>Zero-lift drag [-]</t>
+  </si>
+  <si>
+    <t>Engine weight [N]</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
 </sst>
 </file>
 
@@ -233,11 +249,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -9205,22 +9223,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
-  <dimension ref="A1:D2735"/>
+  <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.109375" customWidth="1"/>
+    <col min="12" max="13" width="32.6640625" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="33.44140625" customWidth="1"/>
+    <col min="17" max="17" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.21875" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="27.21875" customWidth="1"/>
+    <col min="22" max="22" width="32.77734375" customWidth="1"/>
+    <col min="23" max="23" width="33.44140625" customWidth="1"/>
+    <col min="24" max="24" width="43.6640625" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.5546875" customWidth="1"/>
+    <col min="27" max="27" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" customWidth="1"/>
+    <col min="62" max="64" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="14.6640625" customWidth="1"/>
+    <col min="98" max="99" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -9230,1611 +9277,7526 @@
       <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1580051.3060698099</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1597097.40303844</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1474914.2672244101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1532733.6181717799</v>
+      </c>
+      <c r="F2">
+        <v>1520114.4389424899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>472485.24524999998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>472485.24524999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>472485.24524999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>472485.24524999998</v>
+      </c>
+      <c r="F3">
+        <v>472485.24524999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>141375.518052842</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>142824.683749816</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>131089.07847274601</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>137159.42504139201</v>
+      </c>
+      <c r="F4">
+        <v>136151.86323993001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>966190.54276697105</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>981787.474038632</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>871339.94350167201</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5">
+        <v>923088.94788038905</v>
+      </c>
+      <c r="F5">
+        <v>911477.33045256895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>214922.15532104301</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>222815.35528357999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>137586.79017798501</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>212271.98633827601</v>
+      </c>
+      <c r="F6">
+        <v>208030.913446405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>20916.9344340469</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>19596.413771753501</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>16381.0027715162</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>34042.894860766501</v>
+      </c>
+      <c r="F7">
+        <v>19366.3440218346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>244231.168107957</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>248720.80338146401</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>246937.263629383</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8">
+        <v>206842.94002626301</v>
+      </c>
+      <c r="F8">
+        <v>209884.50072030199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>27753.271561695699</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>30114.6264674866</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>27640.1706520767</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9">
+        <v>22936.635005443401</v>
+      </c>
+      <c r="F9">
+        <v>28707.6603054484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>126254.55726617599</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>126249.70425092999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>126200.83276709</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>126282.34702421</v>
+      </c>
+      <c r="F10">
+        <v>126187.53070403299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>293675.049641572</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>295522.473491907</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>280519.77486059198</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>283239.936021681</v>
+      </c>
+      <c r="F11">
+        <v>282059.53383109201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>0.697994414465406</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>0.69726809353464103</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0.622110056992491</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0.62918857331470801</v>
+      </c>
+      <c r="F12">
+        <v>0.56975049023278201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3.7449999999999997E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>3.6240000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.3259999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>18.638035099209699</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>18.272224673339601</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>17.166392301117298</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>20.276782897670198</v>
+      </c>
+      <c r="F14">
+        <v>17.130201149512299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>1.29195015028586E-5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1.33501515529539E-5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>1.31063130205086E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="3">
+        <v>1.30722371267455E-5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.31164067406912E-5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>0.85</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>0.85</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16">
+        <v>0.85</v>
+      </c>
+      <c r="F16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>210.85106599578799</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>199.69911450587901</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>183.29025631350601</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18">
+        <v>255.70384621453101</v>
+      </c>
+      <c r="F18">
+        <v>190.36910016875601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>52.355170307671202</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>50.951825174143003</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>50.656328216611598</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19">
+        <v>61.931879458143101</v>
+      </c>
+      <c r="F19">
+        <v>49.747344674804701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>6.1516127777055098</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>6.04218540712652</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>5.5268596659399396</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E20">
+        <v>6.3650329322472103</v>
+      </c>
+      <c r="F20">
+        <v>5.8451992298000297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1.9030288080900499</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>1.7965569273570099</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1.70975865071886</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1.89255099550519</v>
+      </c>
+      <c r="F21">
+        <v>1.8082384124776201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>0.45322773323204502</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>0.51332191392368598</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0.45322773323204502</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E22">
+        <v>0.51332191392368598</v>
+      </c>
+      <c r="F22">
+        <v>0.45322773323204502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>0.30935445335359002</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>0.29733561721526203</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0.30935445335359002</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>0.29733561721526203</v>
+      </c>
+      <c r="F23">
+        <v>0.30935445335359002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>53.998516569010597</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>53.998516569010597</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>53.998516569010597</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>50.422636868395202</v>
+      </c>
+      <c r="F24">
+        <v>50.422636868395202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>6.2877186341350804</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>6.2877186341350804</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>6.2877186341350804</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>5.9507847046706299</v>
+      </c>
+      <c r="F25">
+        <v>5.9507847046706299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>11.6322794731499</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>11.6322794731499</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>11.6322794731499</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>11.0089517036406</v>
+      </c>
+      <c r="F26">
+        <v>11.0089517036406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>20.7494714926457</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>20.7494714926457</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>20.7494714926457</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>19.637589525413102</v>
+      </c>
+      <c r="F27">
+        <v>19.637589525413102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>28.910976055334501</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>29.016455845168501</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>29.133929444647801</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>26.227753049629499</v>
+      </c>
+      <c r="F28">
+        <v>26.913827234038401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>31.776773710913002</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>29.317448869129102</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>24.627513095698902</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>43.751768464589901</v>
+      </c>
+      <c r="F29">
+        <v>29.283951349043399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>29.9970534087016</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>27.583785442710901</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>25.139915722426601</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="E30">
+        <v>47.053606684339002</v>
+      </c>
+      <c r="F30">
+        <v>27.617694577759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>426973.40864147199</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>463301.94565364101</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>425233.394647334</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>352871.30777605303</v>
+      </c>
+      <c r="F31">
+        <v>441656.31239151402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>0.75</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E32">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>224.576689295661</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>232.06257893885001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>227.82399045096099</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E33">
+        <v>228.65779722382001</v>
+      </c>
+      <c r="F33">
+        <v>229.43040611479501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>10000</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>10000</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>9000</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>11000</v>
+      </c>
+      <c r="F34">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>8.1351725770621598E-3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>8.3830977597687695E-3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>8.1899295050168394E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>7.2094496184857398E-3</v>
+      </c>
+      <c r="F35">
+        <v>8.4710380578120002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>13.4556108823174</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>10.818108938629999</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>12.873090372161199</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>23.3037274629175</v>
+      </c>
+      <c r="F36">
+        <v>9.8825738530638301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>24.283709451511498</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>21.9762015295493</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>29.224562289017399</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>28.101697657103198</v>
+      </c>
+      <c r="F37">
+        <v>29.614074304697599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>10.397479204424799</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>11.9942466975647</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>11.336181647266001</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-    </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-    </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-    </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
-      <c r="D525" s="2"/>
-    </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B559" s="2"/>
-      <c r="C559" s="2"/>
-      <c r="D559" s="2"/>
-    </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B627" s="2"/>
-      <c r="C627" s="2"/>
-      <c r="D627" s="2"/>
-    </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B661" s="2"/>
-      <c r="C661" s="2"/>
-      <c r="D661" s="2"/>
-    </row>
-    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B695" s="2"/>
-      <c r="C695" s="2"/>
-      <c r="D695" s="2"/>
-    </row>
-    <row r="729" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B729" s="2"/>
-      <c r="C729" s="2"/>
-      <c r="D729" s="2"/>
-    </row>
-    <row r="763" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B763" s="2"/>
-      <c r="C763" s="2"/>
-      <c r="D763" s="2"/>
-    </row>
-    <row r="797" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B797" s="2"/>
-      <c r="C797" s="2"/>
-      <c r="D797" s="2"/>
-    </row>
-    <row r="831" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B831" s="2"/>
-      <c r="C831" s="2"/>
-      <c r="D831" s="2"/>
-    </row>
-    <row r="865" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B865" s="2"/>
-      <c r="C865" s="2"/>
-      <c r="D865" s="2"/>
-    </row>
-    <row r="899" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B899" s="2"/>
-      <c r="C899" s="2"/>
-      <c r="D899" s="2"/>
-    </row>
-    <row r="933" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B933" s="2"/>
-      <c r="C933" s="2"/>
-      <c r="D933" s="2"/>
-    </row>
-    <row r="967" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B967" s="2"/>
-      <c r="C967" s="2"/>
-      <c r="D967" s="2"/>
-    </row>
-    <row r="1001" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-    </row>
-    <row r="1035" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1035" s="2"/>
-      <c r="C1035" s="2"/>
-      <c r="D1035" s="2"/>
-    </row>
-    <row r="1069" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1069" s="2"/>
-      <c r="C1069" s="2"/>
-      <c r="D1069" s="2"/>
-    </row>
-    <row r="1103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1103" s="2"/>
-      <c r="C1103" s="2"/>
-      <c r="D1103" s="2"/>
-    </row>
-    <row r="1137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1137" s="2"/>
-      <c r="C1137" s="2"/>
-      <c r="D1137" s="2"/>
-    </row>
-    <row r="1171" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1171" s="2"/>
-      <c r="C1171" s="2"/>
-      <c r="D1171" s="2"/>
-    </row>
-    <row r="1205" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1205" s="2"/>
-      <c r="C1205" s="2"/>
-      <c r="D1205" s="2"/>
-    </row>
-    <row r="1239" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1239" s="2"/>
-      <c r="C1239" s="2"/>
-      <c r="D1239" s="2"/>
-    </row>
-    <row r="1273" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1273" s="2"/>
-      <c r="C1273" s="2"/>
-      <c r="D1273" s="2"/>
-    </row>
-    <row r="1307" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1307" s="2"/>
-      <c r="C1307" s="2"/>
-      <c r="D1307" s="2"/>
-    </row>
-    <row r="1341" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1341" s="2"/>
-      <c r="C1341" s="2"/>
-      <c r="D1341" s="2"/>
-    </row>
-    <row r="1375" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1375" s="2"/>
-      <c r="C1375" s="2"/>
-      <c r="D1375" s="2"/>
-    </row>
-    <row r="1409" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1409" s="2"/>
-      <c r="C1409" s="2"/>
-      <c r="D1409" s="2"/>
-    </row>
-    <row r="1443" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1443" s="2"/>
-      <c r="C1443" s="2"/>
-      <c r="D1443" s="2"/>
-    </row>
-    <row r="1477" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1477" s="2"/>
-      <c r="C1477" s="2"/>
-      <c r="D1477" s="2"/>
-    </row>
-    <row r="1511" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1511" s="2"/>
-      <c r="C1511" s="2"/>
-      <c r="D1511" s="2"/>
-    </row>
-    <row r="1545" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1545" s="2"/>
-      <c r="C1545" s="2"/>
-      <c r="D1545" s="2"/>
-    </row>
-    <row r="1579" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1579" s="2"/>
-      <c r="C1579" s="2"/>
-      <c r="D1579" s="2"/>
-    </row>
-    <row r="1613" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1613" s="2"/>
-      <c r="C1613" s="2"/>
-      <c r="D1613" s="2"/>
-    </row>
-    <row r="1647" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1647" s="2"/>
-      <c r="C1647" s="2"/>
-      <c r="D1647" s="2"/>
-    </row>
-    <row r="1681" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1681" s="2"/>
-      <c r="C1681" s="2"/>
-      <c r="D1681" s="2"/>
-    </row>
-    <row r="1715" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1715" s="2"/>
-      <c r="C1715" s="2"/>
-      <c r="D1715" s="2"/>
-    </row>
-    <row r="1749" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1749" s="2"/>
-      <c r="C1749" s="2"/>
-      <c r="D1749" s="2"/>
-    </row>
-    <row r="1783" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1783" s="2"/>
-      <c r="C1783" s="2"/>
-      <c r="D1783" s="2"/>
-    </row>
-    <row r="1817" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1817" s="2"/>
-      <c r="C1817" s="2"/>
-      <c r="D1817" s="2"/>
-    </row>
-    <row r="1851" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1851" s="2"/>
-      <c r="C1851" s="2"/>
-      <c r="D1851" s="2"/>
-    </row>
-    <row r="1885" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1885" s="2"/>
-      <c r="C1885" s="2"/>
-      <c r="D1885" s="2"/>
-    </row>
-    <row r="1919" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1919" s="2"/>
-      <c r="C1919" s="2"/>
-      <c r="D1919" s="2"/>
-    </row>
-    <row r="1953" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1953" s="2"/>
-      <c r="C1953" s="2"/>
-      <c r="D1953" s="2"/>
-    </row>
-    <row r="1987" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1987" s="2"/>
-      <c r="C1987" s="2"/>
-      <c r="D1987" s="2"/>
-    </row>
-    <row r="2021" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2021" s="2"/>
-      <c r="C2021" s="2"/>
-      <c r="D2021" s="2"/>
-    </row>
-    <row r="2055" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2055" s="2"/>
-      <c r="C2055" s="2"/>
-      <c r="D2055" s="2"/>
-    </row>
-    <row r="2089" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2089" s="2"/>
-      <c r="C2089" s="2"/>
-      <c r="D2089" s="2"/>
-    </row>
-    <row r="2123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2123" s="2"/>
-      <c r="C2123" s="2"/>
-      <c r="D2123" s="2"/>
-    </row>
-    <row r="2157" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2157" s="2"/>
-      <c r="C2157" s="2"/>
-      <c r="D2157" s="2"/>
-    </row>
-    <row r="2191" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2191" s="2"/>
-      <c r="C2191" s="2"/>
-      <c r="D2191" s="2"/>
-    </row>
-    <row r="2225" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2225" s="2"/>
-      <c r="C2225" s="2"/>
-      <c r="D2225" s="2"/>
-    </row>
-    <row r="2259" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2259" s="2"/>
-      <c r="C2259" s="2"/>
-      <c r="D2259" s="2"/>
-    </row>
-    <row r="2293" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2293" s="2"/>
-      <c r="C2293" s="2"/>
-      <c r="D2293" s="2"/>
-    </row>
-    <row r="2327" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2327" s="2"/>
-      <c r="C2327" s="2"/>
-      <c r="D2327" s="2"/>
-    </row>
-    <row r="2361" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2361" s="2"/>
-      <c r="C2361" s="2"/>
-      <c r="D2361" s="2"/>
-    </row>
-    <row r="2395" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2395" s="2"/>
-      <c r="C2395" s="2"/>
-      <c r="D2395" s="2"/>
-    </row>
-    <row r="2429" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2429" s="2"/>
-      <c r="C2429" s="2"/>
-      <c r="D2429" s="2"/>
-    </row>
-    <row r="2463" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2463" s="2"/>
-      <c r="C2463" s="2"/>
-      <c r="D2463" s="2"/>
-    </row>
-    <row r="2497" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2497" s="2"/>
-      <c r="C2497" s="2"/>
-      <c r="D2497" s="2"/>
-    </row>
-    <row r="2531" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2531" s="2"/>
-      <c r="C2531" s="2"/>
-      <c r="D2531" s="2"/>
-    </row>
-    <row r="2565" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2565" s="2"/>
-      <c r="C2565" s="2"/>
-      <c r="D2565" s="2"/>
-    </row>
-    <row r="2599" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2599" s="2"/>
-      <c r="C2599" s="2"/>
-      <c r="D2599" s="2"/>
-    </row>
-    <row r="2633" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2633" s="2"/>
-      <c r="C2633" s="2"/>
-      <c r="D2633" s="2"/>
-    </row>
-    <row r="2667" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2667" s="2"/>
-      <c r="C2667" s="2"/>
-      <c r="D2667" s="2"/>
-    </row>
-    <row r="2701" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2701" s="2"/>
-      <c r="C2701" s="2"/>
-      <c r="D2701" s="2"/>
-    </row>
-    <row r="2735" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2735" s="2"/>
-      <c r="C2735" s="2"/>
-      <c r="D2735" s="2"/>
+      <c r="E38">
+        <v>15.8039258708273</v>
+      </c>
+      <c r="F38">
+        <v>10.707349053201099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <f>B13-(B12^2)/(PI()*B17*B16)</f>
+        <v>2.3415668071791081E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:F39" si="0">C13-(C12^2)/(PI()*C17*C16)</f>
+        <v>2.4154860642002351E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2.5887681852567998E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>2.1146708695322546E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2.3909017066756071E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <f xml:space="preserve"> 6050*9.80565</f>
+        <v>59324.182500000003</v>
+      </c>
+      <c r="C40">
+        <f xml:space="preserve"> 6050*9.80565</f>
+        <v>59324.182500000003</v>
+      </c>
+      <c r="D40">
+        <f xml:space="preserve"> 6050*9.80565</f>
+        <v>59324.182500000003</v>
+      </c>
+      <c r="E40">
+        <f xml:space="preserve"> 6050*9.80565</f>
+        <v>59324.182500000003</v>
+      </c>
+      <c r="F40">
+        <f xml:space="preserve"> 6050*9.80565</f>
+        <v>59324.182500000003</v>
+      </c>
+      <c r="Y40"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="Y41"/>
+    </row>
+    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="3"/>
+      <c r="BP49" s="3"/>
+      <c r="BQ49" s="3"/>
+      <c r="BR49" s="3"/>
+      <c r="BS49" s="3"/>
+      <c r="BT49" s="3"/>
+      <c r="BU49" s="3"/>
+      <c r="BV49" s="3"/>
+      <c r="BW49" s="3"/>
+      <c r="BX49" s="3"/>
+      <c r="BY49" s="3"/>
+      <c r="BZ49" s="3"/>
+      <c r="CA49" s="3"/>
+      <c r="CB49" s="3"/>
+      <c r="CC49" s="3"/>
+      <c r="CD49" s="3"/>
+    </row>
+    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+      <c r="BJ83" s="3"/>
+      <c r="BK83" s="3"/>
+      <c r="BL83" s="3"/>
+      <c r="BM83" s="3"/>
+      <c r="BN83" s="3"/>
+      <c r="BO83" s="3"/>
+      <c r="BP83" s="3"/>
+      <c r="BQ83" s="3"/>
+      <c r="BR83" s="3"/>
+      <c r="BS83" s="3"/>
+      <c r="BT83" s="3"/>
+      <c r="BU83" s="3"/>
+      <c r="BV83" s="3"/>
+      <c r="BW83" s="3"/>
+      <c r="BX83" s="3"/>
+      <c r="BY83" s="3"/>
+      <c r="BZ83" s="3"/>
+      <c r="CA83" s="3"/>
+      <c r="CB83" s="3"/>
+      <c r="CC83" s="3"/>
+      <c r="CD83" s="3"/>
+    </row>
+    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+      <c r="AG117" s="3"/>
+      <c r="AH117" s="3"/>
+      <c r="AI117" s="3"/>
+      <c r="AJ117" s="3"/>
+      <c r="AK117" s="3"/>
+      <c r="AL117" s="3"/>
+      <c r="AM117" s="3"/>
+      <c r="AN117" s="3"/>
+      <c r="AO117" s="3"/>
+      <c r="AP117" s="3"/>
+      <c r="AQ117" s="3"/>
+      <c r="AR117" s="3"/>
+      <c r="AS117" s="3"/>
+      <c r="AT117" s="3"/>
+      <c r="AU117" s="3"/>
+      <c r="AV117" s="3"/>
+      <c r="AW117" s="3"/>
+      <c r="AX117" s="3"/>
+      <c r="AY117" s="3"/>
+      <c r="AZ117" s="3"/>
+      <c r="BA117" s="3"/>
+      <c r="BB117" s="3"/>
+      <c r="BC117" s="3"/>
+      <c r="BD117" s="3"/>
+      <c r="BE117" s="3"/>
+      <c r="BF117" s="3"/>
+      <c r="BG117" s="3"/>
+      <c r="BH117" s="3"/>
+      <c r="BI117" s="3"/>
+      <c r="BJ117" s="3"/>
+      <c r="BK117" s="3"/>
+      <c r="BL117" s="3"/>
+      <c r="BM117" s="3"/>
+      <c r="BN117" s="3"/>
+      <c r="BO117" s="3"/>
+      <c r="BP117" s="3"/>
+      <c r="BQ117" s="3"/>
+      <c r="BR117" s="3"/>
+      <c r="BS117" s="3"/>
+      <c r="BT117" s="3"/>
+      <c r="BU117" s="3"/>
+      <c r="BV117" s="3"/>
+      <c r="BW117" s="3"/>
+      <c r="BX117" s="3"/>
+      <c r="BY117" s="3"/>
+      <c r="BZ117" s="3"/>
+      <c r="CA117" s="3"/>
+      <c r="CB117" s="3"/>
+      <c r="CC117" s="3"/>
+      <c r="CD117" s="3"/>
+    </row>
+    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="3"/>
+      <c r="AA151" s="3"/>
+      <c r="AB151" s="3"/>
+      <c r="AC151" s="3"/>
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="3"/>
+      <c r="AF151" s="3"/>
+      <c r="AG151" s="3"/>
+      <c r="AH151" s="3"/>
+      <c r="AI151" s="3"/>
+      <c r="AJ151" s="3"/>
+      <c r="AK151" s="3"/>
+      <c r="AL151" s="3"/>
+      <c r="AM151" s="3"/>
+      <c r="AN151" s="3"/>
+      <c r="AO151" s="3"/>
+      <c r="AP151" s="3"/>
+      <c r="AQ151" s="3"/>
+      <c r="AR151" s="3"/>
+      <c r="AS151" s="3"/>
+      <c r="AT151" s="3"/>
+      <c r="AU151" s="3"/>
+      <c r="AV151" s="3"/>
+      <c r="AW151" s="3"/>
+      <c r="AX151" s="3"/>
+      <c r="AY151" s="3"/>
+      <c r="AZ151" s="3"/>
+      <c r="BA151" s="3"/>
+      <c r="BB151" s="3"/>
+      <c r="BC151" s="3"/>
+      <c r="BD151" s="3"/>
+      <c r="BE151" s="3"/>
+      <c r="BF151" s="3"/>
+      <c r="BG151" s="3"/>
+      <c r="BH151" s="3"/>
+      <c r="BI151" s="3"/>
+      <c r="BJ151" s="3"/>
+      <c r="BK151" s="3"/>
+      <c r="BL151" s="3"/>
+      <c r="BM151" s="3"/>
+      <c r="BN151" s="3"/>
+      <c r="BO151" s="3"/>
+      <c r="BP151" s="3"/>
+      <c r="BQ151" s="3"/>
+      <c r="BR151" s="3"/>
+      <c r="BS151" s="3"/>
+      <c r="BT151" s="3"/>
+      <c r="BU151" s="3"/>
+      <c r="BV151" s="3"/>
+      <c r="BW151" s="3"/>
+      <c r="BX151" s="3"/>
+      <c r="BY151" s="3"/>
+      <c r="BZ151" s="3"/>
+      <c r="CA151" s="3"/>
+      <c r="CB151" s="3"/>
+      <c r="CC151" s="3"/>
+      <c r="CD151" s="3"/>
+    </row>
+    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="5"/>
+      <c r="Z185" s="3"/>
+      <c r="AA185" s="3"/>
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="3"/>
+      <c r="AD185" s="3"/>
+      <c r="AE185" s="3"/>
+      <c r="AF185" s="3"/>
+      <c r="AG185" s="3"/>
+      <c r="AH185" s="3"/>
+      <c r="AI185" s="3"/>
+      <c r="AJ185" s="3"/>
+      <c r="AK185" s="3"/>
+      <c r="AL185" s="3"/>
+      <c r="AM185" s="3"/>
+      <c r="AN185" s="3"/>
+      <c r="AO185" s="3"/>
+      <c r="AP185" s="3"/>
+      <c r="AQ185" s="3"/>
+      <c r="AR185" s="3"/>
+      <c r="AS185" s="3"/>
+      <c r="AT185" s="3"/>
+      <c r="AU185" s="3"/>
+      <c r="AV185" s="3"/>
+      <c r="AW185" s="3"/>
+      <c r="AX185" s="3"/>
+      <c r="AY185" s="3"/>
+      <c r="AZ185" s="3"/>
+      <c r="BA185" s="3"/>
+      <c r="BB185" s="3"/>
+      <c r="BC185" s="3"/>
+      <c r="BD185" s="3"/>
+      <c r="BE185" s="3"/>
+      <c r="BF185" s="3"/>
+      <c r="BG185" s="3"/>
+      <c r="BH185" s="3"/>
+      <c r="BI185" s="3"/>
+      <c r="BJ185" s="3"/>
+      <c r="BK185" s="3"/>
+      <c r="BL185" s="3"/>
+      <c r="BM185" s="3"/>
+      <c r="BN185" s="3"/>
+      <c r="BO185" s="3"/>
+      <c r="BP185" s="3"/>
+      <c r="BQ185" s="3"/>
+      <c r="BR185" s="3"/>
+      <c r="BS185" s="3"/>
+      <c r="BT185" s="3"/>
+      <c r="BU185" s="3"/>
+      <c r="BV185" s="3"/>
+      <c r="BW185" s="3"/>
+      <c r="BX185" s="3"/>
+      <c r="BY185" s="3"/>
+      <c r="BZ185" s="3"/>
+      <c r="CA185" s="3"/>
+      <c r="CB185" s="3"/>
+      <c r="CC185" s="3"/>
+      <c r="CD185" s="3"/>
+    </row>
+    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+      <c r="X219" s="3"/>
+      <c r="Y219" s="5"/>
+      <c r="Z219" s="3"/>
+      <c r="AA219" s="3"/>
+      <c r="AB219" s="3"/>
+      <c r="AC219" s="3"/>
+      <c r="AD219" s="3"/>
+      <c r="AE219" s="3"/>
+      <c r="AF219" s="3"/>
+      <c r="AG219" s="3"/>
+      <c r="AH219" s="3"/>
+      <c r="AI219" s="3"/>
+      <c r="AJ219" s="3"/>
+      <c r="AK219" s="3"/>
+      <c r="AL219" s="3"/>
+      <c r="AM219" s="3"/>
+      <c r="AN219" s="3"/>
+      <c r="AO219" s="3"/>
+      <c r="AP219" s="3"/>
+      <c r="AQ219" s="3"/>
+      <c r="AR219" s="3"/>
+      <c r="AS219" s="3"/>
+      <c r="AT219" s="3"/>
+      <c r="AU219" s="3"/>
+      <c r="AV219" s="3"/>
+      <c r="AW219" s="3"/>
+      <c r="AX219" s="3"/>
+      <c r="AY219" s="3"/>
+      <c r="AZ219" s="3"/>
+      <c r="BA219" s="3"/>
+      <c r="BB219" s="3"/>
+      <c r="BC219" s="3"/>
+      <c r="BD219" s="3"/>
+      <c r="BE219" s="3"/>
+      <c r="BF219" s="3"/>
+      <c r="BG219" s="3"/>
+      <c r="BH219" s="3"/>
+      <c r="BI219" s="3"/>
+      <c r="BJ219" s="3"/>
+      <c r="BK219" s="3"/>
+      <c r="BL219" s="3"/>
+      <c r="BM219" s="3"/>
+      <c r="BN219" s="3"/>
+      <c r="BO219" s="3"/>
+      <c r="BP219" s="3"/>
+      <c r="BQ219" s="3"/>
+      <c r="BR219" s="3"/>
+      <c r="BS219" s="3"/>
+      <c r="BT219" s="3"/>
+      <c r="BU219" s="3"/>
+      <c r="BV219" s="3"/>
+      <c r="BW219" s="3"/>
+      <c r="BX219" s="3"/>
+      <c r="BY219" s="3"/>
+      <c r="BZ219" s="3"/>
+      <c r="CA219" s="3"/>
+      <c r="CB219" s="3"/>
+      <c r="CC219" s="3"/>
+      <c r="CD219" s="3"/>
+    </row>
+    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+      <c r="Y253" s="5"/>
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="3"/>
+      <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
+      <c r="AD253" s="3"/>
+      <c r="AE253" s="3"/>
+      <c r="AF253" s="3"/>
+      <c r="AG253" s="3"/>
+      <c r="AH253" s="3"/>
+      <c r="AI253" s="3"/>
+      <c r="AJ253" s="3"/>
+      <c r="AK253" s="3"/>
+      <c r="AL253" s="3"/>
+      <c r="AM253" s="3"/>
+      <c r="AN253" s="3"/>
+      <c r="AO253" s="3"/>
+      <c r="AP253" s="3"/>
+      <c r="AQ253" s="3"/>
+      <c r="AR253" s="3"/>
+      <c r="AS253" s="3"/>
+      <c r="AT253" s="3"/>
+      <c r="AU253" s="3"/>
+      <c r="AV253" s="3"/>
+      <c r="AW253" s="3"/>
+      <c r="AX253" s="3"/>
+      <c r="AY253" s="3"/>
+      <c r="AZ253" s="3"/>
+      <c r="BA253" s="3"/>
+      <c r="BB253" s="3"/>
+      <c r="BC253" s="3"/>
+      <c r="BD253" s="3"/>
+      <c r="BE253" s="3"/>
+      <c r="BF253" s="3"/>
+      <c r="BG253" s="3"/>
+      <c r="BH253" s="3"/>
+      <c r="BI253" s="3"/>
+      <c r="BJ253" s="3"/>
+      <c r="BK253" s="3"/>
+      <c r="BL253" s="3"/>
+      <c r="BM253" s="3"/>
+      <c r="BN253" s="3"/>
+      <c r="BO253" s="3"/>
+      <c r="BP253" s="3"/>
+      <c r="BQ253" s="3"/>
+      <c r="BR253" s="3"/>
+      <c r="BS253" s="3"/>
+      <c r="BT253" s="3"/>
+      <c r="BU253" s="3"/>
+      <c r="BV253" s="3"/>
+      <c r="BW253" s="3"/>
+      <c r="BX253" s="3"/>
+      <c r="BY253" s="3"/>
+      <c r="BZ253" s="3"/>
+      <c r="CA253" s="3"/>
+      <c r="CB253" s="3"/>
+      <c r="CC253" s="3"/>
+      <c r="CD253" s="3"/>
+    </row>
+    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="3"/>
+      <c r="T287" s="3"/>
+      <c r="U287" s="3"/>
+      <c r="V287" s="3"/>
+      <c r="W287" s="3"/>
+      <c r="X287" s="3"/>
+      <c r="Y287" s="5"/>
+      <c r="Z287" s="3"/>
+      <c r="AA287" s="3"/>
+      <c r="AB287" s="3"/>
+      <c r="AC287" s="3"/>
+      <c r="AD287" s="3"/>
+      <c r="AE287" s="3"/>
+      <c r="AF287" s="3"/>
+      <c r="AG287" s="3"/>
+      <c r="AH287" s="3"/>
+      <c r="AI287" s="3"/>
+      <c r="AJ287" s="3"/>
+      <c r="AK287" s="3"/>
+      <c r="AL287" s="3"/>
+      <c r="AM287" s="3"/>
+      <c r="AN287" s="3"/>
+      <c r="AO287" s="3"/>
+      <c r="AP287" s="3"/>
+      <c r="AQ287" s="3"/>
+      <c r="AR287" s="3"/>
+      <c r="AS287" s="3"/>
+      <c r="AT287" s="3"/>
+      <c r="AU287" s="3"/>
+      <c r="AV287" s="3"/>
+      <c r="AW287" s="3"/>
+      <c r="AX287" s="3"/>
+      <c r="AY287" s="3"/>
+      <c r="AZ287" s="3"/>
+      <c r="BA287" s="3"/>
+      <c r="BB287" s="3"/>
+      <c r="BC287" s="3"/>
+      <c r="BD287" s="3"/>
+      <c r="BE287" s="3"/>
+      <c r="BF287" s="3"/>
+      <c r="BG287" s="3"/>
+      <c r="BH287" s="3"/>
+      <c r="BI287" s="3"/>
+      <c r="BJ287" s="3"/>
+      <c r="BK287" s="3"/>
+      <c r="BL287" s="3"/>
+      <c r="BM287" s="3"/>
+      <c r="BN287" s="3"/>
+      <c r="BO287" s="3"/>
+      <c r="BP287" s="3"/>
+      <c r="BQ287" s="3"/>
+      <c r="BR287" s="3"/>
+      <c r="BS287" s="3"/>
+      <c r="BT287" s="3"/>
+      <c r="BU287" s="3"/>
+      <c r="BV287" s="3"/>
+      <c r="BW287" s="3"/>
+      <c r="BX287" s="3"/>
+      <c r="BY287" s="3"/>
+      <c r="BZ287" s="3"/>
+      <c r="CA287" s="3"/>
+      <c r="CB287" s="3"/>
+      <c r="CC287" s="3"/>
+      <c r="CD287" s="3"/>
+    </row>
+    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+      <c r="L321" s="3"/>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3"/>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
+      <c r="Y321" s="5"/>
+      <c r="Z321" s="3"/>
+      <c r="AA321" s="3"/>
+      <c r="AB321" s="3"/>
+      <c r="AC321" s="3"/>
+      <c r="AD321" s="3"/>
+      <c r="AE321" s="3"/>
+      <c r="AF321" s="3"/>
+      <c r="AG321" s="3"/>
+      <c r="AH321" s="3"/>
+      <c r="AI321" s="3"/>
+      <c r="AJ321" s="3"/>
+      <c r="AK321" s="3"/>
+      <c r="AL321" s="3"/>
+      <c r="AM321" s="3"/>
+      <c r="AN321" s="3"/>
+      <c r="AO321" s="3"/>
+      <c r="AP321" s="3"/>
+      <c r="AQ321" s="3"/>
+      <c r="AR321" s="3"/>
+      <c r="AS321" s="3"/>
+      <c r="AT321" s="3"/>
+      <c r="AU321" s="3"/>
+      <c r="AV321" s="3"/>
+      <c r="AW321" s="3"/>
+      <c r="AX321" s="3"/>
+      <c r="AY321" s="3"/>
+      <c r="AZ321" s="3"/>
+      <c r="BA321" s="3"/>
+      <c r="BB321" s="3"/>
+      <c r="BC321" s="3"/>
+      <c r="BD321" s="3"/>
+      <c r="BE321" s="3"/>
+      <c r="BF321" s="3"/>
+      <c r="BG321" s="3"/>
+      <c r="BH321" s="3"/>
+      <c r="BI321" s="3"/>
+      <c r="BJ321" s="3"/>
+      <c r="BK321" s="3"/>
+      <c r="BL321" s="3"/>
+      <c r="BM321" s="3"/>
+      <c r="BN321" s="3"/>
+      <c r="BO321" s="3"/>
+      <c r="BP321" s="3"/>
+      <c r="BQ321" s="3"/>
+      <c r="BR321" s="3"/>
+      <c r="BS321" s="3"/>
+      <c r="BT321" s="3"/>
+      <c r="BU321" s="3"/>
+      <c r="BV321" s="3"/>
+      <c r="BW321" s="3"/>
+      <c r="BX321" s="3"/>
+      <c r="BY321" s="3"/>
+      <c r="BZ321" s="3"/>
+      <c r="CA321" s="3"/>
+      <c r="CB321" s="3"/>
+      <c r="CC321" s="3"/>
+      <c r="CD321" s="3"/>
+    </row>
+    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+      <c r="J355" s="3"/>
+      <c r="K355" s="3"/>
+      <c r="L355" s="3"/>
+      <c r="M355" s="3"/>
+      <c r="N355" s="3"/>
+      <c r="O355" s="3"/>
+      <c r="P355" s="3"/>
+      <c r="Q355" s="3"/>
+      <c r="R355" s="3"/>
+      <c r="S355" s="3"/>
+      <c r="T355" s="3"/>
+      <c r="U355" s="3"/>
+      <c r="V355" s="3"/>
+      <c r="W355" s="3"/>
+      <c r="X355" s="3"/>
+      <c r="Y355" s="5"/>
+      <c r="Z355" s="3"/>
+      <c r="AA355" s="3"/>
+      <c r="AB355" s="3"/>
+      <c r="AC355" s="3"/>
+      <c r="AD355" s="3"/>
+      <c r="AE355" s="3"/>
+      <c r="AF355" s="3"/>
+      <c r="AG355" s="3"/>
+      <c r="AH355" s="3"/>
+      <c r="AI355" s="3"/>
+      <c r="AJ355" s="3"/>
+      <c r="AK355" s="3"/>
+      <c r="AL355" s="3"/>
+      <c r="AM355" s="3"/>
+      <c r="AN355" s="3"/>
+      <c r="AO355" s="3"/>
+      <c r="AP355" s="3"/>
+      <c r="AQ355" s="3"/>
+      <c r="AR355" s="3"/>
+      <c r="AS355" s="3"/>
+      <c r="AT355" s="3"/>
+      <c r="AU355" s="3"/>
+      <c r="AV355" s="3"/>
+      <c r="AW355" s="3"/>
+      <c r="AX355" s="3"/>
+      <c r="AY355" s="3"/>
+      <c r="AZ355" s="3"/>
+      <c r="BA355" s="3"/>
+      <c r="BB355" s="3"/>
+      <c r="BC355" s="3"/>
+      <c r="BD355" s="3"/>
+      <c r="BE355" s="3"/>
+      <c r="BF355" s="3"/>
+      <c r="BG355" s="3"/>
+      <c r="BH355" s="3"/>
+      <c r="BI355" s="3"/>
+      <c r="BJ355" s="3"/>
+      <c r="BK355" s="3"/>
+      <c r="BL355" s="3"/>
+      <c r="BM355" s="3"/>
+      <c r="BN355" s="3"/>
+      <c r="BO355" s="3"/>
+      <c r="BP355" s="3"/>
+      <c r="BQ355" s="3"/>
+      <c r="BR355" s="3"/>
+      <c r="BS355" s="3"/>
+      <c r="BT355" s="3"/>
+      <c r="BU355" s="3"/>
+      <c r="BV355" s="3"/>
+      <c r="BW355" s="3"/>
+      <c r="BX355" s="3"/>
+      <c r="BY355" s="3"/>
+      <c r="BZ355" s="3"/>
+      <c r="CA355" s="3"/>
+      <c r="CB355" s="3"/>
+      <c r="CC355" s="3"/>
+      <c r="CD355" s="3"/>
+    </row>
+    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="3"/>
+      <c r="H389" s="3"/>
+      <c r="I389" s="3"/>
+      <c r="J389" s="3"/>
+      <c r="K389" s="3"/>
+      <c r="L389" s="3"/>
+      <c r="M389" s="3"/>
+      <c r="N389" s="3"/>
+      <c r="O389" s="3"/>
+      <c r="P389" s="3"/>
+      <c r="Q389" s="3"/>
+      <c r="R389" s="3"/>
+      <c r="S389" s="3"/>
+      <c r="T389" s="3"/>
+      <c r="U389" s="3"/>
+      <c r="V389" s="3"/>
+      <c r="W389" s="3"/>
+      <c r="X389" s="3"/>
+      <c r="Y389" s="5"/>
+      <c r="Z389" s="3"/>
+      <c r="AA389" s="3"/>
+      <c r="AB389" s="3"/>
+      <c r="AC389" s="3"/>
+      <c r="AD389" s="3"/>
+      <c r="AE389" s="3"/>
+      <c r="AF389" s="3"/>
+      <c r="AG389" s="3"/>
+      <c r="AH389" s="3"/>
+      <c r="AI389" s="3"/>
+      <c r="AJ389" s="3"/>
+      <c r="AK389" s="3"/>
+      <c r="AL389" s="3"/>
+      <c r="AM389" s="3"/>
+      <c r="AN389" s="3"/>
+      <c r="AO389" s="3"/>
+      <c r="AP389" s="3"/>
+      <c r="AQ389" s="3"/>
+      <c r="AR389" s="3"/>
+      <c r="AS389" s="3"/>
+      <c r="AT389" s="3"/>
+      <c r="AU389" s="3"/>
+      <c r="AV389" s="3"/>
+      <c r="AW389" s="3"/>
+      <c r="AX389" s="3"/>
+      <c r="AY389" s="3"/>
+      <c r="AZ389" s="3"/>
+      <c r="BA389" s="3"/>
+      <c r="BB389" s="3"/>
+      <c r="BC389" s="3"/>
+      <c r="BD389" s="3"/>
+      <c r="BE389" s="3"/>
+      <c r="BF389" s="3"/>
+      <c r="BG389" s="3"/>
+      <c r="BH389" s="3"/>
+      <c r="BI389" s="3"/>
+      <c r="BJ389" s="3"/>
+      <c r="BK389" s="3"/>
+      <c r="BL389" s="3"/>
+      <c r="BM389" s="3"/>
+      <c r="BN389" s="3"/>
+      <c r="BO389" s="3"/>
+      <c r="BP389" s="3"/>
+      <c r="BQ389" s="3"/>
+      <c r="BR389" s="3"/>
+      <c r="BS389" s="3"/>
+      <c r="BT389" s="3"/>
+      <c r="BU389" s="3"/>
+      <c r="BV389" s="3"/>
+      <c r="BW389" s="3"/>
+      <c r="BX389" s="3"/>
+      <c r="BY389" s="3"/>
+      <c r="BZ389" s="3"/>
+      <c r="CA389" s="3"/>
+      <c r="CB389" s="3"/>
+      <c r="CC389" s="3"/>
+      <c r="CD389" s="3"/>
+    </row>
+    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="3"/>
+      <c r="E423" s="3"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="3"/>
+      <c r="H423" s="3"/>
+      <c r="I423" s="3"/>
+      <c r="J423" s="3"/>
+      <c r="K423" s="3"/>
+      <c r="L423" s="3"/>
+      <c r="M423" s="3"/>
+      <c r="N423" s="3"/>
+      <c r="O423" s="3"/>
+      <c r="P423" s="3"/>
+      <c r="Q423" s="3"/>
+      <c r="R423" s="3"/>
+      <c r="S423" s="3"/>
+      <c r="T423" s="3"/>
+      <c r="U423" s="3"/>
+      <c r="V423" s="3"/>
+      <c r="W423" s="3"/>
+      <c r="X423" s="3"/>
+      <c r="Y423" s="5"/>
+      <c r="Z423" s="3"/>
+      <c r="AA423" s="3"/>
+      <c r="AB423" s="3"/>
+      <c r="AC423" s="3"/>
+      <c r="AD423" s="3"/>
+      <c r="AE423" s="3"/>
+      <c r="AF423" s="3"/>
+      <c r="AG423" s="3"/>
+      <c r="AH423" s="3"/>
+      <c r="AI423" s="3"/>
+      <c r="AJ423" s="3"/>
+      <c r="AK423" s="3"/>
+      <c r="AL423" s="3"/>
+      <c r="AM423" s="3"/>
+      <c r="AN423" s="3"/>
+      <c r="AO423" s="3"/>
+      <c r="AP423" s="3"/>
+      <c r="AQ423" s="3"/>
+      <c r="AR423" s="3"/>
+      <c r="AS423" s="3"/>
+      <c r="AT423" s="3"/>
+      <c r="AU423" s="3"/>
+      <c r="AV423" s="3"/>
+      <c r="AW423" s="3"/>
+      <c r="AX423" s="3"/>
+      <c r="AY423" s="3"/>
+      <c r="AZ423" s="3"/>
+      <c r="BA423" s="3"/>
+      <c r="BB423" s="3"/>
+      <c r="BC423" s="3"/>
+      <c r="BD423" s="3"/>
+      <c r="BE423" s="3"/>
+      <c r="BF423" s="3"/>
+      <c r="BG423" s="3"/>
+      <c r="BH423" s="3"/>
+      <c r="BI423" s="3"/>
+      <c r="BJ423" s="3"/>
+      <c r="BK423" s="3"/>
+      <c r="BL423" s="3"/>
+      <c r="BM423" s="3"/>
+      <c r="BN423" s="3"/>
+      <c r="BO423" s="3"/>
+      <c r="BP423" s="3"/>
+      <c r="BQ423" s="3"/>
+      <c r="BR423" s="3"/>
+      <c r="BS423" s="3"/>
+      <c r="BT423" s="3"/>
+      <c r="BU423" s="3"/>
+      <c r="BV423" s="3"/>
+      <c r="BW423" s="3"/>
+      <c r="BX423" s="3"/>
+      <c r="BY423" s="3"/>
+      <c r="BZ423" s="3"/>
+      <c r="CA423" s="3"/>
+      <c r="CB423" s="3"/>
+      <c r="CC423" s="3"/>
+      <c r="CD423" s="3"/>
+    </row>
+    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3"/>
+      <c r="F457" s="3"/>
+      <c r="G457" s="3"/>
+      <c r="H457" s="3"/>
+      <c r="I457" s="3"/>
+      <c r="J457" s="3"/>
+      <c r="K457" s="3"/>
+      <c r="L457" s="3"/>
+      <c r="M457" s="3"/>
+      <c r="N457" s="3"/>
+      <c r="O457" s="3"/>
+      <c r="P457" s="3"/>
+      <c r="Q457" s="3"/>
+      <c r="R457" s="3"/>
+      <c r="S457" s="3"/>
+      <c r="T457" s="3"/>
+      <c r="U457" s="3"/>
+      <c r="V457" s="3"/>
+      <c r="W457" s="3"/>
+      <c r="X457" s="3"/>
+      <c r="Y457" s="5"/>
+      <c r="Z457" s="3"/>
+      <c r="AA457" s="3"/>
+      <c r="AB457" s="3"/>
+      <c r="AC457" s="3"/>
+      <c r="AD457" s="3"/>
+      <c r="AE457" s="3"/>
+      <c r="AF457" s="3"/>
+      <c r="AG457" s="3"/>
+      <c r="AH457" s="3"/>
+      <c r="AI457" s="3"/>
+      <c r="AJ457" s="3"/>
+      <c r="AK457" s="3"/>
+      <c r="AL457" s="3"/>
+      <c r="AM457" s="3"/>
+      <c r="AN457" s="3"/>
+      <c r="AO457" s="3"/>
+      <c r="AP457" s="3"/>
+      <c r="AQ457" s="3"/>
+      <c r="AR457" s="3"/>
+      <c r="AS457" s="3"/>
+      <c r="AT457" s="3"/>
+      <c r="AU457" s="3"/>
+      <c r="AV457" s="3"/>
+      <c r="AW457" s="3"/>
+      <c r="AX457" s="3"/>
+      <c r="AY457" s="3"/>
+      <c r="AZ457" s="3"/>
+      <c r="BA457" s="3"/>
+      <c r="BB457" s="3"/>
+      <c r="BC457" s="3"/>
+      <c r="BD457" s="3"/>
+      <c r="BE457" s="3"/>
+      <c r="BF457" s="3"/>
+      <c r="BG457" s="3"/>
+      <c r="BH457" s="3"/>
+      <c r="BI457" s="3"/>
+      <c r="BJ457" s="3"/>
+      <c r="BK457" s="3"/>
+      <c r="BL457" s="3"/>
+      <c r="BM457" s="3"/>
+      <c r="BN457" s="3"/>
+      <c r="BO457" s="3"/>
+      <c r="BP457" s="3"/>
+      <c r="BQ457" s="3"/>
+      <c r="BR457" s="3"/>
+      <c r="BS457" s="3"/>
+      <c r="BT457" s="3"/>
+      <c r="BU457" s="3"/>
+      <c r="BV457" s="3"/>
+      <c r="BW457" s="3"/>
+      <c r="BX457" s="3"/>
+      <c r="BY457" s="3"/>
+      <c r="BZ457" s="3"/>
+      <c r="CA457" s="3"/>
+      <c r="CB457" s="3"/>
+      <c r="CC457" s="3"/>
+      <c r="CD457" s="3"/>
+    </row>
+    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B491" s="3"/>
+      <c r="C491" s="3"/>
+      <c r="D491" s="3"/>
+      <c r="E491" s="3"/>
+      <c r="F491" s="3"/>
+      <c r="G491" s="3"/>
+      <c r="H491" s="3"/>
+      <c r="I491" s="3"/>
+      <c r="J491" s="3"/>
+      <c r="K491" s="3"/>
+      <c r="L491" s="3"/>
+      <c r="M491" s="3"/>
+      <c r="N491" s="3"/>
+      <c r="O491" s="3"/>
+      <c r="P491" s="3"/>
+      <c r="Q491" s="3"/>
+      <c r="R491" s="3"/>
+      <c r="S491" s="3"/>
+      <c r="T491" s="3"/>
+      <c r="U491" s="3"/>
+      <c r="V491" s="3"/>
+      <c r="W491" s="3"/>
+      <c r="X491" s="3"/>
+      <c r="Y491" s="5"/>
+      <c r="Z491" s="3"/>
+      <c r="AA491" s="3"/>
+      <c r="AB491" s="3"/>
+      <c r="AC491" s="3"/>
+      <c r="AD491" s="3"/>
+      <c r="AE491" s="3"/>
+      <c r="AF491" s="3"/>
+      <c r="AG491" s="3"/>
+      <c r="AH491" s="3"/>
+      <c r="AI491" s="3"/>
+      <c r="AJ491" s="3"/>
+      <c r="AK491" s="3"/>
+      <c r="AL491" s="3"/>
+      <c r="AM491" s="3"/>
+      <c r="AN491" s="3"/>
+      <c r="AO491" s="3"/>
+      <c r="AP491" s="3"/>
+      <c r="AQ491" s="3"/>
+      <c r="AR491" s="3"/>
+      <c r="AS491" s="3"/>
+      <c r="AT491" s="3"/>
+      <c r="AU491" s="3"/>
+      <c r="AV491" s="3"/>
+      <c r="AW491" s="3"/>
+      <c r="AX491" s="3"/>
+      <c r="AY491" s="3"/>
+      <c r="AZ491" s="3"/>
+      <c r="BA491" s="3"/>
+      <c r="BB491" s="3"/>
+      <c r="BC491" s="3"/>
+      <c r="BD491" s="3"/>
+      <c r="BE491" s="3"/>
+      <c r="BF491" s="3"/>
+      <c r="BG491" s="3"/>
+      <c r="BH491" s="3"/>
+      <c r="BI491" s="3"/>
+      <c r="BJ491" s="3"/>
+      <c r="BK491" s="3"/>
+      <c r="BL491" s="3"/>
+      <c r="BM491" s="3"/>
+      <c r="BN491" s="3"/>
+      <c r="BO491" s="3"/>
+      <c r="BP491" s="3"/>
+      <c r="BQ491" s="3"/>
+      <c r="BR491" s="3"/>
+      <c r="BS491" s="3"/>
+      <c r="BT491" s="3"/>
+      <c r="BU491" s="3"/>
+      <c r="BV491" s="3"/>
+      <c r="BW491" s="3"/>
+      <c r="BX491" s="3"/>
+      <c r="BY491" s="3"/>
+      <c r="BZ491" s="3"/>
+      <c r="CA491" s="3"/>
+      <c r="CB491" s="3"/>
+      <c r="CC491" s="3"/>
+      <c r="CD491" s="3"/>
+    </row>
+    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+      <c r="D525" s="3"/>
+      <c r="E525" s="3"/>
+      <c r="F525" s="3"/>
+      <c r="G525" s="3"/>
+      <c r="H525" s="3"/>
+      <c r="I525" s="3"/>
+      <c r="J525" s="3"/>
+      <c r="K525" s="3"/>
+      <c r="L525" s="3"/>
+      <c r="M525" s="3"/>
+      <c r="N525" s="3"/>
+      <c r="O525" s="3"/>
+      <c r="P525" s="3"/>
+      <c r="Q525" s="3"/>
+      <c r="R525" s="3"/>
+      <c r="S525" s="3"/>
+      <c r="T525" s="3"/>
+      <c r="U525" s="3"/>
+      <c r="V525" s="3"/>
+      <c r="W525" s="3"/>
+      <c r="X525" s="3"/>
+      <c r="Y525" s="5"/>
+      <c r="Z525" s="3"/>
+      <c r="AA525" s="3"/>
+      <c r="AB525" s="3"/>
+      <c r="AC525" s="3"/>
+      <c r="AD525" s="3"/>
+      <c r="AE525" s="3"/>
+      <c r="AF525" s="3"/>
+      <c r="AG525" s="3"/>
+      <c r="AH525" s="3"/>
+      <c r="AI525" s="3"/>
+      <c r="AJ525" s="3"/>
+      <c r="AK525" s="3"/>
+      <c r="AL525" s="3"/>
+      <c r="AM525" s="3"/>
+      <c r="AN525" s="3"/>
+      <c r="AO525" s="3"/>
+      <c r="AP525" s="3"/>
+      <c r="AQ525" s="3"/>
+      <c r="AR525" s="3"/>
+      <c r="AS525" s="3"/>
+      <c r="AT525" s="3"/>
+      <c r="AU525" s="3"/>
+      <c r="AV525" s="3"/>
+      <c r="AW525" s="3"/>
+      <c r="AX525" s="3"/>
+      <c r="AY525" s="3"/>
+      <c r="AZ525" s="3"/>
+      <c r="BA525" s="3"/>
+      <c r="BB525" s="3"/>
+      <c r="BC525" s="3"/>
+      <c r="BD525" s="3"/>
+      <c r="BE525" s="3"/>
+      <c r="BF525" s="3"/>
+      <c r="BG525" s="3"/>
+      <c r="BH525" s="3"/>
+      <c r="BI525" s="3"/>
+      <c r="BJ525" s="3"/>
+      <c r="BK525" s="3"/>
+      <c r="BL525" s="3"/>
+      <c r="BM525" s="3"/>
+      <c r="BN525" s="3"/>
+      <c r="BO525" s="3"/>
+      <c r="BP525" s="3"/>
+      <c r="BQ525" s="3"/>
+      <c r="BR525" s="3"/>
+      <c r="BS525" s="3"/>
+      <c r="BT525" s="3"/>
+      <c r="BU525" s="3"/>
+      <c r="BV525" s="3"/>
+      <c r="BW525" s="3"/>
+      <c r="BX525" s="3"/>
+      <c r="BY525" s="3"/>
+      <c r="BZ525" s="3"/>
+      <c r="CA525" s="3"/>
+      <c r="CB525" s="3"/>
+      <c r="CC525" s="3"/>
+      <c r="CD525" s="3"/>
+    </row>
+    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
+      <c r="D559" s="3"/>
+      <c r="E559" s="3"/>
+      <c r="F559" s="3"/>
+      <c r="G559" s="3"/>
+      <c r="H559" s="3"/>
+      <c r="I559" s="3"/>
+      <c r="J559" s="3"/>
+      <c r="K559" s="3"/>
+      <c r="L559" s="3"/>
+      <c r="M559" s="3"/>
+      <c r="N559" s="3"/>
+      <c r="O559" s="3"/>
+      <c r="P559" s="3"/>
+      <c r="Q559" s="3"/>
+      <c r="R559" s="3"/>
+      <c r="S559" s="3"/>
+      <c r="T559" s="3"/>
+      <c r="U559" s="3"/>
+      <c r="V559" s="3"/>
+      <c r="W559" s="3"/>
+      <c r="X559" s="3"/>
+      <c r="Y559" s="5"/>
+      <c r="Z559" s="3"/>
+      <c r="AA559" s="3"/>
+      <c r="AB559" s="3"/>
+      <c r="AC559" s="3"/>
+      <c r="AD559" s="3"/>
+      <c r="AE559" s="3"/>
+      <c r="AF559" s="3"/>
+      <c r="AG559" s="3"/>
+      <c r="AH559" s="3"/>
+      <c r="AI559" s="3"/>
+      <c r="AJ559" s="3"/>
+      <c r="AK559" s="3"/>
+      <c r="AL559" s="3"/>
+      <c r="AM559" s="3"/>
+      <c r="AN559" s="3"/>
+      <c r="AO559" s="3"/>
+      <c r="AP559" s="3"/>
+      <c r="AQ559" s="3"/>
+      <c r="AR559" s="3"/>
+      <c r="AS559" s="3"/>
+      <c r="AT559" s="3"/>
+      <c r="AU559" s="3"/>
+      <c r="AV559" s="3"/>
+      <c r="AW559" s="3"/>
+      <c r="AX559" s="3"/>
+      <c r="AY559" s="3"/>
+      <c r="AZ559" s="3"/>
+      <c r="BA559" s="3"/>
+      <c r="BB559" s="3"/>
+      <c r="BC559" s="3"/>
+      <c r="BD559" s="3"/>
+      <c r="BE559" s="3"/>
+      <c r="BF559" s="3"/>
+      <c r="BG559" s="3"/>
+      <c r="BH559" s="3"/>
+      <c r="BI559" s="3"/>
+      <c r="BJ559" s="3"/>
+      <c r="BK559" s="3"/>
+      <c r="BL559" s="3"/>
+      <c r="BM559" s="3"/>
+      <c r="BN559" s="3"/>
+      <c r="BO559" s="3"/>
+      <c r="BP559" s="3"/>
+      <c r="BQ559" s="3"/>
+      <c r="BR559" s="3"/>
+      <c r="BS559" s="3"/>
+      <c r="BT559" s="3"/>
+      <c r="BU559" s="3"/>
+      <c r="BV559" s="3"/>
+      <c r="BW559" s="3"/>
+      <c r="BX559" s="3"/>
+      <c r="BY559" s="3"/>
+      <c r="BZ559" s="3"/>
+      <c r="CA559" s="3"/>
+      <c r="CB559" s="3"/>
+      <c r="CC559" s="3"/>
+      <c r="CD559" s="3"/>
+    </row>
+    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
+      <c r="D593" s="3"/>
+      <c r="E593" s="3"/>
+      <c r="F593" s="3"/>
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
+      <c r="I593" s="3"/>
+      <c r="J593" s="3"/>
+      <c r="K593" s="3"/>
+      <c r="L593" s="3"/>
+      <c r="M593" s="3"/>
+      <c r="N593" s="3"/>
+      <c r="O593" s="3"/>
+      <c r="P593" s="3"/>
+      <c r="Q593" s="3"/>
+      <c r="R593" s="3"/>
+      <c r="S593" s="3"/>
+      <c r="T593" s="3"/>
+      <c r="U593" s="3"/>
+      <c r="V593" s="3"/>
+      <c r="W593" s="3"/>
+      <c r="X593" s="3"/>
+      <c r="Y593" s="5"/>
+      <c r="Z593" s="3"/>
+      <c r="AA593" s="3"/>
+      <c r="AB593" s="3"/>
+      <c r="AC593" s="3"/>
+      <c r="AD593" s="3"/>
+      <c r="AE593" s="3"/>
+      <c r="AF593" s="3"/>
+      <c r="AG593" s="3"/>
+      <c r="AH593" s="3"/>
+      <c r="AI593" s="3"/>
+      <c r="AJ593" s="3"/>
+      <c r="AK593" s="3"/>
+      <c r="AL593" s="3"/>
+      <c r="AM593" s="3"/>
+      <c r="AN593" s="3"/>
+      <c r="AO593" s="3"/>
+      <c r="AP593" s="3"/>
+      <c r="AQ593" s="3"/>
+      <c r="AR593" s="3"/>
+      <c r="AS593" s="3"/>
+      <c r="AT593" s="3"/>
+      <c r="AU593" s="3"/>
+      <c r="AV593" s="3"/>
+      <c r="AW593" s="3"/>
+      <c r="AX593" s="3"/>
+      <c r="AY593" s="3"/>
+      <c r="AZ593" s="3"/>
+      <c r="BA593" s="3"/>
+      <c r="BB593" s="3"/>
+      <c r="BC593" s="3"/>
+      <c r="BD593" s="3"/>
+      <c r="BE593" s="3"/>
+      <c r="BF593" s="3"/>
+      <c r="BG593" s="3"/>
+      <c r="BH593" s="3"/>
+      <c r="BI593" s="3"/>
+      <c r="BJ593" s="3"/>
+      <c r="BK593" s="3"/>
+      <c r="BL593" s="3"/>
+      <c r="BM593" s="3"/>
+      <c r="BN593" s="3"/>
+      <c r="BO593" s="3"/>
+      <c r="BP593" s="3"/>
+      <c r="BQ593" s="3"/>
+      <c r="BR593" s="3"/>
+      <c r="BS593" s="3"/>
+      <c r="BT593" s="3"/>
+      <c r="BU593" s="3"/>
+      <c r="BV593" s="3"/>
+      <c r="BW593" s="3"/>
+      <c r="BX593" s="3"/>
+      <c r="BY593" s="3"/>
+      <c r="BZ593" s="3"/>
+      <c r="CA593" s="3"/>
+      <c r="CB593" s="3"/>
+      <c r="CC593" s="3"/>
+      <c r="CD593" s="3"/>
+    </row>
+    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B627" s="3"/>
+      <c r="C627" s="3"/>
+      <c r="D627" s="3"/>
+      <c r="E627" s="3"/>
+      <c r="F627" s="3"/>
+      <c r="G627" s="3"/>
+      <c r="H627" s="3"/>
+      <c r="I627" s="3"/>
+      <c r="J627" s="3"/>
+      <c r="K627" s="3"/>
+      <c r="L627" s="3"/>
+      <c r="M627" s="3"/>
+      <c r="N627" s="3"/>
+      <c r="O627" s="3"/>
+      <c r="P627" s="3"/>
+      <c r="Q627" s="3"/>
+      <c r="R627" s="3"/>
+      <c r="S627" s="3"/>
+      <c r="T627" s="3"/>
+      <c r="U627" s="3"/>
+      <c r="V627" s="3"/>
+      <c r="W627" s="3"/>
+      <c r="X627" s="3"/>
+      <c r="Y627" s="5"/>
+      <c r="Z627" s="3"/>
+      <c r="AA627" s="3"/>
+      <c r="AB627" s="3"/>
+      <c r="AC627" s="3"/>
+      <c r="AD627" s="3"/>
+      <c r="AE627" s="3"/>
+      <c r="AF627" s="3"/>
+      <c r="AG627" s="3"/>
+      <c r="AH627" s="3"/>
+      <c r="AI627" s="3"/>
+      <c r="AJ627" s="3"/>
+      <c r="AK627" s="3"/>
+      <c r="AL627" s="3"/>
+      <c r="AM627" s="3"/>
+      <c r="AN627" s="3"/>
+      <c r="AO627" s="3"/>
+      <c r="AP627" s="3"/>
+      <c r="AQ627" s="3"/>
+      <c r="AR627" s="3"/>
+      <c r="AS627" s="3"/>
+      <c r="AT627" s="3"/>
+      <c r="AU627" s="3"/>
+      <c r="AV627" s="3"/>
+      <c r="AW627" s="3"/>
+      <c r="AX627" s="3"/>
+      <c r="AY627" s="3"/>
+      <c r="AZ627" s="3"/>
+      <c r="BA627" s="3"/>
+      <c r="BB627" s="3"/>
+      <c r="BC627" s="3"/>
+      <c r="BD627" s="3"/>
+      <c r="BE627" s="3"/>
+      <c r="BF627" s="3"/>
+      <c r="BG627" s="3"/>
+      <c r="BH627" s="3"/>
+      <c r="BI627" s="3"/>
+      <c r="BJ627" s="3"/>
+      <c r="BK627" s="3"/>
+      <c r="BL627" s="3"/>
+      <c r="BM627" s="3"/>
+      <c r="BN627" s="3"/>
+      <c r="BO627" s="3"/>
+      <c r="BP627" s="3"/>
+      <c r="BQ627" s="3"/>
+      <c r="BR627" s="3"/>
+      <c r="BS627" s="3"/>
+      <c r="BT627" s="3"/>
+      <c r="BU627" s="3"/>
+      <c r="BV627" s="3"/>
+      <c r="BW627" s="3"/>
+      <c r="BX627" s="3"/>
+      <c r="BY627" s="3"/>
+      <c r="BZ627" s="3"/>
+      <c r="CA627" s="3"/>
+      <c r="CB627" s="3"/>
+      <c r="CC627" s="3"/>
+      <c r="CD627" s="3"/>
+    </row>
+    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B661" s="3"/>
+      <c r="C661" s="3"/>
+      <c r="D661" s="3"/>
+      <c r="E661" s="3"/>
+      <c r="F661" s="3"/>
+      <c r="G661" s="3"/>
+      <c r="H661" s="3"/>
+      <c r="I661" s="3"/>
+      <c r="J661" s="3"/>
+      <c r="K661" s="3"/>
+      <c r="L661" s="3"/>
+      <c r="M661" s="3"/>
+      <c r="N661" s="3"/>
+      <c r="O661" s="3"/>
+      <c r="P661" s="3"/>
+      <c r="Q661" s="3"/>
+      <c r="R661" s="3"/>
+      <c r="S661" s="3"/>
+      <c r="T661" s="3"/>
+      <c r="U661" s="3"/>
+      <c r="V661" s="3"/>
+      <c r="W661" s="3"/>
+      <c r="X661" s="3"/>
+      <c r="Y661" s="5"/>
+      <c r="Z661" s="3"/>
+      <c r="AA661" s="3"/>
+      <c r="AB661" s="3"/>
+      <c r="AC661" s="3"/>
+      <c r="AD661" s="3"/>
+      <c r="AE661" s="3"/>
+      <c r="AF661" s="3"/>
+      <c r="AG661" s="3"/>
+      <c r="AH661" s="3"/>
+      <c r="AI661" s="3"/>
+      <c r="AJ661" s="3"/>
+      <c r="AK661" s="3"/>
+      <c r="AL661" s="3"/>
+      <c r="AM661" s="3"/>
+      <c r="AN661" s="3"/>
+      <c r="AO661" s="3"/>
+      <c r="AP661" s="3"/>
+      <c r="AQ661" s="3"/>
+      <c r="AR661" s="3"/>
+      <c r="AS661" s="3"/>
+      <c r="AT661" s="3"/>
+      <c r="AU661" s="3"/>
+      <c r="AV661" s="3"/>
+      <c r="AW661" s="3"/>
+      <c r="AX661" s="3"/>
+      <c r="AY661" s="3"/>
+      <c r="AZ661" s="3"/>
+      <c r="BA661" s="3"/>
+      <c r="BB661" s="3"/>
+      <c r="BC661" s="3"/>
+      <c r="BD661" s="3"/>
+      <c r="BE661" s="3"/>
+      <c r="BF661" s="3"/>
+      <c r="BG661" s="3"/>
+      <c r="BH661" s="3"/>
+      <c r="BI661" s="3"/>
+      <c r="BJ661" s="3"/>
+      <c r="BK661" s="3"/>
+      <c r="BL661" s="3"/>
+      <c r="BM661" s="3"/>
+      <c r="BN661" s="3"/>
+      <c r="BO661" s="3"/>
+      <c r="BP661" s="3"/>
+      <c r="BQ661" s="3"/>
+      <c r="BR661" s="3"/>
+      <c r="BS661" s="3"/>
+      <c r="BT661" s="3"/>
+      <c r="BU661" s="3"/>
+      <c r="BV661" s="3"/>
+      <c r="BW661" s="3"/>
+      <c r="BX661" s="3"/>
+      <c r="BY661" s="3"/>
+      <c r="BZ661" s="3"/>
+      <c r="CA661" s="3"/>
+      <c r="CB661" s="3"/>
+      <c r="CC661" s="3"/>
+      <c r="CD661" s="3"/>
+    </row>
+    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B695" s="3"/>
+      <c r="C695" s="3"/>
+      <c r="D695" s="3"/>
+      <c r="E695" s="3"/>
+      <c r="F695" s="3"/>
+      <c r="G695" s="3"/>
+      <c r="H695" s="3"/>
+      <c r="I695" s="3"/>
+      <c r="J695" s="3"/>
+      <c r="K695" s="3"/>
+      <c r="L695" s="3"/>
+      <c r="M695" s="3"/>
+      <c r="N695" s="3"/>
+      <c r="O695" s="3"/>
+      <c r="P695" s="3"/>
+      <c r="Q695" s="3"/>
+      <c r="R695" s="3"/>
+      <c r="S695" s="3"/>
+      <c r="T695" s="3"/>
+      <c r="U695" s="3"/>
+      <c r="V695" s="3"/>
+      <c r="W695" s="3"/>
+      <c r="X695" s="3"/>
+      <c r="Y695" s="5"/>
+      <c r="Z695" s="3"/>
+      <c r="AA695" s="3"/>
+      <c r="AB695" s="3"/>
+      <c r="AC695" s="3"/>
+      <c r="AD695" s="3"/>
+      <c r="AE695" s="3"/>
+      <c r="AF695" s="3"/>
+      <c r="AG695" s="3"/>
+      <c r="AH695" s="3"/>
+      <c r="AI695" s="3"/>
+      <c r="AJ695" s="3"/>
+      <c r="AK695" s="3"/>
+      <c r="AL695" s="3"/>
+      <c r="AM695" s="3"/>
+      <c r="AN695" s="3"/>
+      <c r="AO695" s="3"/>
+      <c r="AP695" s="3"/>
+      <c r="AQ695" s="3"/>
+      <c r="AR695" s="3"/>
+      <c r="AS695" s="3"/>
+      <c r="AT695" s="3"/>
+      <c r="AU695" s="3"/>
+      <c r="AV695" s="3"/>
+      <c r="AW695" s="3"/>
+      <c r="AX695" s="3"/>
+      <c r="AY695" s="3"/>
+      <c r="AZ695" s="3"/>
+      <c r="BA695" s="3"/>
+      <c r="BB695" s="3"/>
+      <c r="BC695" s="3"/>
+      <c r="BD695" s="3"/>
+      <c r="BE695" s="3"/>
+      <c r="BF695" s="3"/>
+      <c r="BG695" s="3"/>
+      <c r="BH695" s="3"/>
+      <c r="BI695" s="3"/>
+      <c r="BJ695" s="3"/>
+      <c r="BK695" s="3"/>
+      <c r="BL695" s="3"/>
+      <c r="BM695" s="3"/>
+      <c r="BN695" s="3"/>
+      <c r="BO695" s="3"/>
+      <c r="BP695" s="3"/>
+      <c r="BQ695" s="3"/>
+      <c r="BR695" s="3"/>
+      <c r="BS695" s="3"/>
+      <c r="BT695" s="3"/>
+      <c r="BU695" s="3"/>
+      <c r="BV695" s="3"/>
+      <c r="BW695" s="3"/>
+      <c r="BX695" s="3"/>
+      <c r="BY695" s="3"/>
+      <c r="BZ695" s="3"/>
+      <c r="CA695" s="3"/>
+      <c r="CB695" s="3"/>
+      <c r="CC695" s="3"/>
+      <c r="CD695" s="3"/>
+    </row>
+    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B729" s="3"/>
+      <c r="C729" s="3"/>
+      <c r="D729" s="3"/>
+      <c r="E729" s="3"/>
+      <c r="F729" s="3"/>
+      <c r="G729" s="3"/>
+      <c r="H729" s="3"/>
+      <c r="I729" s="3"/>
+      <c r="J729" s="3"/>
+      <c r="K729" s="3"/>
+      <c r="L729" s="3"/>
+      <c r="M729" s="3"/>
+      <c r="N729" s="3"/>
+      <c r="O729" s="3"/>
+      <c r="P729" s="3"/>
+      <c r="Q729" s="3"/>
+      <c r="R729" s="3"/>
+      <c r="S729" s="3"/>
+      <c r="T729" s="3"/>
+      <c r="U729" s="3"/>
+      <c r="V729" s="3"/>
+      <c r="W729" s="3"/>
+      <c r="X729" s="3"/>
+      <c r="Y729" s="5"/>
+      <c r="Z729" s="3"/>
+      <c r="AA729" s="3"/>
+      <c r="AB729" s="3"/>
+      <c r="AC729" s="3"/>
+      <c r="AD729" s="3"/>
+      <c r="AE729" s="3"/>
+      <c r="AF729" s="3"/>
+      <c r="AG729" s="3"/>
+      <c r="AH729" s="3"/>
+      <c r="AI729" s="3"/>
+      <c r="AJ729" s="3"/>
+      <c r="AK729" s="3"/>
+      <c r="AL729" s="3"/>
+      <c r="AM729" s="3"/>
+      <c r="AN729" s="3"/>
+      <c r="AO729" s="3"/>
+      <c r="AP729" s="3"/>
+      <c r="AQ729" s="3"/>
+      <c r="AR729" s="3"/>
+      <c r="AS729" s="3"/>
+      <c r="AT729" s="3"/>
+      <c r="AU729" s="3"/>
+      <c r="AV729" s="3"/>
+      <c r="AW729" s="3"/>
+      <c r="AX729" s="3"/>
+      <c r="AY729" s="3"/>
+      <c r="AZ729" s="3"/>
+      <c r="BA729" s="3"/>
+      <c r="BB729" s="3"/>
+      <c r="BC729" s="3"/>
+      <c r="BD729" s="3"/>
+      <c r="BE729" s="3"/>
+      <c r="BF729" s="3"/>
+      <c r="BG729" s="3"/>
+      <c r="BH729" s="3"/>
+      <c r="BI729" s="3"/>
+      <c r="BJ729" s="3"/>
+      <c r="BK729" s="3"/>
+      <c r="BL729" s="3"/>
+      <c r="BM729" s="3"/>
+      <c r="BN729" s="3"/>
+      <c r="BO729" s="3"/>
+      <c r="BP729" s="3"/>
+      <c r="BQ729" s="3"/>
+      <c r="BR729" s="3"/>
+      <c r="BS729" s="3"/>
+      <c r="BT729" s="3"/>
+      <c r="BU729" s="3"/>
+      <c r="BV729" s="3"/>
+      <c r="BW729" s="3"/>
+      <c r="BX729" s="3"/>
+      <c r="BY729" s="3"/>
+      <c r="BZ729" s="3"/>
+      <c r="CA729" s="3"/>
+      <c r="CB729" s="3"/>
+      <c r="CC729" s="3"/>
+      <c r="CD729" s="3"/>
+    </row>
+    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B763" s="3"/>
+      <c r="C763" s="3"/>
+      <c r="D763" s="3"/>
+      <c r="E763" s="3"/>
+      <c r="F763" s="3"/>
+      <c r="G763" s="3"/>
+      <c r="H763" s="3"/>
+      <c r="I763" s="3"/>
+      <c r="J763" s="3"/>
+      <c r="K763" s="3"/>
+      <c r="L763" s="3"/>
+      <c r="M763" s="3"/>
+      <c r="N763" s="3"/>
+      <c r="O763" s="3"/>
+      <c r="P763" s="3"/>
+      <c r="Q763" s="3"/>
+      <c r="R763" s="3"/>
+      <c r="S763" s="3"/>
+      <c r="T763" s="3"/>
+      <c r="U763" s="3"/>
+      <c r="V763" s="3"/>
+      <c r="W763" s="3"/>
+      <c r="X763" s="3"/>
+      <c r="Y763" s="5"/>
+      <c r="Z763" s="3"/>
+      <c r="AA763" s="3"/>
+      <c r="AB763" s="3"/>
+      <c r="AC763" s="3"/>
+      <c r="AD763" s="3"/>
+      <c r="AE763" s="3"/>
+      <c r="AF763" s="3"/>
+      <c r="AG763" s="3"/>
+      <c r="AH763" s="3"/>
+      <c r="AI763" s="3"/>
+      <c r="AJ763" s="3"/>
+      <c r="AK763" s="3"/>
+      <c r="AL763" s="3"/>
+      <c r="AM763" s="3"/>
+      <c r="AN763" s="3"/>
+      <c r="AO763" s="3"/>
+      <c r="AP763" s="3"/>
+      <c r="AQ763" s="3"/>
+      <c r="AR763" s="3"/>
+      <c r="AS763" s="3"/>
+      <c r="AT763" s="3"/>
+      <c r="AU763" s="3"/>
+      <c r="AV763" s="3"/>
+      <c r="AW763" s="3"/>
+      <c r="AX763" s="3"/>
+      <c r="AY763" s="3"/>
+      <c r="AZ763" s="3"/>
+      <c r="BA763" s="3"/>
+      <c r="BB763" s="3"/>
+      <c r="BC763" s="3"/>
+      <c r="BD763" s="3"/>
+      <c r="BE763" s="3"/>
+      <c r="BF763" s="3"/>
+      <c r="BG763" s="3"/>
+      <c r="BH763" s="3"/>
+      <c r="BI763" s="3"/>
+      <c r="BJ763" s="3"/>
+      <c r="BK763" s="3"/>
+      <c r="BL763" s="3"/>
+      <c r="BM763" s="3"/>
+      <c r="BN763" s="3"/>
+      <c r="BO763" s="3"/>
+      <c r="BP763" s="3"/>
+      <c r="BQ763" s="3"/>
+      <c r="BR763" s="3"/>
+      <c r="BS763" s="3"/>
+      <c r="BT763" s="3"/>
+      <c r="BU763" s="3"/>
+      <c r="BV763" s="3"/>
+      <c r="BW763" s="3"/>
+      <c r="BX763" s="3"/>
+      <c r="BY763" s="3"/>
+      <c r="BZ763" s="3"/>
+      <c r="CA763" s="3"/>
+      <c r="CB763" s="3"/>
+      <c r="CC763" s="3"/>
+      <c r="CD763" s="3"/>
+    </row>
+    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B797" s="3"/>
+      <c r="C797" s="3"/>
+      <c r="D797" s="3"/>
+      <c r="E797" s="3"/>
+      <c r="F797" s="3"/>
+      <c r="G797" s="3"/>
+      <c r="H797" s="3"/>
+      <c r="I797" s="3"/>
+      <c r="J797" s="3"/>
+      <c r="K797" s="3"/>
+      <c r="L797" s="3"/>
+      <c r="M797" s="3"/>
+      <c r="N797" s="3"/>
+      <c r="O797" s="3"/>
+      <c r="P797" s="3"/>
+      <c r="Q797" s="3"/>
+      <c r="R797" s="3"/>
+      <c r="S797" s="3"/>
+      <c r="T797" s="3"/>
+      <c r="U797" s="3"/>
+      <c r="V797" s="3"/>
+      <c r="W797" s="3"/>
+      <c r="X797" s="3"/>
+      <c r="Y797" s="5"/>
+      <c r="Z797" s="3"/>
+      <c r="AA797" s="3"/>
+      <c r="AB797" s="3"/>
+      <c r="AC797" s="3"/>
+      <c r="AD797" s="3"/>
+      <c r="AE797" s="3"/>
+      <c r="AF797" s="3"/>
+      <c r="AG797" s="3"/>
+      <c r="AH797" s="3"/>
+      <c r="AI797" s="3"/>
+      <c r="AJ797" s="3"/>
+      <c r="AK797" s="3"/>
+      <c r="AL797" s="3"/>
+      <c r="AM797" s="3"/>
+      <c r="AN797" s="3"/>
+      <c r="AO797" s="3"/>
+      <c r="AP797" s="3"/>
+      <c r="AQ797" s="3"/>
+      <c r="AR797" s="3"/>
+      <c r="AS797" s="3"/>
+      <c r="AT797" s="3"/>
+      <c r="AU797" s="3"/>
+      <c r="AV797" s="3"/>
+      <c r="AW797" s="3"/>
+      <c r="AX797" s="3"/>
+      <c r="AY797" s="3"/>
+      <c r="AZ797" s="3"/>
+      <c r="BA797" s="3"/>
+      <c r="BB797" s="3"/>
+      <c r="BC797" s="3"/>
+      <c r="BD797" s="3"/>
+      <c r="BE797" s="3"/>
+      <c r="BF797" s="3"/>
+      <c r="BG797" s="3"/>
+      <c r="BH797" s="3"/>
+      <c r="BI797" s="3"/>
+      <c r="BJ797" s="3"/>
+      <c r="BK797" s="3"/>
+      <c r="BL797" s="3"/>
+      <c r="BM797" s="3"/>
+      <c r="BN797" s="3"/>
+      <c r="BO797" s="3"/>
+      <c r="BP797" s="3"/>
+      <c r="BQ797" s="3"/>
+      <c r="BR797" s="3"/>
+      <c r="BS797" s="3"/>
+      <c r="BT797" s="3"/>
+      <c r="BU797" s="3"/>
+      <c r="BV797" s="3"/>
+      <c r="BW797" s="3"/>
+      <c r="BX797" s="3"/>
+      <c r="BY797" s="3"/>
+      <c r="BZ797" s="3"/>
+      <c r="CA797" s="3"/>
+      <c r="CB797" s="3"/>
+      <c r="CC797" s="3"/>
+      <c r="CD797" s="3"/>
+    </row>
+    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B831" s="3"/>
+      <c r="C831" s="3"/>
+      <c r="D831" s="3"/>
+      <c r="E831" s="3"/>
+      <c r="F831" s="3"/>
+      <c r="G831" s="3"/>
+      <c r="H831" s="3"/>
+      <c r="I831" s="3"/>
+      <c r="J831" s="3"/>
+      <c r="K831" s="3"/>
+      <c r="L831" s="3"/>
+      <c r="M831" s="3"/>
+      <c r="N831" s="3"/>
+      <c r="O831" s="3"/>
+      <c r="P831" s="3"/>
+      <c r="Q831" s="3"/>
+      <c r="R831" s="3"/>
+      <c r="S831" s="3"/>
+      <c r="T831" s="3"/>
+      <c r="U831" s="3"/>
+      <c r="V831" s="3"/>
+      <c r="W831" s="3"/>
+      <c r="X831" s="3"/>
+      <c r="Y831" s="5"/>
+      <c r="Z831" s="3"/>
+      <c r="AA831" s="3"/>
+      <c r="AB831" s="3"/>
+      <c r="AC831" s="3"/>
+      <c r="AD831" s="3"/>
+      <c r="AE831" s="3"/>
+      <c r="AF831" s="3"/>
+      <c r="AG831" s="3"/>
+      <c r="AH831" s="3"/>
+      <c r="AI831" s="3"/>
+      <c r="AJ831" s="3"/>
+      <c r="AK831" s="3"/>
+      <c r="AL831" s="3"/>
+      <c r="AM831" s="3"/>
+      <c r="AN831" s="3"/>
+      <c r="AO831" s="3"/>
+      <c r="AP831" s="3"/>
+      <c r="AQ831" s="3"/>
+      <c r="AR831" s="3"/>
+      <c r="AS831" s="3"/>
+      <c r="AT831" s="3"/>
+      <c r="AU831" s="3"/>
+      <c r="AV831" s="3"/>
+      <c r="AW831" s="3"/>
+      <c r="AX831" s="3"/>
+      <c r="AY831" s="3"/>
+      <c r="AZ831" s="3"/>
+      <c r="BA831" s="3"/>
+      <c r="BB831" s="3"/>
+      <c r="BC831" s="3"/>
+      <c r="BD831" s="3"/>
+      <c r="BE831" s="3"/>
+      <c r="BF831" s="3"/>
+      <c r="BG831" s="3"/>
+      <c r="BH831" s="3"/>
+      <c r="BI831" s="3"/>
+      <c r="BJ831" s="3"/>
+      <c r="BK831" s="3"/>
+      <c r="BL831" s="3"/>
+      <c r="BM831" s="3"/>
+      <c r="BN831" s="3"/>
+      <c r="BO831" s="3"/>
+      <c r="BP831" s="3"/>
+      <c r="BQ831" s="3"/>
+      <c r="BR831" s="3"/>
+      <c r="BS831" s="3"/>
+      <c r="BT831" s="3"/>
+      <c r="BU831" s="3"/>
+      <c r="BV831" s="3"/>
+      <c r="BW831" s="3"/>
+      <c r="BX831" s="3"/>
+      <c r="BY831" s="3"/>
+      <c r="BZ831" s="3"/>
+      <c r="CA831" s="3"/>
+      <c r="CB831" s="3"/>
+      <c r="CC831" s="3"/>
+      <c r="CD831" s="3"/>
+    </row>
+    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B865" s="3"/>
+      <c r="C865" s="3"/>
+      <c r="D865" s="3"/>
+      <c r="E865" s="3"/>
+      <c r="F865" s="3"/>
+      <c r="G865" s="3"/>
+      <c r="H865" s="3"/>
+      <c r="I865" s="3"/>
+      <c r="J865" s="3"/>
+      <c r="K865" s="3"/>
+      <c r="L865" s="3"/>
+      <c r="M865" s="3"/>
+      <c r="N865" s="3"/>
+      <c r="O865" s="3"/>
+      <c r="P865" s="3"/>
+      <c r="Q865" s="3"/>
+      <c r="R865" s="3"/>
+      <c r="S865" s="3"/>
+      <c r="T865" s="3"/>
+      <c r="U865" s="3"/>
+      <c r="V865" s="3"/>
+      <c r="W865" s="3"/>
+      <c r="X865" s="3"/>
+      <c r="Y865" s="5"/>
+      <c r="Z865" s="3"/>
+      <c r="AA865" s="3"/>
+      <c r="AB865" s="3"/>
+      <c r="AC865" s="3"/>
+      <c r="AD865" s="3"/>
+      <c r="AE865" s="3"/>
+      <c r="AF865" s="3"/>
+      <c r="AG865" s="3"/>
+      <c r="AH865" s="3"/>
+      <c r="AI865" s="3"/>
+      <c r="AJ865" s="3"/>
+      <c r="AK865" s="3"/>
+      <c r="AL865" s="3"/>
+      <c r="AM865" s="3"/>
+      <c r="AN865" s="3"/>
+      <c r="AO865" s="3"/>
+      <c r="AP865" s="3"/>
+      <c r="AQ865" s="3"/>
+      <c r="AR865" s="3"/>
+      <c r="AS865" s="3"/>
+      <c r="AT865" s="3"/>
+      <c r="AU865" s="3"/>
+      <c r="AV865" s="3"/>
+      <c r="AW865" s="3"/>
+      <c r="AX865" s="3"/>
+      <c r="AY865" s="3"/>
+      <c r="AZ865" s="3"/>
+      <c r="BA865" s="3"/>
+      <c r="BB865" s="3"/>
+      <c r="BC865" s="3"/>
+      <c r="BD865" s="3"/>
+      <c r="BE865" s="3"/>
+      <c r="BF865" s="3"/>
+      <c r="BG865" s="3"/>
+      <c r="BH865" s="3"/>
+      <c r="BI865" s="3"/>
+      <c r="BJ865" s="3"/>
+      <c r="BK865" s="3"/>
+      <c r="BL865" s="3"/>
+      <c r="BM865" s="3"/>
+      <c r="BN865" s="3"/>
+      <c r="BO865" s="3"/>
+      <c r="BP865" s="3"/>
+      <c r="BQ865" s="3"/>
+      <c r="BR865" s="3"/>
+      <c r="BS865" s="3"/>
+      <c r="BT865" s="3"/>
+      <c r="BU865" s="3"/>
+      <c r="BV865" s="3"/>
+      <c r="BW865" s="3"/>
+      <c r="BX865" s="3"/>
+      <c r="BY865" s="3"/>
+      <c r="BZ865" s="3"/>
+      <c r="CA865" s="3"/>
+      <c r="CB865" s="3"/>
+      <c r="CC865" s="3"/>
+      <c r="CD865" s="3"/>
+    </row>
+    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B899" s="3"/>
+      <c r="C899" s="3"/>
+      <c r="D899" s="3"/>
+      <c r="E899" s="3"/>
+      <c r="F899" s="3"/>
+      <c r="G899" s="3"/>
+      <c r="H899" s="3"/>
+      <c r="I899" s="3"/>
+      <c r="J899" s="3"/>
+      <c r="K899" s="3"/>
+      <c r="L899" s="3"/>
+      <c r="M899" s="3"/>
+      <c r="N899" s="3"/>
+      <c r="O899" s="3"/>
+      <c r="P899" s="3"/>
+      <c r="Q899" s="3"/>
+      <c r="R899" s="3"/>
+      <c r="S899" s="3"/>
+      <c r="T899" s="3"/>
+      <c r="U899" s="3"/>
+      <c r="V899" s="3"/>
+      <c r="W899" s="3"/>
+      <c r="X899" s="3"/>
+      <c r="Y899" s="5"/>
+      <c r="Z899" s="3"/>
+      <c r="AA899" s="3"/>
+      <c r="AB899" s="3"/>
+      <c r="AC899" s="3"/>
+      <c r="AD899" s="3"/>
+      <c r="AE899" s="3"/>
+      <c r="AF899" s="3"/>
+      <c r="AG899" s="3"/>
+      <c r="AH899" s="3"/>
+      <c r="AI899" s="3"/>
+      <c r="AJ899" s="3"/>
+      <c r="AK899" s="3"/>
+      <c r="AL899" s="3"/>
+      <c r="AM899" s="3"/>
+      <c r="AN899" s="3"/>
+      <c r="AO899" s="3"/>
+      <c r="AP899" s="3"/>
+      <c r="AQ899" s="3"/>
+      <c r="AR899" s="3"/>
+      <c r="AS899" s="3"/>
+      <c r="AT899" s="3"/>
+      <c r="AU899" s="3"/>
+      <c r="AV899" s="3"/>
+      <c r="AW899" s="3"/>
+      <c r="AX899" s="3"/>
+      <c r="AY899" s="3"/>
+      <c r="AZ899" s="3"/>
+      <c r="BA899" s="3"/>
+      <c r="BB899" s="3"/>
+      <c r="BC899" s="3"/>
+      <c r="BD899" s="3"/>
+      <c r="BE899" s="3"/>
+      <c r="BF899" s="3"/>
+      <c r="BG899" s="3"/>
+      <c r="BH899" s="3"/>
+      <c r="BI899" s="3"/>
+      <c r="BJ899" s="3"/>
+      <c r="BK899" s="3"/>
+      <c r="BL899" s="3"/>
+      <c r="BM899" s="3"/>
+      <c r="BN899" s="3"/>
+      <c r="BO899" s="3"/>
+      <c r="BP899" s="3"/>
+      <c r="BQ899" s="3"/>
+      <c r="BR899" s="3"/>
+      <c r="BS899" s="3"/>
+      <c r="BT899" s="3"/>
+      <c r="BU899" s="3"/>
+      <c r="BV899" s="3"/>
+      <c r="BW899" s="3"/>
+      <c r="BX899" s="3"/>
+      <c r="BY899" s="3"/>
+      <c r="BZ899" s="3"/>
+      <c r="CA899" s="3"/>
+      <c r="CB899" s="3"/>
+      <c r="CC899" s="3"/>
+      <c r="CD899" s="3"/>
+    </row>
+    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B933" s="3"/>
+      <c r="C933" s="3"/>
+      <c r="D933" s="3"/>
+      <c r="E933" s="3"/>
+      <c r="F933" s="3"/>
+      <c r="G933" s="3"/>
+      <c r="H933" s="3"/>
+      <c r="I933" s="3"/>
+      <c r="J933" s="3"/>
+      <c r="K933" s="3"/>
+      <c r="L933" s="3"/>
+      <c r="M933" s="3"/>
+      <c r="N933" s="3"/>
+      <c r="O933" s="3"/>
+      <c r="P933" s="3"/>
+      <c r="Q933" s="3"/>
+      <c r="R933" s="3"/>
+      <c r="S933" s="3"/>
+      <c r="T933" s="3"/>
+      <c r="U933" s="3"/>
+      <c r="V933" s="3"/>
+      <c r="W933" s="3"/>
+      <c r="X933" s="3"/>
+      <c r="Y933" s="5"/>
+      <c r="Z933" s="3"/>
+      <c r="AA933" s="3"/>
+      <c r="AB933" s="3"/>
+      <c r="AC933" s="3"/>
+      <c r="AD933" s="3"/>
+      <c r="AE933" s="3"/>
+      <c r="AF933" s="3"/>
+      <c r="AG933" s="3"/>
+      <c r="AH933" s="3"/>
+      <c r="AI933" s="3"/>
+      <c r="AJ933" s="3"/>
+      <c r="AK933" s="3"/>
+      <c r="AL933" s="3"/>
+      <c r="AM933" s="3"/>
+      <c r="AN933" s="3"/>
+      <c r="AO933" s="3"/>
+      <c r="AP933" s="3"/>
+      <c r="AQ933" s="3"/>
+      <c r="AR933" s="3"/>
+      <c r="AS933" s="3"/>
+      <c r="AT933" s="3"/>
+      <c r="AU933" s="3"/>
+      <c r="AV933" s="3"/>
+      <c r="AW933" s="3"/>
+      <c r="AX933" s="3"/>
+      <c r="AY933" s="3"/>
+      <c r="AZ933" s="3"/>
+      <c r="BA933" s="3"/>
+      <c r="BB933" s="3"/>
+      <c r="BC933" s="3"/>
+      <c r="BD933" s="3"/>
+      <c r="BE933" s="3"/>
+      <c r="BF933" s="3"/>
+      <c r="BG933" s="3"/>
+      <c r="BH933" s="3"/>
+      <c r="BI933" s="3"/>
+      <c r="BJ933" s="3"/>
+      <c r="BK933" s="3"/>
+      <c r="BL933" s="3"/>
+      <c r="BM933" s="3"/>
+      <c r="BN933" s="3"/>
+      <c r="BO933" s="3"/>
+      <c r="BP933" s="3"/>
+      <c r="BQ933" s="3"/>
+      <c r="BR933" s="3"/>
+      <c r="BS933" s="3"/>
+      <c r="BT933" s="3"/>
+      <c r="BU933" s="3"/>
+      <c r="BV933" s="3"/>
+      <c r="BW933" s="3"/>
+      <c r="BX933" s="3"/>
+      <c r="BY933" s="3"/>
+      <c r="BZ933" s="3"/>
+      <c r="CA933" s="3"/>
+      <c r="CB933" s="3"/>
+      <c r="CC933" s="3"/>
+      <c r="CD933" s="3"/>
+    </row>
+    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B967" s="3"/>
+      <c r="C967" s="3"/>
+      <c r="D967" s="3"/>
+      <c r="E967" s="3"/>
+      <c r="F967" s="3"/>
+      <c r="G967" s="3"/>
+      <c r="H967" s="3"/>
+      <c r="I967" s="3"/>
+      <c r="J967" s="3"/>
+      <c r="K967" s="3"/>
+      <c r="L967" s="3"/>
+      <c r="M967" s="3"/>
+      <c r="N967" s="3"/>
+      <c r="O967" s="3"/>
+      <c r="P967" s="3"/>
+      <c r="Q967" s="3"/>
+      <c r="R967" s="3"/>
+      <c r="S967" s="3"/>
+      <c r="T967" s="3"/>
+      <c r="U967" s="3"/>
+      <c r="V967" s="3"/>
+      <c r="W967" s="3"/>
+      <c r="X967" s="3"/>
+      <c r="Y967" s="5"/>
+      <c r="Z967" s="3"/>
+      <c r="AA967" s="3"/>
+      <c r="AB967" s="3"/>
+      <c r="AC967" s="3"/>
+      <c r="AD967" s="3"/>
+      <c r="AE967" s="3"/>
+      <c r="AF967" s="3"/>
+      <c r="AG967" s="3"/>
+      <c r="AH967" s="3"/>
+      <c r="AI967" s="3"/>
+      <c r="AJ967" s="3"/>
+      <c r="AK967" s="3"/>
+      <c r="AL967" s="3"/>
+      <c r="AM967" s="3"/>
+      <c r="AN967" s="3"/>
+      <c r="AO967" s="3"/>
+      <c r="AP967" s="3"/>
+      <c r="AQ967" s="3"/>
+      <c r="AR967" s="3"/>
+      <c r="AS967" s="3"/>
+      <c r="AT967" s="3"/>
+      <c r="AU967" s="3"/>
+      <c r="AV967" s="3"/>
+      <c r="AW967" s="3"/>
+      <c r="AX967" s="3"/>
+      <c r="AY967" s="3"/>
+      <c r="AZ967" s="3"/>
+      <c r="BA967" s="3"/>
+      <c r="BB967" s="3"/>
+      <c r="BC967" s="3"/>
+      <c r="BD967" s="3"/>
+      <c r="BE967" s="3"/>
+      <c r="BF967" s="3"/>
+      <c r="BG967" s="3"/>
+      <c r="BH967" s="3"/>
+      <c r="BI967" s="3"/>
+      <c r="BJ967" s="3"/>
+      <c r="BK967" s="3"/>
+      <c r="BL967" s="3"/>
+      <c r="BM967" s="3"/>
+      <c r="BN967" s="3"/>
+      <c r="BO967" s="3"/>
+      <c r="BP967" s="3"/>
+      <c r="BQ967" s="3"/>
+      <c r="BR967" s="3"/>
+      <c r="BS967" s="3"/>
+      <c r="BT967" s="3"/>
+      <c r="BU967" s="3"/>
+      <c r="BV967" s="3"/>
+      <c r="BW967" s="3"/>
+      <c r="BX967" s="3"/>
+      <c r="BY967" s="3"/>
+      <c r="BZ967" s="3"/>
+      <c r="CA967" s="3"/>
+      <c r="CB967" s="3"/>
+      <c r="CC967" s="3"/>
+      <c r="CD967" s="3"/>
+    </row>
+    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="5"/>
+      <c r="Z1001" s="3"/>
+      <c r="AA1001" s="3"/>
+      <c r="AB1001" s="3"/>
+      <c r="AC1001" s="3"/>
+      <c r="AD1001" s="3"/>
+      <c r="AE1001" s="3"/>
+      <c r="AF1001" s="3"/>
+      <c r="AG1001" s="3"/>
+      <c r="AH1001" s="3"/>
+      <c r="AI1001" s="3"/>
+      <c r="AJ1001" s="3"/>
+      <c r="AK1001" s="3"/>
+      <c r="AL1001" s="3"/>
+      <c r="AM1001" s="3"/>
+      <c r="AN1001" s="3"/>
+      <c r="AO1001" s="3"/>
+      <c r="AP1001" s="3"/>
+      <c r="AQ1001" s="3"/>
+      <c r="AR1001" s="3"/>
+      <c r="AS1001" s="3"/>
+      <c r="AT1001" s="3"/>
+      <c r="AU1001" s="3"/>
+      <c r="AV1001" s="3"/>
+      <c r="AW1001" s="3"/>
+      <c r="AX1001" s="3"/>
+      <c r="AY1001" s="3"/>
+      <c r="AZ1001" s="3"/>
+      <c r="BA1001" s="3"/>
+      <c r="BB1001" s="3"/>
+      <c r="BC1001" s="3"/>
+      <c r="BD1001" s="3"/>
+      <c r="BE1001" s="3"/>
+      <c r="BF1001" s="3"/>
+      <c r="BG1001" s="3"/>
+      <c r="BH1001" s="3"/>
+      <c r="BI1001" s="3"/>
+      <c r="BJ1001" s="3"/>
+      <c r="BK1001" s="3"/>
+      <c r="BL1001" s="3"/>
+      <c r="BM1001" s="3"/>
+      <c r="BN1001" s="3"/>
+      <c r="BO1001" s="3"/>
+      <c r="BP1001" s="3"/>
+      <c r="BQ1001" s="3"/>
+      <c r="BR1001" s="3"/>
+      <c r="BS1001" s="3"/>
+      <c r="BT1001" s="3"/>
+      <c r="BU1001" s="3"/>
+      <c r="BV1001" s="3"/>
+      <c r="BW1001" s="3"/>
+      <c r="BX1001" s="3"/>
+      <c r="BY1001" s="3"/>
+      <c r="BZ1001" s="3"/>
+      <c r="CA1001" s="3"/>
+      <c r="CB1001" s="3"/>
+      <c r="CC1001" s="3"/>
+      <c r="CD1001" s="3"/>
+    </row>
+    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1035" s="3"/>
+      <c r="C1035" s="3"/>
+      <c r="D1035" s="3"/>
+      <c r="E1035" s="3"/>
+      <c r="F1035" s="3"/>
+      <c r="G1035" s="3"/>
+      <c r="H1035" s="3"/>
+      <c r="I1035" s="3"/>
+      <c r="J1035" s="3"/>
+      <c r="K1035" s="3"/>
+      <c r="L1035" s="3"/>
+      <c r="M1035" s="3"/>
+      <c r="N1035" s="3"/>
+      <c r="O1035" s="3"/>
+      <c r="P1035" s="3"/>
+      <c r="Q1035" s="3"/>
+      <c r="R1035" s="3"/>
+      <c r="S1035" s="3"/>
+      <c r="T1035" s="3"/>
+      <c r="U1035" s="3"/>
+      <c r="V1035" s="3"/>
+      <c r="W1035" s="3"/>
+      <c r="X1035" s="3"/>
+      <c r="Y1035" s="5"/>
+      <c r="Z1035" s="3"/>
+      <c r="AA1035" s="3"/>
+      <c r="AB1035" s="3"/>
+      <c r="AC1035" s="3"/>
+      <c r="AD1035" s="3"/>
+      <c r="AE1035" s="3"/>
+      <c r="AF1035" s="3"/>
+      <c r="AG1035" s="3"/>
+      <c r="AH1035" s="3"/>
+      <c r="AI1035" s="3"/>
+      <c r="AJ1035" s="3"/>
+      <c r="AK1035" s="3"/>
+      <c r="AL1035" s="3"/>
+      <c r="AM1035" s="3"/>
+      <c r="AN1035" s="3"/>
+      <c r="AO1035" s="3"/>
+      <c r="AP1035" s="3"/>
+      <c r="AQ1035" s="3"/>
+      <c r="AR1035" s="3"/>
+      <c r="AS1035" s="3"/>
+      <c r="AT1035" s="3"/>
+      <c r="AU1035" s="3"/>
+      <c r="AV1035" s="3"/>
+      <c r="AW1035" s="3"/>
+      <c r="AX1035" s="3"/>
+      <c r="AY1035" s="3"/>
+      <c r="AZ1035" s="3"/>
+      <c r="BA1035" s="3"/>
+      <c r="BB1035" s="3"/>
+      <c r="BC1035" s="3"/>
+      <c r="BD1035" s="3"/>
+      <c r="BE1035" s="3"/>
+      <c r="BF1035" s="3"/>
+      <c r="BG1035" s="3"/>
+      <c r="BH1035" s="3"/>
+      <c r="BI1035" s="3"/>
+      <c r="BJ1035" s="3"/>
+      <c r="BK1035" s="3"/>
+      <c r="BL1035" s="3"/>
+      <c r="BM1035" s="3"/>
+      <c r="BN1035" s="3"/>
+      <c r="BO1035" s="3"/>
+      <c r="BP1035" s="3"/>
+      <c r="BQ1035" s="3"/>
+      <c r="BR1035" s="3"/>
+      <c r="BS1035" s="3"/>
+      <c r="BT1035" s="3"/>
+      <c r="BU1035" s="3"/>
+      <c r="BV1035" s="3"/>
+      <c r="BW1035" s="3"/>
+      <c r="BX1035" s="3"/>
+      <c r="BY1035" s="3"/>
+      <c r="BZ1035" s="3"/>
+      <c r="CA1035" s="3"/>
+      <c r="CB1035" s="3"/>
+      <c r="CC1035" s="3"/>
+      <c r="CD1035" s="3"/>
+    </row>
+    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1069" s="3"/>
+      <c r="C1069" s="3"/>
+      <c r="D1069" s="3"/>
+      <c r="E1069" s="3"/>
+      <c r="F1069" s="3"/>
+      <c r="G1069" s="3"/>
+      <c r="H1069" s="3"/>
+      <c r="I1069" s="3"/>
+      <c r="J1069" s="3"/>
+      <c r="K1069" s="3"/>
+      <c r="L1069" s="3"/>
+      <c r="M1069" s="3"/>
+      <c r="N1069" s="3"/>
+      <c r="O1069" s="3"/>
+      <c r="P1069" s="3"/>
+      <c r="Q1069" s="3"/>
+      <c r="R1069" s="3"/>
+      <c r="S1069" s="3"/>
+      <c r="T1069" s="3"/>
+      <c r="U1069" s="3"/>
+      <c r="V1069" s="3"/>
+      <c r="W1069" s="3"/>
+      <c r="X1069" s="3"/>
+      <c r="Y1069" s="5"/>
+      <c r="Z1069" s="3"/>
+      <c r="AA1069" s="3"/>
+      <c r="AB1069" s="3"/>
+      <c r="AC1069" s="3"/>
+      <c r="AD1069" s="3"/>
+      <c r="AE1069" s="3"/>
+      <c r="AF1069" s="3"/>
+      <c r="AG1069" s="3"/>
+      <c r="AH1069" s="3"/>
+      <c r="AI1069" s="3"/>
+      <c r="AJ1069" s="3"/>
+      <c r="AK1069" s="3"/>
+      <c r="AL1069" s="3"/>
+      <c r="AM1069" s="3"/>
+      <c r="AN1069" s="3"/>
+      <c r="AO1069" s="3"/>
+      <c r="AP1069" s="3"/>
+      <c r="AQ1069" s="3"/>
+      <c r="AR1069" s="3"/>
+      <c r="AS1069" s="3"/>
+      <c r="AT1069" s="3"/>
+      <c r="AU1069" s="3"/>
+      <c r="AV1069" s="3"/>
+      <c r="AW1069" s="3"/>
+      <c r="AX1069" s="3"/>
+      <c r="AY1069" s="3"/>
+      <c r="AZ1069" s="3"/>
+      <c r="BA1069" s="3"/>
+      <c r="BB1069" s="3"/>
+      <c r="BC1069" s="3"/>
+      <c r="BD1069" s="3"/>
+      <c r="BE1069" s="3"/>
+      <c r="BF1069" s="3"/>
+      <c r="BG1069" s="3"/>
+      <c r="BH1069" s="3"/>
+      <c r="BI1069" s="3"/>
+      <c r="BJ1069" s="3"/>
+      <c r="BK1069" s="3"/>
+      <c r="BL1069" s="3"/>
+      <c r="BM1069" s="3"/>
+      <c r="BN1069" s="3"/>
+      <c r="BO1069" s="3"/>
+      <c r="BP1069" s="3"/>
+      <c r="BQ1069" s="3"/>
+      <c r="BR1069" s="3"/>
+      <c r="BS1069" s="3"/>
+      <c r="BT1069" s="3"/>
+      <c r="BU1069" s="3"/>
+      <c r="BV1069" s="3"/>
+      <c r="BW1069" s="3"/>
+      <c r="BX1069" s="3"/>
+      <c r="BY1069" s="3"/>
+      <c r="BZ1069" s="3"/>
+      <c r="CA1069" s="3"/>
+      <c r="CB1069" s="3"/>
+      <c r="CC1069" s="3"/>
+      <c r="CD1069" s="3"/>
+    </row>
+    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1103" s="3"/>
+      <c r="C1103" s="3"/>
+      <c r="D1103" s="3"/>
+      <c r="E1103" s="3"/>
+      <c r="F1103" s="3"/>
+      <c r="G1103" s="3"/>
+      <c r="H1103" s="3"/>
+      <c r="I1103" s="3"/>
+      <c r="J1103" s="3"/>
+      <c r="K1103" s="3"/>
+      <c r="L1103" s="3"/>
+      <c r="M1103" s="3"/>
+      <c r="N1103" s="3"/>
+      <c r="O1103" s="3"/>
+      <c r="P1103" s="3"/>
+      <c r="Q1103" s="3"/>
+      <c r="R1103" s="3"/>
+      <c r="S1103" s="3"/>
+      <c r="T1103" s="3"/>
+      <c r="U1103" s="3"/>
+      <c r="V1103" s="3"/>
+      <c r="W1103" s="3"/>
+      <c r="X1103" s="3"/>
+      <c r="Y1103" s="5"/>
+      <c r="Z1103" s="3"/>
+      <c r="AA1103" s="3"/>
+      <c r="AB1103" s="3"/>
+      <c r="AC1103" s="3"/>
+      <c r="AD1103" s="3"/>
+      <c r="AE1103" s="3"/>
+      <c r="AF1103" s="3"/>
+      <c r="AG1103" s="3"/>
+      <c r="AH1103" s="3"/>
+      <c r="AI1103" s="3"/>
+      <c r="AJ1103" s="3"/>
+      <c r="AK1103" s="3"/>
+      <c r="AL1103" s="3"/>
+      <c r="AM1103" s="3"/>
+      <c r="AN1103" s="3"/>
+      <c r="AO1103" s="3"/>
+      <c r="AP1103" s="3"/>
+      <c r="AQ1103" s="3"/>
+      <c r="AR1103" s="3"/>
+      <c r="AS1103" s="3"/>
+      <c r="AT1103" s="3"/>
+      <c r="AU1103" s="3"/>
+      <c r="AV1103" s="3"/>
+      <c r="AW1103" s="3"/>
+      <c r="AX1103" s="3"/>
+      <c r="AY1103" s="3"/>
+      <c r="AZ1103" s="3"/>
+      <c r="BA1103" s="3"/>
+      <c r="BB1103" s="3"/>
+      <c r="BC1103" s="3"/>
+      <c r="BD1103" s="3"/>
+      <c r="BE1103" s="3"/>
+      <c r="BF1103" s="3"/>
+      <c r="BG1103" s="3"/>
+      <c r="BH1103" s="3"/>
+      <c r="BI1103" s="3"/>
+      <c r="BJ1103" s="3"/>
+      <c r="BK1103" s="3"/>
+      <c r="BL1103" s="3"/>
+      <c r="BM1103" s="3"/>
+      <c r="BN1103" s="3"/>
+      <c r="BO1103" s="3"/>
+      <c r="BP1103" s="3"/>
+      <c r="BQ1103" s="3"/>
+      <c r="BR1103" s="3"/>
+      <c r="BS1103" s="3"/>
+      <c r="BT1103" s="3"/>
+      <c r="BU1103" s="3"/>
+      <c r="BV1103" s="3"/>
+      <c r="BW1103" s="3"/>
+      <c r="BX1103" s="3"/>
+      <c r="BY1103" s="3"/>
+      <c r="BZ1103" s="3"/>
+      <c r="CA1103" s="3"/>
+      <c r="CB1103" s="3"/>
+      <c r="CC1103" s="3"/>
+      <c r="CD1103" s="3"/>
+    </row>
+    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1137" s="3"/>
+      <c r="C1137" s="3"/>
+      <c r="D1137" s="3"/>
+      <c r="E1137" s="3"/>
+      <c r="F1137" s="3"/>
+      <c r="G1137" s="3"/>
+      <c r="H1137" s="3"/>
+      <c r="I1137" s="3"/>
+      <c r="J1137" s="3"/>
+      <c r="K1137" s="3"/>
+      <c r="L1137" s="3"/>
+      <c r="M1137" s="3"/>
+      <c r="N1137" s="3"/>
+      <c r="O1137" s="3"/>
+      <c r="P1137" s="3"/>
+      <c r="Q1137" s="3"/>
+      <c r="R1137" s="3"/>
+      <c r="S1137" s="3"/>
+      <c r="T1137" s="3"/>
+      <c r="U1137" s="3"/>
+      <c r="V1137" s="3"/>
+      <c r="W1137" s="3"/>
+      <c r="X1137" s="3"/>
+      <c r="Y1137" s="5"/>
+      <c r="Z1137" s="3"/>
+      <c r="AA1137" s="3"/>
+      <c r="AB1137" s="3"/>
+      <c r="AC1137" s="3"/>
+      <c r="AD1137" s="3"/>
+      <c r="AE1137" s="3"/>
+      <c r="AF1137" s="3"/>
+      <c r="AG1137" s="3"/>
+      <c r="AH1137" s="3"/>
+      <c r="AI1137" s="3"/>
+      <c r="AJ1137" s="3"/>
+      <c r="AK1137" s="3"/>
+      <c r="AL1137" s="3"/>
+      <c r="AM1137" s="3"/>
+      <c r="AN1137" s="3"/>
+      <c r="AO1137" s="3"/>
+      <c r="AP1137" s="3"/>
+      <c r="AQ1137" s="3"/>
+      <c r="AR1137" s="3"/>
+      <c r="AS1137" s="3"/>
+      <c r="AT1137" s="3"/>
+      <c r="AU1137" s="3"/>
+      <c r="AV1137" s="3"/>
+      <c r="AW1137" s="3"/>
+      <c r="AX1137" s="3"/>
+      <c r="AY1137" s="3"/>
+      <c r="AZ1137" s="3"/>
+      <c r="BA1137" s="3"/>
+      <c r="BB1137" s="3"/>
+      <c r="BC1137" s="3"/>
+      <c r="BD1137" s="3"/>
+      <c r="BE1137" s="3"/>
+      <c r="BF1137" s="3"/>
+      <c r="BG1137" s="3"/>
+      <c r="BH1137" s="3"/>
+      <c r="BI1137" s="3"/>
+      <c r="BJ1137" s="3"/>
+      <c r="BK1137" s="3"/>
+      <c r="BL1137" s="3"/>
+      <c r="BM1137" s="3"/>
+      <c r="BN1137" s="3"/>
+      <c r="BO1137" s="3"/>
+      <c r="BP1137" s="3"/>
+      <c r="BQ1137" s="3"/>
+      <c r="BR1137" s="3"/>
+      <c r="BS1137" s="3"/>
+      <c r="BT1137" s="3"/>
+      <c r="BU1137" s="3"/>
+      <c r="BV1137" s="3"/>
+      <c r="BW1137" s="3"/>
+      <c r="BX1137" s="3"/>
+      <c r="BY1137" s="3"/>
+      <c r="BZ1137" s="3"/>
+      <c r="CA1137" s="3"/>
+      <c r="CB1137" s="3"/>
+      <c r="CC1137" s="3"/>
+      <c r="CD1137" s="3"/>
+    </row>
+    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1171" s="3"/>
+      <c r="C1171" s="3"/>
+      <c r="D1171" s="3"/>
+      <c r="E1171" s="3"/>
+      <c r="F1171" s="3"/>
+      <c r="G1171" s="3"/>
+      <c r="H1171" s="3"/>
+      <c r="I1171" s="3"/>
+      <c r="J1171" s="3"/>
+      <c r="K1171" s="3"/>
+      <c r="L1171" s="3"/>
+      <c r="M1171" s="3"/>
+      <c r="N1171" s="3"/>
+      <c r="O1171" s="3"/>
+      <c r="P1171" s="3"/>
+      <c r="Q1171" s="3"/>
+      <c r="R1171" s="3"/>
+      <c r="S1171" s="3"/>
+      <c r="T1171" s="3"/>
+      <c r="U1171" s="3"/>
+      <c r="V1171" s="3"/>
+      <c r="W1171" s="3"/>
+      <c r="X1171" s="3"/>
+      <c r="Y1171" s="5"/>
+      <c r="Z1171" s="3"/>
+      <c r="AA1171" s="3"/>
+      <c r="AB1171" s="3"/>
+      <c r="AC1171" s="3"/>
+      <c r="AD1171" s="3"/>
+      <c r="AE1171" s="3"/>
+      <c r="AF1171" s="3"/>
+      <c r="AG1171" s="3"/>
+      <c r="AH1171" s="3"/>
+      <c r="AI1171" s="3"/>
+      <c r="AJ1171" s="3"/>
+      <c r="AK1171" s="3"/>
+      <c r="AL1171" s="3"/>
+      <c r="AM1171" s="3"/>
+      <c r="AN1171" s="3"/>
+      <c r="AO1171" s="3"/>
+      <c r="AP1171" s="3"/>
+      <c r="AQ1171" s="3"/>
+      <c r="AR1171" s="3"/>
+      <c r="AS1171" s="3"/>
+      <c r="AT1171" s="3"/>
+      <c r="AU1171" s="3"/>
+      <c r="AV1171" s="3"/>
+      <c r="AW1171" s="3"/>
+      <c r="AX1171" s="3"/>
+      <c r="AY1171" s="3"/>
+      <c r="AZ1171" s="3"/>
+      <c r="BA1171" s="3"/>
+      <c r="BB1171" s="3"/>
+      <c r="BC1171" s="3"/>
+      <c r="BD1171" s="3"/>
+      <c r="BE1171" s="3"/>
+      <c r="BF1171" s="3"/>
+      <c r="BG1171" s="3"/>
+      <c r="BH1171" s="3"/>
+      <c r="BI1171" s="3"/>
+      <c r="BJ1171" s="3"/>
+      <c r="BK1171" s="3"/>
+      <c r="BL1171" s="3"/>
+      <c r="BM1171" s="3"/>
+      <c r="BN1171" s="3"/>
+      <c r="BO1171" s="3"/>
+      <c r="BP1171" s="3"/>
+      <c r="BQ1171" s="3"/>
+      <c r="BR1171" s="3"/>
+      <c r="BS1171" s="3"/>
+      <c r="BT1171" s="3"/>
+      <c r="BU1171" s="3"/>
+      <c r="BV1171" s="3"/>
+      <c r="BW1171" s="3"/>
+      <c r="BX1171" s="3"/>
+      <c r="BY1171" s="3"/>
+      <c r="BZ1171" s="3"/>
+      <c r="CA1171" s="3"/>
+      <c r="CB1171" s="3"/>
+      <c r="CC1171" s="3"/>
+      <c r="CD1171" s="3"/>
+    </row>
+    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1205" s="3"/>
+      <c r="C1205" s="3"/>
+      <c r="D1205" s="3"/>
+      <c r="E1205" s="3"/>
+      <c r="F1205" s="3"/>
+      <c r="G1205" s="3"/>
+      <c r="H1205" s="3"/>
+      <c r="I1205" s="3"/>
+      <c r="J1205" s="3"/>
+      <c r="K1205" s="3"/>
+      <c r="L1205" s="3"/>
+      <c r="M1205" s="3"/>
+      <c r="N1205" s="3"/>
+      <c r="O1205" s="3"/>
+      <c r="P1205" s="3"/>
+      <c r="Q1205" s="3"/>
+      <c r="R1205" s="3"/>
+      <c r="S1205" s="3"/>
+      <c r="T1205" s="3"/>
+      <c r="U1205" s="3"/>
+      <c r="V1205" s="3"/>
+      <c r="W1205" s="3"/>
+      <c r="X1205" s="3"/>
+      <c r="Y1205" s="5"/>
+      <c r="Z1205" s="3"/>
+      <c r="AA1205" s="3"/>
+      <c r="AB1205" s="3"/>
+      <c r="AC1205" s="3"/>
+      <c r="AD1205" s="3"/>
+      <c r="AE1205" s="3"/>
+      <c r="AF1205" s="3"/>
+      <c r="AG1205" s="3"/>
+      <c r="AH1205" s="3"/>
+      <c r="AI1205" s="3"/>
+      <c r="AJ1205" s="3"/>
+      <c r="AK1205" s="3"/>
+      <c r="AL1205" s="3"/>
+      <c r="AM1205" s="3"/>
+      <c r="AN1205" s="3"/>
+      <c r="AO1205" s="3"/>
+      <c r="AP1205" s="3"/>
+      <c r="AQ1205" s="3"/>
+      <c r="AR1205" s="3"/>
+      <c r="AS1205" s="3"/>
+      <c r="AT1205" s="3"/>
+      <c r="AU1205" s="3"/>
+      <c r="AV1205" s="3"/>
+      <c r="AW1205" s="3"/>
+      <c r="AX1205" s="3"/>
+      <c r="AY1205" s="3"/>
+      <c r="AZ1205" s="3"/>
+      <c r="BA1205" s="3"/>
+      <c r="BB1205" s="3"/>
+      <c r="BC1205" s="3"/>
+      <c r="BD1205" s="3"/>
+      <c r="BE1205" s="3"/>
+      <c r="BF1205" s="3"/>
+      <c r="BG1205" s="3"/>
+      <c r="BH1205" s="3"/>
+      <c r="BI1205" s="3"/>
+      <c r="BJ1205" s="3"/>
+      <c r="BK1205" s="3"/>
+      <c r="BL1205" s="3"/>
+      <c r="BM1205" s="3"/>
+      <c r="BN1205" s="3"/>
+      <c r="BO1205" s="3"/>
+      <c r="BP1205" s="3"/>
+      <c r="BQ1205" s="3"/>
+      <c r="BR1205" s="3"/>
+      <c r="BS1205" s="3"/>
+      <c r="BT1205" s="3"/>
+      <c r="BU1205" s="3"/>
+      <c r="BV1205" s="3"/>
+      <c r="BW1205" s="3"/>
+      <c r="BX1205" s="3"/>
+      <c r="BY1205" s="3"/>
+      <c r="BZ1205" s="3"/>
+      <c r="CA1205" s="3"/>
+      <c r="CB1205" s="3"/>
+      <c r="CC1205" s="3"/>
+      <c r="CD1205" s="3"/>
+    </row>
+    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1239" s="3"/>
+      <c r="C1239" s="3"/>
+      <c r="D1239" s="3"/>
+      <c r="E1239" s="3"/>
+      <c r="F1239" s="3"/>
+      <c r="G1239" s="3"/>
+      <c r="H1239" s="3"/>
+      <c r="I1239" s="3"/>
+      <c r="J1239" s="3"/>
+      <c r="K1239" s="3"/>
+      <c r="L1239" s="3"/>
+      <c r="M1239" s="3"/>
+      <c r="N1239" s="3"/>
+      <c r="O1239" s="3"/>
+      <c r="P1239" s="3"/>
+      <c r="Q1239" s="3"/>
+      <c r="R1239" s="3"/>
+      <c r="S1239" s="3"/>
+      <c r="T1239" s="3"/>
+      <c r="U1239" s="3"/>
+      <c r="V1239" s="3"/>
+      <c r="W1239" s="3"/>
+      <c r="X1239" s="3"/>
+      <c r="Y1239" s="5"/>
+      <c r="Z1239" s="3"/>
+      <c r="AA1239" s="3"/>
+      <c r="AB1239" s="3"/>
+      <c r="AC1239" s="3"/>
+      <c r="AD1239" s="3"/>
+      <c r="AE1239" s="3"/>
+      <c r="AF1239" s="3"/>
+      <c r="AG1239" s="3"/>
+      <c r="AH1239" s="3"/>
+      <c r="AI1239" s="3"/>
+      <c r="AJ1239" s="3"/>
+      <c r="AK1239" s="3"/>
+      <c r="AL1239" s="3"/>
+      <c r="AM1239" s="3"/>
+      <c r="AN1239" s="3"/>
+      <c r="AO1239" s="3"/>
+      <c r="AP1239" s="3"/>
+      <c r="AQ1239" s="3"/>
+      <c r="AR1239" s="3"/>
+      <c r="AS1239" s="3"/>
+      <c r="AT1239" s="3"/>
+      <c r="AU1239" s="3"/>
+      <c r="AV1239" s="3"/>
+      <c r="AW1239" s="3"/>
+      <c r="AX1239" s="3"/>
+      <c r="AY1239" s="3"/>
+      <c r="AZ1239" s="3"/>
+      <c r="BA1239" s="3"/>
+      <c r="BB1239" s="3"/>
+      <c r="BC1239" s="3"/>
+      <c r="BD1239" s="3"/>
+      <c r="BE1239" s="3"/>
+      <c r="BF1239" s="3"/>
+      <c r="BG1239" s="3"/>
+      <c r="BH1239" s="3"/>
+      <c r="BI1239" s="3"/>
+      <c r="BJ1239" s="3"/>
+      <c r="BK1239" s="3"/>
+      <c r="BL1239" s="3"/>
+      <c r="BM1239" s="3"/>
+      <c r="BN1239" s="3"/>
+      <c r="BO1239" s="3"/>
+      <c r="BP1239" s="3"/>
+      <c r="BQ1239" s="3"/>
+      <c r="BR1239" s="3"/>
+      <c r="BS1239" s="3"/>
+      <c r="BT1239" s="3"/>
+      <c r="BU1239" s="3"/>
+      <c r="BV1239" s="3"/>
+      <c r="BW1239" s="3"/>
+      <c r="BX1239" s="3"/>
+      <c r="BY1239" s="3"/>
+      <c r="BZ1239" s="3"/>
+      <c r="CA1239" s="3"/>
+      <c r="CB1239" s="3"/>
+      <c r="CC1239" s="3"/>
+      <c r="CD1239" s="3"/>
+    </row>
+    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1273" s="3"/>
+      <c r="C1273" s="3"/>
+      <c r="D1273" s="3"/>
+      <c r="E1273" s="3"/>
+      <c r="F1273" s="3"/>
+      <c r="G1273" s="3"/>
+      <c r="H1273" s="3"/>
+      <c r="I1273" s="3"/>
+      <c r="J1273" s="3"/>
+      <c r="K1273" s="3"/>
+      <c r="L1273" s="3"/>
+      <c r="M1273" s="3"/>
+      <c r="N1273" s="3"/>
+      <c r="O1273" s="3"/>
+      <c r="P1273" s="3"/>
+      <c r="Q1273" s="3"/>
+      <c r="R1273" s="3"/>
+      <c r="S1273" s="3"/>
+      <c r="T1273" s="3"/>
+      <c r="U1273" s="3"/>
+      <c r="V1273" s="3"/>
+      <c r="W1273" s="3"/>
+      <c r="X1273" s="3"/>
+      <c r="Y1273" s="5"/>
+      <c r="Z1273" s="3"/>
+      <c r="AA1273" s="3"/>
+      <c r="AB1273" s="3"/>
+      <c r="AC1273" s="3"/>
+      <c r="AD1273" s="3"/>
+      <c r="AE1273" s="3"/>
+      <c r="AF1273" s="3"/>
+      <c r="AG1273" s="3"/>
+      <c r="AH1273" s="3"/>
+      <c r="AI1273" s="3"/>
+      <c r="AJ1273" s="3"/>
+      <c r="AK1273" s="3"/>
+      <c r="AL1273" s="3"/>
+      <c r="AM1273" s="3"/>
+      <c r="AN1273" s="3"/>
+      <c r="AO1273" s="3"/>
+      <c r="AP1273" s="3"/>
+      <c r="AQ1273" s="3"/>
+      <c r="AR1273" s="3"/>
+      <c r="AS1273" s="3"/>
+      <c r="AT1273" s="3"/>
+      <c r="AU1273" s="3"/>
+      <c r="AV1273" s="3"/>
+      <c r="AW1273" s="3"/>
+      <c r="AX1273" s="3"/>
+      <c r="AY1273" s="3"/>
+      <c r="AZ1273" s="3"/>
+      <c r="BA1273" s="3"/>
+      <c r="BB1273" s="3"/>
+      <c r="BC1273" s="3"/>
+      <c r="BD1273" s="3"/>
+      <c r="BE1273" s="3"/>
+      <c r="BF1273" s="3"/>
+      <c r="BG1273" s="3"/>
+      <c r="BH1273" s="3"/>
+      <c r="BI1273" s="3"/>
+      <c r="BJ1273" s="3"/>
+      <c r="BK1273" s="3"/>
+      <c r="BL1273" s="3"/>
+      <c r="BM1273" s="3"/>
+      <c r="BN1273" s="3"/>
+      <c r="BO1273" s="3"/>
+      <c r="BP1273" s="3"/>
+      <c r="BQ1273" s="3"/>
+      <c r="BR1273" s="3"/>
+      <c r="BS1273" s="3"/>
+      <c r="BT1273" s="3"/>
+      <c r="BU1273" s="3"/>
+      <c r="BV1273" s="3"/>
+      <c r="BW1273" s="3"/>
+      <c r="BX1273" s="3"/>
+      <c r="BY1273" s="3"/>
+      <c r="BZ1273" s="3"/>
+      <c r="CA1273" s="3"/>
+      <c r="CB1273" s="3"/>
+      <c r="CC1273" s="3"/>
+      <c r="CD1273" s="3"/>
+    </row>
+    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1307" s="3"/>
+      <c r="C1307" s="3"/>
+      <c r="D1307" s="3"/>
+      <c r="E1307" s="3"/>
+      <c r="F1307" s="3"/>
+      <c r="G1307" s="3"/>
+      <c r="H1307" s="3"/>
+      <c r="I1307" s="3"/>
+      <c r="J1307" s="3"/>
+      <c r="K1307" s="3"/>
+      <c r="L1307" s="3"/>
+      <c r="M1307" s="3"/>
+      <c r="N1307" s="3"/>
+      <c r="O1307" s="3"/>
+      <c r="P1307" s="3"/>
+      <c r="Q1307" s="3"/>
+      <c r="R1307" s="3"/>
+      <c r="S1307" s="3"/>
+      <c r="T1307" s="3"/>
+      <c r="U1307" s="3"/>
+      <c r="V1307" s="3"/>
+      <c r="W1307" s="3"/>
+      <c r="X1307" s="3"/>
+      <c r="Y1307" s="5"/>
+      <c r="Z1307" s="3"/>
+      <c r="AA1307" s="3"/>
+      <c r="AB1307" s="3"/>
+      <c r="AC1307" s="3"/>
+      <c r="AD1307" s="3"/>
+      <c r="AE1307" s="3"/>
+      <c r="AF1307" s="3"/>
+      <c r="AG1307" s="3"/>
+      <c r="AH1307" s="3"/>
+      <c r="AI1307" s="3"/>
+      <c r="AJ1307" s="3"/>
+      <c r="AK1307" s="3"/>
+      <c r="AL1307" s="3"/>
+      <c r="AM1307" s="3"/>
+      <c r="AN1307" s="3"/>
+      <c r="AO1307" s="3"/>
+      <c r="AP1307" s="3"/>
+      <c r="AQ1307" s="3"/>
+      <c r="AR1307" s="3"/>
+      <c r="AS1307" s="3"/>
+      <c r="AT1307" s="3"/>
+      <c r="AU1307" s="3"/>
+      <c r="AV1307" s="3"/>
+      <c r="AW1307" s="3"/>
+      <c r="AX1307" s="3"/>
+      <c r="AY1307" s="3"/>
+      <c r="AZ1307" s="3"/>
+      <c r="BA1307" s="3"/>
+      <c r="BB1307" s="3"/>
+      <c r="BC1307" s="3"/>
+      <c r="BD1307" s="3"/>
+      <c r="BE1307" s="3"/>
+      <c r="BF1307" s="3"/>
+      <c r="BG1307" s="3"/>
+      <c r="BH1307" s="3"/>
+      <c r="BI1307" s="3"/>
+      <c r="BJ1307" s="3"/>
+      <c r="BK1307" s="3"/>
+      <c r="BL1307" s="3"/>
+      <c r="BM1307" s="3"/>
+      <c r="BN1307" s="3"/>
+      <c r="BO1307" s="3"/>
+      <c r="BP1307" s="3"/>
+      <c r="BQ1307" s="3"/>
+      <c r="BR1307" s="3"/>
+      <c r="BS1307" s="3"/>
+      <c r="BT1307" s="3"/>
+      <c r="BU1307" s="3"/>
+      <c r="BV1307" s="3"/>
+      <c r="BW1307" s="3"/>
+      <c r="BX1307" s="3"/>
+      <c r="BY1307" s="3"/>
+      <c r="BZ1307" s="3"/>
+      <c r="CA1307" s="3"/>
+      <c r="CB1307" s="3"/>
+      <c r="CC1307" s="3"/>
+      <c r="CD1307" s="3"/>
+    </row>
+    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1341" s="3"/>
+      <c r="C1341" s="3"/>
+      <c r="D1341" s="3"/>
+      <c r="E1341" s="3"/>
+      <c r="F1341" s="3"/>
+      <c r="G1341" s="3"/>
+      <c r="H1341" s="3"/>
+      <c r="I1341" s="3"/>
+      <c r="J1341" s="3"/>
+      <c r="K1341" s="3"/>
+      <c r="L1341" s="3"/>
+      <c r="M1341" s="3"/>
+      <c r="N1341" s="3"/>
+      <c r="O1341" s="3"/>
+      <c r="P1341" s="3"/>
+      <c r="Q1341" s="3"/>
+      <c r="R1341" s="3"/>
+      <c r="S1341" s="3"/>
+      <c r="T1341" s="3"/>
+      <c r="U1341" s="3"/>
+      <c r="V1341" s="3"/>
+      <c r="W1341" s="3"/>
+      <c r="X1341" s="3"/>
+      <c r="Y1341" s="5"/>
+      <c r="Z1341" s="3"/>
+      <c r="AA1341" s="3"/>
+      <c r="AB1341" s="3"/>
+      <c r="AC1341" s="3"/>
+      <c r="AD1341" s="3"/>
+      <c r="AE1341" s="3"/>
+      <c r="AF1341" s="3"/>
+      <c r="AG1341" s="3"/>
+      <c r="AH1341" s="3"/>
+      <c r="AI1341" s="3"/>
+      <c r="AJ1341" s="3"/>
+      <c r="AK1341" s="3"/>
+      <c r="AL1341" s="3"/>
+      <c r="AM1341" s="3"/>
+      <c r="AN1341" s="3"/>
+      <c r="AO1341" s="3"/>
+      <c r="AP1341" s="3"/>
+      <c r="AQ1341" s="3"/>
+      <c r="AR1341" s="3"/>
+      <c r="AS1341" s="3"/>
+      <c r="AT1341" s="3"/>
+      <c r="AU1341" s="3"/>
+      <c r="AV1341" s="3"/>
+      <c r="AW1341" s="3"/>
+      <c r="AX1341" s="3"/>
+      <c r="AY1341" s="3"/>
+      <c r="AZ1341" s="3"/>
+      <c r="BA1341" s="3"/>
+      <c r="BB1341" s="3"/>
+      <c r="BC1341" s="3"/>
+      <c r="BD1341" s="3"/>
+      <c r="BE1341" s="3"/>
+      <c r="BF1341" s="3"/>
+      <c r="BG1341" s="3"/>
+      <c r="BH1341" s="3"/>
+      <c r="BI1341" s="3"/>
+      <c r="BJ1341" s="3"/>
+      <c r="BK1341" s="3"/>
+      <c r="BL1341" s="3"/>
+      <c r="BM1341" s="3"/>
+      <c r="BN1341" s="3"/>
+      <c r="BO1341" s="3"/>
+      <c r="BP1341" s="3"/>
+      <c r="BQ1341" s="3"/>
+      <c r="BR1341" s="3"/>
+      <c r="BS1341" s="3"/>
+      <c r="BT1341" s="3"/>
+      <c r="BU1341" s="3"/>
+      <c r="BV1341" s="3"/>
+      <c r="BW1341" s="3"/>
+      <c r="BX1341" s="3"/>
+      <c r="BY1341" s="3"/>
+      <c r="BZ1341" s="3"/>
+      <c r="CA1341" s="3"/>
+      <c r="CB1341" s="3"/>
+      <c r="CC1341" s="3"/>
+      <c r="CD1341" s="3"/>
+    </row>
+    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1375" s="3"/>
+      <c r="C1375" s="3"/>
+      <c r="D1375" s="3"/>
+      <c r="E1375" s="3"/>
+      <c r="F1375" s="3"/>
+      <c r="G1375" s="3"/>
+      <c r="H1375" s="3"/>
+      <c r="I1375" s="3"/>
+      <c r="J1375" s="3"/>
+      <c r="K1375" s="3"/>
+      <c r="L1375" s="3"/>
+      <c r="M1375" s="3"/>
+      <c r="N1375" s="3"/>
+      <c r="O1375" s="3"/>
+      <c r="P1375" s="3"/>
+      <c r="Q1375" s="3"/>
+      <c r="R1375" s="3"/>
+      <c r="S1375" s="3"/>
+      <c r="T1375" s="3"/>
+      <c r="U1375" s="3"/>
+      <c r="V1375" s="3"/>
+      <c r="W1375" s="3"/>
+      <c r="X1375" s="3"/>
+      <c r="Y1375" s="5"/>
+      <c r="Z1375" s="3"/>
+      <c r="AA1375" s="3"/>
+      <c r="AB1375" s="3"/>
+      <c r="AC1375" s="3"/>
+      <c r="AD1375" s="3"/>
+      <c r="AE1375" s="3"/>
+      <c r="AF1375" s="3"/>
+      <c r="AG1375" s="3"/>
+      <c r="AH1375" s="3"/>
+      <c r="AI1375" s="3"/>
+      <c r="AJ1375" s="3"/>
+      <c r="AK1375" s="3"/>
+      <c r="AL1375" s="3"/>
+      <c r="AM1375" s="3"/>
+      <c r="AN1375" s="3"/>
+      <c r="AO1375" s="3"/>
+      <c r="AP1375" s="3"/>
+      <c r="AQ1375" s="3"/>
+      <c r="AR1375" s="3"/>
+      <c r="AS1375" s="3"/>
+      <c r="AT1375" s="3"/>
+      <c r="AU1375" s="3"/>
+      <c r="AV1375" s="3"/>
+      <c r="AW1375" s="3"/>
+      <c r="AX1375" s="3"/>
+      <c r="AY1375" s="3"/>
+      <c r="AZ1375" s="3"/>
+      <c r="BA1375" s="3"/>
+      <c r="BB1375" s="3"/>
+      <c r="BC1375" s="3"/>
+      <c r="BD1375" s="3"/>
+      <c r="BE1375" s="3"/>
+      <c r="BF1375" s="3"/>
+      <c r="BG1375" s="3"/>
+      <c r="BH1375" s="3"/>
+      <c r="BI1375" s="3"/>
+      <c r="BJ1375" s="3"/>
+      <c r="BK1375" s="3"/>
+      <c r="BL1375" s="3"/>
+      <c r="BM1375" s="3"/>
+      <c r="BN1375" s="3"/>
+      <c r="BO1375" s="3"/>
+      <c r="BP1375" s="3"/>
+      <c r="BQ1375" s="3"/>
+      <c r="BR1375" s="3"/>
+      <c r="BS1375" s="3"/>
+      <c r="BT1375" s="3"/>
+      <c r="BU1375" s="3"/>
+      <c r="BV1375" s="3"/>
+      <c r="BW1375" s="3"/>
+      <c r="BX1375" s="3"/>
+      <c r="BY1375" s="3"/>
+      <c r="BZ1375" s="3"/>
+      <c r="CA1375" s="3"/>
+      <c r="CB1375" s="3"/>
+      <c r="CC1375" s="3"/>
+      <c r="CD1375" s="3"/>
+    </row>
+    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1409" s="3"/>
+      <c r="C1409" s="3"/>
+      <c r="D1409" s="3"/>
+      <c r="E1409" s="3"/>
+      <c r="F1409" s="3"/>
+      <c r="G1409" s="3"/>
+      <c r="H1409" s="3"/>
+      <c r="I1409" s="3"/>
+      <c r="J1409" s="3"/>
+      <c r="K1409" s="3"/>
+      <c r="L1409" s="3"/>
+      <c r="M1409" s="3"/>
+      <c r="N1409" s="3"/>
+      <c r="O1409" s="3"/>
+      <c r="P1409" s="3"/>
+      <c r="Q1409" s="3"/>
+      <c r="R1409" s="3"/>
+      <c r="S1409" s="3"/>
+      <c r="T1409" s="3"/>
+      <c r="U1409" s="3"/>
+      <c r="V1409" s="3"/>
+      <c r="W1409" s="3"/>
+      <c r="X1409" s="3"/>
+      <c r="Y1409" s="5"/>
+      <c r="Z1409" s="3"/>
+      <c r="AA1409" s="3"/>
+      <c r="AB1409" s="3"/>
+      <c r="AC1409" s="3"/>
+      <c r="AD1409" s="3"/>
+      <c r="AE1409" s="3"/>
+      <c r="AF1409" s="3"/>
+      <c r="AG1409" s="3"/>
+      <c r="AH1409" s="3"/>
+      <c r="AI1409" s="3"/>
+      <c r="AJ1409" s="3"/>
+      <c r="AK1409" s="3"/>
+      <c r="AL1409" s="3"/>
+      <c r="AM1409" s="3"/>
+      <c r="AN1409" s="3"/>
+      <c r="AO1409" s="3"/>
+      <c r="AP1409" s="3"/>
+      <c r="AQ1409" s="3"/>
+      <c r="AR1409" s="3"/>
+      <c r="AS1409" s="3"/>
+      <c r="AT1409" s="3"/>
+      <c r="AU1409" s="3"/>
+      <c r="AV1409" s="3"/>
+      <c r="AW1409" s="3"/>
+      <c r="AX1409" s="3"/>
+      <c r="AY1409" s="3"/>
+      <c r="AZ1409" s="3"/>
+      <c r="BA1409" s="3"/>
+      <c r="BB1409" s="3"/>
+      <c r="BC1409" s="3"/>
+      <c r="BD1409" s="3"/>
+      <c r="BE1409" s="3"/>
+      <c r="BF1409" s="3"/>
+      <c r="BG1409" s="3"/>
+      <c r="BH1409" s="3"/>
+      <c r="BI1409" s="3"/>
+      <c r="BJ1409" s="3"/>
+      <c r="BK1409" s="3"/>
+      <c r="BL1409" s="3"/>
+      <c r="BM1409" s="3"/>
+      <c r="BN1409" s="3"/>
+      <c r="BO1409" s="3"/>
+      <c r="BP1409" s="3"/>
+      <c r="BQ1409" s="3"/>
+      <c r="BR1409" s="3"/>
+      <c r="BS1409" s="3"/>
+      <c r="BT1409" s="3"/>
+      <c r="BU1409" s="3"/>
+      <c r="BV1409" s="3"/>
+      <c r="BW1409" s="3"/>
+      <c r="BX1409" s="3"/>
+      <c r="BY1409" s="3"/>
+      <c r="BZ1409" s="3"/>
+      <c r="CA1409" s="3"/>
+      <c r="CB1409" s="3"/>
+      <c r="CC1409" s="3"/>
+      <c r="CD1409" s="3"/>
+    </row>
+    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1443" s="3"/>
+      <c r="C1443" s="3"/>
+      <c r="D1443" s="3"/>
+      <c r="E1443" s="3"/>
+      <c r="F1443" s="3"/>
+      <c r="G1443" s="3"/>
+      <c r="H1443" s="3"/>
+      <c r="I1443" s="3"/>
+      <c r="J1443" s="3"/>
+      <c r="K1443" s="3"/>
+      <c r="L1443" s="3"/>
+      <c r="M1443" s="3"/>
+      <c r="N1443" s="3"/>
+      <c r="O1443" s="3"/>
+      <c r="P1443" s="3"/>
+      <c r="Q1443" s="3"/>
+      <c r="R1443" s="3"/>
+      <c r="S1443" s="3"/>
+      <c r="T1443" s="3"/>
+      <c r="U1443" s="3"/>
+      <c r="V1443" s="3"/>
+      <c r="W1443" s="3"/>
+      <c r="X1443" s="3"/>
+      <c r="Y1443" s="5"/>
+      <c r="Z1443" s="3"/>
+      <c r="AA1443" s="3"/>
+      <c r="AB1443" s="3"/>
+      <c r="AC1443" s="3"/>
+      <c r="AD1443" s="3"/>
+      <c r="AE1443" s="3"/>
+      <c r="AF1443" s="3"/>
+      <c r="AG1443" s="3"/>
+      <c r="AH1443" s="3"/>
+      <c r="AI1443" s="3"/>
+      <c r="AJ1443" s="3"/>
+      <c r="AK1443" s="3"/>
+      <c r="AL1443" s="3"/>
+      <c r="AM1443" s="3"/>
+      <c r="AN1443" s="3"/>
+      <c r="AO1443" s="3"/>
+      <c r="AP1443" s="3"/>
+      <c r="AQ1443" s="3"/>
+      <c r="AR1443" s="3"/>
+      <c r="AS1443" s="3"/>
+      <c r="AT1443" s="3"/>
+      <c r="AU1443" s="3"/>
+      <c r="AV1443" s="3"/>
+      <c r="AW1443" s="3"/>
+      <c r="AX1443" s="3"/>
+      <c r="AY1443" s="3"/>
+      <c r="AZ1443" s="3"/>
+      <c r="BA1443" s="3"/>
+      <c r="BB1443" s="3"/>
+      <c r="BC1443" s="3"/>
+      <c r="BD1443" s="3"/>
+      <c r="BE1443" s="3"/>
+      <c r="BF1443" s="3"/>
+      <c r="BG1443" s="3"/>
+      <c r="BH1443" s="3"/>
+      <c r="BI1443" s="3"/>
+      <c r="BJ1443" s="3"/>
+      <c r="BK1443" s="3"/>
+      <c r="BL1443" s="3"/>
+      <c r="BM1443" s="3"/>
+      <c r="BN1443" s="3"/>
+      <c r="BO1443" s="3"/>
+      <c r="BP1443" s="3"/>
+      <c r="BQ1443" s="3"/>
+      <c r="BR1443" s="3"/>
+      <c r="BS1443" s="3"/>
+      <c r="BT1443" s="3"/>
+      <c r="BU1443" s="3"/>
+      <c r="BV1443" s="3"/>
+      <c r="BW1443" s="3"/>
+      <c r="BX1443" s="3"/>
+      <c r="BY1443" s="3"/>
+      <c r="BZ1443" s="3"/>
+      <c r="CA1443" s="3"/>
+      <c r="CB1443" s="3"/>
+      <c r="CC1443" s="3"/>
+      <c r="CD1443" s="3"/>
+    </row>
+    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1477" s="3"/>
+      <c r="C1477" s="3"/>
+      <c r="D1477" s="3"/>
+      <c r="E1477" s="3"/>
+      <c r="F1477" s="3"/>
+      <c r="G1477" s="3"/>
+      <c r="H1477" s="3"/>
+      <c r="I1477" s="3"/>
+      <c r="J1477" s="3"/>
+      <c r="K1477" s="3"/>
+      <c r="L1477" s="3"/>
+      <c r="M1477" s="3"/>
+      <c r="N1477" s="3"/>
+      <c r="O1477" s="3"/>
+      <c r="P1477" s="3"/>
+      <c r="Q1477" s="3"/>
+      <c r="R1477" s="3"/>
+      <c r="S1477" s="3"/>
+      <c r="T1477" s="3"/>
+      <c r="U1477" s="3"/>
+      <c r="V1477" s="3"/>
+      <c r="W1477" s="3"/>
+      <c r="X1477" s="3"/>
+      <c r="Y1477" s="5"/>
+      <c r="Z1477" s="3"/>
+      <c r="AA1477" s="3"/>
+      <c r="AB1477" s="3"/>
+      <c r="AC1477" s="3"/>
+      <c r="AD1477" s="3"/>
+      <c r="AE1477" s="3"/>
+      <c r="AF1477" s="3"/>
+      <c r="AG1477" s="3"/>
+      <c r="AH1477" s="3"/>
+      <c r="AI1477" s="3"/>
+      <c r="AJ1477" s="3"/>
+      <c r="AK1477" s="3"/>
+      <c r="AL1477" s="3"/>
+      <c r="AM1477" s="3"/>
+      <c r="AN1477" s="3"/>
+      <c r="AO1477" s="3"/>
+      <c r="AP1477" s="3"/>
+      <c r="AQ1477" s="3"/>
+      <c r="AR1477" s="3"/>
+      <c r="AS1477" s="3"/>
+      <c r="AT1477" s="3"/>
+      <c r="AU1477" s="3"/>
+      <c r="AV1477" s="3"/>
+      <c r="AW1477" s="3"/>
+      <c r="AX1477" s="3"/>
+      <c r="AY1477" s="3"/>
+      <c r="AZ1477" s="3"/>
+      <c r="BA1477" s="3"/>
+      <c r="BB1477" s="3"/>
+      <c r="BC1477" s="3"/>
+      <c r="BD1477" s="3"/>
+      <c r="BE1477" s="3"/>
+      <c r="BF1477" s="3"/>
+      <c r="BG1477" s="3"/>
+      <c r="BH1477" s="3"/>
+      <c r="BI1477" s="3"/>
+      <c r="BJ1477" s="3"/>
+      <c r="BK1477" s="3"/>
+      <c r="BL1477" s="3"/>
+      <c r="BM1477" s="3"/>
+      <c r="BN1477" s="3"/>
+      <c r="BO1477" s="3"/>
+      <c r="BP1477" s="3"/>
+      <c r="BQ1477" s="3"/>
+      <c r="BR1477" s="3"/>
+      <c r="BS1477" s="3"/>
+      <c r="BT1477" s="3"/>
+      <c r="BU1477" s="3"/>
+      <c r="BV1477" s="3"/>
+      <c r="BW1477" s="3"/>
+      <c r="BX1477" s="3"/>
+      <c r="BY1477" s="3"/>
+      <c r="BZ1477" s="3"/>
+      <c r="CA1477" s="3"/>
+      <c r="CB1477" s="3"/>
+      <c r="CC1477" s="3"/>
+      <c r="CD1477" s="3"/>
+    </row>
+    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1511" s="3"/>
+      <c r="C1511" s="3"/>
+      <c r="D1511" s="3"/>
+      <c r="E1511" s="3"/>
+      <c r="F1511" s="3"/>
+      <c r="G1511" s="3"/>
+      <c r="H1511" s="3"/>
+      <c r="I1511" s="3"/>
+      <c r="J1511" s="3"/>
+      <c r="K1511" s="3"/>
+      <c r="L1511" s="3"/>
+      <c r="M1511" s="3"/>
+      <c r="N1511" s="3"/>
+      <c r="O1511" s="3"/>
+      <c r="P1511" s="3"/>
+      <c r="Q1511" s="3"/>
+      <c r="R1511" s="3"/>
+      <c r="S1511" s="3"/>
+      <c r="T1511" s="3"/>
+      <c r="U1511" s="3"/>
+      <c r="V1511" s="3"/>
+      <c r="W1511" s="3"/>
+      <c r="X1511" s="3"/>
+      <c r="Y1511" s="5"/>
+      <c r="Z1511" s="3"/>
+      <c r="AA1511" s="3"/>
+      <c r="AB1511" s="3"/>
+      <c r="AC1511" s="3"/>
+      <c r="AD1511" s="3"/>
+      <c r="AE1511" s="3"/>
+      <c r="AF1511" s="3"/>
+      <c r="AG1511" s="3"/>
+      <c r="AH1511" s="3"/>
+      <c r="AI1511" s="3"/>
+      <c r="AJ1511" s="3"/>
+      <c r="AK1511" s="3"/>
+      <c r="AL1511" s="3"/>
+      <c r="AM1511" s="3"/>
+      <c r="AN1511" s="3"/>
+      <c r="AO1511" s="3"/>
+      <c r="AP1511" s="3"/>
+      <c r="AQ1511" s="3"/>
+      <c r="AR1511" s="3"/>
+      <c r="AS1511" s="3"/>
+      <c r="AT1511" s="3"/>
+      <c r="AU1511" s="3"/>
+      <c r="AV1511" s="3"/>
+      <c r="AW1511" s="3"/>
+      <c r="AX1511" s="3"/>
+      <c r="AY1511" s="3"/>
+      <c r="AZ1511" s="3"/>
+      <c r="BA1511" s="3"/>
+      <c r="BB1511" s="3"/>
+      <c r="BC1511" s="3"/>
+      <c r="BD1511" s="3"/>
+      <c r="BE1511" s="3"/>
+      <c r="BF1511" s="3"/>
+      <c r="BG1511" s="3"/>
+      <c r="BH1511" s="3"/>
+      <c r="BI1511" s="3"/>
+      <c r="BJ1511" s="3"/>
+      <c r="BK1511" s="3"/>
+      <c r="BL1511" s="3"/>
+      <c r="BM1511" s="3"/>
+      <c r="BN1511" s="3"/>
+      <c r="BO1511" s="3"/>
+      <c r="BP1511" s="3"/>
+      <c r="BQ1511" s="3"/>
+      <c r="BR1511" s="3"/>
+      <c r="BS1511" s="3"/>
+      <c r="BT1511" s="3"/>
+      <c r="BU1511" s="3"/>
+      <c r="BV1511" s="3"/>
+      <c r="BW1511" s="3"/>
+      <c r="BX1511" s="3"/>
+      <c r="BY1511" s="3"/>
+      <c r="BZ1511" s="3"/>
+      <c r="CA1511" s="3"/>
+      <c r="CB1511" s="3"/>
+      <c r="CC1511" s="3"/>
+      <c r="CD1511" s="3"/>
+    </row>
+    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1545" s="3"/>
+      <c r="C1545" s="3"/>
+      <c r="D1545" s="3"/>
+      <c r="E1545" s="3"/>
+      <c r="F1545" s="3"/>
+      <c r="G1545" s="3"/>
+      <c r="H1545" s="3"/>
+      <c r="I1545" s="3"/>
+      <c r="J1545" s="3"/>
+      <c r="K1545" s="3"/>
+      <c r="L1545" s="3"/>
+      <c r="M1545" s="3"/>
+      <c r="N1545" s="3"/>
+      <c r="O1545" s="3"/>
+      <c r="P1545" s="3"/>
+      <c r="Q1545" s="3"/>
+      <c r="R1545" s="3"/>
+      <c r="S1545" s="3"/>
+      <c r="T1545" s="3"/>
+      <c r="U1545" s="3"/>
+      <c r="V1545" s="3"/>
+      <c r="W1545" s="3"/>
+      <c r="X1545" s="3"/>
+      <c r="Y1545" s="5"/>
+      <c r="Z1545" s="3"/>
+      <c r="AA1545" s="3"/>
+      <c r="AB1545" s="3"/>
+      <c r="AC1545" s="3"/>
+      <c r="AD1545" s="3"/>
+      <c r="AE1545" s="3"/>
+      <c r="AF1545" s="3"/>
+      <c r="AG1545" s="3"/>
+      <c r="AH1545" s="3"/>
+      <c r="AI1545" s="3"/>
+      <c r="AJ1545" s="3"/>
+      <c r="AK1545" s="3"/>
+      <c r="AL1545" s="3"/>
+      <c r="AM1545" s="3"/>
+      <c r="AN1545" s="3"/>
+      <c r="AO1545" s="3"/>
+      <c r="AP1545" s="3"/>
+      <c r="AQ1545" s="3"/>
+      <c r="AR1545" s="3"/>
+      <c r="AS1545" s="3"/>
+      <c r="AT1545" s="3"/>
+      <c r="AU1545" s="3"/>
+      <c r="AV1545" s="3"/>
+      <c r="AW1545" s="3"/>
+      <c r="AX1545" s="3"/>
+      <c r="AY1545" s="3"/>
+      <c r="AZ1545" s="3"/>
+      <c r="BA1545" s="3"/>
+      <c r="BB1545" s="3"/>
+      <c r="BC1545" s="3"/>
+      <c r="BD1545" s="3"/>
+      <c r="BE1545" s="3"/>
+      <c r="BF1545" s="3"/>
+      <c r="BG1545" s="3"/>
+      <c r="BH1545" s="3"/>
+      <c r="BI1545" s="3"/>
+      <c r="BJ1545" s="3"/>
+      <c r="BK1545" s="3"/>
+      <c r="BL1545" s="3"/>
+      <c r="BM1545" s="3"/>
+      <c r="BN1545" s="3"/>
+      <c r="BO1545" s="3"/>
+      <c r="BP1545" s="3"/>
+      <c r="BQ1545" s="3"/>
+      <c r="BR1545" s="3"/>
+      <c r="BS1545" s="3"/>
+      <c r="BT1545" s="3"/>
+      <c r="BU1545" s="3"/>
+      <c r="BV1545" s="3"/>
+      <c r="BW1545" s="3"/>
+      <c r="BX1545" s="3"/>
+      <c r="BY1545" s="3"/>
+      <c r="BZ1545" s="3"/>
+      <c r="CA1545" s="3"/>
+      <c r="CB1545" s="3"/>
+      <c r="CC1545" s="3"/>
+      <c r="CD1545" s="3"/>
+    </row>
+    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1579" s="3"/>
+      <c r="C1579" s="3"/>
+      <c r="D1579" s="3"/>
+      <c r="E1579" s="3"/>
+      <c r="F1579" s="3"/>
+      <c r="G1579" s="3"/>
+      <c r="H1579" s="3"/>
+      <c r="I1579" s="3"/>
+      <c r="J1579" s="3"/>
+      <c r="K1579" s="3"/>
+      <c r="L1579" s="3"/>
+      <c r="M1579" s="3"/>
+      <c r="N1579" s="3"/>
+      <c r="O1579" s="3"/>
+      <c r="P1579" s="3"/>
+      <c r="Q1579" s="3"/>
+      <c r="R1579" s="3"/>
+      <c r="S1579" s="3"/>
+      <c r="T1579" s="3"/>
+      <c r="U1579" s="3"/>
+      <c r="V1579" s="3"/>
+      <c r="W1579" s="3"/>
+      <c r="X1579" s="3"/>
+      <c r="Y1579" s="5"/>
+      <c r="Z1579" s="3"/>
+      <c r="AA1579" s="3"/>
+      <c r="AB1579" s="3"/>
+      <c r="AC1579" s="3"/>
+      <c r="AD1579" s="3"/>
+      <c r="AE1579" s="3"/>
+      <c r="AF1579" s="3"/>
+      <c r="AG1579" s="3"/>
+      <c r="AH1579" s="3"/>
+      <c r="AI1579" s="3"/>
+      <c r="AJ1579" s="3"/>
+      <c r="AK1579" s="3"/>
+      <c r="AL1579" s="3"/>
+      <c r="AM1579" s="3"/>
+      <c r="AN1579" s="3"/>
+      <c r="AO1579" s="3"/>
+      <c r="AP1579" s="3"/>
+      <c r="AQ1579" s="3"/>
+      <c r="AR1579" s="3"/>
+      <c r="AS1579" s="3"/>
+      <c r="AT1579" s="3"/>
+      <c r="AU1579" s="3"/>
+      <c r="AV1579" s="3"/>
+      <c r="AW1579" s="3"/>
+      <c r="AX1579" s="3"/>
+      <c r="AY1579" s="3"/>
+      <c r="AZ1579" s="3"/>
+      <c r="BA1579" s="3"/>
+      <c r="BB1579" s="3"/>
+      <c r="BC1579" s="3"/>
+      <c r="BD1579" s="3"/>
+      <c r="BE1579" s="3"/>
+      <c r="BF1579" s="3"/>
+      <c r="BG1579" s="3"/>
+      <c r="BH1579" s="3"/>
+      <c r="BI1579" s="3"/>
+      <c r="BJ1579" s="3"/>
+      <c r="BK1579" s="3"/>
+      <c r="BL1579" s="3"/>
+      <c r="BM1579" s="3"/>
+      <c r="BN1579" s="3"/>
+      <c r="BO1579" s="3"/>
+      <c r="BP1579" s="3"/>
+      <c r="BQ1579" s="3"/>
+      <c r="BR1579" s="3"/>
+      <c r="BS1579" s="3"/>
+      <c r="BT1579" s="3"/>
+      <c r="BU1579" s="3"/>
+      <c r="BV1579" s="3"/>
+      <c r="BW1579" s="3"/>
+      <c r="BX1579" s="3"/>
+      <c r="BY1579" s="3"/>
+      <c r="BZ1579" s="3"/>
+      <c r="CA1579" s="3"/>
+      <c r="CB1579" s="3"/>
+      <c r="CC1579" s="3"/>
+      <c r="CD1579" s="3"/>
+    </row>
+    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1613" s="3"/>
+      <c r="C1613" s="3"/>
+      <c r="D1613" s="3"/>
+      <c r="E1613" s="3"/>
+      <c r="F1613" s="3"/>
+      <c r="G1613" s="3"/>
+      <c r="H1613" s="3"/>
+      <c r="I1613" s="3"/>
+      <c r="J1613" s="3"/>
+      <c r="K1613" s="3"/>
+      <c r="L1613" s="3"/>
+      <c r="M1613" s="3"/>
+      <c r="N1613" s="3"/>
+      <c r="O1613" s="3"/>
+      <c r="P1613" s="3"/>
+      <c r="Q1613" s="3"/>
+      <c r="R1613" s="3"/>
+      <c r="S1613" s="3"/>
+      <c r="T1613" s="3"/>
+      <c r="U1613" s="3"/>
+      <c r="V1613" s="3"/>
+      <c r="W1613" s="3"/>
+      <c r="X1613" s="3"/>
+      <c r="Y1613" s="5"/>
+      <c r="Z1613" s="3"/>
+      <c r="AA1613" s="3"/>
+      <c r="AB1613" s="3"/>
+      <c r="AC1613" s="3"/>
+      <c r="AD1613" s="3"/>
+      <c r="AE1613" s="3"/>
+      <c r="AF1613" s="3"/>
+      <c r="AG1613" s="3"/>
+      <c r="AH1613" s="3"/>
+      <c r="AI1613" s="3"/>
+      <c r="AJ1613" s="3"/>
+      <c r="AK1613" s="3"/>
+      <c r="AL1613" s="3"/>
+      <c r="AM1613" s="3"/>
+      <c r="AN1613" s="3"/>
+      <c r="AO1613" s="3"/>
+      <c r="AP1613" s="3"/>
+      <c r="AQ1613" s="3"/>
+      <c r="AR1613" s="3"/>
+      <c r="AS1613" s="3"/>
+      <c r="AT1613" s="3"/>
+      <c r="AU1613" s="3"/>
+      <c r="AV1613" s="3"/>
+      <c r="AW1613" s="3"/>
+      <c r="AX1613" s="3"/>
+      <c r="AY1613" s="3"/>
+      <c r="AZ1613" s="3"/>
+      <c r="BA1613" s="3"/>
+      <c r="BB1613" s="3"/>
+      <c r="BC1613" s="3"/>
+      <c r="BD1613" s="3"/>
+      <c r="BE1613" s="3"/>
+      <c r="BF1613" s="3"/>
+      <c r="BG1613" s="3"/>
+      <c r="BH1613" s="3"/>
+      <c r="BI1613" s="3"/>
+      <c r="BJ1613" s="3"/>
+      <c r="BK1613" s="3"/>
+      <c r="BL1613" s="3"/>
+      <c r="BM1613" s="3"/>
+      <c r="BN1613" s="3"/>
+      <c r="BO1613" s="3"/>
+      <c r="BP1613" s="3"/>
+      <c r="BQ1613" s="3"/>
+      <c r="BR1613" s="3"/>
+      <c r="BS1613" s="3"/>
+      <c r="BT1613" s="3"/>
+      <c r="BU1613" s="3"/>
+      <c r="BV1613" s="3"/>
+      <c r="BW1613" s="3"/>
+      <c r="BX1613" s="3"/>
+      <c r="BY1613" s="3"/>
+      <c r="BZ1613" s="3"/>
+      <c r="CA1613" s="3"/>
+      <c r="CB1613" s="3"/>
+      <c r="CC1613" s="3"/>
+      <c r="CD1613" s="3"/>
+    </row>
+    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1647" s="3"/>
+      <c r="C1647" s="3"/>
+      <c r="D1647" s="3"/>
+      <c r="E1647" s="3"/>
+      <c r="F1647" s="3"/>
+      <c r="G1647" s="3"/>
+      <c r="H1647" s="3"/>
+      <c r="I1647" s="3"/>
+      <c r="J1647" s="3"/>
+      <c r="K1647" s="3"/>
+      <c r="L1647" s="3"/>
+      <c r="M1647" s="3"/>
+      <c r="N1647" s="3"/>
+      <c r="O1647" s="3"/>
+      <c r="P1647" s="3"/>
+      <c r="Q1647" s="3"/>
+      <c r="R1647" s="3"/>
+      <c r="S1647" s="3"/>
+      <c r="T1647" s="3"/>
+      <c r="U1647" s="3"/>
+      <c r="V1647" s="3"/>
+      <c r="W1647" s="3"/>
+      <c r="X1647" s="3"/>
+      <c r="Y1647" s="5"/>
+      <c r="Z1647" s="3"/>
+      <c r="AA1647" s="3"/>
+      <c r="AB1647" s="3"/>
+      <c r="AC1647" s="3"/>
+      <c r="AD1647" s="3"/>
+      <c r="AE1647" s="3"/>
+      <c r="AF1647" s="3"/>
+      <c r="AG1647" s="3"/>
+      <c r="AH1647" s="3"/>
+      <c r="AI1647" s="3"/>
+      <c r="AJ1647" s="3"/>
+      <c r="AK1647" s="3"/>
+      <c r="AL1647" s="3"/>
+      <c r="AM1647" s="3"/>
+      <c r="AN1647" s="3"/>
+      <c r="AO1647" s="3"/>
+      <c r="AP1647" s="3"/>
+      <c r="AQ1647" s="3"/>
+      <c r="AR1647" s="3"/>
+      <c r="AS1647" s="3"/>
+      <c r="AT1647" s="3"/>
+      <c r="AU1647" s="3"/>
+      <c r="AV1647" s="3"/>
+      <c r="AW1647" s="3"/>
+      <c r="AX1647" s="3"/>
+      <c r="AY1647" s="3"/>
+      <c r="AZ1647" s="3"/>
+      <c r="BA1647" s="3"/>
+      <c r="BB1647" s="3"/>
+      <c r="BC1647" s="3"/>
+      <c r="BD1647" s="3"/>
+      <c r="BE1647" s="3"/>
+      <c r="BF1647" s="3"/>
+      <c r="BG1647" s="3"/>
+      <c r="BH1647" s="3"/>
+      <c r="BI1647" s="3"/>
+      <c r="BJ1647" s="3"/>
+      <c r="BK1647" s="3"/>
+      <c r="BL1647" s="3"/>
+      <c r="BM1647" s="3"/>
+      <c r="BN1647" s="3"/>
+      <c r="BO1647" s="3"/>
+      <c r="BP1647" s="3"/>
+      <c r="BQ1647" s="3"/>
+      <c r="BR1647" s="3"/>
+      <c r="BS1647" s="3"/>
+      <c r="BT1647" s="3"/>
+      <c r="BU1647" s="3"/>
+      <c r="BV1647" s="3"/>
+      <c r="BW1647" s="3"/>
+      <c r="BX1647" s="3"/>
+      <c r="BY1647" s="3"/>
+      <c r="BZ1647" s="3"/>
+      <c r="CA1647" s="3"/>
+      <c r="CB1647" s="3"/>
+      <c r="CC1647" s="3"/>
+      <c r="CD1647" s="3"/>
+    </row>
+    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1681" s="3"/>
+      <c r="C1681" s="3"/>
+      <c r="D1681" s="3"/>
+      <c r="E1681" s="3"/>
+      <c r="F1681" s="3"/>
+      <c r="G1681" s="3"/>
+      <c r="H1681" s="3"/>
+      <c r="I1681" s="3"/>
+      <c r="J1681" s="3"/>
+      <c r="K1681" s="3"/>
+      <c r="L1681" s="3"/>
+      <c r="M1681" s="3"/>
+      <c r="N1681" s="3"/>
+      <c r="O1681" s="3"/>
+      <c r="P1681" s="3"/>
+      <c r="Q1681" s="3"/>
+      <c r="R1681" s="3"/>
+      <c r="S1681" s="3"/>
+      <c r="T1681" s="3"/>
+      <c r="U1681" s="3"/>
+      <c r="V1681" s="3"/>
+      <c r="W1681" s="3"/>
+      <c r="X1681" s="3"/>
+      <c r="Y1681" s="5"/>
+      <c r="Z1681" s="3"/>
+      <c r="AA1681" s="3"/>
+      <c r="AB1681" s="3"/>
+      <c r="AC1681" s="3"/>
+      <c r="AD1681" s="3"/>
+      <c r="AE1681" s="3"/>
+      <c r="AF1681" s="3"/>
+      <c r="AG1681" s="3"/>
+      <c r="AH1681" s="3"/>
+      <c r="AI1681" s="3"/>
+      <c r="AJ1681" s="3"/>
+      <c r="AK1681" s="3"/>
+      <c r="AL1681" s="3"/>
+      <c r="AM1681" s="3"/>
+      <c r="AN1681" s="3"/>
+      <c r="AO1681" s="3"/>
+      <c r="AP1681" s="3"/>
+      <c r="AQ1681" s="3"/>
+      <c r="AR1681" s="3"/>
+      <c r="AS1681" s="3"/>
+      <c r="AT1681" s="3"/>
+      <c r="AU1681" s="3"/>
+      <c r="AV1681" s="3"/>
+      <c r="AW1681" s="3"/>
+      <c r="AX1681" s="3"/>
+      <c r="AY1681" s="3"/>
+      <c r="AZ1681" s="3"/>
+      <c r="BA1681" s="3"/>
+      <c r="BB1681" s="3"/>
+      <c r="BC1681" s="3"/>
+      <c r="BD1681" s="3"/>
+      <c r="BE1681" s="3"/>
+      <c r="BF1681" s="3"/>
+      <c r="BG1681" s="3"/>
+      <c r="BH1681" s="3"/>
+      <c r="BI1681" s="3"/>
+      <c r="BJ1681" s="3"/>
+      <c r="BK1681" s="3"/>
+      <c r="BL1681" s="3"/>
+      <c r="BM1681" s="3"/>
+      <c r="BN1681" s="3"/>
+      <c r="BO1681" s="3"/>
+      <c r="BP1681" s="3"/>
+      <c r="BQ1681" s="3"/>
+      <c r="BR1681" s="3"/>
+      <c r="BS1681" s="3"/>
+      <c r="BT1681" s="3"/>
+      <c r="BU1681" s="3"/>
+      <c r="BV1681" s="3"/>
+      <c r="BW1681" s="3"/>
+      <c r="BX1681" s="3"/>
+      <c r="BY1681" s="3"/>
+      <c r="BZ1681" s="3"/>
+      <c r="CA1681" s="3"/>
+      <c r="CB1681" s="3"/>
+      <c r="CC1681" s="3"/>
+      <c r="CD1681" s="3"/>
+    </row>
+    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1715" s="3"/>
+      <c r="C1715" s="3"/>
+      <c r="D1715" s="3"/>
+      <c r="E1715" s="3"/>
+      <c r="F1715" s="3"/>
+      <c r="G1715" s="3"/>
+      <c r="H1715" s="3"/>
+      <c r="I1715" s="3"/>
+      <c r="J1715" s="3"/>
+      <c r="K1715" s="3"/>
+      <c r="L1715" s="3"/>
+      <c r="M1715" s="3"/>
+      <c r="N1715" s="3"/>
+      <c r="O1715" s="3"/>
+      <c r="P1715" s="3"/>
+      <c r="Q1715" s="3"/>
+      <c r="R1715" s="3"/>
+      <c r="S1715" s="3"/>
+      <c r="T1715" s="3"/>
+      <c r="U1715" s="3"/>
+      <c r="V1715" s="3"/>
+      <c r="W1715" s="3"/>
+      <c r="X1715" s="3"/>
+      <c r="Y1715" s="5"/>
+      <c r="Z1715" s="3"/>
+      <c r="AA1715" s="3"/>
+      <c r="AB1715" s="3"/>
+      <c r="AC1715" s="3"/>
+      <c r="AD1715" s="3"/>
+      <c r="AE1715" s="3"/>
+      <c r="AF1715" s="3"/>
+      <c r="AG1715" s="3"/>
+      <c r="AH1715" s="3"/>
+      <c r="AI1715" s="3"/>
+      <c r="AJ1715" s="3"/>
+      <c r="AK1715" s="3"/>
+      <c r="AL1715" s="3"/>
+      <c r="AM1715" s="3"/>
+      <c r="AN1715" s="3"/>
+      <c r="AO1715" s="3"/>
+      <c r="AP1715" s="3"/>
+      <c r="AQ1715" s="3"/>
+      <c r="AR1715" s="3"/>
+      <c r="AS1715" s="3"/>
+      <c r="AT1715" s="3"/>
+      <c r="AU1715" s="3"/>
+      <c r="AV1715" s="3"/>
+      <c r="AW1715" s="3"/>
+      <c r="AX1715" s="3"/>
+      <c r="AY1715" s="3"/>
+      <c r="AZ1715" s="3"/>
+      <c r="BA1715" s="3"/>
+      <c r="BB1715" s="3"/>
+      <c r="BC1715" s="3"/>
+      <c r="BD1715" s="3"/>
+      <c r="BE1715" s="3"/>
+      <c r="BF1715" s="3"/>
+      <c r="BG1715" s="3"/>
+      <c r="BH1715" s="3"/>
+      <c r="BI1715" s="3"/>
+      <c r="BJ1715" s="3"/>
+      <c r="BK1715" s="3"/>
+      <c r="BL1715" s="3"/>
+      <c r="BM1715" s="3"/>
+      <c r="BN1715" s="3"/>
+      <c r="BO1715" s="3"/>
+      <c r="BP1715" s="3"/>
+      <c r="BQ1715" s="3"/>
+      <c r="BR1715" s="3"/>
+      <c r="BS1715" s="3"/>
+      <c r="BT1715" s="3"/>
+      <c r="BU1715" s="3"/>
+      <c r="BV1715" s="3"/>
+      <c r="BW1715" s="3"/>
+      <c r="BX1715" s="3"/>
+      <c r="BY1715" s="3"/>
+      <c r="BZ1715" s="3"/>
+      <c r="CA1715" s="3"/>
+      <c r="CB1715" s="3"/>
+      <c r="CC1715" s="3"/>
+      <c r="CD1715" s="3"/>
+    </row>
+    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1749" s="3"/>
+      <c r="C1749" s="3"/>
+      <c r="D1749" s="3"/>
+      <c r="E1749" s="3"/>
+      <c r="F1749" s="3"/>
+      <c r="G1749" s="3"/>
+      <c r="H1749" s="3"/>
+      <c r="I1749" s="3"/>
+      <c r="J1749" s="3"/>
+      <c r="K1749" s="3"/>
+      <c r="L1749" s="3"/>
+      <c r="M1749" s="3"/>
+      <c r="N1749" s="3"/>
+      <c r="O1749" s="3"/>
+      <c r="P1749" s="3"/>
+      <c r="Q1749" s="3"/>
+      <c r="R1749" s="3"/>
+      <c r="S1749" s="3"/>
+      <c r="T1749" s="3"/>
+      <c r="U1749" s="3"/>
+      <c r="V1749" s="3"/>
+      <c r="W1749" s="3"/>
+      <c r="X1749" s="3"/>
+      <c r="Y1749" s="5"/>
+      <c r="Z1749" s="3"/>
+      <c r="AA1749" s="3"/>
+      <c r="AB1749" s="3"/>
+      <c r="AC1749" s="3"/>
+      <c r="AD1749" s="3"/>
+      <c r="AE1749" s="3"/>
+      <c r="AF1749" s="3"/>
+      <c r="AG1749" s="3"/>
+      <c r="AH1749" s="3"/>
+      <c r="AI1749" s="3"/>
+      <c r="AJ1749" s="3"/>
+      <c r="AK1749" s="3"/>
+      <c r="AL1749" s="3"/>
+      <c r="AM1749" s="3"/>
+      <c r="AN1749" s="3"/>
+      <c r="AO1749" s="3"/>
+      <c r="AP1749" s="3"/>
+      <c r="AQ1749" s="3"/>
+      <c r="AR1749" s="3"/>
+      <c r="AS1749" s="3"/>
+      <c r="AT1749" s="3"/>
+      <c r="AU1749" s="3"/>
+      <c r="AV1749" s="3"/>
+      <c r="AW1749" s="3"/>
+      <c r="AX1749" s="3"/>
+      <c r="AY1749" s="3"/>
+      <c r="AZ1749" s="3"/>
+      <c r="BA1749" s="3"/>
+      <c r="BB1749" s="3"/>
+      <c r="BC1749" s="3"/>
+      <c r="BD1749" s="3"/>
+      <c r="BE1749" s="3"/>
+      <c r="BF1749" s="3"/>
+      <c r="BG1749" s="3"/>
+      <c r="BH1749" s="3"/>
+      <c r="BI1749" s="3"/>
+      <c r="BJ1749" s="3"/>
+      <c r="BK1749" s="3"/>
+      <c r="BL1749" s="3"/>
+      <c r="BM1749" s="3"/>
+      <c r="BN1749" s="3"/>
+      <c r="BO1749" s="3"/>
+      <c r="BP1749" s="3"/>
+      <c r="BQ1749" s="3"/>
+      <c r="BR1749" s="3"/>
+      <c r="BS1749" s="3"/>
+      <c r="BT1749" s="3"/>
+      <c r="BU1749" s="3"/>
+      <c r="BV1749" s="3"/>
+      <c r="BW1749" s="3"/>
+      <c r="BX1749" s="3"/>
+      <c r="BY1749" s="3"/>
+      <c r="BZ1749" s="3"/>
+      <c r="CA1749" s="3"/>
+      <c r="CB1749" s="3"/>
+      <c r="CC1749" s="3"/>
+      <c r="CD1749" s="3"/>
+    </row>
+    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1783" s="3"/>
+      <c r="C1783" s="3"/>
+      <c r="D1783" s="3"/>
+      <c r="E1783" s="3"/>
+      <c r="F1783" s="3"/>
+      <c r="G1783" s="3"/>
+      <c r="H1783" s="3"/>
+      <c r="I1783" s="3"/>
+      <c r="J1783" s="3"/>
+      <c r="K1783" s="3"/>
+      <c r="L1783" s="3"/>
+      <c r="M1783" s="3"/>
+      <c r="N1783" s="3"/>
+      <c r="O1783" s="3"/>
+      <c r="P1783" s="3"/>
+      <c r="Q1783" s="3"/>
+      <c r="R1783" s="3"/>
+      <c r="S1783" s="3"/>
+      <c r="T1783" s="3"/>
+      <c r="U1783" s="3"/>
+      <c r="V1783" s="3"/>
+      <c r="W1783" s="3"/>
+      <c r="X1783" s="3"/>
+      <c r="Y1783" s="5"/>
+      <c r="Z1783" s="3"/>
+      <c r="AA1783" s="3"/>
+      <c r="AB1783" s="3"/>
+      <c r="AC1783" s="3"/>
+      <c r="AD1783" s="3"/>
+      <c r="AE1783" s="3"/>
+      <c r="AF1783" s="3"/>
+      <c r="AG1783" s="3"/>
+      <c r="AH1783" s="3"/>
+      <c r="AI1783" s="3"/>
+      <c r="AJ1783" s="3"/>
+      <c r="AK1783" s="3"/>
+      <c r="AL1783" s="3"/>
+      <c r="AM1783" s="3"/>
+      <c r="AN1783" s="3"/>
+      <c r="AO1783" s="3"/>
+      <c r="AP1783" s="3"/>
+      <c r="AQ1783" s="3"/>
+      <c r="AR1783" s="3"/>
+      <c r="AS1783" s="3"/>
+      <c r="AT1783" s="3"/>
+      <c r="AU1783" s="3"/>
+      <c r="AV1783" s="3"/>
+      <c r="AW1783" s="3"/>
+      <c r="AX1783" s="3"/>
+      <c r="AY1783" s="3"/>
+      <c r="AZ1783" s="3"/>
+      <c r="BA1783" s="3"/>
+      <c r="BB1783" s="3"/>
+      <c r="BC1783" s="3"/>
+      <c r="BD1783" s="3"/>
+      <c r="BE1783" s="3"/>
+      <c r="BF1783" s="3"/>
+      <c r="BG1783" s="3"/>
+      <c r="BH1783" s="3"/>
+      <c r="BI1783" s="3"/>
+      <c r="BJ1783" s="3"/>
+      <c r="BK1783" s="3"/>
+      <c r="BL1783" s="3"/>
+      <c r="BM1783" s="3"/>
+      <c r="BN1783" s="3"/>
+      <c r="BO1783" s="3"/>
+      <c r="BP1783" s="3"/>
+      <c r="BQ1783" s="3"/>
+      <c r="BR1783" s="3"/>
+      <c r="BS1783" s="3"/>
+      <c r="BT1783" s="3"/>
+      <c r="BU1783" s="3"/>
+      <c r="BV1783" s="3"/>
+      <c r="BW1783" s="3"/>
+      <c r="BX1783" s="3"/>
+      <c r="BY1783" s="3"/>
+      <c r="BZ1783" s="3"/>
+      <c r="CA1783" s="3"/>
+      <c r="CB1783" s="3"/>
+      <c r="CC1783" s="3"/>
+      <c r="CD1783" s="3"/>
+    </row>
+    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1817" s="3"/>
+      <c r="C1817" s="3"/>
+      <c r="D1817" s="3"/>
+      <c r="E1817" s="3"/>
+      <c r="F1817" s="3"/>
+      <c r="G1817" s="3"/>
+      <c r="H1817" s="3"/>
+      <c r="I1817" s="3"/>
+      <c r="J1817" s="3"/>
+      <c r="K1817" s="3"/>
+      <c r="L1817" s="3"/>
+      <c r="M1817" s="3"/>
+      <c r="N1817" s="3"/>
+      <c r="O1817" s="3"/>
+      <c r="P1817" s="3"/>
+      <c r="Q1817" s="3"/>
+      <c r="R1817" s="3"/>
+      <c r="S1817" s="3"/>
+      <c r="T1817" s="3"/>
+      <c r="U1817" s="3"/>
+      <c r="V1817" s="3"/>
+      <c r="W1817" s="3"/>
+      <c r="X1817" s="3"/>
+      <c r="Y1817" s="5"/>
+      <c r="Z1817" s="3"/>
+      <c r="AA1817" s="3"/>
+      <c r="AB1817" s="3"/>
+      <c r="AC1817" s="3"/>
+      <c r="AD1817" s="3"/>
+      <c r="AE1817" s="3"/>
+      <c r="AF1817" s="3"/>
+      <c r="AG1817" s="3"/>
+      <c r="AH1817" s="3"/>
+      <c r="AI1817" s="3"/>
+      <c r="AJ1817" s="3"/>
+      <c r="AK1817" s="3"/>
+      <c r="AL1817" s="3"/>
+      <c r="AM1817" s="3"/>
+      <c r="AN1817" s="3"/>
+      <c r="AO1817" s="3"/>
+      <c r="AP1817" s="3"/>
+      <c r="AQ1817" s="3"/>
+      <c r="AR1817" s="3"/>
+      <c r="AS1817" s="3"/>
+      <c r="AT1817" s="3"/>
+      <c r="AU1817" s="3"/>
+      <c r="AV1817" s="3"/>
+      <c r="AW1817" s="3"/>
+      <c r="AX1817" s="3"/>
+      <c r="AY1817" s="3"/>
+      <c r="AZ1817" s="3"/>
+      <c r="BA1817" s="3"/>
+      <c r="BB1817" s="3"/>
+      <c r="BC1817" s="3"/>
+      <c r="BD1817" s="3"/>
+      <c r="BE1817" s="3"/>
+      <c r="BF1817" s="3"/>
+      <c r="BG1817" s="3"/>
+      <c r="BH1817" s="3"/>
+      <c r="BI1817" s="3"/>
+      <c r="BJ1817" s="3"/>
+      <c r="BK1817" s="3"/>
+      <c r="BL1817" s="3"/>
+      <c r="BM1817" s="3"/>
+      <c r="BN1817" s="3"/>
+      <c r="BO1817" s="3"/>
+      <c r="BP1817" s="3"/>
+      <c r="BQ1817" s="3"/>
+      <c r="BR1817" s="3"/>
+      <c r="BS1817" s="3"/>
+      <c r="BT1817" s="3"/>
+      <c r="BU1817" s="3"/>
+      <c r="BV1817" s="3"/>
+      <c r="BW1817" s="3"/>
+      <c r="BX1817" s="3"/>
+      <c r="BY1817" s="3"/>
+      <c r="BZ1817" s="3"/>
+      <c r="CA1817" s="3"/>
+      <c r="CB1817" s="3"/>
+      <c r="CC1817" s="3"/>
+      <c r="CD1817" s="3"/>
+    </row>
+    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1851" s="3"/>
+      <c r="C1851" s="3"/>
+      <c r="D1851" s="3"/>
+      <c r="E1851" s="3"/>
+      <c r="F1851" s="3"/>
+      <c r="G1851" s="3"/>
+      <c r="H1851" s="3"/>
+      <c r="I1851" s="3"/>
+      <c r="J1851" s="3"/>
+      <c r="K1851" s="3"/>
+      <c r="L1851" s="3"/>
+      <c r="M1851" s="3"/>
+      <c r="N1851" s="3"/>
+      <c r="O1851" s="3"/>
+      <c r="P1851" s="3"/>
+      <c r="Q1851" s="3"/>
+      <c r="R1851" s="3"/>
+      <c r="S1851" s="3"/>
+      <c r="T1851" s="3"/>
+      <c r="U1851" s="3"/>
+      <c r="V1851" s="3"/>
+      <c r="W1851" s="3"/>
+      <c r="X1851" s="3"/>
+      <c r="Y1851" s="5"/>
+      <c r="Z1851" s="3"/>
+      <c r="AA1851" s="3"/>
+      <c r="AB1851" s="3"/>
+      <c r="AC1851" s="3"/>
+      <c r="AD1851" s="3"/>
+      <c r="AE1851" s="3"/>
+      <c r="AF1851" s="3"/>
+      <c r="AG1851" s="3"/>
+      <c r="AH1851" s="3"/>
+      <c r="AI1851" s="3"/>
+      <c r="AJ1851" s="3"/>
+      <c r="AK1851" s="3"/>
+      <c r="AL1851" s="3"/>
+      <c r="AM1851" s="3"/>
+      <c r="AN1851" s="3"/>
+      <c r="AO1851" s="3"/>
+      <c r="AP1851" s="3"/>
+      <c r="AQ1851" s="3"/>
+      <c r="AR1851" s="3"/>
+      <c r="AS1851" s="3"/>
+      <c r="AT1851" s="3"/>
+      <c r="AU1851" s="3"/>
+      <c r="AV1851" s="3"/>
+      <c r="AW1851" s="3"/>
+      <c r="AX1851" s="3"/>
+      <c r="AY1851" s="3"/>
+      <c r="AZ1851" s="3"/>
+      <c r="BA1851" s="3"/>
+      <c r="BB1851" s="3"/>
+      <c r="BC1851" s="3"/>
+      <c r="BD1851" s="3"/>
+      <c r="BE1851" s="3"/>
+      <c r="BF1851" s="3"/>
+      <c r="BG1851" s="3"/>
+      <c r="BH1851" s="3"/>
+      <c r="BI1851" s="3"/>
+      <c r="BJ1851" s="3"/>
+      <c r="BK1851" s="3"/>
+      <c r="BL1851" s="3"/>
+      <c r="BM1851" s="3"/>
+      <c r="BN1851" s="3"/>
+      <c r="BO1851" s="3"/>
+      <c r="BP1851" s="3"/>
+      <c r="BQ1851" s="3"/>
+      <c r="BR1851" s="3"/>
+      <c r="BS1851" s="3"/>
+      <c r="BT1851" s="3"/>
+      <c r="BU1851" s="3"/>
+      <c r="BV1851" s="3"/>
+      <c r="BW1851" s="3"/>
+      <c r="BX1851" s="3"/>
+      <c r="BY1851" s="3"/>
+      <c r="BZ1851" s="3"/>
+      <c r="CA1851" s="3"/>
+      <c r="CB1851" s="3"/>
+      <c r="CC1851" s="3"/>
+      <c r="CD1851" s="3"/>
+    </row>
+    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1885" s="3"/>
+      <c r="C1885" s="3"/>
+      <c r="D1885" s="3"/>
+      <c r="E1885" s="3"/>
+      <c r="F1885" s="3"/>
+      <c r="G1885" s="3"/>
+      <c r="H1885" s="3"/>
+      <c r="I1885" s="3"/>
+      <c r="J1885" s="3"/>
+      <c r="K1885" s="3"/>
+      <c r="L1885" s="3"/>
+      <c r="M1885" s="3"/>
+      <c r="N1885" s="3"/>
+      <c r="O1885" s="3"/>
+      <c r="P1885" s="3"/>
+      <c r="Q1885" s="3"/>
+      <c r="R1885" s="3"/>
+      <c r="S1885" s="3"/>
+      <c r="T1885" s="3"/>
+      <c r="U1885" s="3"/>
+      <c r="V1885" s="3"/>
+      <c r="W1885" s="3"/>
+      <c r="X1885" s="3"/>
+      <c r="Y1885" s="5"/>
+      <c r="Z1885" s="3"/>
+      <c r="AA1885" s="3"/>
+      <c r="AB1885" s="3"/>
+      <c r="AC1885" s="3"/>
+      <c r="AD1885" s="3"/>
+      <c r="AE1885" s="3"/>
+      <c r="AF1885" s="3"/>
+      <c r="AG1885" s="3"/>
+      <c r="AH1885" s="3"/>
+      <c r="AI1885" s="3"/>
+      <c r="AJ1885" s="3"/>
+      <c r="AK1885" s="3"/>
+      <c r="AL1885" s="3"/>
+      <c r="AM1885" s="3"/>
+      <c r="AN1885" s="3"/>
+      <c r="AO1885" s="3"/>
+      <c r="AP1885" s="3"/>
+      <c r="AQ1885" s="3"/>
+      <c r="AR1885" s="3"/>
+      <c r="AS1885" s="3"/>
+      <c r="AT1885" s="3"/>
+      <c r="AU1885" s="3"/>
+      <c r="AV1885" s="3"/>
+      <c r="AW1885" s="3"/>
+      <c r="AX1885" s="3"/>
+      <c r="AY1885" s="3"/>
+      <c r="AZ1885" s="3"/>
+      <c r="BA1885" s="3"/>
+      <c r="BB1885" s="3"/>
+      <c r="BC1885" s="3"/>
+      <c r="BD1885" s="3"/>
+      <c r="BE1885" s="3"/>
+      <c r="BF1885" s="3"/>
+      <c r="BG1885" s="3"/>
+      <c r="BH1885" s="3"/>
+      <c r="BI1885" s="3"/>
+      <c r="BJ1885" s="3"/>
+      <c r="BK1885" s="3"/>
+      <c r="BL1885" s="3"/>
+      <c r="BM1885" s="3"/>
+      <c r="BN1885" s="3"/>
+      <c r="BO1885" s="3"/>
+      <c r="BP1885" s="3"/>
+      <c r="BQ1885" s="3"/>
+      <c r="BR1885" s="3"/>
+      <c r="BS1885" s="3"/>
+      <c r="BT1885" s="3"/>
+      <c r="BU1885" s="3"/>
+      <c r="BV1885" s="3"/>
+      <c r="BW1885" s="3"/>
+      <c r="BX1885" s="3"/>
+      <c r="BY1885" s="3"/>
+      <c r="BZ1885" s="3"/>
+      <c r="CA1885" s="3"/>
+      <c r="CB1885" s="3"/>
+      <c r="CC1885" s="3"/>
+      <c r="CD1885" s="3"/>
+    </row>
+    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1919" s="3"/>
+      <c r="C1919" s="3"/>
+      <c r="D1919" s="3"/>
+      <c r="E1919" s="3"/>
+      <c r="F1919" s="3"/>
+      <c r="G1919" s="3"/>
+      <c r="H1919" s="3"/>
+      <c r="I1919" s="3"/>
+      <c r="J1919" s="3"/>
+      <c r="K1919" s="3"/>
+      <c r="L1919" s="3"/>
+      <c r="M1919" s="3"/>
+      <c r="N1919" s="3"/>
+      <c r="O1919" s="3"/>
+      <c r="P1919" s="3"/>
+      <c r="Q1919" s="3"/>
+      <c r="R1919" s="3"/>
+      <c r="S1919" s="3"/>
+      <c r="T1919" s="3"/>
+      <c r="U1919" s="3"/>
+      <c r="V1919" s="3"/>
+      <c r="W1919" s="3"/>
+      <c r="X1919" s="3"/>
+      <c r="Y1919" s="5"/>
+      <c r="Z1919" s="3"/>
+      <c r="AA1919" s="3"/>
+      <c r="AB1919" s="3"/>
+      <c r="AC1919" s="3"/>
+      <c r="AD1919" s="3"/>
+      <c r="AE1919" s="3"/>
+      <c r="AF1919" s="3"/>
+      <c r="AG1919" s="3"/>
+      <c r="AH1919" s="3"/>
+      <c r="AI1919" s="3"/>
+      <c r="AJ1919" s="3"/>
+      <c r="AK1919" s="3"/>
+      <c r="AL1919" s="3"/>
+      <c r="AM1919" s="3"/>
+      <c r="AN1919" s="3"/>
+      <c r="AO1919" s="3"/>
+      <c r="AP1919" s="3"/>
+      <c r="AQ1919" s="3"/>
+      <c r="AR1919" s="3"/>
+      <c r="AS1919" s="3"/>
+      <c r="AT1919" s="3"/>
+      <c r="AU1919" s="3"/>
+      <c r="AV1919" s="3"/>
+      <c r="AW1919" s="3"/>
+      <c r="AX1919" s="3"/>
+      <c r="AY1919" s="3"/>
+      <c r="AZ1919" s="3"/>
+      <c r="BA1919" s="3"/>
+      <c r="BB1919" s="3"/>
+      <c r="BC1919" s="3"/>
+      <c r="BD1919" s="3"/>
+      <c r="BE1919" s="3"/>
+      <c r="BF1919" s="3"/>
+      <c r="BG1919" s="3"/>
+      <c r="BH1919" s="3"/>
+      <c r="BI1919" s="3"/>
+      <c r="BJ1919" s="3"/>
+      <c r="BK1919" s="3"/>
+      <c r="BL1919" s="3"/>
+      <c r="BM1919" s="3"/>
+      <c r="BN1919" s="3"/>
+      <c r="BO1919" s="3"/>
+      <c r="BP1919" s="3"/>
+      <c r="BQ1919" s="3"/>
+      <c r="BR1919" s="3"/>
+      <c r="BS1919" s="3"/>
+      <c r="BT1919" s="3"/>
+      <c r="BU1919" s="3"/>
+      <c r="BV1919" s="3"/>
+      <c r="BW1919" s="3"/>
+      <c r="BX1919" s="3"/>
+      <c r="BY1919" s="3"/>
+      <c r="BZ1919" s="3"/>
+      <c r="CA1919" s="3"/>
+      <c r="CB1919" s="3"/>
+      <c r="CC1919" s="3"/>
+      <c r="CD1919" s="3"/>
+    </row>
+    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1953" s="3"/>
+      <c r="C1953" s="3"/>
+      <c r="D1953" s="3"/>
+      <c r="E1953" s="3"/>
+      <c r="F1953" s="3"/>
+      <c r="G1953" s="3"/>
+      <c r="H1953" s="3"/>
+      <c r="I1953" s="3"/>
+      <c r="J1953" s="3"/>
+      <c r="K1953" s="3"/>
+      <c r="L1953" s="3"/>
+      <c r="M1953" s="3"/>
+      <c r="N1953" s="3"/>
+      <c r="O1953" s="3"/>
+      <c r="P1953" s="3"/>
+      <c r="Q1953" s="3"/>
+      <c r="R1953" s="3"/>
+      <c r="S1953" s="3"/>
+      <c r="T1953" s="3"/>
+      <c r="U1953" s="3"/>
+      <c r="V1953" s="3"/>
+      <c r="W1953" s="3"/>
+      <c r="X1953" s="3"/>
+      <c r="Y1953" s="5"/>
+      <c r="Z1953" s="3"/>
+      <c r="AA1953" s="3"/>
+      <c r="AB1953" s="3"/>
+      <c r="AC1953" s="3"/>
+      <c r="AD1953" s="3"/>
+      <c r="AE1953" s="3"/>
+      <c r="AF1953" s="3"/>
+      <c r="AG1953" s="3"/>
+      <c r="AH1953" s="3"/>
+      <c r="AI1953" s="3"/>
+      <c r="AJ1953" s="3"/>
+      <c r="AK1953" s="3"/>
+      <c r="AL1953" s="3"/>
+      <c r="AM1953" s="3"/>
+      <c r="AN1953" s="3"/>
+      <c r="AO1953" s="3"/>
+      <c r="AP1953" s="3"/>
+      <c r="AQ1953" s="3"/>
+      <c r="AR1953" s="3"/>
+      <c r="AS1953" s="3"/>
+      <c r="AT1953" s="3"/>
+      <c r="AU1953" s="3"/>
+      <c r="AV1953" s="3"/>
+      <c r="AW1953" s="3"/>
+      <c r="AX1953" s="3"/>
+      <c r="AY1953" s="3"/>
+      <c r="AZ1953" s="3"/>
+      <c r="BA1953" s="3"/>
+      <c r="BB1953" s="3"/>
+      <c r="BC1953" s="3"/>
+      <c r="BD1953" s="3"/>
+      <c r="BE1953" s="3"/>
+      <c r="BF1953" s="3"/>
+      <c r="BG1953" s="3"/>
+      <c r="BH1953" s="3"/>
+      <c r="BI1953" s="3"/>
+      <c r="BJ1953" s="3"/>
+      <c r="BK1953" s="3"/>
+      <c r="BL1953" s="3"/>
+      <c r="BM1953" s="3"/>
+      <c r="BN1953" s="3"/>
+      <c r="BO1953" s="3"/>
+      <c r="BP1953" s="3"/>
+      <c r="BQ1953" s="3"/>
+      <c r="BR1953" s="3"/>
+      <c r="BS1953" s="3"/>
+      <c r="BT1953" s="3"/>
+      <c r="BU1953" s="3"/>
+      <c r="BV1953" s="3"/>
+      <c r="BW1953" s="3"/>
+      <c r="BX1953" s="3"/>
+      <c r="BY1953" s="3"/>
+      <c r="BZ1953" s="3"/>
+      <c r="CA1953" s="3"/>
+      <c r="CB1953" s="3"/>
+      <c r="CC1953" s="3"/>
+      <c r="CD1953" s="3"/>
+    </row>
+    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1987" s="3"/>
+      <c r="C1987" s="3"/>
+      <c r="D1987" s="3"/>
+      <c r="E1987" s="3"/>
+      <c r="F1987" s="3"/>
+      <c r="G1987" s="3"/>
+      <c r="H1987" s="3"/>
+      <c r="I1987" s="3"/>
+      <c r="J1987" s="3"/>
+      <c r="K1987" s="3"/>
+      <c r="L1987" s="3"/>
+      <c r="M1987" s="3"/>
+      <c r="N1987" s="3"/>
+      <c r="O1987" s="3"/>
+      <c r="P1987" s="3"/>
+      <c r="Q1987" s="3"/>
+      <c r="R1987" s="3"/>
+      <c r="S1987" s="3"/>
+      <c r="T1987" s="3"/>
+      <c r="U1987" s="3"/>
+      <c r="V1987" s="3"/>
+      <c r="W1987" s="3"/>
+      <c r="X1987" s="3"/>
+      <c r="Y1987" s="5"/>
+      <c r="Z1987" s="3"/>
+      <c r="AA1987" s="3"/>
+      <c r="AB1987" s="3"/>
+      <c r="AC1987" s="3"/>
+      <c r="AD1987" s="3"/>
+      <c r="AE1987" s="3"/>
+      <c r="AF1987" s="3"/>
+      <c r="AG1987" s="3"/>
+      <c r="AH1987" s="3"/>
+      <c r="AI1987" s="3"/>
+      <c r="AJ1987" s="3"/>
+      <c r="AK1987" s="3"/>
+      <c r="AL1987" s="3"/>
+      <c r="AM1987" s="3"/>
+      <c r="AN1987" s="3"/>
+      <c r="AO1987" s="3"/>
+      <c r="AP1987" s="3"/>
+      <c r="AQ1987" s="3"/>
+      <c r="AR1987" s="3"/>
+      <c r="AS1987" s="3"/>
+      <c r="AT1987" s="3"/>
+      <c r="AU1987" s="3"/>
+      <c r="AV1987" s="3"/>
+      <c r="AW1987" s="3"/>
+      <c r="AX1987" s="3"/>
+      <c r="AY1987" s="3"/>
+      <c r="AZ1987" s="3"/>
+      <c r="BA1987" s="3"/>
+      <c r="BB1987" s="3"/>
+      <c r="BC1987" s="3"/>
+      <c r="BD1987" s="3"/>
+      <c r="BE1987" s="3"/>
+      <c r="BF1987" s="3"/>
+      <c r="BG1987" s="3"/>
+      <c r="BH1987" s="3"/>
+      <c r="BI1987" s="3"/>
+      <c r="BJ1987" s="3"/>
+      <c r="BK1987" s="3"/>
+      <c r="BL1987" s="3"/>
+      <c r="BM1987" s="3"/>
+      <c r="BN1987" s="3"/>
+      <c r="BO1987" s="3"/>
+      <c r="BP1987" s="3"/>
+      <c r="BQ1987" s="3"/>
+      <c r="BR1987" s="3"/>
+      <c r="BS1987" s="3"/>
+      <c r="BT1987" s="3"/>
+      <c r="BU1987" s="3"/>
+      <c r="BV1987" s="3"/>
+      <c r="BW1987" s="3"/>
+      <c r="BX1987" s="3"/>
+      <c r="BY1987" s="3"/>
+      <c r="BZ1987" s="3"/>
+      <c r="CA1987" s="3"/>
+      <c r="CB1987" s="3"/>
+      <c r="CC1987" s="3"/>
+      <c r="CD1987" s="3"/>
+    </row>
+    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2021" s="3"/>
+      <c r="C2021" s="3"/>
+      <c r="D2021" s="3"/>
+      <c r="E2021" s="3"/>
+      <c r="F2021" s="3"/>
+      <c r="G2021" s="3"/>
+      <c r="H2021" s="3"/>
+      <c r="I2021" s="3"/>
+      <c r="J2021" s="3"/>
+      <c r="K2021" s="3"/>
+      <c r="L2021" s="3"/>
+      <c r="M2021" s="3"/>
+      <c r="N2021" s="3"/>
+      <c r="O2021" s="3"/>
+      <c r="P2021" s="3"/>
+      <c r="Q2021" s="3"/>
+      <c r="R2021" s="3"/>
+      <c r="S2021" s="3"/>
+      <c r="T2021" s="3"/>
+      <c r="U2021" s="3"/>
+      <c r="V2021" s="3"/>
+      <c r="W2021" s="3"/>
+      <c r="X2021" s="3"/>
+      <c r="Y2021" s="5"/>
+      <c r="Z2021" s="3"/>
+      <c r="AA2021" s="3"/>
+      <c r="AB2021" s="3"/>
+      <c r="AC2021" s="3"/>
+      <c r="AD2021" s="3"/>
+      <c r="AE2021" s="3"/>
+      <c r="AF2021" s="3"/>
+      <c r="AG2021" s="3"/>
+      <c r="AH2021" s="3"/>
+      <c r="AI2021" s="3"/>
+      <c r="AJ2021" s="3"/>
+      <c r="AK2021" s="3"/>
+      <c r="AL2021" s="3"/>
+      <c r="AM2021" s="3"/>
+      <c r="AN2021" s="3"/>
+      <c r="AO2021" s="3"/>
+      <c r="AP2021" s="3"/>
+      <c r="AQ2021" s="3"/>
+      <c r="AR2021" s="3"/>
+      <c r="AS2021" s="3"/>
+      <c r="AT2021" s="3"/>
+      <c r="AU2021" s="3"/>
+      <c r="AV2021" s="3"/>
+      <c r="AW2021" s="3"/>
+      <c r="AX2021" s="3"/>
+      <c r="AY2021" s="3"/>
+      <c r="AZ2021" s="3"/>
+      <c r="BA2021" s="3"/>
+      <c r="BB2021" s="3"/>
+      <c r="BC2021" s="3"/>
+      <c r="BD2021" s="3"/>
+      <c r="BE2021" s="3"/>
+      <c r="BF2021" s="3"/>
+      <c r="BG2021" s="3"/>
+      <c r="BH2021" s="3"/>
+      <c r="BI2021" s="3"/>
+      <c r="BJ2021" s="3"/>
+      <c r="BK2021" s="3"/>
+      <c r="BL2021" s="3"/>
+      <c r="BM2021" s="3"/>
+      <c r="BN2021" s="3"/>
+      <c r="BO2021" s="3"/>
+      <c r="BP2021" s="3"/>
+      <c r="BQ2021" s="3"/>
+      <c r="BR2021" s="3"/>
+      <c r="BS2021" s="3"/>
+      <c r="BT2021" s="3"/>
+      <c r="BU2021" s="3"/>
+      <c r="BV2021" s="3"/>
+      <c r="BW2021" s="3"/>
+      <c r="BX2021" s="3"/>
+      <c r="BY2021" s="3"/>
+      <c r="BZ2021" s="3"/>
+      <c r="CA2021" s="3"/>
+      <c r="CB2021" s="3"/>
+      <c r="CC2021" s="3"/>
+      <c r="CD2021" s="3"/>
+    </row>
+    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2055" s="3"/>
+      <c r="C2055" s="3"/>
+      <c r="D2055" s="3"/>
+      <c r="E2055" s="3"/>
+      <c r="F2055" s="3"/>
+      <c r="G2055" s="3"/>
+      <c r="H2055" s="3"/>
+      <c r="I2055" s="3"/>
+      <c r="J2055" s="3"/>
+      <c r="K2055" s="3"/>
+      <c r="L2055" s="3"/>
+      <c r="M2055" s="3"/>
+      <c r="N2055" s="3"/>
+      <c r="O2055" s="3"/>
+      <c r="P2055" s="3"/>
+      <c r="Q2055" s="3"/>
+      <c r="R2055" s="3"/>
+      <c r="S2055" s="3"/>
+      <c r="T2055" s="3"/>
+      <c r="U2055" s="3"/>
+      <c r="V2055" s="3"/>
+      <c r="W2055" s="3"/>
+      <c r="X2055" s="3"/>
+      <c r="Y2055" s="5"/>
+      <c r="Z2055" s="3"/>
+      <c r="AA2055" s="3"/>
+      <c r="AB2055" s="3"/>
+      <c r="AC2055" s="3"/>
+      <c r="AD2055" s="3"/>
+      <c r="AE2055" s="3"/>
+      <c r="AF2055" s="3"/>
+      <c r="AG2055" s="3"/>
+      <c r="AH2055" s="3"/>
+      <c r="AI2055" s="3"/>
+      <c r="AJ2055" s="3"/>
+      <c r="AK2055" s="3"/>
+      <c r="AL2055" s="3"/>
+      <c r="AM2055" s="3"/>
+      <c r="AN2055" s="3"/>
+      <c r="AO2055" s="3"/>
+      <c r="AP2055" s="3"/>
+      <c r="AQ2055" s="3"/>
+      <c r="AR2055" s="3"/>
+      <c r="AS2055" s="3"/>
+      <c r="AT2055" s="3"/>
+      <c r="AU2055" s="3"/>
+      <c r="AV2055" s="3"/>
+      <c r="AW2055" s="3"/>
+      <c r="AX2055" s="3"/>
+      <c r="AY2055" s="3"/>
+      <c r="AZ2055" s="3"/>
+      <c r="BA2055" s="3"/>
+      <c r="BB2055" s="3"/>
+      <c r="BC2055" s="3"/>
+      <c r="BD2055" s="3"/>
+      <c r="BE2055" s="3"/>
+      <c r="BF2055" s="3"/>
+      <c r="BG2055" s="3"/>
+      <c r="BH2055" s="3"/>
+      <c r="BI2055" s="3"/>
+      <c r="BJ2055" s="3"/>
+      <c r="BK2055" s="3"/>
+      <c r="BL2055" s="3"/>
+      <c r="BM2055" s="3"/>
+      <c r="BN2055" s="3"/>
+      <c r="BO2055" s="3"/>
+      <c r="BP2055" s="3"/>
+      <c r="BQ2055" s="3"/>
+      <c r="BR2055" s="3"/>
+      <c r="BS2055" s="3"/>
+      <c r="BT2055" s="3"/>
+      <c r="BU2055" s="3"/>
+      <c r="BV2055" s="3"/>
+      <c r="BW2055" s="3"/>
+      <c r="BX2055" s="3"/>
+      <c r="BY2055" s="3"/>
+      <c r="BZ2055" s="3"/>
+      <c r="CA2055" s="3"/>
+      <c r="CB2055" s="3"/>
+      <c r="CC2055" s="3"/>
+      <c r="CD2055" s="3"/>
+    </row>
+    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2089" s="3"/>
+      <c r="C2089" s="3"/>
+      <c r="D2089" s="3"/>
+      <c r="E2089" s="3"/>
+      <c r="F2089" s="3"/>
+      <c r="G2089" s="3"/>
+      <c r="H2089" s="3"/>
+      <c r="I2089" s="3"/>
+      <c r="J2089" s="3"/>
+      <c r="K2089" s="3"/>
+      <c r="L2089" s="3"/>
+      <c r="M2089" s="3"/>
+      <c r="N2089" s="3"/>
+      <c r="O2089" s="3"/>
+      <c r="P2089" s="3"/>
+      <c r="Q2089" s="3"/>
+      <c r="R2089" s="3"/>
+      <c r="S2089" s="3"/>
+      <c r="T2089" s="3"/>
+      <c r="U2089" s="3"/>
+      <c r="V2089" s="3"/>
+      <c r="W2089" s="3"/>
+      <c r="X2089" s="3"/>
+      <c r="Y2089" s="5"/>
+      <c r="Z2089" s="3"/>
+      <c r="AA2089" s="3"/>
+      <c r="AB2089" s="3"/>
+      <c r="AC2089" s="3"/>
+      <c r="AD2089" s="3"/>
+      <c r="AE2089" s="3"/>
+      <c r="AF2089" s="3"/>
+      <c r="AG2089" s="3"/>
+      <c r="AH2089" s="3"/>
+      <c r="AI2089" s="3"/>
+      <c r="AJ2089" s="3"/>
+      <c r="AK2089" s="3"/>
+      <c r="AL2089" s="3"/>
+      <c r="AM2089" s="3"/>
+      <c r="AN2089" s="3"/>
+      <c r="AO2089" s="3"/>
+      <c r="AP2089" s="3"/>
+      <c r="AQ2089" s="3"/>
+      <c r="AR2089" s="3"/>
+      <c r="AS2089" s="3"/>
+      <c r="AT2089" s="3"/>
+      <c r="AU2089" s="3"/>
+      <c r="AV2089" s="3"/>
+      <c r="AW2089" s="3"/>
+      <c r="AX2089" s="3"/>
+      <c r="AY2089" s="3"/>
+      <c r="AZ2089" s="3"/>
+      <c r="BA2089" s="3"/>
+      <c r="BB2089" s="3"/>
+      <c r="BC2089" s="3"/>
+      <c r="BD2089" s="3"/>
+      <c r="BE2089" s="3"/>
+      <c r="BF2089" s="3"/>
+      <c r="BG2089" s="3"/>
+      <c r="BH2089" s="3"/>
+      <c r="BI2089" s="3"/>
+      <c r="BJ2089" s="3"/>
+      <c r="BK2089" s="3"/>
+      <c r="BL2089" s="3"/>
+      <c r="BM2089" s="3"/>
+      <c r="BN2089" s="3"/>
+      <c r="BO2089" s="3"/>
+      <c r="BP2089" s="3"/>
+      <c r="BQ2089" s="3"/>
+      <c r="BR2089" s="3"/>
+      <c r="BS2089" s="3"/>
+      <c r="BT2089" s="3"/>
+      <c r="BU2089" s="3"/>
+      <c r="BV2089" s="3"/>
+      <c r="BW2089" s="3"/>
+      <c r="BX2089" s="3"/>
+      <c r="BY2089" s="3"/>
+      <c r="BZ2089" s="3"/>
+      <c r="CA2089" s="3"/>
+      <c r="CB2089" s="3"/>
+      <c r="CC2089" s="3"/>
+      <c r="CD2089" s="3"/>
+    </row>
+    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2123" s="3"/>
+      <c r="C2123" s="3"/>
+      <c r="D2123" s="3"/>
+      <c r="E2123" s="3"/>
+      <c r="F2123" s="3"/>
+      <c r="G2123" s="3"/>
+      <c r="H2123" s="3"/>
+      <c r="I2123" s="3"/>
+      <c r="J2123" s="3"/>
+      <c r="K2123" s="3"/>
+      <c r="L2123" s="3"/>
+      <c r="M2123" s="3"/>
+      <c r="N2123" s="3"/>
+      <c r="O2123" s="3"/>
+      <c r="P2123" s="3"/>
+      <c r="Q2123" s="3"/>
+      <c r="R2123" s="3"/>
+      <c r="S2123" s="3"/>
+      <c r="T2123" s="3"/>
+      <c r="U2123" s="3"/>
+      <c r="V2123" s="3"/>
+      <c r="W2123" s="3"/>
+      <c r="X2123" s="3"/>
+      <c r="Y2123" s="5"/>
+      <c r="Z2123" s="3"/>
+      <c r="AA2123" s="3"/>
+      <c r="AB2123" s="3"/>
+      <c r="AC2123" s="3"/>
+      <c r="AD2123" s="3"/>
+      <c r="AE2123" s="3"/>
+      <c r="AF2123" s="3"/>
+      <c r="AG2123" s="3"/>
+      <c r="AH2123" s="3"/>
+      <c r="AI2123" s="3"/>
+      <c r="AJ2123" s="3"/>
+      <c r="AK2123" s="3"/>
+      <c r="AL2123" s="3"/>
+      <c r="AM2123" s="3"/>
+      <c r="AN2123" s="3"/>
+      <c r="AO2123" s="3"/>
+      <c r="AP2123" s="3"/>
+      <c r="AQ2123" s="3"/>
+      <c r="AR2123" s="3"/>
+      <c r="AS2123" s="3"/>
+      <c r="AT2123" s="3"/>
+      <c r="AU2123" s="3"/>
+      <c r="AV2123" s="3"/>
+      <c r="AW2123" s="3"/>
+      <c r="AX2123" s="3"/>
+      <c r="AY2123" s="3"/>
+      <c r="AZ2123" s="3"/>
+      <c r="BA2123" s="3"/>
+      <c r="BB2123" s="3"/>
+      <c r="BC2123" s="3"/>
+      <c r="BD2123" s="3"/>
+      <c r="BE2123" s="3"/>
+      <c r="BF2123" s="3"/>
+      <c r="BG2123" s="3"/>
+      <c r="BH2123" s="3"/>
+      <c r="BI2123" s="3"/>
+      <c r="BJ2123" s="3"/>
+      <c r="BK2123" s="3"/>
+      <c r="BL2123" s="3"/>
+      <c r="BM2123" s="3"/>
+      <c r="BN2123" s="3"/>
+      <c r="BO2123" s="3"/>
+      <c r="BP2123" s="3"/>
+      <c r="BQ2123" s="3"/>
+      <c r="BR2123" s="3"/>
+      <c r="BS2123" s="3"/>
+      <c r="BT2123" s="3"/>
+      <c r="BU2123" s="3"/>
+      <c r="BV2123" s="3"/>
+      <c r="BW2123" s="3"/>
+      <c r="BX2123" s="3"/>
+      <c r="BY2123" s="3"/>
+      <c r="BZ2123" s="3"/>
+      <c r="CA2123" s="3"/>
+      <c r="CB2123" s="3"/>
+      <c r="CC2123" s="3"/>
+      <c r="CD2123" s="3"/>
+    </row>
+    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2157" s="3"/>
+      <c r="C2157" s="3"/>
+      <c r="D2157" s="3"/>
+      <c r="E2157" s="3"/>
+      <c r="F2157" s="3"/>
+      <c r="G2157" s="3"/>
+      <c r="H2157" s="3"/>
+      <c r="I2157" s="3"/>
+      <c r="J2157" s="3"/>
+      <c r="K2157" s="3"/>
+      <c r="L2157" s="3"/>
+      <c r="M2157" s="3"/>
+      <c r="N2157" s="3"/>
+      <c r="O2157" s="3"/>
+      <c r="P2157" s="3"/>
+      <c r="Q2157" s="3"/>
+      <c r="R2157" s="3"/>
+      <c r="S2157" s="3"/>
+      <c r="T2157" s="3"/>
+      <c r="U2157" s="3"/>
+      <c r="V2157" s="3"/>
+      <c r="W2157" s="3"/>
+      <c r="X2157" s="3"/>
+      <c r="Y2157" s="5"/>
+      <c r="Z2157" s="3"/>
+      <c r="AA2157" s="3"/>
+      <c r="AB2157" s="3"/>
+      <c r="AC2157" s="3"/>
+      <c r="AD2157" s="3"/>
+      <c r="AE2157" s="3"/>
+      <c r="AF2157" s="3"/>
+      <c r="AG2157" s="3"/>
+      <c r="AH2157" s="3"/>
+      <c r="AI2157" s="3"/>
+      <c r="AJ2157" s="3"/>
+      <c r="AK2157" s="3"/>
+      <c r="AL2157" s="3"/>
+      <c r="AM2157" s="3"/>
+      <c r="AN2157" s="3"/>
+      <c r="AO2157" s="3"/>
+      <c r="AP2157" s="3"/>
+      <c r="AQ2157" s="3"/>
+      <c r="AR2157" s="3"/>
+      <c r="AS2157" s="3"/>
+      <c r="AT2157" s="3"/>
+      <c r="AU2157" s="3"/>
+      <c r="AV2157" s="3"/>
+      <c r="AW2157" s="3"/>
+      <c r="AX2157" s="3"/>
+      <c r="AY2157" s="3"/>
+      <c r="AZ2157" s="3"/>
+      <c r="BA2157" s="3"/>
+      <c r="BB2157" s="3"/>
+      <c r="BC2157" s="3"/>
+      <c r="BD2157" s="3"/>
+      <c r="BE2157" s="3"/>
+      <c r="BF2157" s="3"/>
+      <c r="BG2157" s="3"/>
+      <c r="BH2157" s="3"/>
+      <c r="BI2157" s="3"/>
+      <c r="BJ2157" s="3"/>
+      <c r="BK2157" s="3"/>
+      <c r="BL2157" s="3"/>
+      <c r="BM2157" s="3"/>
+      <c r="BN2157" s="3"/>
+      <c r="BO2157" s="3"/>
+      <c r="BP2157" s="3"/>
+      <c r="BQ2157" s="3"/>
+      <c r="BR2157" s="3"/>
+      <c r="BS2157" s="3"/>
+      <c r="BT2157" s="3"/>
+      <c r="BU2157" s="3"/>
+      <c r="BV2157" s="3"/>
+      <c r="BW2157" s="3"/>
+      <c r="BX2157" s="3"/>
+      <c r="BY2157" s="3"/>
+      <c r="BZ2157" s="3"/>
+      <c r="CA2157" s="3"/>
+      <c r="CB2157" s="3"/>
+      <c r="CC2157" s="3"/>
+      <c r="CD2157" s="3"/>
+    </row>
+    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2191" s="3"/>
+      <c r="C2191" s="3"/>
+      <c r="D2191" s="3"/>
+      <c r="E2191" s="3"/>
+      <c r="F2191" s="3"/>
+      <c r="G2191" s="3"/>
+      <c r="H2191" s="3"/>
+      <c r="I2191" s="3"/>
+      <c r="J2191" s="3"/>
+      <c r="K2191" s="3"/>
+      <c r="L2191" s="3"/>
+      <c r="M2191" s="3"/>
+      <c r="N2191" s="3"/>
+      <c r="O2191" s="3"/>
+      <c r="P2191" s="3"/>
+      <c r="Q2191" s="3"/>
+      <c r="R2191" s="3"/>
+      <c r="S2191" s="3"/>
+      <c r="T2191" s="3"/>
+      <c r="U2191" s="3"/>
+      <c r="V2191" s="3"/>
+      <c r="W2191" s="3"/>
+      <c r="X2191" s="3"/>
+      <c r="Y2191" s="5"/>
+      <c r="Z2191" s="3"/>
+      <c r="AA2191" s="3"/>
+      <c r="AB2191" s="3"/>
+      <c r="AC2191" s="3"/>
+      <c r="AD2191" s="3"/>
+      <c r="AE2191" s="3"/>
+      <c r="AF2191" s="3"/>
+      <c r="AG2191" s="3"/>
+      <c r="AH2191" s="3"/>
+      <c r="AI2191" s="3"/>
+      <c r="AJ2191" s="3"/>
+      <c r="AK2191" s="3"/>
+      <c r="AL2191" s="3"/>
+      <c r="AM2191" s="3"/>
+      <c r="AN2191" s="3"/>
+      <c r="AO2191" s="3"/>
+      <c r="AP2191" s="3"/>
+      <c r="AQ2191" s="3"/>
+      <c r="AR2191" s="3"/>
+      <c r="AS2191" s="3"/>
+      <c r="AT2191" s="3"/>
+      <c r="AU2191" s="3"/>
+      <c r="AV2191" s="3"/>
+      <c r="AW2191" s="3"/>
+      <c r="AX2191" s="3"/>
+      <c r="AY2191" s="3"/>
+      <c r="AZ2191" s="3"/>
+      <c r="BA2191" s="3"/>
+      <c r="BB2191" s="3"/>
+      <c r="BC2191" s="3"/>
+      <c r="BD2191" s="3"/>
+      <c r="BE2191" s="3"/>
+      <c r="BF2191" s="3"/>
+      <c r="BG2191" s="3"/>
+      <c r="BH2191" s="3"/>
+      <c r="BI2191" s="3"/>
+      <c r="BJ2191" s="3"/>
+      <c r="BK2191" s="3"/>
+      <c r="BL2191" s="3"/>
+      <c r="BM2191" s="3"/>
+      <c r="BN2191" s="3"/>
+      <c r="BO2191" s="3"/>
+      <c r="BP2191" s="3"/>
+      <c r="BQ2191" s="3"/>
+      <c r="BR2191" s="3"/>
+      <c r="BS2191" s="3"/>
+      <c r="BT2191" s="3"/>
+      <c r="BU2191" s="3"/>
+      <c r="BV2191" s="3"/>
+      <c r="BW2191" s="3"/>
+      <c r="BX2191" s="3"/>
+      <c r="BY2191" s="3"/>
+      <c r="BZ2191" s="3"/>
+      <c r="CA2191" s="3"/>
+      <c r="CB2191" s="3"/>
+      <c r="CC2191" s="3"/>
+      <c r="CD2191" s="3"/>
+    </row>
+    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2225" s="3"/>
+      <c r="C2225" s="3"/>
+      <c r="D2225" s="3"/>
+      <c r="E2225" s="3"/>
+      <c r="F2225" s="3"/>
+      <c r="G2225" s="3"/>
+      <c r="H2225" s="3"/>
+      <c r="I2225" s="3"/>
+      <c r="J2225" s="3"/>
+      <c r="K2225" s="3"/>
+      <c r="L2225" s="3"/>
+      <c r="M2225" s="3"/>
+      <c r="N2225" s="3"/>
+      <c r="O2225" s="3"/>
+      <c r="P2225" s="3"/>
+      <c r="Q2225" s="3"/>
+      <c r="R2225" s="3"/>
+      <c r="S2225" s="3"/>
+      <c r="T2225" s="3"/>
+      <c r="U2225" s="3"/>
+      <c r="V2225" s="3"/>
+      <c r="W2225" s="3"/>
+      <c r="X2225" s="3"/>
+      <c r="Y2225" s="5"/>
+      <c r="Z2225" s="3"/>
+      <c r="AA2225" s="3"/>
+      <c r="AB2225" s="3"/>
+      <c r="AC2225" s="3"/>
+      <c r="AD2225" s="3"/>
+      <c r="AE2225" s="3"/>
+      <c r="AF2225" s="3"/>
+      <c r="AG2225" s="3"/>
+      <c r="AH2225" s="3"/>
+      <c r="AI2225" s="3"/>
+      <c r="AJ2225" s="3"/>
+      <c r="AK2225" s="3"/>
+      <c r="AL2225" s="3"/>
+      <c r="AM2225" s="3"/>
+      <c r="AN2225" s="3"/>
+      <c r="AO2225" s="3"/>
+      <c r="AP2225" s="3"/>
+      <c r="AQ2225" s="3"/>
+      <c r="AR2225" s="3"/>
+      <c r="AS2225" s="3"/>
+      <c r="AT2225" s="3"/>
+      <c r="AU2225" s="3"/>
+      <c r="AV2225" s="3"/>
+      <c r="AW2225" s="3"/>
+      <c r="AX2225" s="3"/>
+      <c r="AY2225" s="3"/>
+      <c r="AZ2225" s="3"/>
+      <c r="BA2225" s="3"/>
+      <c r="BB2225" s="3"/>
+      <c r="BC2225" s="3"/>
+      <c r="BD2225" s="3"/>
+      <c r="BE2225" s="3"/>
+      <c r="BF2225" s="3"/>
+      <c r="BG2225" s="3"/>
+      <c r="BH2225" s="3"/>
+      <c r="BI2225" s="3"/>
+      <c r="BJ2225" s="3"/>
+      <c r="BK2225" s="3"/>
+      <c r="BL2225" s="3"/>
+      <c r="BM2225" s="3"/>
+      <c r="BN2225" s="3"/>
+      <c r="BO2225" s="3"/>
+      <c r="BP2225" s="3"/>
+      <c r="BQ2225" s="3"/>
+      <c r="BR2225" s="3"/>
+      <c r="BS2225" s="3"/>
+      <c r="BT2225" s="3"/>
+      <c r="BU2225" s="3"/>
+      <c r="BV2225" s="3"/>
+      <c r="BW2225" s="3"/>
+      <c r="BX2225" s="3"/>
+      <c r="BY2225" s="3"/>
+      <c r="BZ2225" s="3"/>
+      <c r="CA2225" s="3"/>
+      <c r="CB2225" s="3"/>
+      <c r="CC2225" s="3"/>
+      <c r="CD2225" s="3"/>
+    </row>
+    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2259" s="3"/>
+      <c r="C2259" s="3"/>
+      <c r="D2259" s="3"/>
+      <c r="E2259" s="3"/>
+      <c r="F2259" s="3"/>
+      <c r="G2259" s="3"/>
+      <c r="H2259" s="3"/>
+      <c r="I2259" s="3"/>
+      <c r="J2259" s="3"/>
+      <c r="K2259" s="3"/>
+      <c r="L2259" s="3"/>
+      <c r="M2259" s="3"/>
+      <c r="N2259" s="3"/>
+      <c r="O2259" s="3"/>
+      <c r="P2259" s="3"/>
+      <c r="Q2259" s="3"/>
+      <c r="R2259" s="3"/>
+      <c r="S2259" s="3"/>
+      <c r="T2259" s="3"/>
+      <c r="U2259" s="3"/>
+      <c r="V2259" s="3"/>
+      <c r="W2259" s="3"/>
+      <c r="X2259" s="3"/>
+      <c r="Y2259" s="5"/>
+      <c r="Z2259" s="3"/>
+      <c r="AA2259" s="3"/>
+      <c r="AB2259" s="3"/>
+      <c r="AC2259" s="3"/>
+      <c r="AD2259" s="3"/>
+      <c r="AE2259" s="3"/>
+      <c r="AF2259" s="3"/>
+      <c r="AG2259" s="3"/>
+      <c r="AH2259" s="3"/>
+      <c r="AI2259" s="3"/>
+      <c r="AJ2259" s="3"/>
+      <c r="AK2259" s="3"/>
+      <c r="AL2259" s="3"/>
+      <c r="AM2259" s="3"/>
+      <c r="AN2259" s="3"/>
+      <c r="AO2259" s="3"/>
+      <c r="AP2259" s="3"/>
+      <c r="AQ2259" s="3"/>
+      <c r="AR2259" s="3"/>
+      <c r="AS2259" s="3"/>
+      <c r="AT2259" s="3"/>
+      <c r="AU2259" s="3"/>
+      <c r="AV2259" s="3"/>
+      <c r="AW2259" s="3"/>
+      <c r="AX2259" s="3"/>
+      <c r="AY2259" s="3"/>
+      <c r="AZ2259" s="3"/>
+      <c r="BA2259" s="3"/>
+      <c r="BB2259" s="3"/>
+      <c r="BC2259" s="3"/>
+      <c r="BD2259" s="3"/>
+      <c r="BE2259" s="3"/>
+      <c r="BF2259" s="3"/>
+      <c r="BG2259" s="3"/>
+      <c r="BH2259" s="3"/>
+      <c r="BI2259" s="3"/>
+      <c r="BJ2259" s="3"/>
+      <c r="BK2259" s="3"/>
+      <c r="BL2259" s="3"/>
+      <c r="BM2259" s="3"/>
+      <c r="BN2259" s="3"/>
+      <c r="BO2259" s="3"/>
+      <c r="BP2259" s="3"/>
+      <c r="BQ2259" s="3"/>
+      <c r="BR2259" s="3"/>
+      <c r="BS2259" s="3"/>
+      <c r="BT2259" s="3"/>
+      <c r="BU2259" s="3"/>
+      <c r="BV2259" s="3"/>
+      <c r="BW2259" s="3"/>
+      <c r="BX2259" s="3"/>
+      <c r="BY2259" s="3"/>
+      <c r="BZ2259" s="3"/>
+      <c r="CA2259" s="3"/>
+      <c r="CB2259" s="3"/>
+      <c r="CC2259" s="3"/>
+      <c r="CD2259" s="3"/>
+    </row>
+    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2293" s="3"/>
+      <c r="C2293" s="3"/>
+      <c r="D2293" s="3"/>
+      <c r="E2293" s="3"/>
+      <c r="F2293" s="3"/>
+      <c r="G2293" s="3"/>
+      <c r="H2293" s="3"/>
+      <c r="I2293" s="3"/>
+      <c r="J2293" s="3"/>
+      <c r="K2293" s="3"/>
+      <c r="L2293" s="3"/>
+      <c r="M2293" s="3"/>
+      <c r="N2293" s="3"/>
+      <c r="O2293" s="3"/>
+      <c r="P2293" s="3"/>
+      <c r="Q2293" s="3"/>
+      <c r="R2293" s="3"/>
+      <c r="S2293" s="3"/>
+      <c r="T2293" s="3"/>
+      <c r="U2293" s="3"/>
+      <c r="V2293" s="3"/>
+      <c r="W2293" s="3"/>
+      <c r="X2293" s="3"/>
+      <c r="Y2293" s="5"/>
+      <c r="Z2293" s="3"/>
+      <c r="AA2293" s="3"/>
+      <c r="AB2293" s="3"/>
+      <c r="AC2293" s="3"/>
+      <c r="AD2293" s="3"/>
+      <c r="AE2293" s="3"/>
+      <c r="AF2293" s="3"/>
+      <c r="AG2293" s="3"/>
+      <c r="AH2293" s="3"/>
+      <c r="AI2293" s="3"/>
+      <c r="AJ2293" s="3"/>
+      <c r="AK2293" s="3"/>
+      <c r="AL2293" s="3"/>
+      <c r="AM2293" s="3"/>
+      <c r="AN2293" s="3"/>
+      <c r="AO2293" s="3"/>
+      <c r="AP2293" s="3"/>
+      <c r="AQ2293" s="3"/>
+      <c r="AR2293" s="3"/>
+      <c r="AS2293" s="3"/>
+      <c r="AT2293" s="3"/>
+      <c r="AU2293" s="3"/>
+      <c r="AV2293" s="3"/>
+      <c r="AW2293" s="3"/>
+      <c r="AX2293" s="3"/>
+      <c r="AY2293" s="3"/>
+      <c r="AZ2293" s="3"/>
+      <c r="BA2293" s="3"/>
+      <c r="BB2293" s="3"/>
+      <c r="BC2293" s="3"/>
+      <c r="BD2293" s="3"/>
+      <c r="BE2293" s="3"/>
+      <c r="BF2293" s="3"/>
+      <c r="BG2293" s="3"/>
+      <c r="BH2293" s="3"/>
+      <c r="BI2293" s="3"/>
+      <c r="BJ2293" s="3"/>
+      <c r="BK2293" s="3"/>
+      <c r="BL2293" s="3"/>
+      <c r="BM2293" s="3"/>
+      <c r="BN2293" s="3"/>
+      <c r="BO2293" s="3"/>
+      <c r="BP2293" s="3"/>
+      <c r="BQ2293" s="3"/>
+      <c r="BR2293" s="3"/>
+      <c r="BS2293" s="3"/>
+      <c r="BT2293" s="3"/>
+      <c r="BU2293" s="3"/>
+      <c r="BV2293" s="3"/>
+      <c r="BW2293" s="3"/>
+      <c r="BX2293" s="3"/>
+      <c r="BY2293" s="3"/>
+      <c r="BZ2293" s="3"/>
+      <c r="CA2293" s="3"/>
+      <c r="CB2293" s="3"/>
+      <c r="CC2293" s="3"/>
+      <c r="CD2293" s="3"/>
+    </row>
+    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2327" s="3"/>
+      <c r="C2327" s="3"/>
+      <c r="D2327" s="3"/>
+      <c r="E2327" s="3"/>
+      <c r="F2327" s="3"/>
+      <c r="G2327" s="3"/>
+      <c r="H2327" s="3"/>
+      <c r="I2327" s="3"/>
+      <c r="J2327" s="3"/>
+      <c r="K2327" s="3"/>
+      <c r="L2327" s="3"/>
+      <c r="M2327" s="3"/>
+      <c r="N2327" s="3"/>
+      <c r="O2327" s="3"/>
+      <c r="P2327" s="3"/>
+      <c r="Q2327" s="3"/>
+      <c r="R2327" s="3"/>
+      <c r="S2327" s="3"/>
+      <c r="T2327" s="3"/>
+      <c r="U2327" s="3"/>
+      <c r="V2327" s="3"/>
+      <c r="W2327" s="3"/>
+      <c r="X2327" s="3"/>
+      <c r="Y2327" s="5"/>
+      <c r="Z2327" s="3"/>
+      <c r="AA2327" s="3"/>
+      <c r="AB2327" s="3"/>
+      <c r="AC2327" s="3"/>
+      <c r="AD2327" s="3"/>
+      <c r="AE2327" s="3"/>
+      <c r="AF2327" s="3"/>
+      <c r="AG2327" s="3"/>
+      <c r="AH2327" s="3"/>
+      <c r="AI2327" s="3"/>
+      <c r="AJ2327" s="3"/>
+      <c r="AK2327" s="3"/>
+      <c r="AL2327" s="3"/>
+      <c r="AM2327" s="3"/>
+      <c r="AN2327" s="3"/>
+      <c r="AO2327" s="3"/>
+      <c r="AP2327" s="3"/>
+      <c r="AQ2327" s="3"/>
+      <c r="AR2327" s="3"/>
+      <c r="AS2327" s="3"/>
+      <c r="AT2327" s="3"/>
+      <c r="AU2327" s="3"/>
+      <c r="AV2327" s="3"/>
+      <c r="AW2327" s="3"/>
+      <c r="AX2327" s="3"/>
+      <c r="AY2327" s="3"/>
+      <c r="AZ2327" s="3"/>
+      <c r="BA2327" s="3"/>
+      <c r="BB2327" s="3"/>
+      <c r="BC2327" s="3"/>
+      <c r="BD2327" s="3"/>
+      <c r="BE2327" s="3"/>
+      <c r="BF2327" s="3"/>
+      <c r="BG2327" s="3"/>
+      <c r="BH2327" s="3"/>
+      <c r="BI2327" s="3"/>
+      <c r="BJ2327" s="3"/>
+      <c r="BK2327" s="3"/>
+      <c r="BL2327" s="3"/>
+      <c r="BM2327" s="3"/>
+      <c r="BN2327" s="3"/>
+      <c r="BO2327" s="3"/>
+      <c r="BP2327" s="3"/>
+      <c r="BQ2327" s="3"/>
+      <c r="BR2327" s="3"/>
+      <c r="BS2327" s="3"/>
+      <c r="BT2327" s="3"/>
+      <c r="BU2327" s="3"/>
+      <c r="BV2327" s="3"/>
+      <c r="BW2327" s="3"/>
+      <c r="BX2327" s="3"/>
+      <c r="BY2327" s="3"/>
+      <c r="BZ2327" s="3"/>
+      <c r="CA2327" s="3"/>
+      <c r="CB2327" s="3"/>
+      <c r="CC2327" s="3"/>
+      <c r="CD2327" s="3"/>
+    </row>
+    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2361" s="3"/>
+      <c r="C2361" s="3"/>
+      <c r="D2361" s="3"/>
+      <c r="E2361" s="3"/>
+      <c r="F2361" s="3"/>
+      <c r="G2361" s="3"/>
+      <c r="H2361" s="3"/>
+      <c r="I2361" s="3"/>
+      <c r="J2361" s="3"/>
+      <c r="K2361" s="3"/>
+      <c r="L2361" s="3"/>
+      <c r="M2361" s="3"/>
+      <c r="N2361" s="3"/>
+      <c r="O2361" s="3"/>
+      <c r="P2361" s="3"/>
+      <c r="Q2361" s="3"/>
+      <c r="R2361" s="3"/>
+      <c r="S2361" s="3"/>
+      <c r="T2361" s="3"/>
+      <c r="U2361" s="3"/>
+      <c r="V2361" s="3"/>
+      <c r="W2361" s="3"/>
+      <c r="X2361" s="3"/>
+      <c r="Y2361" s="5"/>
+      <c r="Z2361" s="3"/>
+      <c r="AA2361" s="3"/>
+      <c r="AB2361" s="3"/>
+      <c r="AC2361" s="3"/>
+      <c r="AD2361" s="3"/>
+      <c r="AE2361" s="3"/>
+      <c r="AF2361" s="3"/>
+      <c r="AG2361" s="3"/>
+      <c r="AH2361" s="3"/>
+      <c r="AI2361" s="3"/>
+      <c r="AJ2361" s="3"/>
+      <c r="AK2361" s="3"/>
+      <c r="AL2361" s="3"/>
+      <c r="AM2361" s="3"/>
+      <c r="AN2361" s="3"/>
+      <c r="AO2361" s="3"/>
+      <c r="AP2361" s="3"/>
+      <c r="AQ2361" s="3"/>
+      <c r="AR2361" s="3"/>
+      <c r="AS2361" s="3"/>
+      <c r="AT2361" s="3"/>
+      <c r="AU2361" s="3"/>
+      <c r="AV2361" s="3"/>
+      <c r="AW2361" s="3"/>
+      <c r="AX2361" s="3"/>
+      <c r="AY2361" s="3"/>
+      <c r="AZ2361" s="3"/>
+      <c r="BA2361" s="3"/>
+      <c r="BB2361" s="3"/>
+      <c r="BC2361" s="3"/>
+      <c r="BD2361" s="3"/>
+      <c r="BE2361" s="3"/>
+      <c r="BF2361" s="3"/>
+      <c r="BG2361" s="3"/>
+      <c r="BH2361" s="3"/>
+      <c r="BI2361" s="3"/>
+      <c r="BJ2361" s="3"/>
+      <c r="BK2361" s="3"/>
+      <c r="BL2361" s="3"/>
+      <c r="BM2361" s="3"/>
+      <c r="BN2361" s="3"/>
+      <c r="BO2361" s="3"/>
+      <c r="BP2361" s="3"/>
+      <c r="BQ2361" s="3"/>
+      <c r="BR2361" s="3"/>
+      <c r="BS2361" s="3"/>
+      <c r="BT2361" s="3"/>
+      <c r="BU2361" s="3"/>
+      <c r="BV2361" s="3"/>
+      <c r="BW2361" s="3"/>
+      <c r="BX2361" s="3"/>
+      <c r="BY2361" s="3"/>
+      <c r="BZ2361" s="3"/>
+      <c r="CA2361" s="3"/>
+      <c r="CB2361" s="3"/>
+      <c r="CC2361" s="3"/>
+      <c r="CD2361" s="3"/>
+    </row>
+    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2395" s="3"/>
+      <c r="C2395" s="3"/>
+      <c r="D2395" s="3"/>
+      <c r="E2395" s="3"/>
+      <c r="F2395" s="3"/>
+      <c r="G2395" s="3"/>
+      <c r="H2395" s="3"/>
+      <c r="I2395" s="3"/>
+      <c r="J2395" s="3"/>
+      <c r="K2395" s="3"/>
+      <c r="L2395" s="3"/>
+      <c r="M2395" s="3"/>
+      <c r="N2395" s="3"/>
+      <c r="O2395" s="3"/>
+      <c r="P2395" s="3"/>
+      <c r="Q2395" s="3"/>
+      <c r="R2395" s="3"/>
+      <c r="S2395" s="3"/>
+      <c r="T2395" s="3"/>
+      <c r="U2395" s="3"/>
+      <c r="V2395" s="3"/>
+      <c r="W2395" s="3"/>
+      <c r="X2395" s="3"/>
+      <c r="Y2395" s="5"/>
+      <c r="Z2395" s="3"/>
+      <c r="AA2395" s="3"/>
+      <c r="AB2395" s="3"/>
+      <c r="AC2395" s="3"/>
+      <c r="AD2395" s="3"/>
+      <c r="AE2395" s="3"/>
+      <c r="AF2395" s="3"/>
+      <c r="AG2395" s="3"/>
+      <c r="AH2395" s="3"/>
+      <c r="AI2395" s="3"/>
+      <c r="AJ2395" s="3"/>
+      <c r="AK2395" s="3"/>
+      <c r="AL2395" s="3"/>
+      <c r="AM2395" s="3"/>
+      <c r="AN2395" s="3"/>
+      <c r="AO2395" s="3"/>
+      <c r="AP2395" s="3"/>
+      <c r="AQ2395" s="3"/>
+      <c r="AR2395" s="3"/>
+      <c r="AS2395" s="3"/>
+      <c r="AT2395" s="3"/>
+      <c r="AU2395" s="3"/>
+      <c r="AV2395" s="3"/>
+      <c r="AW2395" s="3"/>
+      <c r="AX2395" s="3"/>
+      <c r="AY2395" s="3"/>
+      <c r="AZ2395" s="3"/>
+      <c r="BA2395" s="3"/>
+      <c r="BB2395" s="3"/>
+      <c r="BC2395" s="3"/>
+      <c r="BD2395" s="3"/>
+      <c r="BE2395" s="3"/>
+      <c r="BF2395" s="3"/>
+      <c r="BG2395" s="3"/>
+      <c r="BH2395" s="3"/>
+      <c r="BI2395" s="3"/>
+      <c r="BJ2395" s="3"/>
+      <c r="BK2395" s="3"/>
+      <c r="BL2395" s="3"/>
+      <c r="BM2395" s="3"/>
+      <c r="BN2395" s="3"/>
+      <c r="BO2395" s="3"/>
+      <c r="BP2395" s="3"/>
+      <c r="BQ2395" s="3"/>
+      <c r="BR2395" s="3"/>
+      <c r="BS2395" s="3"/>
+      <c r="BT2395" s="3"/>
+      <c r="BU2395" s="3"/>
+      <c r="BV2395" s="3"/>
+      <c r="BW2395" s="3"/>
+      <c r="BX2395" s="3"/>
+      <c r="BY2395" s="3"/>
+      <c r="BZ2395" s="3"/>
+      <c r="CA2395" s="3"/>
+      <c r="CB2395" s="3"/>
+      <c r="CC2395" s="3"/>
+      <c r="CD2395" s="3"/>
+    </row>
+    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2429" s="3"/>
+      <c r="C2429" s="3"/>
+      <c r="D2429" s="3"/>
+      <c r="E2429" s="3"/>
+      <c r="F2429" s="3"/>
+      <c r="G2429" s="3"/>
+      <c r="H2429" s="3"/>
+      <c r="I2429" s="3"/>
+      <c r="J2429" s="3"/>
+      <c r="K2429" s="3"/>
+      <c r="L2429" s="3"/>
+      <c r="M2429" s="3"/>
+      <c r="N2429" s="3"/>
+      <c r="O2429" s="3"/>
+      <c r="P2429" s="3"/>
+      <c r="Q2429" s="3"/>
+      <c r="R2429" s="3"/>
+      <c r="S2429" s="3"/>
+      <c r="T2429" s="3"/>
+      <c r="U2429" s="3"/>
+      <c r="V2429" s="3"/>
+      <c r="W2429" s="3"/>
+      <c r="X2429" s="3"/>
+      <c r="Y2429" s="5"/>
+      <c r="Z2429" s="3"/>
+      <c r="AA2429" s="3"/>
+      <c r="AB2429" s="3"/>
+      <c r="AC2429" s="3"/>
+      <c r="AD2429" s="3"/>
+      <c r="AE2429" s="3"/>
+      <c r="AF2429" s="3"/>
+      <c r="AG2429" s="3"/>
+      <c r="AH2429" s="3"/>
+      <c r="AI2429" s="3"/>
+      <c r="AJ2429" s="3"/>
+      <c r="AK2429" s="3"/>
+      <c r="AL2429" s="3"/>
+      <c r="AM2429" s="3"/>
+      <c r="AN2429" s="3"/>
+      <c r="AO2429" s="3"/>
+      <c r="AP2429" s="3"/>
+      <c r="AQ2429" s="3"/>
+      <c r="AR2429" s="3"/>
+      <c r="AS2429" s="3"/>
+      <c r="AT2429" s="3"/>
+      <c r="AU2429" s="3"/>
+      <c r="AV2429" s="3"/>
+      <c r="AW2429" s="3"/>
+      <c r="AX2429" s="3"/>
+      <c r="AY2429" s="3"/>
+      <c r="AZ2429" s="3"/>
+      <c r="BA2429" s="3"/>
+      <c r="BB2429" s="3"/>
+      <c r="BC2429" s="3"/>
+      <c r="BD2429" s="3"/>
+      <c r="BE2429" s="3"/>
+      <c r="BF2429" s="3"/>
+      <c r="BG2429" s="3"/>
+      <c r="BH2429" s="3"/>
+      <c r="BI2429" s="3"/>
+      <c r="BJ2429" s="3"/>
+      <c r="BK2429" s="3"/>
+      <c r="BL2429" s="3"/>
+      <c r="BM2429" s="3"/>
+      <c r="BN2429" s="3"/>
+      <c r="BO2429" s="3"/>
+      <c r="BP2429" s="3"/>
+      <c r="BQ2429" s="3"/>
+      <c r="BR2429" s="3"/>
+      <c r="BS2429" s="3"/>
+      <c r="BT2429" s="3"/>
+      <c r="BU2429" s="3"/>
+      <c r="BV2429" s="3"/>
+      <c r="BW2429" s="3"/>
+      <c r="BX2429" s="3"/>
+      <c r="BY2429" s="3"/>
+      <c r="BZ2429" s="3"/>
+      <c r="CA2429" s="3"/>
+      <c r="CB2429" s="3"/>
+      <c r="CC2429" s="3"/>
+      <c r="CD2429" s="3"/>
+    </row>
+    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2463" s="3"/>
+      <c r="C2463" s="3"/>
+      <c r="D2463" s="3"/>
+      <c r="E2463" s="3"/>
+      <c r="F2463" s="3"/>
+      <c r="G2463" s="3"/>
+      <c r="H2463" s="3"/>
+      <c r="I2463" s="3"/>
+      <c r="J2463" s="3"/>
+      <c r="K2463" s="3"/>
+      <c r="L2463" s="3"/>
+      <c r="M2463" s="3"/>
+      <c r="N2463" s="3"/>
+      <c r="O2463" s="3"/>
+      <c r="P2463" s="3"/>
+      <c r="Q2463" s="3"/>
+      <c r="R2463" s="3"/>
+      <c r="S2463" s="3"/>
+      <c r="T2463" s="3"/>
+      <c r="U2463" s="3"/>
+      <c r="V2463" s="3"/>
+      <c r="W2463" s="3"/>
+      <c r="X2463" s="3"/>
+      <c r="Y2463" s="5"/>
+      <c r="Z2463" s="3"/>
+      <c r="AA2463" s="3"/>
+      <c r="AB2463" s="3"/>
+      <c r="AC2463" s="3"/>
+      <c r="AD2463" s="3"/>
+      <c r="AE2463" s="3"/>
+      <c r="AF2463" s="3"/>
+      <c r="AG2463" s="3"/>
+      <c r="AH2463" s="3"/>
+      <c r="AI2463" s="3"/>
+      <c r="AJ2463" s="3"/>
+      <c r="AK2463" s="3"/>
+      <c r="AL2463" s="3"/>
+      <c r="AM2463" s="3"/>
+      <c r="AN2463" s="3"/>
+      <c r="AO2463" s="3"/>
+      <c r="AP2463" s="3"/>
+      <c r="AQ2463" s="3"/>
+      <c r="AR2463" s="3"/>
+      <c r="AS2463" s="3"/>
+      <c r="AT2463" s="3"/>
+      <c r="AU2463" s="3"/>
+      <c r="AV2463" s="3"/>
+      <c r="AW2463" s="3"/>
+      <c r="AX2463" s="3"/>
+      <c r="AY2463" s="3"/>
+      <c r="AZ2463" s="3"/>
+      <c r="BA2463" s="3"/>
+      <c r="BB2463" s="3"/>
+      <c r="BC2463" s="3"/>
+      <c r="BD2463" s="3"/>
+      <c r="BE2463" s="3"/>
+      <c r="BF2463" s="3"/>
+      <c r="BG2463" s="3"/>
+      <c r="BH2463" s="3"/>
+      <c r="BI2463" s="3"/>
+      <c r="BJ2463" s="3"/>
+      <c r="BK2463" s="3"/>
+      <c r="BL2463" s="3"/>
+      <c r="BM2463" s="3"/>
+      <c r="BN2463" s="3"/>
+      <c r="BO2463" s="3"/>
+      <c r="BP2463" s="3"/>
+      <c r="BQ2463" s="3"/>
+      <c r="BR2463" s="3"/>
+      <c r="BS2463" s="3"/>
+      <c r="BT2463" s="3"/>
+      <c r="BU2463" s="3"/>
+      <c r="BV2463" s="3"/>
+      <c r="BW2463" s="3"/>
+      <c r="BX2463" s="3"/>
+      <c r="BY2463" s="3"/>
+      <c r="BZ2463" s="3"/>
+      <c r="CA2463" s="3"/>
+      <c r="CB2463" s="3"/>
+      <c r="CC2463" s="3"/>
+      <c r="CD2463" s="3"/>
+    </row>
+    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2497" s="3"/>
+      <c r="C2497" s="3"/>
+      <c r="D2497" s="3"/>
+      <c r="E2497" s="3"/>
+      <c r="F2497" s="3"/>
+      <c r="G2497" s="3"/>
+      <c r="H2497" s="3"/>
+      <c r="I2497" s="3"/>
+      <c r="J2497" s="3"/>
+      <c r="K2497" s="3"/>
+      <c r="L2497" s="3"/>
+      <c r="M2497" s="3"/>
+      <c r="N2497" s="3"/>
+      <c r="O2497" s="3"/>
+      <c r="P2497" s="3"/>
+      <c r="Q2497" s="3"/>
+      <c r="R2497" s="3"/>
+      <c r="S2497" s="3"/>
+      <c r="T2497" s="3"/>
+      <c r="U2497" s="3"/>
+      <c r="V2497" s="3"/>
+      <c r="W2497" s="3"/>
+      <c r="X2497" s="3"/>
+      <c r="Y2497" s="5"/>
+      <c r="Z2497" s="3"/>
+      <c r="AA2497" s="3"/>
+      <c r="AB2497" s="3"/>
+      <c r="AC2497" s="3"/>
+      <c r="AD2497" s="3"/>
+      <c r="AE2497" s="3"/>
+      <c r="AF2497" s="3"/>
+      <c r="AG2497" s="3"/>
+      <c r="AH2497" s="3"/>
+      <c r="AI2497" s="3"/>
+      <c r="AJ2497" s="3"/>
+      <c r="AK2497" s="3"/>
+      <c r="AL2497" s="3"/>
+      <c r="AM2497" s="3"/>
+      <c r="AN2497" s="3"/>
+      <c r="AO2497" s="3"/>
+      <c r="AP2497" s="3"/>
+      <c r="AQ2497" s="3"/>
+      <c r="AR2497" s="3"/>
+      <c r="AS2497" s="3"/>
+      <c r="AT2497" s="3"/>
+      <c r="AU2497" s="3"/>
+      <c r="AV2497" s="3"/>
+      <c r="AW2497" s="3"/>
+      <c r="AX2497" s="3"/>
+      <c r="AY2497" s="3"/>
+      <c r="AZ2497" s="3"/>
+      <c r="BA2497" s="3"/>
+      <c r="BB2497" s="3"/>
+      <c r="BC2497" s="3"/>
+      <c r="BD2497" s="3"/>
+      <c r="BE2497" s="3"/>
+      <c r="BF2497" s="3"/>
+      <c r="BG2497" s="3"/>
+      <c r="BH2497" s="3"/>
+      <c r="BI2497" s="3"/>
+      <c r="BJ2497" s="3"/>
+      <c r="BK2497" s="3"/>
+      <c r="BL2497" s="3"/>
+      <c r="BM2497" s="3"/>
+      <c r="BN2497" s="3"/>
+      <c r="BO2497" s="3"/>
+      <c r="BP2497" s="3"/>
+      <c r="BQ2497" s="3"/>
+      <c r="BR2497" s="3"/>
+      <c r="BS2497" s="3"/>
+      <c r="BT2497" s="3"/>
+      <c r="BU2497" s="3"/>
+      <c r="BV2497" s="3"/>
+      <c r="BW2497" s="3"/>
+      <c r="BX2497" s="3"/>
+      <c r="BY2497" s="3"/>
+      <c r="BZ2497" s="3"/>
+      <c r="CA2497" s="3"/>
+      <c r="CB2497" s="3"/>
+      <c r="CC2497" s="3"/>
+      <c r="CD2497" s="3"/>
+    </row>
+    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2531" s="3"/>
+      <c r="C2531" s="3"/>
+      <c r="D2531" s="3"/>
+      <c r="E2531" s="3"/>
+      <c r="F2531" s="3"/>
+      <c r="G2531" s="3"/>
+      <c r="H2531" s="3"/>
+      <c r="I2531" s="3"/>
+      <c r="J2531" s="3"/>
+      <c r="K2531" s="3"/>
+      <c r="L2531" s="3"/>
+      <c r="M2531" s="3"/>
+      <c r="N2531" s="3"/>
+      <c r="O2531" s="3"/>
+      <c r="P2531" s="3"/>
+      <c r="Q2531" s="3"/>
+      <c r="R2531" s="3"/>
+      <c r="S2531" s="3"/>
+      <c r="T2531" s="3"/>
+      <c r="U2531" s="3"/>
+      <c r="V2531" s="3"/>
+      <c r="W2531" s="3"/>
+      <c r="X2531" s="3"/>
+      <c r="Y2531" s="5"/>
+      <c r="Z2531" s="3"/>
+      <c r="AA2531" s="3"/>
+      <c r="AB2531" s="3"/>
+      <c r="AC2531" s="3"/>
+      <c r="AD2531" s="3"/>
+      <c r="AE2531" s="3"/>
+      <c r="AF2531" s="3"/>
+      <c r="AG2531" s="3"/>
+      <c r="AH2531" s="3"/>
+      <c r="AI2531" s="3"/>
+      <c r="AJ2531" s="3"/>
+      <c r="AK2531" s="3"/>
+      <c r="AL2531" s="3"/>
+      <c r="AM2531" s="3"/>
+      <c r="AN2531" s="3"/>
+      <c r="AO2531" s="3"/>
+      <c r="AP2531" s="3"/>
+      <c r="AQ2531" s="3"/>
+      <c r="AR2531" s="3"/>
+      <c r="AS2531" s="3"/>
+      <c r="AT2531" s="3"/>
+      <c r="AU2531" s="3"/>
+      <c r="AV2531" s="3"/>
+      <c r="AW2531" s="3"/>
+      <c r="AX2531" s="3"/>
+      <c r="AY2531" s="3"/>
+      <c r="AZ2531" s="3"/>
+      <c r="BA2531" s="3"/>
+      <c r="BB2531" s="3"/>
+      <c r="BC2531" s="3"/>
+      <c r="BD2531" s="3"/>
+      <c r="BE2531" s="3"/>
+      <c r="BF2531" s="3"/>
+      <c r="BG2531" s="3"/>
+      <c r="BH2531" s="3"/>
+      <c r="BI2531" s="3"/>
+      <c r="BJ2531" s="3"/>
+      <c r="BK2531" s="3"/>
+      <c r="BL2531" s="3"/>
+      <c r="BM2531" s="3"/>
+      <c r="BN2531" s="3"/>
+      <c r="BO2531" s="3"/>
+      <c r="BP2531" s="3"/>
+      <c r="BQ2531" s="3"/>
+      <c r="BR2531" s="3"/>
+      <c r="BS2531" s="3"/>
+      <c r="BT2531" s="3"/>
+      <c r="BU2531" s="3"/>
+      <c r="BV2531" s="3"/>
+      <c r="BW2531" s="3"/>
+      <c r="BX2531" s="3"/>
+      <c r="BY2531" s="3"/>
+      <c r="BZ2531" s="3"/>
+      <c r="CA2531" s="3"/>
+      <c r="CB2531" s="3"/>
+      <c r="CC2531" s="3"/>
+      <c r="CD2531" s="3"/>
+    </row>
+    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2565" s="3"/>
+      <c r="C2565" s="3"/>
+      <c r="D2565" s="3"/>
+      <c r="E2565" s="3"/>
+      <c r="F2565" s="3"/>
+      <c r="G2565" s="3"/>
+      <c r="H2565" s="3"/>
+      <c r="I2565" s="3"/>
+      <c r="J2565" s="3"/>
+      <c r="K2565" s="3"/>
+      <c r="L2565" s="3"/>
+      <c r="M2565" s="3"/>
+      <c r="N2565" s="3"/>
+      <c r="O2565" s="3"/>
+      <c r="P2565" s="3"/>
+      <c r="Q2565" s="3"/>
+      <c r="R2565" s="3"/>
+      <c r="S2565" s="3"/>
+      <c r="T2565" s="3"/>
+      <c r="U2565" s="3"/>
+      <c r="V2565" s="3"/>
+      <c r="W2565" s="3"/>
+      <c r="X2565" s="3"/>
+      <c r="Y2565" s="5"/>
+      <c r="Z2565" s="3"/>
+      <c r="AA2565" s="3"/>
+      <c r="AB2565" s="3"/>
+      <c r="AC2565" s="3"/>
+      <c r="AD2565" s="3"/>
+      <c r="AE2565" s="3"/>
+      <c r="AF2565" s="3"/>
+      <c r="AG2565" s="3"/>
+      <c r="AH2565" s="3"/>
+      <c r="AI2565" s="3"/>
+      <c r="AJ2565" s="3"/>
+      <c r="AK2565" s="3"/>
+      <c r="AL2565" s="3"/>
+      <c r="AM2565" s="3"/>
+      <c r="AN2565" s="3"/>
+      <c r="AO2565" s="3"/>
+      <c r="AP2565" s="3"/>
+      <c r="AQ2565" s="3"/>
+      <c r="AR2565" s="3"/>
+      <c r="AS2565" s="3"/>
+      <c r="AT2565" s="3"/>
+      <c r="AU2565" s="3"/>
+      <c r="AV2565" s="3"/>
+      <c r="AW2565" s="3"/>
+      <c r="AX2565" s="3"/>
+      <c r="AY2565" s="3"/>
+      <c r="AZ2565" s="3"/>
+      <c r="BA2565" s="3"/>
+      <c r="BB2565" s="3"/>
+      <c r="BC2565" s="3"/>
+      <c r="BD2565" s="3"/>
+      <c r="BE2565" s="3"/>
+      <c r="BF2565" s="3"/>
+      <c r="BG2565" s="3"/>
+      <c r="BH2565" s="3"/>
+      <c r="BI2565" s="3"/>
+      <c r="BJ2565" s="3"/>
+      <c r="BK2565" s="3"/>
+      <c r="BL2565" s="3"/>
+      <c r="BM2565" s="3"/>
+      <c r="BN2565" s="3"/>
+      <c r="BO2565" s="3"/>
+      <c r="BP2565" s="3"/>
+      <c r="BQ2565" s="3"/>
+      <c r="BR2565" s="3"/>
+      <c r="BS2565" s="3"/>
+      <c r="BT2565" s="3"/>
+      <c r="BU2565" s="3"/>
+      <c r="BV2565" s="3"/>
+      <c r="BW2565" s="3"/>
+      <c r="BX2565" s="3"/>
+      <c r="BY2565" s="3"/>
+      <c r="BZ2565" s="3"/>
+      <c r="CA2565" s="3"/>
+      <c r="CB2565" s="3"/>
+      <c r="CC2565" s="3"/>
+      <c r="CD2565" s="3"/>
+    </row>
+    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2599" s="3"/>
+      <c r="C2599" s="3"/>
+      <c r="D2599" s="3"/>
+      <c r="E2599" s="3"/>
+      <c r="F2599" s="3"/>
+      <c r="G2599" s="3"/>
+      <c r="H2599" s="3"/>
+      <c r="I2599" s="3"/>
+      <c r="J2599" s="3"/>
+      <c r="K2599" s="3"/>
+      <c r="L2599" s="3"/>
+      <c r="M2599" s="3"/>
+      <c r="N2599" s="3"/>
+      <c r="O2599" s="3"/>
+      <c r="P2599" s="3"/>
+      <c r="Q2599" s="3"/>
+      <c r="R2599" s="3"/>
+      <c r="S2599" s="3"/>
+      <c r="T2599" s="3"/>
+      <c r="U2599" s="3"/>
+      <c r="V2599" s="3"/>
+      <c r="W2599" s="3"/>
+      <c r="X2599" s="3"/>
+      <c r="Y2599" s="5"/>
+      <c r="Z2599" s="3"/>
+      <c r="AA2599" s="3"/>
+      <c r="AB2599" s="3"/>
+      <c r="AC2599" s="3"/>
+      <c r="AD2599" s="3"/>
+      <c r="AE2599" s="3"/>
+      <c r="AF2599" s="3"/>
+      <c r="AG2599" s="3"/>
+      <c r="AH2599" s="3"/>
+      <c r="AI2599" s="3"/>
+      <c r="AJ2599" s="3"/>
+      <c r="AK2599" s="3"/>
+      <c r="AL2599" s="3"/>
+      <c r="AM2599" s="3"/>
+      <c r="AN2599" s="3"/>
+      <c r="AO2599" s="3"/>
+      <c r="AP2599" s="3"/>
+      <c r="AQ2599" s="3"/>
+      <c r="AR2599" s="3"/>
+      <c r="AS2599" s="3"/>
+      <c r="AT2599" s="3"/>
+      <c r="AU2599" s="3"/>
+      <c r="AV2599" s="3"/>
+      <c r="AW2599" s="3"/>
+      <c r="AX2599" s="3"/>
+      <c r="AY2599" s="3"/>
+      <c r="AZ2599" s="3"/>
+      <c r="BA2599" s="3"/>
+      <c r="BB2599" s="3"/>
+      <c r="BC2599" s="3"/>
+      <c r="BD2599" s="3"/>
+      <c r="BE2599" s="3"/>
+      <c r="BF2599" s="3"/>
+      <c r="BG2599" s="3"/>
+      <c r="BH2599" s="3"/>
+      <c r="BI2599" s="3"/>
+      <c r="BJ2599" s="3"/>
+      <c r="BK2599" s="3"/>
+      <c r="BL2599" s="3"/>
+      <c r="BM2599" s="3"/>
+      <c r="BN2599" s="3"/>
+      <c r="BO2599" s="3"/>
+      <c r="BP2599" s="3"/>
+      <c r="BQ2599" s="3"/>
+      <c r="BR2599" s="3"/>
+      <c r="BS2599" s="3"/>
+      <c r="BT2599" s="3"/>
+      <c r="BU2599" s="3"/>
+      <c r="BV2599" s="3"/>
+      <c r="BW2599" s="3"/>
+      <c r="BX2599" s="3"/>
+      <c r="BY2599" s="3"/>
+      <c r="BZ2599" s="3"/>
+      <c r="CA2599" s="3"/>
+      <c r="CB2599" s="3"/>
+      <c r="CC2599" s="3"/>
+      <c r="CD2599" s="3"/>
+    </row>
+    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2633" s="3"/>
+      <c r="C2633" s="3"/>
+      <c r="D2633" s="3"/>
+      <c r="E2633" s="3"/>
+      <c r="F2633" s="3"/>
+      <c r="G2633" s="3"/>
+      <c r="H2633" s="3"/>
+      <c r="I2633" s="3"/>
+      <c r="J2633" s="3"/>
+      <c r="K2633" s="3"/>
+      <c r="L2633" s="3"/>
+      <c r="M2633" s="3"/>
+      <c r="N2633" s="3"/>
+      <c r="O2633" s="3"/>
+      <c r="P2633" s="3"/>
+      <c r="Q2633" s="3"/>
+      <c r="R2633" s="3"/>
+      <c r="S2633" s="3"/>
+      <c r="T2633" s="3"/>
+      <c r="U2633" s="3"/>
+      <c r="V2633" s="3"/>
+      <c r="W2633" s="3"/>
+      <c r="X2633" s="3"/>
+      <c r="Y2633" s="5"/>
+      <c r="Z2633" s="3"/>
+      <c r="AA2633" s="3"/>
+      <c r="AB2633" s="3"/>
+      <c r="AC2633" s="3"/>
+      <c r="AD2633" s="3"/>
+      <c r="AE2633" s="3"/>
+      <c r="AF2633" s="3"/>
+      <c r="AG2633" s="3"/>
+      <c r="AH2633" s="3"/>
+      <c r="AI2633" s="3"/>
+      <c r="AJ2633" s="3"/>
+      <c r="AK2633" s="3"/>
+      <c r="AL2633" s="3"/>
+      <c r="AM2633" s="3"/>
+      <c r="AN2633" s="3"/>
+      <c r="AO2633" s="3"/>
+      <c r="AP2633" s="3"/>
+      <c r="AQ2633" s="3"/>
+      <c r="AR2633" s="3"/>
+      <c r="AS2633" s="3"/>
+      <c r="AT2633" s="3"/>
+      <c r="AU2633" s="3"/>
+      <c r="AV2633" s="3"/>
+      <c r="AW2633" s="3"/>
+      <c r="AX2633" s="3"/>
+      <c r="AY2633" s="3"/>
+      <c r="AZ2633" s="3"/>
+      <c r="BA2633" s="3"/>
+      <c r="BB2633" s="3"/>
+      <c r="BC2633" s="3"/>
+      <c r="BD2633" s="3"/>
+      <c r="BE2633" s="3"/>
+      <c r="BF2633" s="3"/>
+      <c r="BG2633" s="3"/>
+      <c r="BH2633" s="3"/>
+      <c r="BI2633" s="3"/>
+      <c r="BJ2633" s="3"/>
+      <c r="BK2633" s="3"/>
+      <c r="BL2633" s="3"/>
+      <c r="BM2633" s="3"/>
+      <c r="BN2633" s="3"/>
+      <c r="BO2633" s="3"/>
+      <c r="BP2633" s="3"/>
+      <c r="BQ2633" s="3"/>
+      <c r="BR2633" s="3"/>
+      <c r="BS2633" s="3"/>
+      <c r="BT2633" s="3"/>
+      <c r="BU2633" s="3"/>
+      <c r="BV2633" s="3"/>
+      <c r="BW2633" s="3"/>
+      <c r="BX2633" s="3"/>
+      <c r="BY2633" s="3"/>
+      <c r="BZ2633" s="3"/>
+      <c r="CA2633" s="3"/>
+      <c r="CB2633" s="3"/>
+      <c r="CC2633" s="3"/>
+      <c r="CD2633" s="3"/>
+    </row>
+    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2667" s="3"/>
+      <c r="C2667" s="3"/>
+      <c r="D2667" s="3"/>
+      <c r="E2667" s="3"/>
+      <c r="F2667" s="3"/>
+      <c r="G2667" s="3"/>
+      <c r="H2667" s="3"/>
+      <c r="I2667" s="3"/>
+      <c r="J2667" s="3"/>
+      <c r="K2667" s="3"/>
+      <c r="L2667" s="3"/>
+      <c r="M2667" s="3"/>
+      <c r="N2667" s="3"/>
+      <c r="O2667" s="3"/>
+      <c r="P2667" s="3"/>
+      <c r="Q2667" s="3"/>
+      <c r="R2667" s="3"/>
+      <c r="S2667" s="3"/>
+      <c r="T2667" s="3"/>
+      <c r="U2667" s="3"/>
+      <c r="V2667" s="3"/>
+      <c r="W2667" s="3"/>
+      <c r="X2667" s="3"/>
+      <c r="Y2667" s="5"/>
+      <c r="Z2667" s="3"/>
+      <c r="AA2667" s="3"/>
+      <c r="AB2667" s="3"/>
+      <c r="AC2667" s="3"/>
+      <c r="AD2667" s="3"/>
+      <c r="AE2667" s="3"/>
+      <c r="AF2667" s="3"/>
+      <c r="AG2667" s="3"/>
+      <c r="AH2667" s="3"/>
+      <c r="AI2667" s="3"/>
+      <c r="AJ2667" s="3"/>
+      <c r="AK2667" s="3"/>
+      <c r="AL2667" s="3"/>
+      <c r="AM2667" s="3"/>
+      <c r="AN2667" s="3"/>
+      <c r="AO2667" s="3"/>
+      <c r="AP2667" s="3"/>
+      <c r="AQ2667" s="3"/>
+      <c r="AR2667" s="3"/>
+      <c r="AS2667" s="3"/>
+      <c r="AT2667" s="3"/>
+      <c r="AU2667" s="3"/>
+      <c r="AV2667" s="3"/>
+      <c r="AW2667" s="3"/>
+      <c r="AX2667" s="3"/>
+      <c r="AY2667" s="3"/>
+      <c r="AZ2667" s="3"/>
+      <c r="BA2667" s="3"/>
+      <c r="BB2667" s="3"/>
+      <c r="BC2667" s="3"/>
+      <c r="BD2667" s="3"/>
+      <c r="BE2667" s="3"/>
+      <c r="BF2667" s="3"/>
+      <c r="BG2667" s="3"/>
+      <c r="BH2667" s="3"/>
+      <c r="BI2667" s="3"/>
+      <c r="BJ2667" s="3"/>
+      <c r="BK2667" s="3"/>
+      <c r="BL2667" s="3"/>
+      <c r="BM2667" s="3"/>
+      <c r="BN2667" s="3"/>
+      <c r="BO2667" s="3"/>
+      <c r="BP2667" s="3"/>
+      <c r="BQ2667" s="3"/>
+      <c r="BR2667" s="3"/>
+      <c r="BS2667" s="3"/>
+      <c r="BT2667" s="3"/>
+      <c r="BU2667" s="3"/>
+      <c r="BV2667" s="3"/>
+      <c r="BW2667" s="3"/>
+      <c r="BX2667" s="3"/>
+      <c r="BY2667" s="3"/>
+      <c r="BZ2667" s="3"/>
+      <c r="CA2667" s="3"/>
+      <c r="CB2667" s="3"/>
+      <c r="CC2667" s="3"/>
+      <c r="CD2667" s="3"/>
+    </row>
+    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2701" s="3"/>
+      <c r="C2701" s="3"/>
+      <c r="D2701" s="3"/>
+      <c r="E2701" s="3"/>
+      <c r="F2701" s="3"/>
+      <c r="G2701" s="3"/>
+      <c r="H2701" s="3"/>
+      <c r="I2701" s="3"/>
+      <c r="J2701" s="3"/>
+      <c r="K2701" s="3"/>
+      <c r="L2701" s="3"/>
+      <c r="M2701" s="3"/>
+      <c r="N2701" s="3"/>
+      <c r="O2701" s="3"/>
+      <c r="P2701" s="3"/>
+      <c r="Q2701" s="3"/>
+      <c r="R2701" s="3"/>
+      <c r="S2701" s="3"/>
+      <c r="T2701" s="3"/>
+      <c r="U2701" s="3"/>
+      <c r="V2701" s="3"/>
+      <c r="W2701" s="3"/>
+      <c r="X2701" s="3"/>
+      <c r="Y2701" s="5"/>
+      <c r="Z2701" s="3"/>
+      <c r="AA2701" s="3"/>
+      <c r="AB2701" s="3"/>
+      <c r="AC2701" s="3"/>
+      <c r="AD2701" s="3"/>
+      <c r="AE2701" s="3"/>
+      <c r="AF2701" s="3"/>
+      <c r="AG2701" s="3"/>
+      <c r="AH2701" s="3"/>
+      <c r="AI2701" s="3"/>
+      <c r="AJ2701" s="3"/>
+      <c r="AK2701" s="3"/>
+      <c r="AL2701" s="3"/>
+      <c r="AM2701" s="3"/>
+      <c r="AN2701" s="3"/>
+      <c r="AO2701" s="3"/>
+      <c r="AP2701" s="3"/>
+      <c r="AQ2701" s="3"/>
+      <c r="AR2701" s="3"/>
+      <c r="AS2701" s="3"/>
+      <c r="AT2701" s="3"/>
+      <c r="AU2701" s="3"/>
+      <c r="AV2701" s="3"/>
+      <c r="AW2701" s="3"/>
+      <c r="AX2701" s="3"/>
+      <c r="AY2701" s="3"/>
+      <c r="AZ2701" s="3"/>
+      <c r="BA2701" s="3"/>
+      <c r="BB2701" s="3"/>
+      <c r="BC2701" s="3"/>
+      <c r="BD2701" s="3"/>
+      <c r="BE2701" s="3"/>
+      <c r="BF2701" s="3"/>
+      <c r="BG2701" s="3"/>
+      <c r="BH2701" s="3"/>
+      <c r="BI2701" s="3"/>
+      <c r="BJ2701" s="3"/>
+      <c r="BK2701" s="3"/>
+      <c r="BL2701" s="3"/>
+      <c r="BM2701" s="3"/>
+      <c r="BN2701" s="3"/>
+      <c r="BO2701" s="3"/>
+      <c r="BP2701" s="3"/>
+      <c r="BQ2701" s="3"/>
+      <c r="BR2701" s="3"/>
+      <c r="BS2701" s="3"/>
+      <c r="BT2701" s="3"/>
+      <c r="BU2701" s="3"/>
+      <c r="BV2701" s="3"/>
+      <c r="BW2701" s="3"/>
+      <c r="BX2701" s="3"/>
+      <c r="BY2701" s="3"/>
+      <c r="BZ2701" s="3"/>
+      <c r="CA2701" s="3"/>
+      <c r="CB2701" s="3"/>
+      <c r="CC2701" s="3"/>
+      <c r="CD2701" s="3"/>
+    </row>
+    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2735" s="3"/>
+      <c r="C2735" s="3"/>
+      <c r="D2735" s="3"/>
+      <c r="E2735" s="3"/>
+      <c r="F2735" s="3"/>
+      <c r="G2735" s="3"/>
+      <c r="H2735" s="3"/>
+      <c r="I2735" s="3"/>
+      <c r="J2735" s="3"/>
+      <c r="K2735" s="3"/>
+      <c r="L2735" s="3"/>
+      <c r="M2735" s="3"/>
+      <c r="N2735" s="3"/>
+      <c r="O2735" s="3"/>
+      <c r="P2735" s="3"/>
+      <c r="Q2735" s="3"/>
+      <c r="R2735" s="3"/>
+      <c r="S2735" s="3"/>
+      <c r="T2735" s="3"/>
+      <c r="U2735" s="3"/>
+      <c r="V2735" s="3"/>
+      <c r="W2735" s="3"/>
+      <c r="X2735" s="3"/>
+      <c r="Y2735" s="5"/>
+      <c r="Z2735" s="3"/>
+      <c r="AA2735" s="3"/>
+      <c r="AB2735" s="3"/>
+      <c r="AC2735" s="3"/>
+      <c r="AD2735" s="3"/>
+      <c r="AE2735" s="3"/>
+      <c r="AF2735" s="3"/>
+      <c r="AG2735" s="3"/>
+      <c r="AH2735" s="3"/>
+      <c r="AI2735" s="3"/>
+      <c r="AJ2735" s="3"/>
+      <c r="AK2735" s="3"/>
+      <c r="AL2735" s="3"/>
+      <c r="AM2735" s="3"/>
+      <c r="AN2735" s="3"/>
+      <c r="AO2735" s="3"/>
+      <c r="AP2735" s="3"/>
+      <c r="AQ2735" s="3"/>
+      <c r="AR2735" s="3"/>
+      <c r="AS2735" s="3"/>
+      <c r="AT2735" s="3"/>
+      <c r="AU2735" s="3"/>
+      <c r="AV2735" s="3"/>
+      <c r="AW2735" s="3"/>
+      <c r="AX2735" s="3"/>
+      <c r="AY2735" s="3"/>
+      <c r="AZ2735" s="3"/>
+      <c r="BA2735" s="3"/>
+      <c r="BB2735" s="3"/>
+      <c r="BC2735" s="3"/>
+      <c r="BD2735" s="3"/>
+      <c r="BE2735" s="3"/>
+      <c r="BF2735" s="3"/>
+      <c r="BG2735" s="3"/>
+      <c r="BH2735" s="3"/>
+      <c r="BI2735" s="3"/>
+      <c r="BJ2735" s="3"/>
+      <c r="BK2735" s="3"/>
+      <c r="BL2735" s="3"/>
+      <c r="BM2735" s="3"/>
+      <c r="BN2735" s="3"/>
+      <c r="BO2735" s="3"/>
+      <c r="BP2735" s="3"/>
+      <c r="BQ2735" s="3"/>
+      <c r="BR2735" s="3"/>
+      <c r="BS2735" s="3"/>
+      <c r="BT2735" s="3"/>
+      <c r="BU2735" s="3"/>
+      <c r="BV2735" s="3"/>
+      <c r="BW2735" s="3"/>
+      <c r="BX2735" s="3"/>
+      <c r="BY2735" s="3"/>
+      <c r="BZ2735" s="3"/>
+      <c r="CA2735" s="3"/>
+      <c r="CB2735" s="3"/>
+      <c r="CC2735" s="3"/>
+      <c r="CD2735" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="A2:XFD2">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -10846,7 +16808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="A4:XFD4">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -10858,7 +16820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A5:XFD5">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -10870,7 +16832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="A6:XFD6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -10882,7 +16844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="A7:XFD7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10894,7 +16856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="A8:XFD8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10906,7 +16868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="A9:XFD9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10918,7 +16880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="A10:XFD10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10930,7 +16892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="A11:XFD11">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10942,7 +16904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="A12:XFD12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10954,7 +16916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="A13:XFD13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10966,7 +16928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="A14:XFD14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10978,7 +16940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A15:XFD15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10990,7 +16952,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="A31:XFD31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -11002,7 +16964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="A33:XFD33">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -11014,7 +16976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="A35:XFD35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11026,7 +16988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="A36:XFD36">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11038,7 +17000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="A37:XFD37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11050,7 +17012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="A38:XFD38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11063,5 +17025,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBCA82-4B6B-4D94-B790-5CD8CFBFF5D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146A681-4A88-4FA2-A001-4D45AE72E14D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
@@ -9225,7 +9225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16797,6 +16799,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD2">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD4">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16808,7 +16822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD4">
+  <conditionalFormatting sqref="A5:XFD5">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -16820,7 +16834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD5">
+  <conditionalFormatting sqref="A6:XFD6">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -16832,7 +16846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD6">
+  <conditionalFormatting sqref="A7:XFD7">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -16844,7 +16858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD7">
+  <conditionalFormatting sqref="A8:XFD8">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -16856,7 +16870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:XFD8">
+  <conditionalFormatting sqref="A9:XFD9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -16868,7 +16882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9">
+  <conditionalFormatting sqref="A10:XFD10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -16880,7 +16894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10">
+  <conditionalFormatting sqref="A11:XFD11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -16892,7 +16906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:XFD11">
+  <conditionalFormatting sqref="A12:XFD12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -16904,7 +16918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:XFD12">
+  <conditionalFormatting sqref="A13:XFD13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -16916,20 +16930,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:XFD13">
+  <conditionalFormatting sqref="A14:XFD14">
     <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:XFD14">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16941,6 +16943,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:XFD15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -16952,20 +16966,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
+  <conditionalFormatting sqref="A33:XFD33">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16977,7 +16979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16989,6 +16991,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:XFD37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17000,7 +17014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37">
+  <conditionalFormatting sqref="A38:XFD38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17012,15 +17026,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD38">
+  <conditionalFormatting sqref="A39:XFD39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146A681-4A88-4FA2-A001-4D45AE72E14D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E7464-E4EA-45BC-869C-74AAA5E73A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
@@ -9225,8 +9225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10156,6 +10156,50 @@
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="Y41"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f>B29/B$18</f>
+        <v>0.15070719970440075</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:F42" si="1">C29/C$18</f>
+        <v>0.14680810649396253</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.13436346039898134</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.17110328652578397</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0.15382722996055626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f>B30/B$18</f>
+        <v>0.14226654850917769</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:F43" si="2">C30/C$18</f>
+        <v>0.13812672885887459</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0.13715904068259044</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>0.18401603018854029</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0.14507446089347911</v>
+      </c>
     </row>
     <row r="49" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
@@ -16799,6 +16843,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD2">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD4">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -16810,7 +16866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD4">
+  <conditionalFormatting sqref="A5:XFD5">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16822,7 +16878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD5">
+  <conditionalFormatting sqref="A6:XFD6">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -16834,7 +16890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD6">
+  <conditionalFormatting sqref="A7:XFD7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -16846,7 +16902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD7">
+  <conditionalFormatting sqref="A8:XFD8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -16858,7 +16914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:XFD8">
+  <conditionalFormatting sqref="A9:XFD9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -16870,7 +16926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9">
+  <conditionalFormatting sqref="A10:XFD10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -16882,7 +16938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10">
+  <conditionalFormatting sqref="A11:XFD11">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -16894,7 +16950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:XFD11">
+  <conditionalFormatting sqref="A12:XFD12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -16906,7 +16962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:XFD12">
+  <conditionalFormatting sqref="A13:XFD13">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -16918,20 +16974,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:XFD13">
+  <conditionalFormatting sqref="A14:XFD14">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:XFD14">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16943,6 +16987,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:XFD15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -16954,20 +17010,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
+  <conditionalFormatting sqref="A33:XFD33">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16979,7 +17023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16991,6 +17035,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD36">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:XFD37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -17002,7 +17058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37">
+  <conditionalFormatting sqref="A38:XFD38">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17014,19 +17070,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD38">
+  <conditionalFormatting sqref="A39:XFD39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39">
+  <conditionalFormatting sqref="A42:XFD43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146A681-4A88-4FA2-A001-4D45AE72E14D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81ECA9C-63DB-40E3-AC1E-8E71192AD77C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Take off weight [N]</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Design 33 HIGH 2E DD STRUT</t>
   </si>
   <si>
-    <t xml:space="preserve">Design 54 HIGH 2E DD </t>
-  </si>
-  <si>
     <t>Zero-lift drag [-]</t>
   </si>
   <si>
@@ -206,6 +203,45 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>max My</t>
+  </si>
+  <si>
+    <t>max Mz</t>
+  </si>
+  <si>
+    <t>max T</t>
+  </si>
+  <si>
+    <t>I_zz req</t>
+  </si>
+  <si>
+    <t>wing costs</t>
+  </si>
+  <si>
+    <t>min Fz</t>
+  </si>
+  <si>
+    <t>max Fy</t>
+  </si>
+  <si>
+    <t>t_spar [cm]</t>
+  </si>
+  <si>
+    <t>Design54</t>
+  </si>
+  <si>
+    <t>strut Area (single)</t>
+  </si>
+  <si>
+    <t>strut Cost  (single)</t>
+  </si>
+  <si>
+    <t>wing mass (kg)</t>
+  </si>
+  <si>
+    <t>strut Mass  (single) (kg)</t>
   </si>
 </sst>
 </file>
@@ -258,7 +294,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -274,7 +310,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,42 +612,42 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="24" width="8.88671875" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" customWidth="1"/>
-    <col min="29" max="34" width="8.88671875" customWidth="1"/>
-    <col min="35" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1"/>
-    <col min="38" max="61" width="8.88671875" customWidth="1"/>
-    <col min="62" max="64" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="87" width="8.88671875" customWidth="1"/>
-    <col min="88" max="88" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="14.6640625" customWidth="1"/>
-    <col min="92" max="97" width="8.88671875" customWidth="1"/>
-    <col min="98" max="99" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="109" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="15.36328125" customWidth="1"/>
+    <col min="20" max="24" width="8.90625" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6328125" customWidth="1"/>
+    <col min="29" max="34" width="8.90625" customWidth="1"/>
+    <col min="35" max="36" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6328125" customWidth="1"/>
+    <col min="38" max="61" width="8.90625" customWidth="1"/>
+    <col min="62" max="64" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="87" width="8.90625" customWidth="1"/>
+    <col min="88" max="88" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="14.6328125" customWidth="1"/>
+    <col min="92" max="97" width="8.90625" customWidth="1"/>
+    <col min="98" max="99" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="109" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -652,7 +688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +732,7 @@
         <v>1581917.5958680499</v>
       </c>
     </row>
-    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +776,7 @@
         <v>472485.24524999998</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -784,7 +820,7 @@
         <v>141448.877186606</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +864,7 @@
         <v>967983.47343144903</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -872,7 +908,7 @@
         <v>212408.66864116001</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -916,7 +952,7 @@
         <v>37269.2753539041</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -960,7 +996,7 @@
         <v>246776.260951551</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1040,7 @@
         <v>23653.943336230099</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1084,7 @@
         <v>120744.37112022701</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1128,7 @@
         <v>288676.79448844597</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>0.69301331809704503</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1216,7 @@
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1260,7 @@
         <v>20.358793128585301</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1372,7 @@
       <c r="CC15" s="3"/>
       <c r="CD15" s="3"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1416,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1504,7 @@
         <v>263.70059460680102</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>62.892836786887102</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1592,7 @@
         <v>6.5151540539124797</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1636,7 @@
         <v>1.87055751767247</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1644,7 +1680,7 @@
         <v>0.56445641791910695</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1724,7 @@
         <v>0.28710871641617802</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>50.422636868395202</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1812,7 @@
         <v>5.9507847046706299</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1856,7 @@
         <v>11.0089517036406</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1864,7 +1900,7 @@
         <v>19.637589525413102</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1908,7 +1944,7 @@
         <v>26.221238876731501</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +1988,7 @@
         <v>46.018453704714702</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1996,7 +2032,7 @@
         <v>49.2404845140737</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2040,7 +2076,7 @@
         <v>363906.82055738597</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +2120,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2128,7 +2164,7 @@
         <v>236.03385519878199</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2252,7 @@
         <v>5.6285992452807798E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2260,7 +2296,7 @@
         <v>40.121284624672398</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2304,7 +2340,7 @@
         <v>40.121284624672398</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2384,7 @@
         <v>25.0539992466197</v>
       </c>
     </row>
-    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2431,7 +2467,7 @@
       <c r="CC49" s="3"/>
       <c r="CD49" s="3"/>
     </row>
-    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2514,7 +2550,7 @@
       <c r="CC83" s="3"/>
       <c r="CD83" s="3"/>
     </row>
-    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2597,7 +2633,7 @@
       <c r="CC117" s="3"/>
       <c r="CD117" s="3"/>
     </row>
-    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -2680,7 +2716,7 @@
       <c r="CC151" s="3"/>
       <c r="CD151" s="3"/>
     </row>
-    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -2763,7 +2799,7 @@
       <c r="CC185" s="3"/>
       <c r="CD185" s="3"/>
     </row>
-    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -2846,7 +2882,7 @@
       <c r="CC219" s="3"/>
       <c r="CD219" s="3"/>
     </row>
-    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -2929,7 +2965,7 @@
       <c r="CC253" s="3"/>
       <c r="CD253" s="3"/>
     </row>
-    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -3012,7 +3048,7 @@
       <c r="CC287" s="3"/>
       <c r="CD287" s="3"/>
     </row>
-    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -3095,7 +3131,7 @@
       <c r="CC321" s="3"/>
       <c r="CD321" s="3"/>
     </row>
-    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -3178,7 +3214,7 @@
       <c r="CC355" s="3"/>
       <c r="CD355" s="3"/>
     </row>
-    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -3261,7 +3297,7 @@
       <c r="CC389" s="3"/>
       <c r="CD389" s="3"/>
     </row>
-    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -3344,7 +3380,7 @@
       <c r="CC423" s="3"/>
       <c r="CD423" s="3"/>
     </row>
-    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -3427,7 +3463,7 @@
       <c r="CC457" s="3"/>
       <c r="CD457" s="3"/>
     </row>
-    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -3510,7 +3546,7 @@
       <c r="CC491" s="3"/>
       <c r="CD491" s="3"/>
     </row>
-    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -3593,7 +3629,7 @@
       <c r="CC525" s="3"/>
       <c r="CD525" s="3"/>
     </row>
-    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -3676,7 +3712,7 @@
       <c r="CC559" s="3"/>
       <c r="CD559" s="3"/>
     </row>
-    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -3759,7 +3795,7 @@
       <c r="CC593" s="3"/>
       <c r="CD593" s="3"/>
     </row>
-    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -3842,7 +3878,7 @@
       <c r="CC627" s="3"/>
       <c r="CD627" s="3"/>
     </row>
-    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -3925,7 +3961,7 @@
       <c r="CC661" s="3"/>
       <c r="CD661" s="3"/>
     </row>
-    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -4008,7 +4044,7 @@
       <c r="CC695" s="3"/>
       <c r="CD695" s="3"/>
     </row>
-    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -4091,7 +4127,7 @@
       <c r="CC729" s="3"/>
       <c r="CD729" s="3"/>
     </row>
-    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -4174,7 +4210,7 @@
       <c r="CC763" s="3"/>
       <c r="CD763" s="3"/>
     </row>
-    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -4257,7 +4293,7 @@
       <c r="CC797" s="3"/>
       <c r="CD797" s="3"/>
     </row>
-    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -4340,7 +4376,7 @@
       <c r="CC831" s="3"/>
       <c r="CD831" s="3"/>
     </row>
-    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -4423,7 +4459,7 @@
       <c r="CC865" s="3"/>
       <c r="CD865" s="3"/>
     </row>
-    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -4506,7 +4542,7 @@
       <c r="CC899" s="3"/>
       <c r="CD899" s="3"/>
     </row>
-    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -4589,7 +4625,7 @@
       <c r="CC933" s="3"/>
       <c r="CD933" s="3"/>
     </row>
-    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
@@ -4672,7 +4708,7 @@
       <c r="CC967" s="3"/>
       <c r="CD967" s="3"/>
     </row>
-    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1001" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
       <c r="D1001" s="3"/>
@@ -4755,7 +4791,7 @@
       <c r="CC1001" s="3"/>
       <c r="CD1001" s="3"/>
     </row>
-    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1035" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
       <c r="D1035" s="3"/>
@@ -4838,7 +4874,7 @@
       <c r="CC1035" s="3"/>
       <c r="CD1035" s="3"/>
     </row>
-    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1069" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1069" s="3"/>
       <c r="C1069" s="3"/>
       <c r="D1069" s="3"/>
@@ -4921,7 +4957,7 @@
       <c r="CC1069" s="3"/>
       <c r="CD1069" s="3"/>
     </row>
-    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1103" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1103" s="3"/>
       <c r="C1103" s="3"/>
       <c r="D1103" s="3"/>
@@ -5004,7 +5040,7 @@
       <c r="CC1103" s="3"/>
       <c r="CD1103" s="3"/>
     </row>
-    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1137" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1137" s="3"/>
       <c r="C1137" s="3"/>
       <c r="D1137" s="3"/>
@@ -5087,7 +5123,7 @@
       <c r="CC1137" s="3"/>
       <c r="CD1137" s="3"/>
     </row>
-    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1171" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1171" s="3"/>
       <c r="C1171" s="3"/>
       <c r="D1171" s="3"/>
@@ -5170,7 +5206,7 @@
       <c r="CC1171" s="3"/>
       <c r="CD1171" s="3"/>
     </row>
-    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1205" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1205" s="3"/>
       <c r="C1205" s="3"/>
       <c r="D1205" s="3"/>
@@ -5253,7 +5289,7 @@
       <c r="CC1205" s="3"/>
       <c r="CD1205" s="3"/>
     </row>
-    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1239" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1239" s="3"/>
       <c r="C1239" s="3"/>
       <c r="D1239" s="3"/>
@@ -5336,7 +5372,7 @@
       <c r="CC1239" s="3"/>
       <c r="CD1239" s="3"/>
     </row>
-    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1273" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1273" s="3"/>
       <c r="C1273" s="3"/>
       <c r="D1273" s="3"/>
@@ -5419,7 +5455,7 @@
       <c r="CC1273" s="3"/>
       <c r="CD1273" s="3"/>
     </row>
-    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1307" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1307" s="3"/>
       <c r="C1307" s="3"/>
       <c r="D1307" s="3"/>
@@ -5502,7 +5538,7 @@
       <c r="CC1307" s="3"/>
       <c r="CD1307" s="3"/>
     </row>
-    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1341" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1341" s="3"/>
       <c r="C1341" s="3"/>
       <c r="D1341" s="3"/>
@@ -5585,7 +5621,7 @@
       <c r="CC1341" s="3"/>
       <c r="CD1341" s="3"/>
     </row>
-    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1375" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1375" s="3"/>
       <c r="C1375" s="3"/>
       <c r="D1375" s="3"/>
@@ -5668,7 +5704,7 @@
       <c r="CC1375" s="3"/>
       <c r="CD1375" s="3"/>
     </row>
-    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1409" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1409" s="3"/>
       <c r="C1409" s="3"/>
       <c r="D1409" s="3"/>
@@ -5751,7 +5787,7 @@
       <c r="CC1409" s="3"/>
       <c r="CD1409" s="3"/>
     </row>
-    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1443" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1443" s="3"/>
       <c r="C1443" s="3"/>
       <c r="D1443" s="3"/>
@@ -5834,7 +5870,7 @@
       <c r="CC1443" s="3"/>
       <c r="CD1443" s="3"/>
     </row>
-    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1477" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1477" s="3"/>
       <c r="C1477" s="3"/>
       <c r="D1477" s="3"/>
@@ -5917,7 +5953,7 @@
       <c r="CC1477" s="3"/>
       <c r="CD1477" s="3"/>
     </row>
-    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1511" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1511" s="3"/>
       <c r="C1511" s="3"/>
       <c r="D1511" s="3"/>
@@ -6000,7 +6036,7 @@
       <c r="CC1511" s="3"/>
       <c r="CD1511" s="3"/>
     </row>
-    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1545" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1545" s="3"/>
       <c r="C1545" s="3"/>
       <c r="D1545" s="3"/>
@@ -6083,7 +6119,7 @@
       <c r="CC1545" s="3"/>
       <c r="CD1545" s="3"/>
     </row>
-    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1579" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1579" s="3"/>
       <c r="C1579" s="3"/>
       <c r="D1579" s="3"/>
@@ -6166,7 +6202,7 @@
       <c r="CC1579" s="3"/>
       <c r="CD1579" s="3"/>
     </row>
-    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1613" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1613" s="3"/>
       <c r="C1613" s="3"/>
       <c r="D1613" s="3"/>
@@ -6249,7 +6285,7 @@
       <c r="CC1613" s="3"/>
       <c r="CD1613" s="3"/>
     </row>
-    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1647" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1647" s="3"/>
       <c r="C1647" s="3"/>
       <c r="D1647" s="3"/>
@@ -6332,7 +6368,7 @@
       <c r="CC1647" s="3"/>
       <c r="CD1647" s="3"/>
     </row>
-    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1681" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1681" s="3"/>
       <c r="C1681" s="3"/>
       <c r="D1681" s="3"/>
@@ -6415,7 +6451,7 @@
       <c r="CC1681" s="3"/>
       <c r="CD1681" s="3"/>
     </row>
-    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1715" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1715" s="3"/>
       <c r="C1715" s="3"/>
       <c r="D1715" s="3"/>
@@ -6498,7 +6534,7 @@
       <c r="CC1715" s="3"/>
       <c r="CD1715" s="3"/>
     </row>
-    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1749" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1749" s="3"/>
       <c r="C1749" s="3"/>
       <c r="D1749" s="3"/>
@@ -6581,7 +6617,7 @@
       <c r="CC1749" s="3"/>
       <c r="CD1749" s="3"/>
     </row>
-    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1783" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1783" s="3"/>
       <c r="C1783" s="3"/>
       <c r="D1783" s="3"/>
@@ -6664,7 +6700,7 @@
       <c r="CC1783" s="3"/>
       <c r="CD1783" s="3"/>
     </row>
-    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1817" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1817" s="3"/>
       <c r="C1817" s="3"/>
       <c r="D1817" s="3"/>
@@ -6747,7 +6783,7 @@
       <c r="CC1817" s="3"/>
       <c r="CD1817" s="3"/>
     </row>
-    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1851" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1851" s="3"/>
       <c r="C1851" s="3"/>
       <c r="D1851" s="3"/>
@@ -6830,7 +6866,7 @@
       <c r="CC1851" s="3"/>
       <c r="CD1851" s="3"/>
     </row>
-    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1885" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1885" s="3"/>
       <c r="C1885" s="3"/>
       <c r="D1885" s="3"/>
@@ -6913,7 +6949,7 @@
       <c r="CC1885" s="3"/>
       <c r="CD1885" s="3"/>
     </row>
-    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1919" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1919" s="3"/>
       <c r="C1919" s="3"/>
       <c r="D1919" s="3"/>
@@ -6996,7 +7032,7 @@
       <c r="CC1919" s="3"/>
       <c r="CD1919" s="3"/>
     </row>
-    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1953" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1953" s="3"/>
       <c r="C1953" s="3"/>
       <c r="D1953" s="3"/>
@@ -7079,7 +7115,7 @@
       <c r="CC1953" s="3"/>
       <c r="CD1953" s="3"/>
     </row>
-    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1987" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1987" s="3"/>
       <c r="C1987" s="3"/>
       <c r="D1987" s="3"/>
@@ -7162,7 +7198,7 @@
       <c r="CC1987" s="3"/>
       <c r="CD1987" s="3"/>
     </row>
-    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2021" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2021" s="3"/>
       <c r="C2021" s="3"/>
       <c r="D2021" s="3"/>
@@ -7245,7 +7281,7 @@
       <c r="CC2021" s="3"/>
       <c r="CD2021" s="3"/>
     </row>
-    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2055" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2055" s="3"/>
       <c r="C2055" s="3"/>
       <c r="D2055" s="3"/>
@@ -7328,7 +7364,7 @@
       <c r="CC2055" s="3"/>
       <c r="CD2055" s="3"/>
     </row>
-    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2089" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2089" s="3"/>
       <c r="C2089" s="3"/>
       <c r="D2089" s="3"/>
@@ -7411,7 +7447,7 @@
       <c r="CC2089" s="3"/>
       <c r="CD2089" s="3"/>
     </row>
-    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2123" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2123" s="3"/>
       <c r="C2123" s="3"/>
       <c r="D2123" s="3"/>
@@ -7494,7 +7530,7 @@
       <c r="CC2123" s="3"/>
       <c r="CD2123" s="3"/>
     </row>
-    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2157" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2157" s="3"/>
       <c r="C2157" s="3"/>
       <c r="D2157" s="3"/>
@@ -7577,7 +7613,7 @@
       <c r="CC2157" s="3"/>
       <c r="CD2157" s="3"/>
     </row>
-    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2191" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2191" s="3"/>
       <c r="C2191" s="3"/>
       <c r="D2191" s="3"/>
@@ -7660,7 +7696,7 @@
       <c r="CC2191" s="3"/>
       <c r="CD2191" s="3"/>
     </row>
-    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2225" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2225" s="3"/>
       <c r="C2225" s="3"/>
       <c r="D2225" s="3"/>
@@ -7743,7 +7779,7 @@
       <c r="CC2225" s="3"/>
       <c r="CD2225" s="3"/>
     </row>
-    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2259" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2259" s="3"/>
       <c r="C2259" s="3"/>
       <c r="D2259" s="3"/>
@@ -7826,7 +7862,7 @@
       <c r="CC2259" s="3"/>
       <c r="CD2259" s="3"/>
     </row>
-    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2293" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2293" s="3"/>
       <c r="C2293" s="3"/>
       <c r="D2293" s="3"/>
@@ -7909,7 +7945,7 @@
       <c r="CC2293" s="3"/>
       <c r="CD2293" s="3"/>
     </row>
-    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2327" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2327" s="3"/>
       <c r="C2327" s="3"/>
       <c r="D2327" s="3"/>
@@ -7992,7 +8028,7 @@
       <c r="CC2327" s="3"/>
       <c r="CD2327" s="3"/>
     </row>
-    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2361" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2361" s="3"/>
       <c r="C2361" s="3"/>
       <c r="D2361" s="3"/>
@@ -8075,7 +8111,7 @@
       <c r="CC2361" s="3"/>
       <c r="CD2361" s="3"/>
     </row>
-    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2395" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2395" s="3"/>
       <c r="C2395" s="3"/>
       <c r="D2395" s="3"/>
@@ -8158,7 +8194,7 @@
       <c r="CC2395" s="3"/>
       <c r="CD2395" s="3"/>
     </row>
-    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2429" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2429" s="3"/>
       <c r="C2429" s="3"/>
       <c r="D2429" s="3"/>
@@ -8241,7 +8277,7 @@
       <c r="CC2429" s="3"/>
       <c r="CD2429" s="3"/>
     </row>
-    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2463" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2463" s="3"/>
       <c r="C2463" s="3"/>
       <c r="D2463" s="3"/>
@@ -8324,7 +8360,7 @@
       <c r="CC2463" s="3"/>
       <c r="CD2463" s="3"/>
     </row>
-    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2497" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2497" s="3"/>
       <c r="C2497" s="3"/>
       <c r="D2497" s="3"/>
@@ -8407,7 +8443,7 @@
       <c r="CC2497" s="3"/>
       <c r="CD2497" s="3"/>
     </row>
-    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2531" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2531" s="3"/>
       <c r="C2531" s="3"/>
       <c r="D2531" s="3"/>
@@ -8490,7 +8526,7 @@
       <c r="CC2531" s="3"/>
       <c r="CD2531" s="3"/>
     </row>
-    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2565" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2565" s="3"/>
       <c r="C2565" s="3"/>
       <c r="D2565" s="3"/>
@@ -8573,7 +8609,7 @@
       <c r="CC2565" s="3"/>
       <c r="CD2565" s="3"/>
     </row>
-    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2599" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2599" s="3"/>
       <c r="C2599" s="3"/>
       <c r="D2599" s="3"/>
@@ -8656,7 +8692,7 @@
       <c r="CC2599" s="3"/>
       <c r="CD2599" s="3"/>
     </row>
-    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2633" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2633" s="3"/>
       <c r="C2633" s="3"/>
       <c r="D2633" s="3"/>
@@ -8739,7 +8775,7 @@
       <c r="CC2633" s="3"/>
       <c r="CD2633" s="3"/>
     </row>
-    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2667" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2667" s="3"/>
       <c r="C2667" s="3"/>
       <c r="D2667" s="3"/>
@@ -8822,7 +8858,7 @@
       <c r="CC2667" s="3"/>
       <c r="CD2667" s="3"/>
     </row>
-    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2701" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2701" s="3"/>
       <c r="C2701" s="3"/>
       <c r="D2701" s="3"/>
@@ -8905,7 +8941,7 @@
       <c r="CC2701" s="3"/>
       <c r="CD2701" s="3"/>
     </row>
-    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2735" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2735" s="3"/>
       <c r="C2735" s="3"/>
       <c r="D2735" s="3"/>
@@ -9223,52 +9259,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
-  <dimension ref="A1:CV2735"/>
+  <dimension ref="A1:CU2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.109375" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="33.44140625" customWidth="1"/>
-    <col min="17" max="17" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.21875" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="22" width="32.77734375" customWidth="1"/>
-    <col min="23" max="23" width="33.44140625" customWidth="1"/>
-    <col min="24" max="24" width="43.6640625" customWidth="1"/>
-    <col min="25" max="25" width="43.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.5546875" customWidth="1"/>
-    <col min="27" max="27" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1"/>
-    <col min="62" max="64" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="14.6640625" customWidth="1"/>
-    <col min="98" max="99" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="31.6328125" customWidth="1"/>
+    <col min="8" max="8" width="28.08984375" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.08984375" customWidth="1"/>
+    <col min="11" max="12" width="32.6328125" customWidth="1"/>
+    <col min="13" max="13" width="35.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
+    <col min="15" max="15" width="33.453125" customWidth="1"/>
+    <col min="16" max="16" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" customWidth="1"/>
+    <col min="20" max="20" width="27.1796875" customWidth="1"/>
+    <col min="21" max="21" width="32.81640625" customWidth="1"/>
+    <col min="22" max="22" width="33.453125" customWidth="1"/>
+    <col min="23" max="23" width="43.6328125" customWidth="1"/>
+    <col min="24" max="24" width="43.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.54296875" customWidth="1"/>
+    <col min="26" max="26" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6328125" customWidth="1"/>
+    <col min="61" max="63" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="14.6328125" customWidth="1"/>
+    <col min="97" max="98" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -9283,10 +9317,10 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9306,7 +9340,7 @@
         <v>1520114.4389424899</v>
       </c>
     </row>
-    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9326,7 +9360,7 @@
         <v>472485.24524999998</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9346,7 +9380,7 @@
         <v>136151.86323993001</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9366,7 +9400,7 @@
         <v>911477.33045256895</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9386,7 +9420,7 @@
         <v>208030.913446405</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9406,7 +9440,7 @@
         <v>19366.3440218346</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9426,7 +9460,7 @@
         <v>209884.50072030199</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9446,7 +9480,7 @@
         <v>28707.6603054484</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9466,7 +9500,7 @@
         <v>126187.53070403299</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9486,7 +9520,7 @@
         <v>282059.53383109201</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9506,7 +9540,7 @@
         <v>0.56975049023278201</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9526,7 +9560,7 @@
         <v>3.3259999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -9546,7 +9580,7 @@
         <v>17.130201149512299</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9582,8 +9616,8 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -9640,9 +9674,8 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CD15" s="3"/>
-    </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9662,7 +9695,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9682,7 +9715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9702,7 +9735,7 @@
         <v>190.36910016875601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -9722,7 +9755,7 @@
         <v>49.747344674804701</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9742,7 +9775,7 @@
         <v>5.8451992298000297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9762,7 +9795,7 @@
         <v>1.8082384124776201</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9782,7 +9815,7 @@
         <v>0.45322773323204502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9802,7 +9835,7 @@
         <v>0.30935445335359002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9822,7 +9855,7 @@
         <v>50.422636868395202</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9842,7 +9875,7 @@
         <v>5.9507847046706299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9862,7 +9895,7 @@
         <v>11.0089517036406</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -9882,7 +9915,7 @@
         <v>19.637589525413102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -9902,7 +9935,7 @@
         <v>26.913827234038401</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9922,7 +9955,7 @@
         <v>29.283951349043399</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9942,7 +9975,7 @@
         <v>27.617694577759</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9962,7 +9995,7 @@
         <v>441656.31239151402</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -9982,7 +10015,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -10002,7 +10035,7 @@
         <v>229.43040611479501</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -10022,7 +10055,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -10042,7 +10075,7 @@
         <v>8.4710380578120002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -10062,7 +10095,7 @@
         <v>9.8825738530638301</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -10082,7 +10115,7 @@
         <v>29.614074304697599</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -10102,16 +10135,16 @@
         <v>10.707349053201099</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <f>B13-(B12^2)/(PI()*B17*B16)</f>
         <v>2.3415668071791081E-2</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:F39" si="0">C13-(C12^2)/(PI()*C17*C16)</f>
+        <f t="shared" ref="C39:E39" si="0">C13-(C12^2)/(PI()*C17*C16)</f>
         <v>2.4154860642002351E-2</v>
       </c>
       <c r="D39">
@@ -10123,13 +10156,13 @@
         <v>2.1146708695322546E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f>F13-(F12^2)/(PI()*F17*F16)</f>
         <v>2.3909017066756071E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <f xml:space="preserve"> 6050*9.80565</f>
@@ -10151,18 +10184,171 @@
         <f xml:space="preserve"> 6050*9.80565</f>
         <v>59324.182500000003</v>
       </c>
-      <c r="Y40"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X40"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="Y41"/>
-    </row>
-    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>25917799</v>
+      </c>
+      <c r="C42">
+        <v>25194712</v>
+      </c>
+      <c r="D42">
+        <v>23389572</v>
+      </c>
+      <c r="E42">
+        <v>29786173</v>
+      </c>
+      <c r="F42">
+        <v>23701321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>25841293</v>
+      </c>
+      <c r="C43">
+        <v>25222202</v>
+      </c>
+      <c r="D43">
+        <v>6317442</v>
+      </c>
+      <c r="E43">
+        <v>8360036</v>
+      </c>
+      <c r="F43">
+        <v>23634156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>2159803</v>
+      </c>
+      <c r="C44">
+        <v>2112246</v>
+      </c>
+      <c r="D44">
+        <v>1451182</v>
+      </c>
+      <c r="E44">
+        <v>1598321</v>
+      </c>
+      <c r="F44">
+        <v>2015387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <v>-2717569</v>
+      </c>
+      <c r="C45">
+        <v>-2721530</v>
+      </c>
+      <c r="D45">
+        <v>-2534006</v>
+      </c>
+      <c r="E45">
+        <v>-2661569</v>
+      </c>
+      <c r="F45">
+        <v>-2611736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>2732367</v>
+      </c>
+      <c r="C46">
+        <v>2749164</v>
+      </c>
+      <c r="D46">
+        <v>1575998</v>
+      </c>
+      <c r="E46">
+        <v>1644447</v>
+      </c>
+      <c r="F46">
+        <v>2629463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>2.0157999999999999E-2</v>
+      </c>
+      <c r="C47">
+        <v>1.932E-2</v>
+      </c>
+      <c r="D47">
+        <v>4.4270000000000004E-3</v>
+      </c>
+      <c r="E47">
+        <v>6.7470000000000004E-3</v>
+      </c>
+      <c r="F47">
+        <v>1.7517999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>6.5</v>
+      </c>
+      <c r="C48">
+        <v>6.5</v>
+      </c>
+      <c r="D48">
+        <v>1.8</v>
+      </c>
+      <c r="E48">
+        <v>2.1</v>
+      </c>
+      <c r="F48">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3">
+        <v>25842</v>
+      </c>
+      <c r="C49" s="3">
+        <v>24903</v>
+      </c>
+      <c r="D49" s="3">
+        <v>12403</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16041</v>
+      </c>
+      <c r="F49" s="3">
+        <v>23887</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -10180,8 +10366,8 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
@@ -10238,9 +10424,61 @@
       <c r="CA49" s="3"/>
       <c r="CB49" s="3"/>
       <c r="CC49" s="3"/>
-      <c r="CD49" s="3"/>
-    </row>
-    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>170559</v>
+      </c>
+      <c r="C50">
+        <v>164361</v>
+      </c>
+      <c r="D50">
+        <v>81860</v>
+      </c>
+      <c r="E50">
+        <v>105871</v>
+      </c>
+      <c r="F50">
+        <v>157655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <v>1.879E-3</v>
+      </c>
+      <c r="E51">
+        <v>1.879E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52">
+        <v>51.561999999999998</v>
+      </c>
+      <c r="E52">
+        <v>62.98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:81" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53">
+        <v>5156</v>
+      </c>
+      <c r="E53">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="83" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -10263,8 +10501,8 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
@@ -10321,9 +10559,8 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
-      <c r="CD83" s="3"/>
-    </row>
-    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -10346,8 +10583,8 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
-      <c r="X117" s="3"/>
-      <c r="Y117" s="5"/>
+      <c r="X117" s="5"/>
+      <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
@@ -10404,9 +10641,8 @@
       <c r="CA117" s="3"/>
       <c r="CB117" s="3"/>
       <c r="CC117" s="3"/>
-      <c r="CD117" s="3"/>
-    </row>
-    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -10429,8 +10665,8 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
-      <c r="X151" s="3"/>
-      <c r="Y151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
@@ -10487,9 +10723,8 @@
       <c r="CA151" s="3"/>
       <c r="CB151" s="3"/>
       <c r="CC151" s="3"/>
-      <c r="CD151" s="3"/>
-    </row>
-    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -10512,8 +10747,8 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="5"/>
+      <c r="X185" s="5"/>
+      <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
@@ -10570,9 +10805,8 @@
       <c r="CA185" s="3"/>
       <c r="CB185" s="3"/>
       <c r="CC185" s="3"/>
-      <c r="CD185" s="3"/>
-    </row>
-    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -10595,8 +10829,8 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
-      <c r="Y219" s="5"/>
+      <c r="X219" s="5"/>
+      <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
@@ -10653,9 +10887,8 @@
       <c r="CA219" s="3"/>
       <c r="CB219" s="3"/>
       <c r="CC219" s="3"/>
-      <c r="CD219" s="3"/>
-    </row>
-    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -10678,8 +10911,8 @@
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
-      <c r="X253" s="3"/>
-      <c r="Y253" s="5"/>
+      <c r="X253" s="5"/>
+      <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
@@ -10736,9 +10969,8 @@
       <c r="CA253" s="3"/>
       <c r="CB253" s="3"/>
       <c r="CC253" s="3"/>
-      <c r="CD253" s="3"/>
-    </row>
-    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -10761,8 +10993,8 @@
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
-      <c r="X287" s="3"/>
-      <c r="Y287" s="5"/>
+      <c r="X287" s="5"/>
+      <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
       <c r="AB287" s="3"/>
@@ -10819,9 +11051,8 @@
       <c r="CA287" s="3"/>
       <c r="CB287" s="3"/>
       <c r="CC287" s="3"/>
-      <c r="CD287" s="3"/>
-    </row>
-    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10844,8 +11075,8 @@
       <c r="U321" s="3"/>
       <c r="V321" s="3"/>
       <c r="W321" s="3"/>
-      <c r="X321" s="3"/>
-      <c r="Y321" s="5"/>
+      <c r="X321" s="5"/>
+      <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
@@ -10902,9 +11133,8 @@
       <c r="CA321" s="3"/>
       <c r="CB321" s="3"/>
       <c r="CC321" s="3"/>
-      <c r="CD321" s="3"/>
-    </row>
-    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -10927,8 +11157,8 @@
       <c r="U355" s="3"/>
       <c r="V355" s="3"/>
       <c r="W355" s="3"/>
-      <c r="X355" s="3"/>
-      <c r="Y355" s="5"/>
+      <c r="X355" s="5"/>
+      <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
       <c r="AB355" s="3"/>
@@ -10985,9 +11215,8 @@
       <c r="CA355" s="3"/>
       <c r="CB355" s="3"/>
       <c r="CC355" s="3"/>
-      <c r="CD355" s="3"/>
-    </row>
-    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -11010,8 +11239,8 @@
       <c r="U389" s="3"/>
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
-      <c r="X389" s="3"/>
-      <c r="Y389" s="5"/>
+      <c r="X389" s="5"/>
+      <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
       <c r="AA389" s="3"/>
       <c r="AB389" s="3"/>
@@ -11068,9 +11297,8 @@
       <c r="CA389" s="3"/>
       <c r="CB389" s="3"/>
       <c r="CC389" s="3"/>
-      <c r="CD389" s="3"/>
-    </row>
-    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -11093,8 +11321,8 @@
       <c r="U423" s="3"/>
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
-      <c r="X423" s="3"/>
-      <c r="Y423" s="5"/>
+      <c r="X423" s="5"/>
+      <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
       <c r="AA423" s="3"/>
       <c r="AB423" s="3"/>
@@ -11151,9 +11379,8 @@
       <c r="CA423" s="3"/>
       <c r="CB423" s="3"/>
       <c r="CC423" s="3"/>
-      <c r="CD423" s="3"/>
-    </row>
-    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -11176,8 +11403,8 @@
       <c r="U457" s="3"/>
       <c r="V457" s="3"/>
       <c r="W457" s="3"/>
-      <c r="X457" s="3"/>
-      <c r="Y457" s="5"/>
+      <c r="X457" s="5"/>
+      <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
       <c r="AA457" s="3"/>
       <c r="AB457" s="3"/>
@@ -11234,9 +11461,8 @@
       <c r="CA457" s="3"/>
       <c r="CB457" s="3"/>
       <c r="CC457" s="3"/>
-      <c r="CD457" s="3"/>
-    </row>
-    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -11259,8 +11485,8 @@
       <c r="U491" s="3"/>
       <c r="V491" s="3"/>
       <c r="W491" s="3"/>
-      <c r="X491" s="3"/>
-      <c r="Y491" s="5"/>
+      <c r="X491" s="5"/>
+      <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
       <c r="AA491" s="3"/>
       <c r="AB491" s="3"/>
@@ -11317,9 +11543,8 @@
       <c r="CA491" s="3"/>
       <c r="CB491" s="3"/>
       <c r="CC491" s="3"/>
-      <c r="CD491" s="3"/>
-    </row>
-    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="525" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -11342,8 +11567,8 @@
       <c r="U525" s="3"/>
       <c r="V525" s="3"/>
       <c r="W525" s="3"/>
-      <c r="X525" s="3"/>
-      <c r="Y525" s="5"/>
+      <c r="X525" s="5"/>
+      <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
       <c r="AA525" s="3"/>
       <c r="AB525" s="3"/>
@@ -11400,9 +11625,8 @@
       <c r="CA525" s="3"/>
       <c r="CB525" s="3"/>
       <c r="CC525" s="3"/>
-      <c r="CD525" s="3"/>
-    </row>
-    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="559" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -11425,8 +11649,8 @@
       <c r="U559" s="3"/>
       <c r="V559" s="3"/>
       <c r="W559" s="3"/>
-      <c r="X559" s="3"/>
-      <c r="Y559" s="5"/>
+      <c r="X559" s="5"/>
+      <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
       <c r="AA559" s="3"/>
       <c r="AB559" s="3"/>
@@ -11483,9 +11707,8 @@
       <c r="CA559" s="3"/>
       <c r="CB559" s="3"/>
       <c r="CC559" s="3"/>
-      <c r="CD559" s="3"/>
-    </row>
-    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="593" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -11508,8 +11731,8 @@
       <c r="U593" s="3"/>
       <c r="V593" s="3"/>
       <c r="W593" s="3"/>
-      <c r="X593" s="3"/>
-      <c r="Y593" s="5"/>
+      <c r="X593" s="5"/>
+      <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
       <c r="AA593" s="3"/>
       <c r="AB593" s="3"/>
@@ -11566,9 +11789,8 @@
       <c r="CA593" s="3"/>
       <c r="CB593" s="3"/>
       <c r="CC593" s="3"/>
-      <c r="CD593" s="3"/>
-    </row>
-    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="627" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -11591,8 +11813,8 @@
       <c r="U627" s="3"/>
       <c r="V627" s="3"/>
       <c r="W627" s="3"/>
-      <c r="X627" s="3"/>
-      <c r="Y627" s="5"/>
+      <c r="X627" s="5"/>
+      <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
       <c r="AA627" s="3"/>
       <c r="AB627" s="3"/>
@@ -11649,9 +11871,8 @@
       <c r="CA627" s="3"/>
       <c r="CB627" s="3"/>
       <c r="CC627" s="3"/>
-      <c r="CD627" s="3"/>
-    </row>
-    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="661" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -11674,8 +11895,8 @@
       <c r="U661" s="3"/>
       <c r="V661" s="3"/>
       <c r="W661" s="3"/>
-      <c r="X661" s="3"/>
-      <c r="Y661" s="5"/>
+      <c r="X661" s="5"/>
+      <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
       <c r="AA661" s="3"/>
       <c r="AB661" s="3"/>
@@ -11732,9 +11953,8 @@
       <c r="CA661" s="3"/>
       <c r="CB661" s="3"/>
       <c r="CC661" s="3"/>
-      <c r="CD661" s="3"/>
-    </row>
-    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="695" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -11757,8 +11977,8 @@
       <c r="U695" s="3"/>
       <c r="V695" s="3"/>
       <c r="W695" s="3"/>
-      <c r="X695" s="3"/>
-      <c r="Y695" s="5"/>
+      <c r="X695" s="5"/>
+      <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
       <c r="AA695" s="3"/>
       <c r="AB695" s="3"/>
@@ -11815,9 +12035,8 @@
       <c r="CA695" s="3"/>
       <c r="CB695" s="3"/>
       <c r="CC695" s="3"/>
-      <c r="CD695" s="3"/>
-    </row>
-    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="729" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -11840,8 +12059,8 @@
       <c r="U729" s="3"/>
       <c r="V729" s="3"/>
       <c r="W729" s="3"/>
-      <c r="X729" s="3"/>
-      <c r="Y729" s="5"/>
+      <c r="X729" s="5"/>
+      <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
       <c r="AA729" s="3"/>
       <c r="AB729" s="3"/>
@@ -11898,9 +12117,8 @@
       <c r="CA729" s="3"/>
       <c r="CB729" s="3"/>
       <c r="CC729" s="3"/>
-      <c r="CD729" s="3"/>
-    </row>
-    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="763" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -11923,8 +12141,8 @@
       <c r="U763" s="3"/>
       <c r="V763" s="3"/>
       <c r="W763" s="3"/>
-      <c r="X763" s="3"/>
-      <c r="Y763" s="5"/>
+      <c r="X763" s="5"/>
+      <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
       <c r="AA763" s="3"/>
       <c r="AB763" s="3"/>
@@ -11981,9 +12199,8 @@
       <c r="CA763" s="3"/>
       <c r="CB763" s="3"/>
       <c r="CC763" s="3"/>
-      <c r="CD763" s="3"/>
-    </row>
-    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="797" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -12006,8 +12223,8 @@
       <c r="U797" s="3"/>
       <c r="V797" s="3"/>
       <c r="W797" s="3"/>
-      <c r="X797" s="3"/>
-      <c r="Y797" s="5"/>
+      <c r="X797" s="5"/>
+      <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
       <c r="AA797" s="3"/>
       <c r="AB797" s="3"/>
@@ -12064,9 +12281,8 @@
       <c r="CA797" s="3"/>
       <c r="CB797" s="3"/>
       <c r="CC797" s="3"/>
-      <c r="CD797" s="3"/>
-    </row>
-    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="831" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -12089,8 +12305,8 @@
       <c r="U831" s="3"/>
       <c r="V831" s="3"/>
       <c r="W831" s="3"/>
-      <c r="X831" s="3"/>
-      <c r="Y831" s="5"/>
+      <c r="X831" s="5"/>
+      <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
       <c r="AA831" s="3"/>
       <c r="AB831" s="3"/>
@@ -12147,9 +12363,8 @@
       <c r="CA831" s="3"/>
       <c r="CB831" s="3"/>
       <c r="CC831" s="3"/>
-      <c r="CD831" s="3"/>
-    </row>
-    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="865" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -12172,8 +12387,8 @@
       <c r="U865" s="3"/>
       <c r="V865" s="3"/>
       <c r="W865" s="3"/>
-      <c r="X865" s="3"/>
-      <c r="Y865" s="5"/>
+      <c r="X865" s="5"/>
+      <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
       <c r="AA865" s="3"/>
       <c r="AB865" s="3"/>
@@ -12230,9 +12445,8 @@
       <c r="CA865" s="3"/>
       <c r="CB865" s="3"/>
       <c r="CC865" s="3"/>
-      <c r="CD865" s="3"/>
-    </row>
-    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="899" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -12255,8 +12469,8 @@
       <c r="U899" s="3"/>
       <c r="V899" s="3"/>
       <c r="W899" s="3"/>
-      <c r="X899" s="3"/>
-      <c r="Y899" s="5"/>
+      <c r="X899" s="5"/>
+      <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
       <c r="AA899" s="3"/>
       <c r="AB899" s="3"/>
@@ -12313,9 +12527,8 @@
       <c r="CA899" s="3"/>
       <c r="CB899" s="3"/>
       <c r="CC899" s="3"/>
-      <c r="CD899" s="3"/>
-    </row>
-    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="933" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -12338,8 +12551,8 @@
       <c r="U933" s="3"/>
       <c r="V933" s="3"/>
       <c r="W933" s="3"/>
-      <c r="X933" s="3"/>
-      <c r="Y933" s="5"/>
+      <c r="X933" s="5"/>
+      <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
       <c r="AA933" s="3"/>
       <c r="AB933" s="3"/>
@@ -12396,9 +12609,8 @@
       <c r="CA933" s="3"/>
       <c r="CB933" s="3"/>
       <c r="CC933" s="3"/>
-      <c r="CD933" s="3"/>
-    </row>
-    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="967" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
@@ -12421,8 +12633,8 @@
       <c r="U967" s="3"/>
       <c r="V967" s="3"/>
       <c r="W967" s="3"/>
-      <c r="X967" s="3"/>
-      <c r="Y967" s="5"/>
+      <c r="X967" s="5"/>
+      <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
       <c r="AA967" s="3"/>
       <c r="AB967" s="3"/>
@@ -12479,9 +12691,8 @@
       <c r="CA967" s="3"/>
       <c r="CB967" s="3"/>
       <c r="CC967" s="3"/>
-      <c r="CD967" s="3"/>
-    </row>
-    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1001" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
       <c r="D1001" s="3"/>
@@ -12504,8 +12715,8 @@
       <c r="U1001" s="3"/>
       <c r="V1001" s="3"/>
       <c r="W1001" s="3"/>
-      <c r="X1001" s="3"/>
-      <c r="Y1001" s="5"/>
+      <c r="X1001" s="5"/>
+      <c r="Y1001" s="3"/>
       <c r="Z1001" s="3"/>
       <c r="AA1001" s="3"/>
       <c r="AB1001" s="3"/>
@@ -12562,9 +12773,8 @@
       <c r="CA1001" s="3"/>
       <c r="CB1001" s="3"/>
       <c r="CC1001" s="3"/>
-      <c r="CD1001" s="3"/>
-    </row>
-    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1035" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
       <c r="D1035" s="3"/>
@@ -12587,8 +12797,8 @@
       <c r="U1035" s="3"/>
       <c r="V1035" s="3"/>
       <c r="W1035" s="3"/>
-      <c r="X1035" s="3"/>
-      <c r="Y1035" s="5"/>
+      <c r="X1035" s="5"/>
+      <c r="Y1035" s="3"/>
       <c r="Z1035" s="3"/>
       <c r="AA1035" s="3"/>
       <c r="AB1035" s="3"/>
@@ -12645,9 +12855,8 @@
       <c r="CA1035" s="3"/>
       <c r="CB1035" s="3"/>
       <c r="CC1035" s="3"/>
-      <c r="CD1035" s="3"/>
-    </row>
-    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1069" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1069" s="3"/>
       <c r="C1069" s="3"/>
       <c r="D1069" s="3"/>
@@ -12670,8 +12879,8 @@
       <c r="U1069" s="3"/>
       <c r="V1069" s="3"/>
       <c r="W1069" s="3"/>
-      <c r="X1069" s="3"/>
-      <c r="Y1069" s="5"/>
+      <c r="X1069" s="5"/>
+      <c r="Y1069" s="3"/>
       <c r="Z1069" s="3"/>
       <c r="AA1069" s="3"/>
       <c r="AB1069" s="3"/>
@@ -12728,9 +12937,8 @@
       <c r="CA1069" s="3"/>
       <c r="CB1069" s="3"/>
       <c r="CC1069" s="3"/>
-      <c r="CD1069" s="3"/>
-    </row>
-    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1103" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1103" s="3"/>
       <c r="C1103" s="3"/>
       <c r="D1103" s="3"/>
@@ -12753,8 +12961,8 @@
       <c r="U1103" s="3"/>
       <c r="V1103" s="3"/>
       <c r="W1103" s="3"/>
-      <c r="X1103" s="3"/>
-      <c r="Y1103" s="5"/>
+      <c r="X1103" s="5"/>
+      <c r="Y1103" s="3"/>
       <c r="Z1103" s="3"/>
       <c r="AA1103" s="3"/>
       <c r="AB1103" s="3"/>
@@ -12811,9 +13019,8 @@
       <c r="CA1103" s="3"/>
       <c r="CB1103" s="3"/>
       <c r="CC1103" s="3"/>
-      <c r="CD1103" s="3"/>
-    </row>
-    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1137" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1137" s="3"/>
       <c r="C1137" s="3"/>
       <c r="D1137" s="3"/>
@@ -12836,8 +13043,8 @@
       <c r="U1137" s="3"/>
       <c r="V1137" s="3"/>
       <c r="W1137" s="3"/>
-      <c r="X1137" s="3"/>
-      <c r="Y1137" s="5"/>
+      <c r="X1137" s="5"/>
+      <c r="Y1137" s="3"/>
       <c r="Z1137" s="3"/>
       <c r="AA1137" s="3"/>
       <c r="AB1137" s="3"/>
@@ -12894,9 +13101,8 @@
       <c r="CA1137" s="3"/>
       <c r="CB1137" s="3"/>
       <c r="CC1137" s="3"/>
-      <c r="CD1137" s="3"/>
-    </row>
-    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1171" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1171" s="3"/>
       <c r="C1171" s="3"/>
       <c r="D1171" s="3"/>
@@ -12919,8 +13125,8 @@
       <c r="U1171" s="3"/>
       <c r="V1171" s="3"/>
       <c r="W1171" s="3"/>
-      <c r="X1171" s="3"/>
-      <c r="Y1171" s="5"/>
+      <c r="X1171" s="5"/>
+      <c r="Y1171" s="3"/>
       <c r="Z1171" s="3"/>
       <c r="AA1171" s="3"/>
       <c r="AB1171" s="3"/>
@@ -12977,9 +13183,8 @@
       <c r="CA1171" s="3"/>
       <c r="CB1171" s="3"/>
       <c r="CC1171" s="3"/>
-      <c r="CD1171" s="3"/>
-    </row>
-    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1205" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1205" s="3"/>
       <c r="C1205" s="3"/>
       <c r="D1205" s="3"/>
@@ -13002,8 +13207,8 @@
       <c r="U1205" s="3"/>
       <c r="V1205" s="3"/>
       <c r="W1205" s="3"/>
-      <c r="X1205" s="3"/>
-      <c r="Y1205" s="5"/>
+      <c r="X1205" s="5"/>
+      <c r="Y1205" s="3"/>
       <c r="Z1205" s="3"/>
       <c r="AA1205" s="3"/>
       <c r="AB1205" s="3"/>
@@ -13060,9 +13265,8 @@
       <c r="CA1205" s="3"/>
       <c r="CB1205" s="3"/>
       <c r="CC1205" s="3"/>
-      <c r="CD1205" s="3"/>
-    </row>
-    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1239" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1239" s="3"/>
       <c r="C1239" s="3"/>
       <c r="D1239" s="3"/>
@@ -13085,8 +13289,8 @@
       <c r="U1239" s="3"/>
       <c r="V1239" s="3"/>
       <c r="W1239" s="3"/>
-      <c r="X1239" s="3"/>
-      <c r="Y1239" s="5"/>
+      <c r="X1239" s="5"/>
+      <c r="Y1239" s="3"/>
       <c r="Z1239" s="3"/>
       <c r="AA1239" s="3"/>
       <c r="AB1239" s="3"/>
@@ -13143,9 +13347,8 @@
       <c r="CA1239" s="3"/>
       <c r="CB1239" s="3"/>
       <c r="CC1239" s="3"/>
-      <c r="CD1239" s="3"/>
-    </row>
-    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1273" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1273" s="3"/>
       <c r="C1273" s="3"/>
       <c r="D1273" s="3"/>
@@ -13168,8 +13371,8 @@
       <c r="U1273" s="3"/>
       <c r="V1273" s="3"/>
       <c r="W1273" s="3"/>
-      <c r="X1273" s="3"/>
-      <c r="Y1273" s="5"/>
+      <c r="X1273" s="5"/>
+      <c r="Y1273" s="3"/>
       <c r="Z1273" s="3"/>
       <c r="AA1273" s="3"/>
       <c r="AB1273" s="3"/>
@@ -13226,9 +13429,8 @@
       <c r="CA1273" s="3"/>
       <c r="CB1273" s="3"/>
       <c r="CC1273" s="3"/>
-      <c r="CD1273" s="3"/>
-    </row>
-    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1307" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1307" s="3"/>
       <c r="C1307" s="3"/>
       <c r="D1307" s="3"/>
@@ -13251,8 +13453,8 @@
       <c r="U1307" s="3"/>
       <c r="V1307" s="3"/>
       <c r="W1307" s="3"/>
-      <c r="X1307" s="3"/>
-      <c r="Y1307" s="5"/>
+      <c r="X1307" s="5"/>
+      <c r="Y1307" s="3"/>
       <c r="Z1307" s="3"/>
       <c r="AA1307" s="3"/>
       <c r="AB1307" s="3"/>
@@ -13309,9 +13511,8 @@
       <c r="CA1307" s="3"/>
       <c r="CB1307" s="3"/>
       <c r="CC1307" s="3"/>
-      <c r="CD1307" s="3"/>
-    </row>
-    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1341" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1341" s="3"/>
       <c r="C1341" s="3"/>
       <c r="D1341" s="3"/>
@@ -13334,8 +13535,8 @@
       <c r="U1341" s="3"/>
       <c r="V1341" s="3"/>
       <c r="W1341" s="3"/>
-      <c r="X1341" s="3"/>
-      <c r="Y1341" s="5"/>
+      <c r="X1341" s="5"/>
+      <c r="Y1341" s="3"/>
       <c r="Z1341" s="3"/>
       <c r="AA1341" s="3"/>
       <c r="AB1341" s="3"/>
@@ -13392,9 +13593,8 @@
       <c r="CA1341" s="3"/>
       <c r="CB1341" s="3"/>
       <c r="CC1341" s="3"/>
-      <c r="CD1341" s="3"/>
-    </row>
-    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1375" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1375" s="3"/>
       <c r="C1375" s="3"/>
       <c r="D1375" s="3"/>
@@ -13417,8 +13617,8 @@
       <c r="U1375" s="3"/>
       <c r="V1375" s="3"/>
       <c r="W1375" s="3"/>
-      <c r="X1375" s="3"/>
-      <c r="Y1375" s="5"/>
+      <c r="X1375" s="5"/>
+      <c r="Y1375" s="3"/>
       <c r="Z1375" s="3"/>
       <c r="AA1375" s="3"/>
       <c r="AB1375" s="3"/>
@@ -13475,9 +13675,8 @@
       <c r="CA1375" s="3"/>
       <c r="CB1375" s="3"/>
       <c r="CC1375" s="3"/>
-      <c r="CD1375" s="3"/>
-    </row>
-    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1409" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1409" s="3"/>
       <c r="C1409" s="3"/>
       <c r="D1409" s="3"/>
@@ -13500,8 +13699,8 @@
       <c r="U1409" s="3"/>
       <c r="V1409" s="3"/>
       <c r="W1409" s="3"/>
-      <c r="X1409" s="3"/>
-      <c r="Y1409" s="5"/>
+      <c r="X1409" s="5"/>
+      <c r="Y1409" s="3"/>
       <c r="Z1409" s="3"/>
       <c r="AA1409" s="3"/>
       <c r="AB1409" s="3"/>
@@ -13558,9 +13757,8 @@
       <c r="CA1409" s="3"/>
       <c r="CB1409" s="3"/>
       <c r="CC1409" s="3"/>
-      <c r="CD1409" s="3"/>
-    </row>
-    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1443" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1443" s="3"/>
       <c r="C1443" s="3"/>
       <c r="D1443" s="3"/>
@@ -13583,8 +13781,8 @@
       <c r="U1443" s="3"/>
       <c r="V1443" s="3"/>
       <c r="W1443" s="3"/>
-      <c r="X1443" s="3"/>
-      <c r="Y1443" s="5"/>
+      <c r="X1443" s="5"/>
+      <c r="Y1443" s="3"/>
       <c r="Z1443" s="3"/>
       <c r="AA1443" s="3"/>
       <c r="AB1443" s="3"/>
@@ -13641,9 +13839,8 @@
       <c r="CA1443" s="3"/>
       <c r="CB1443" s="3"/>
       <c r="CC1443" s="3"/>
-      <c r="CD1443" s="3"/>
-    </row>
-    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1477" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1477" s="3"/>
       <c r="C1477" s="3"/>
       <c r="D1477" s="3"/>
@@ -13666,8 +13863,8 @@
       <c r="U1477" s="3"/>
       <c r="V1477" s="3"/>
       <c r="W1477" s="3"/>
-      <c r="X1477" s="3"/>
-      <c r="Y1477" s="5"/>
+      <c r="X1477" s="5"/>
+      <c r="Y1477" s="3"/>
       <c r="Z1477" s="3"/>
       <c r="AA1477" s="3"/>
       <c r="AB1477" s="3"/>
@@ -13724,9 +13921,8 @@
       <c r="CA1477" s="3"/>
       <c r="CB1477" s="3"/>
       <c r="CC1477" s="3"/>
-      <c r="CD1477" s="3"/>
-    </row>
-    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1511" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1511" s="3"/>
       <c r="C1511" s="3"/>
       <c r="D1511" s="3"/>
@@ -13749,8 +13945,8 @@
       <c r="U1511" s="3"/>
       <c r="V1511" s="3"/>
       <c r="W1511" s="3"/>
-      <c r="X1511" s="3"/>
-      <c r="Y1511" s="5"/>
+      <c r="X1511" s="5"/>
+      <c r="Y1511" s="3"/>
       <c r="Z1511" s="3"/>
       <c r="AA1511" s="3"/>
       <c r="AB1511" s="3"/>
@@ -13807,9 +14003,8 @@
       <c r="CA1511" s="3"/>
       <c r="CB1511" s="3"/>
       <c r="CC1511" s="3"/>
-      <c r="CD1511" s="3"/>
-    </row>
-    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1545" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1545" s="3"/>
       <c r="C1545" s="3"/>
       <c r="D1545" s="3"/>
@@ -13832,8 +14027,8 @@
       <c r="U1545" s="3"/>
       <c r="V1545" s="3"/>
       <c r="W1545" s="3"/>
-      <c r="X1545" s="3"/>
-      <c r="Y1545" s="5"/>
+      <c r="X1545" s="5"/>
+      <c r="Y1545" s="3"/>
       <c r="Z1545" s="3"/>
       <c r="AA1545" s="3"/>
       <c r="AB1545" s="3"/>
@@ -13890,9 +14085,8 @@
       <c r="CA1545" s="3"/>
       <c r="CB1545" s="3"/>
       <c r="CC1545" s="3"/>
-      <c r="CD1545" s="3"/>
-    </row>
-    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1579" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1579" s="3"/>
       <c r="C1579" s="3"/>
       <c r="D1579" s="3"/>
@@ -13915,8 +14109,8 @@
       <c r="U1579" s="3"/>
       <c r="V1579" s="3"/>
       <c r="W1579" s="3"/>
-      <c r="X1579" s="3"/>
-      <c r="Y1579" s="5"/>
+      <c r="X1579" s="5"/>
+      <c r="Y1579" s="3"/>
       <c r="Z1579" s="3"/>
       <c r="AA1579" s="3"/>
       <c r="AB1579" s="3"/>
@@ -13973,9 +14167,8 @@
       <c r="CA1579" s="3"/>
       <c r="CB1579" s="3"/>
       <c r="CC1579" s="3"/>
-      <c r="CD1579" s="3"/>
-    </row>
-    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1613" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1613" s="3"/>
       <c r="C1613" s="3"/>
       <c r="D1613" s="3"/>
@@ -13998,8 +14191,8 @@
       <c r="U1613" s="3"/>
       <c r="V1613" s="3"/>
       <c r="W1613" s="3"/>
-      <c r="X1613" s="3"/>
-      <c r="Y1613" s="5"/>
+      <c r="X1613" s="5"/>
+      <c r="Y1613" s="3"/>
       <c r="Z1613" s="3"/>
       <c r="AA1613" s="3"/>
       <c r="AB1613" s="3"/>
@@ -14056,9 +14249,8 @@
       <c r="CA1613" s="3"/>
       <c r="CB1613" s="3"/>
       <c r="CC1613" s="3"/>
-      <c r="CD1613" s="3"/>
-    </row>
-    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1647" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1647" s="3"/>
       <c r="C1647" s="3"/>
       <c r="D1647" s="3"/>
@@ -14081,8 +14273,8 @@
       <c r="U1647" s="3"/>
       <c r="V1647" s="3"/>
       <c r="W1647" s="3"/>
-      <c r="X1647" s="3"/>
-      <c r="Y1647" s="5"/>
+      <c r="X1647" s="5"/>
+      <c r="Y1647" s="3"/>
       <c r="Z1647" s="3"/>
       <c r="AA1647" s="3"/>
       <c r="AB1647" s="3"/>
@@ -14139,9 +14331,8 @@
       <c r="CA1647" s="3"/>
       <c r="CB1647" s="3"/>
       <c r="CC1647" s="3"/>
-      <c r="CD1647" s="3"/>
-    </row>
-    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1681" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1681" s="3"/>
       <c r="C1681" s="3"/>
       <c r="D1681" s="3"/>
@@ -14164,8 +14355,8 @@
       <c r="U1681" s="3"/>
       <c r="V1681" s="3"/>
       <c r="W1681" s="3"/>
-      <c r="X1681" s="3"/>
-      <c r="Y1681" s="5"/>
+      <c r="X1681" s="5"/>
+      <c r="Y1681" s="3"/>
       <c r="Z1681" s="3"/>
       <c r="AA1681" s="3"/>
       <c r="AB1681" s="3"/>
@@ -14222,9 +14413,8 @@
       <c r="CA1681" s="3"/>
       <c r="CB1681" s="3"/>
       <c r="CC1681" s="3"/>
-      <c r="CD1681" s="3"/>
-    </row>
-    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1715" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1715" s="3"/>
       <c r="C1715" s="3"/>
       <c r="D1715" s="3"/>
@@ -14247,8 +14437,8 @@
       <c r="U1715" s="3"/>
       <c r="V1715" s="3"/>
       <c r="W1715" s="3"/>
-      <c r="X1715" s="3"/>
-      <c r="Y1715" s="5"/>
+      <c r="X1715" s="5"/>
+      <c r="Y1715" s="3"/>
       <c r="Z1715" s="3"/>
       <c r="AA1715" s="3"/>
       <c r="AB1715" s="3"/>
@@ -14305,9 +14495,8 @@
       <c r="CA1715" s="3"/>
       <c r="CB1715" s="3"/>
       <c r="CC1715" s="3"/>
-      <c r="CD1715" s="3"/>
-    </row>
-    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1749" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1749" s="3"/>
       <c r="C1749" s="3"/>
       <c r="D1749" s="3"/>
@@ -14330,8 +14519,8 @@
       <c r="U1749" s="3"/>
       <c r="V1749" s="3"/>
       <c r="W1749" s="3"/>
-      <c r="X1749" s="3"/>
-      <c r="Y1749" s="5"/>
+      <c r="X1749" s="5"/>
+      <c r="Y1749" s="3"/>
       <c r="Z1749" s="3"/>
       <c r="AA1749" s="3"/>
       <c r="AB1749" s="3"/>
@@ -14388,9 +14577,8 @@
       <c r="CA1749" s="3"/>
       <c r="CB1749" s="3"/>
       <c r="CC1749" s="3"/>
-      <c r="CD1749" s="3"/>
-    </row>
-    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1783" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1783" s="3"/>
       <c r="C1783" s="3"/>
       <c r="D1783" s="3"/>
@@ -14413,8 +14601,8 @@
       <c r="U1783" s="3"/>
       <c r="V1783" s="3"/>
       <c r="W1783" s="3"/>
-      <c r="X1783" s="3"/>
-      <c r="Y1783" s="5"/>
+      <c r="X1783" s="5"/>
+      <c r="Y1783" s="3"/>
       <c r="Z1783" s="3"/>
       <c r="AA1783" s="3"/>
       <c r="AB1783" s="3"/>
@@ -14471,9 +14659,8 @@
       <c r="CA1783" s="3"/>
       <c r="CB1783" s="3"/>
       <c r="CC1783" s="3"/>
-      <c r="CD1783" s="3"/>
-    </row>
-    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1817" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1817" s="3"/>
       <c r="C1817" s="3"/>
       <c r="D1817" s="3"/>
@@ -14496,8 +14683,8 @@
       <c r="U1817" s="3"/>
       <c r="V1817" s="3"/>
       <c r="W1817" s="3"/>
-      <c r="X1817" s="3"/>
-      <c r="Y1817" s="5"/>
+      <c r="X1817" s="5"/>
+      <c r="Y1817" s="3"/>
       <c r="Z1817" s="3"/>
       <c r="AA1817" s="3"/>
       <c r="AB1817" s="3"/>
@@ -14554,9 +14741,8 @@
       <c r="CA1817" s="3"/>
       <c r="CB1817" s="3"/>
       <c r="CC1817" s="3"/>
-      <c r="CD1817" s="3"/>
-    </row>
-    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1851" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1851" s="3"/>
       <c r="C1851" s="3"/>
       <c r="D1851" s="3"/>
@@ -14579,8 +14765,8 @@
       <c r="U1851" s="3"/>
       <c r="V1851" s="3"/>
       <c r="W1851" s="3"/>
-      <c r="X1851" s="3"/>
-      <c r="Y1851" s="5"/>
+      <c r="X1851" s="5"/>
+      <c r="Y1851" s="3"/>
       <c r="Z1851" s="3"/>
       <c r="AA1851" s="3"/>
       <c r="AB1851" s="3"/>
@@ -14637,9 +14823,8 @@
       <c r="CA1851" s="3"/>
       <c r="CB1851" s="3"/>
       <c r="CC1851" s="3"/>
-      <c r="CD1851" s="3"/>
-    </row>
-    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1885" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1885" s="3"/>
       <c r="C1885" s="3"/>
       <c r="D1885" s="3"/>
@@ -14662,8 +14847,8 @@
       <c r="U1885" s="3"/>
       <c r="V1885" s="3"/>
       <c r="W1885" s="3"/>
-      <c r="X1885" s="3"/>
-      <c r="Y1885" s="5"/>
+      <c r="X1885" s="5"/>
+      <c r="Y1885" s="3"/>
       <c r="Z1885" s="3"/>
       <c r="AA1885" s="3"/>
       <c r="AB1885" s="3"/>
@@ -14720,9 +14905,8 @@
       <c r="CA1885" s="3"/>
       <c r="CB1885" s="3"/>
       <c r="CC1885" s="3"/>
-      <c r="CD1885" s="3"/>
-    </row>
-    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1919" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1919" s="3"/>
       <c r="C1919" s="3"/>
       <c r="D1919" s="3"/>
@@ -14745,8 +14929,8 @@
       <c r="U1919" s="3"/>
       <c r="V1919" s="3"/>
       <c r="W1919" s="3"/>
-      <c r="X1919" s="3"/>
-      <c r="Y1919" s="5"/>
+      <c r="X1919" s="5"/>
+      <c r="Y1919" s="3"/>
       <c r="Z1919" s="3"/>
       <c r="AA1919" s="3"/>
       <c r="AB1919" s="3"/>
@@ -14803,9 +14987,8 @@
       <c r="CA1919" s="3"/>
       <c r="CB1919" s="3"/>
       <c r="CC1919" s="3"/>
-      <c r="CD1919" s="3"/>
-    </row>
-    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1953" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1953" s="3"/>
       <c r="C1953" s="3"/>
       <c r="D1953" s="3"/>
@@ -14828,8 +15011,8 @@
       <c r="U1953" s="3"/>
       <c r="V1953" s="3"/>
       <c r="W1953" s="3"/>
-      <c r="X1953" s="3"/>
-      <c r="Y1953" s="5"/>
+      <c r="X1953" s="5"/>
+      <c r="Y1953" s="3"/>
       <c r="Z1953" s="3"/>
       <c r="AA1953" s="3"/>
       <c r="AB1953" s="3"/>
@@ -14886,9 +15069,8 @@
       <c r="CA1953" s="3"/>
       <c r="CB1953" s="3"/>
       <c r="CC1953" s="3"/>
-      <c r="CD1953" s="3"/>
-    </row>
-    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1987" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B1987" s="3"/>
       <c r="C1987" s="3"/>
       <c r="D1987" s="3"/>
@@ -14911,8 +15093,8 @@
       <c r="U1987" s="3"/>
       <c r="V1987" s="3"/>
       <c r="W1987" s="3"/>
-      <c r="X1987" s="3"/>
-      <c r="Y1987" s="5"/>
+      <c r="X1987" s="5"/>
+      <c r="Y1987" s="3"/>
       <c r="Z1987" s="3"/>
       <c r="AA1987" s="3"/>
       <c r="AB1987" s="3"/>
@@ -14969,9 +15151,8 @@
       <c r="CA1987" s="3"/>
       <c r="CB1987" s="3"/>
       <c r="CC1987" s="3"/>
-      <c r="CD1987" s="3"/>
-    </row>
-    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2021" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2021" s="3"/>
       <c r="C2021" s="3"/>
       <c r="D2021" s="3"/>
@@ -14994,8 +15175,8 @@
       <c r="U2021" s="3"/>
       <c r="V2021" s="3"/>
       <c r="W2021" s="3"/>
-      <c r="X2021" s="3"/>
-      <c r="Y2021" s="5"/>
+      <c r="X2021" s="5"/>
+      <c r="Y2021" s="3"/>
       <c r="Z2021" s="3"/>
       <c r="AA2021" s="3"/>
       <c r="AB2021" s="3"/>
@@ -15052,9 +15233,8 @@
       <c r="CA2021" s="3"/>
       <c r="CB2021" s="3"/>
       <c r="CC2021" s="3"/>
-      <c r="CD2021" s="3"/>
-    </row>
-    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2055" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2055" s="3"/>
       <c r="C2055" s="3"/>
       <c r="D2055" s="3"/>
@@ -15077,8 +15257,8 @@
       <c r="U2055" s="3"/>
       <c r="V2055" s="3"/>
       <c r="W2055" s="3"/>
-      <c r="X2055" s="3"/>
-      <c r="Y2055" s="5"/>
+      <c r="X2055" s="5"/>
+      <c r="Y2055" s="3"/>
       <c r="Z2055" s="3"/>
       <c r="AA2055" s="3"/>
       <c r="AB2055" s="3"/>
@@ -15135,9 +15315,8 @@
       <c r="CA2055" s="3"/>
       <c r="CB2055" s="3"/>
       <c r="CC2055" s="3"/>
-      <c r="CD2055" s="3"/>
-    </row>
-    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2089" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2089" s="3"/>
       <c r="C2089" s="3"/>
       <c r="D2089" s="3"/>
@@ -15160,8 +15339,8 @@
       <c r="U2089" s="3"/>
       <c r="V2089" s="3"/>
       <c r="W2089" s="3"/>
-      <c r="X2089" s="3"/>
-      <c r="Y2089" s="5"/>
+      <c r="X2089" s="5"/>
+      <c r="Y2089" s="3"/>
       <c r="Z2089" s="3"/>
       <c r="AA2089" s="3"/>
       <c r="AB2089" s="3"/>
@@ -15218,9 +15397,8 @@
       <c r="CA2089" s="3"/>
       <c r="CB2089" s="3"/>
       <c r="CC2089" s="3"/>
-      <c r="CD2089" s="3"/>
-    </row>
-    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2123" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2123" s="3"/>
       <c r="C2123" s="3"/>
       <c r="D2123" s="3"/>
@@ -15243,8 +15421,8 @@
       <c r="U2123" s="3"/>
       <c r="V2123" s="3"/>
       <c r="W2123" s="3"/>
-      <c r="X2123" s="3"/>
-      <c r="Y2123" s="5"/>
+      <c r="X2123" s="5"/>
+      <c r="Y2123" s="3"/>
       <c r="Z2123" s="3"/>
       <c r="AA2123" s="3"/>
       <c r="AB2123" s="3"/>
@@ -15301,9 +15479,8 @@
       <c r="CA2123" s="3"/>
       <c r="CB2123" s="3"/>
       <c r="CC2123" s="3"/>
-      <c r="CD2123" s="3"/>
-    </row>
-    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2157" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2157" s="3"/>
       <c r="C2157" s="3"/>
       <c r="D2157" s="3"/>
@@ -15326,8 +15503,8 @@
       <c r="U2157" s="3"/>
       <c r="V2157" s="3"/>
       <c r="W2157" s="3"/>
-      <c r="X2157" s="3"/>
-      <c r="Y2157" s="5"/>
+      <c r="X2157" s="5"/>
+      <c r="Y2157" s="3"/>
       <c r="Z2157" s="3"/>
       <c r="AA2157" s="3"/>
       <c r="AB2157" s="3"/>
@@ -15384,9 +15561,8 @@
       <c r="CA2157" s="3"/>
       <c r="CB2157" s="3"/>
       <c r="CC2157" s="3"/>
-      <c r="CD2157" s="3"/>
-    </row>
-    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2191" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2191" s="3"/>
       <c r="C2191" s="3"/>
       <c r="D2191" s="3"/>
@@ -15409,8 +15585,8 @@
       <c r="U2191" s="3"/>
       <c r="V2191" s="3"/>
       <c r="W2191" s="3"/>
-      <c r="X2191" s="3"/>
-      <c r="Y2191" s="5"/>
+      <c r="X2191" s="5"/>
+      <c r="Y2191" s="3"/>
       <c r="Z2191" s="3"/>
       <c r="AA2191" s="3"/>
       <c r="AB2191" s="3"/>
@@ -15467,9 +15643,8 @@
       <c r="CA2191" s="3"/>
       <c r="CB2191" s="3"/>
       <c r="CC2191" s="3"/>
-      <c r="CD2191" s="3"/>
-    </row>
-    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2225" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2225" s="3"/>
       <c r="C2225" s="3"/>
       <c r="D2225" s="3"/>
@@ -15492,8 +15667,8 @@
       <c r="U2225" s="3"/>
       <c r="V2225" s="3"/>
       <c r="W2225" s="3"/>
-      <c r="X2225" s="3"/>
-      <c r="Y2225" s="5"/>
+      <c r="X2225" s="5"/>
+      <c r="Y2225" s="3"/>
       <c r="Z2225" s="3"/>
       <c r="AA2225" s="3"/>
       <c r="AB2225" s="3"/>
@@ -15550,9 +15725,8 @@
       <c r="CA2225" s="3"/>
       <c r="CB2225" s="3"/>
       <c r="CC2225" s="3"/>
-      <c r="CD2225" s="3"/>
-    </row>
-    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2259" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2259" s="3"/>
       <c r="C2259" s="3"/>
       <c r="D2259" s="3"/>
@@ -15575,8 +15749,8 @@
       <c r="U2259" s="3"/>
       <c r="V2259" s="3"/>
       <c r="W2259" s="3"/>
-      <c r="X2259" s="3"/>
-      <c r="Y2259" s="5"/>
+      <c r="X2259" s="5"/>
+      <c r="Y2259" s="3"/>
       <c r="Z2259" s="3"/>
       <c r="AA2259" s="3"/>
       <c r="AB2259" s="3"/>
@@ -15633,9 +15807,8 @@
       <c r="CA2259" s="3"/>
       <c r="CB2259" s="3"/>
       <c r="CC2259" s="3"/>
-      <c r="CD2259" s="3"/>
-    </row>
-    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2293" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2293" s="3"/>
       <c r="C2293" s="3"/>
       <c r="D2293" s="3"/>
@@ -15658,8 +15831,8 @@
       <c r="U2293" s="3"/>
       <c r="V2293" s="3"/>
       <c r="W2293" s="3"/>
-      <c r="X2293" s="3"/>
-      <c r="Y2293" s="5"/>
+      <c r="X2293" s="5"/>
+      <c r="Y2293" s="3"/>
       <c r="Z2293" s="3"/>
       <c r="AA2293" s="3"/>
       <c r="AB2293" s="3"/>
@@ -15716,9 +15889,8 @@
       <c r="CA2293" s="3"/>
       <c r="CB2293" s="3"/>
       <c r="CC2293" s="3"/>
-      <c r="CD2293" s="3"/>
-    </row>
-    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2327" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2327" s="3"/>
       <c r="C2327" s="3"/>
       <c r="D2327" s="3"/>
@@ -15741,8 +15913,8 @@
       <c r="U2327" s="3"/>
       <c r="V2327" s="3"/>
       <c r="W2327" s="3"/>
-      <c r="X2327" s="3"/>
-      <c r="Y2327" s="5"/>
+      <c r="X2327" s="5"/>
+      <c r="Y2327" s="3"/>
       <c r="Z2327" s="3"/>
       <c r="AA2327" s="3"/>
       <c r="AB2327" s="3"/>
@@ -15799,9 +15971,8 @@
       <c r="CA2327" s="3"/>
       <c r="CB2327" s="3"/>
       <c r="CC2327" s="3"/>
-      <c r="CD2327" s="3"/>
-    </row>
-    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2361" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2361" s="3"/>
       <c r="C2361" s="3"/>
       <c r="D2361" s="3"/>
@@ -15824,8 +15995,8 @@
       <c r="U2361" s="3"/>
       <c r="V2361" s="3"/>
       <c r="W2361" s="3"/>
-      <c r="X2361" s="3"/>
-      <c r="Y2361" s="5"/>
+      <c r="X2361" s="5"/>
+      <c r="Y2361" s="3"/>
       <c r="Z2361" s="3"/>
       <c r="AA2361" s="3"/>
       <c r="AB2361" s="3"/>
@@ -15882,9 +16053,8 @@
       <c r="CA2361" s="3"/>
       <c r="CB2361" s="3"/>
       <c r="CC2361" s="3"/>
-      <c r="CD2361" s="3"/>
-    </row>
-    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2395" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2395" s="3"/>
       <c r="C2395" s="3"/>
       <c r="D2395" s="3"/>
@@ -15907,8 +16077,8 @@
       <c r="U2395" s="3"/>
       <c r="V2395" s="3"/>
       <c r="W2395" s="3"/>
-      <c r="X2395" s="3"/>
-      <c r="Y2395" s="5"/>
+      <c r="X2395" s="5"/>
+      <c r="Y2395" s="3"/>
       <c r="Z2395" s="3"/>
       <c r="AA2395" s="3"/>
       <c r="AB2395" s="3"/>
@@ -15965,9 +16135,8 @@
       <c r="CA2395" s="3"/>
       <c r="CB2395" s="3"/>
       <c r="CC2395" s="3"/>
-      <c r="CD2395" s="3"/>
-    </row>
-    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2429" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2429" s="3"/>
       <c r="C2429" s="3"/>
       <c r="D2429" s="3"/>
@@ -15990,8 +16159,8 @@
       <c r="U2429" s="3"/>
       <c r="V2429" s="3"/>
       <c r="W2429" s="3"/>
-      <c r="X2429" s="3"/>
-      <c r="Y2429" s="5"/>
+      <c r="X2429" s="5"/>
+      <c r="Y2429" s="3"/>
       <c r="Z2429" s="3"/>
       <c r="AA2429" s="3"/>
       <c r="AB2429" s="3"/>
@@ -16048,9 +16217,8 @@
       <c r="CA2429" s="3"/>
       <c r="CB2429" s="3"/>
       <c r="CC2429" s="3"/>
-      <c r="CD2429" s="3"/>
-    </row>
-    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2463" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2463" s="3"/>
       <c r="C2463" s="3"/>
       <c r="D2463" s="3"/>
@@ -16073,8 +16241,8 @@
       <c r="U2463" s="3"/>
       <c r="V2463" s="3"/>
       <c r="W2463" s="3"/>
-      <c r="X2463" s="3"/>
-      <c r="Y2463" s="5"/>
+      <c r="X2463" s="5"/>
+      <c r="Y2463" s="3"/>
       <c r="Z2463" s="3"/>
       <c r="AA2463" s="3"/>
       <c r="AB2463" s="3"/>
@@ -16131,9 +16299,8 @@
       <c r="CA2463" s="3"/>
       <c r="CB2463" s="3"/>
       <c r="CC2463" s="3"/>
-      <c r="CD2463" s="3"/>
-    </row>
-    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2497" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2497" s="3"/>
       <c r="C2497" s="3"/>
       <c r="D2497" s="3"/>
@@ -16156,8 +16323,8 @@
       <c r="U2497" s="3"/>
       <c r="V2497" s="3"/>
       <c r="W2497" s="3"/>
-      <c r="X2497" s="3"/>
-      <c r="Y2497" s="5"/>
+      <c r="X2497" s="5"/>
+      <c r="Y2497" s="3"/>
       <c r="Z2497" s="3"/>
       <c r="AA2497" s="3"/>
       <c r="AB2497" s="3"/>
@@ -16214,9 +16381,8 @@
       <c r="CA2497" s="3"/>
       <c r="CB2497" s="3"/>
       <c r="CC2497" s="3"/>
-      <c r="CD2497" s="3"/>
-    </row>
-    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2531" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2531" s="3"/>
       <c r="C2531" s="3"/>
       <c r="D2531" s="3"/>
@@ -16239,8 +16405,8 @@
       <c r="U2531" s="3"/>
       <c r="V2531" s="3"/>
       <c r="W2531" s="3"/>
-      <c r="X2531" s="3"/>
-      <c r="Y2531" s="5"/>
+      <c r="X2531" s="5"/>
+      <c r="Y2531" s="3"/>
       <c r="Z2531" s="3"/>
       <c r="AA2531" s="3"/>
       <c r="AB2531" s="3"/>
@@ -16297,9 +16463,8 @@
       <c r="CA2531" s="3"/>
       <c r="CB2531" s="3"/>
       <c r="CC2531" s="3"/>
-      <c r="CD2531" s="3"/>
-    </row>
-    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2565" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2565" s="3"/>
       <c r="C2565" s="3"/>
       <c r="D2565" s="3"/>
@@ -16322,8 +16487,8 @@
       <c r="U2565" s="3"/>
       <c r="V2565" s="3"/>
       <c r="W2565" s="3"/>
-      <c r="X2565" s="3"/>
-      <c r="Y2565" s="5"/>
+      <c r="X2565" s="5"/>
+      <c r="Y2565" s="3"/>
       <c r="Z2565" s="3"/>
       <c r="AA2565" s="3"/>
       <c r="AB2565" s="3"/>
@@ -16380,9 +16545,8 @@
       <c r="CA2565" s="3"/>
       <c r="CB2565" s="3"/>
       <c r="CC2565" s="3"/>
-      <c r="CD2565" s="3"/>
-    </row>
-    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2599" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2599" s="3"/>
       <c r="C2599" s="3"/>
       <c r="D2599" s="3"/>
@@ -16405,8 +16569,8 @@
       <c r="U2599" s="3"/>
       <c r="V2599" s="3"/>
       <c r="W2599" s="3"/>
-      <c r="X2599" s="3"/>
-      <c r="Y2599" s="5"/>
+      <c r="X2599" s="5"/>
+      <c r="Y2599" s="3"/>
       <c r="Z2599" s="3"/>
       <c r="AA2599" s="3"/>
       <c r="AB2599" s="3"/>
@@ -16463,9 +16627,8 @@
       <c r="CA2599" s="3"/>
       <c r="CB2599" s="3"/>
       <c r="CC2599" s="3"/>
-      <c r="CD2599" s="3"/>
-    </row>
-    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2633" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2633" s="3"/>
       <c r="C2633" s="3"/>
       <c r="D2633" s="3"/>
@@ -16488,8 +16651,8 @@
       <c r="U2633" s="3"/>
       <c r="V2633" s="3"/>
       <c r="W2633" s="3"/>
-      <c r="X2633" s="3"/>
-      <c r="Y2633" s="5"/>
+      <c r="X2633" s="5"/>
+      <c r="Y2633" s="3"/>
       <c r="Z2633" s="3"/>
       <c r="AA2633" s="3"/>
       <c r="AB2633" s="3"/>
@@ -16546,9 +16709,8 @@
       <c r="CA2633" s="3"/>
       <c r="CB2633" s="3"/>
       <c r="CC2633" s="3"/>
-      <c r="CD2633" s="3"/>
-    </row>
-    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2667" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2667" s="3"/>
       <c r="C2667" s="3"/>
       <c r="D2667" s="3"/>
@@ -16571,8 +16733,8 @@
       <c r="U2667" s="3"/>
       <c r="V2667" s="3"/>
       <c r="W2667" s="3"/>
-      <c r="X2667" s="3"/>
-      <c r="Y2667" s="5"/>
+      <c r="X2667" s="5"/>
+      <c r="Y2667" s="3"/>
       <c r="Z2667" s="3"/>
       <c r="AA2667" s="3"/>
       <c r="AB2667" s="3"/>
@@ -16629,9 +16791,8 @@
       <c r="CA2667" s="3"/>
       <c r="CB2667" s="3"/>
       <c r="CC2667" s="3"/>
-      <c r="CD2667" s="3"/>
-    </row>
-    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2701" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2701" s="3"/>
       <c r="C2701" s="3"/>
       <c r="D2701" s="3"/>
@@ -16654,8 +16815,8 @@
       <c r="U2701" s="3"/>
       <c r="V2701" s="3"/>
       <c r="W2701" s="3"/>
-      <c r="X2701" s="3"/>
-      <c r="Y2701" s="5"/>
+      <c r="X2701" s="5"/>
+      <c r="Y2701" s="3"/>
       <c r="Z2701" s="3"/>
       <c r="AA2701" s="3"/>
       <c r="AB2701" s="3"/>
@@ -16712,9 +16873,8 @@
       <c r="CA2701" s="3"/>
       <c r="CB2701" s="3"/>
       <c r="CC2701" s="3"/>
-      <c r="CD2701" s="3"/>
-    </row>
-    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2735" spans="2:81" x14ac:dyDescent="0.35">
       <c r="B2735" s="3"/>
       <c r="C2735" s="3"/>
       <c r="D2735" s="3"/>
@@ -16737,8 +16897,8 @@
       <c r="U2735" s="3"/>
       <c r="V2735" s="3"/>
       <c r="W2735" s="3"/>
-      <c r="X2735" s="3"/>
-      <c r="Y2735" s="5"/>
+      <c r="X2735" s="5"/>
+      <c r="Y2735" s="3"/>
       <c r="Z2735" s="3"/>
       <c r="AA2735" s="3"/>
       <c r="AB2735" s="3"/>
@@ -16795,10 +16955,249 @@
       <c r="CA2735" s="3"/>
       <c r="CB2735" s="3"/>
       <c r="CC2735" s="3"/>
-      <c r="CD2735" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD2">
+  <conditionalFormatting sqref="G2:XFD2 A2:E2">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:XFD4 A4:E4">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:XFD5 A5:E5">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:XFD6 A6:E6">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:XFD7 A7:E7">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:XFD8 A8:E8">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:XFD9 A9:E9">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:XFD10 A10:E10">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:XFD11 A11:E11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:XFD12 A12:E12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:XFD13 A13:E13">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:XFD14 A14:E14">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:XFD15 A15:E15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:XFD31 A31:E31">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:XFD33 A33:E33">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:XFD35 A35:E35">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:XFD36 A36:E36">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:XFD37 A37:E37">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:XFD38 A38:E38">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:XFD39 A39:E39">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -16810,7 +17209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16822,7 +17221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD5">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -16834,7 +17233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD6">
+  <conditionalFormatting sqref="F6">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -16846,7 +17245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD7">
+  <conditionalFormatting sqref="F7">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -16858,7 +17257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:XFD8">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -16870,7 +17269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9">
+  <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -16882,7 +17281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10">
+  <conditionalFormatting sqref="F10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -16894,7 +17293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:XFD11">
+  <conditionalFormatting sqref="F11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -16906,7 +17305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:XFD12">
+  <conditionalFormatting sqref="F12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -16918,7 +17317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:XFD13">
+  <conditionalFormatting sqref="F13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -16930,7 +17329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:XFD14">
+  <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -16942,7 +17341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:XFD15">
+  <conditionalFormatting sqref="F15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -16954,7 +17353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
+  <conditionalFormatting sqref="F31">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -16966,7 +17365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33">
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16978,7 +17377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35">
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -16990,7 +17389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36">
+  <conditionalFormatting sqref="F36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -17002,7 +17401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37">
+  <conditionalFormatting sqref="F37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17014,7 +17413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD38">
+  <conditionalFormatting sqref="F38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17026,7 +17425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39">
+  <conditionalFormatting sqref="F39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E7464-E4EA-45BC-869C-74AAA5E73A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B18CFB-8F3F-4A44-93C7-D99CA5E75E25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>Take off weight [N]</t>
   </si>
@@ -196,9 +197,6 @@
     <t>Design 33 HIGH 2E DD STRUT</t>
   </si>
   <si>
-    <t xml:space="preserve">Design 54 HIGH 2E DD </t>
-  </si>
-  <si>
     <t>Zero-lift drag [-]</t>
   </si>
   <si>
@@ -206,6 +204,129 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>'maxMz=', 8360036.4189239405, 'maxMy=', 29786173.15519779, 'maxT=', 1598321.9702356174, 'maxFy=', 1644447.5579231523, 'minFz=', -2661569.650059096</t>
+  </si>
+  <si>
+    <t>req Izz ('I_zz=', 0.006747886772358544)</t>
+  </si>
+  <si>
+    <t>A_req=', 0.0018790954735834196, 'strut_mass=', 62.98728027451622, 'strut_cost=', 6298.728027451622</t>
+  </si>
+  <si>
+    <t>'I_zz_spars=', 0.007027553255811151, 0.030531496869977783, 0.02238598849660311</t>
+  </si>
+  <si>
+    <t>('skin_mass', 4762.8810757377005, 'spar_mass', 3257.706642313952, 'total_mass', 16041.175436103305, 'total_price', 105871.75787828182</t>
+  </si>
+  <si>
+    <t>t_spar = 2.1 cm</t>
+  </si>
+  <si>
+    <t>('maxMz=', 6317442.64024748, 'maxMy=', 23389572.957764324, 'maxT=', 1451182.3930156636, 'maxFy=', 1575998.9918151891, 'minFz=', -2534006.7568960213)</t>
+  </si>
+  <si>
+    <t>req Izz ('I_zz=', 0.004427705297908813)</t>
+  </si>
+  <si>
+    <t>'A_req=', 0.0018790954735834196, 'strut_mass=', 51.56237979512903, 'strut_cost=', 5156.237979512904</t>
+  </si>
+  <si>
+    <t>'I_zz_spars=', 0.004433836506025593, 0.024145889894786006, 0.018083425691358318)</t>
+  </si>
+  <si>
+    <t>('skin_mass', 4173.999789983428, 'spar_mass', 2027.5654733967351, 'total_mass', 12403.130526760326, 'total_price', 81860.66147661814</t>
+  </si>
+  <si>
+    <t>t_spar = 1.8 cm</t>
+  </si>
+  <si>
+    <t>('maxMz=', 25841293.44814272, 'maxMy=', 25917799.024284106, 'maxT=', 2159803.3484241576, 'maxFy=', 2732367.4678911753, 'minFz=', -2717569.1070357105)</t>
+  </si>
+  <si>
+    <t>req Izz ('I_zz=', 0.02015868508749089)</t>
+  </si>
+  <si>
+    <t>('I_zz_spars=', 0.020219716088830164, 0.09264125646968488, 0.06827433903382343)</t>
+  </si>
+  <si>
+    <t>('skin_mass', 4645.826350156429, 'spar_mass', 8275.352043234434, 'total_mass', 25842.356786781726, 'total_price', 170559.5547927594)</t>
+  </si>
+  <si>
+    <t>t_spar = 6.5 cm</t>
+  </si>
+  <si>
+    <t>'maxMz=', 25222202.239659492, 'maxMy=', 25194712.153510816, 'maxT=', 2112246.6630491405, 'maxFy=', 2749164.970452498, 'minFz=', -2721530.5580524425</t>
+  </si>
+  <si>
+    <t>req Izz ('I_zz=', 0.019325734712574517)</t>
+  </si>
+  <si>
+    <t>('I_zz_spars=', 0.019446993798383792, 0.0916870641489968, 0.06775359527542398)</t>
+  </si>
+  <si>
+    <t>('skin_mass', 4521.2981493218385, 'spar_mass', 7930.307568900103, 'total_mass', 24903.211436443882, 'total_price', 164361.19548052963)</t>
+  </si>
+  <si>
+    <t>Design 54 HIGH 2E DD</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Change in :</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t>Influence on :</t>
+  </si>
+  <si>
+    <t>Original value</t>
+  </si>
+  <si>
+    <t>New value</t>
+  </si>
+  <si>
+    <t>Percent difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strut position </t>
+  </si>
+  <si>
+    <t>Mz</t>
+  </si>
+  <si>
+    <t>strut mass</t>
+  </si>
+  <si>
+    <t>strut cost</t>
+  </si>
+  <si>
+    <t>strut force</t>
+  </si>
+  <si>
+    <t>strut area</t>
+  </si>
+  <si>
+    <t>strut material</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Alu</t>
+  </si>
+  <si>
+    <t>Design 54</t>
   </si>
 </sst>
 </file>
@@ -249,16 +370,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -274,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,42 +698,42 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="24" width="8.88671875" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" customWidth="1"/>
-    <col min="29" max="34" width="8.88671875" customWidth="1"/>
-    <col min="35" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1"/>
-    <col min="38" max="61" width="8.88671875" customWidth="1"/>
-    <col min="62" max="64" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="87" width="8.88671875" customWidth="1"/>
-    <col min="88" max="88" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="14.6640625" customWidth="1"/>
-    <col min="92" max="97" width="8.88671875" customWidth="1"/>
-    <col min="98" max="99" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="109" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="15.36328125" customWidth="1"/>
+    <col min="20" max="24" width="8.90625" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6328125" customWidth="1"/>
+    <col min="29" max="34" width="8.90625" customWidth="1"/>
+    <col min="35" max="36" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6328125" customWidth="1"/>
+    <col min="38" max="61" width="8.90625" customWidth="1"/>
+    <col min="62" max="64" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="87" width="8.90625" customWidth="1"/>
+    <col min="88" max="88" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="14.6328125" customWidth="1"/>
+    <col min="92" max="97" width="8.90625" customWidth="1"/>
+    <col min="98" max="99" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="109" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -652,7 +774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +818,7 @@
         <v>1581917.5958680499</v>
       </c>
     </row>
-    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +862,7 @@
         <v>472485.24524999998</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -784,7 +906,7 @@
         <v>141448.877186606</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +950,7 @@
         <v>967983.47343144903</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -872,7 +994,7 @@
         <v>212408.66864116001</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -916,7 +1038,7 @@
         <v>37269.2753539041</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -960,7 +1082,7 @@
         <v>246776.260951551</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1126,7 @@
         <v>23653.943336230099</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1170,7 @@
         <v>120744.37112022701</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1214,7 @@
         <v>288676.79448844597</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1258,7 @@
         <v>0.69301331809704503</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1302,7 @@
         <v>3.4040000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1346,7 @@
         <v>20.358793128585301</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1458,7 @@
       <c r="CC15" s="3"/>
       <c r="CD15" s="3"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1502,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1590,7 @@
         <v>263.70059460680102</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +1634,7 @@
         <v>62.892836786887102</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1678,7 @@
         <v>6.5151540539124797</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1722,7 @@
         <v>1.87055751767247</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1644,7 +1766,7 @@
         <v>0.56445641791910695</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1810,7 @@
         <v>0.28710871641617802</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1854,7 @@
         <v>50.422636868395202</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1898,7 @@
         <v>5.9507847046706299</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1942,7 @@
         <v>11.0089517036406</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1864,7 +1986,7 @@
         <v>19.637589525413102</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1908,7 +2030,7 @@
         <v>26.221238876731501</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +2074,7 @@
         <v>46.018453704714702</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1996,7 +2118,7 @@
         <v>49.2404845140737</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2040,7 +2162,7 @@
         <v>363906.82055738597</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +2206,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2128,7 +2250,7 @@
         <v>236.03385519878199</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2172,7 +2294,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2338,7 @@
         <v>5.6285992452807798E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2260,7 +2382,7 @@
         <v>40.121284624672398</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2304,7 +2426,7 @@
         <v>40.121284624672398</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2470,7 @@
         <v>25.0539992466197</v>
       </c>
     </row>
-    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2431,7 +2553,7 @@
       <c r="CC49" s="3"/>
       <c r="CD49" s="3"/>
     </row>
-    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2514,7 +2636,7 @@
       <c r="CC83" s="3"/>
       <c r="CD83" s="3"/>
     </row>
-    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2597,7 +2719,7 @@
       <c r="CC117" s="3"/>
       <c r="CD117" s="3"/>
     </row>
-    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -2680,7 +2802,7 @@
       <c r="CC151" s="3"/>
       <c r="CD151" s="3"/>
     </row>
-    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -2763,7 +2885,7 @@
       <c r="CC185" s="3"/>
       <c r="CD185" s="3"/>
     </row>
-    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -2846,7 +2968,7 @@
       <c r="CC219" s="3"/>
       <c r="CD219" s="3"/>
     </row>
-    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -2929,7 +3051,7 @@
       <c r="CC253" s="3"/>
       <c r="CD253" s="3"/>
     </row>
-    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -3012,7 +3134,7 @@
       <c r="CC287" s="3"/>
       <c r="CD287" s="3"/>
     </row>
-    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -3095,7 +3217,7 @@
       <c r="CC321" s="3"/>
       <c r="CD321" s="3"/>
     </row>
-    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -3178,7 +3300,7 @@
       <c r="CC355" s="3"/>
       <c r="CD355" s="3"/>
     </row>
-    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -3261,7 +3383,7 @@
       <c r="CC389" s="3"/>
       <c r="CD389" s="3"/>
     </row>
-    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -3344,7 +3466,7 @@
       <c r="CC423" s="3"/>
       <c r="CD423" s="3"/>
     </row>
-    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -3427,7 +3549,7 @@
       <c r="CC457" s="3"/>
       <c r="CD457" s="3"/>
     </row>
-    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -3510,7 +3632,7 @@
       <c r="CC491" s="3"/>
       <c r="CD491" s="3"/>
     </row>
-    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -3593,7 +3715,7 @@
       <c r="CC525" s="3"/>
       <c r="CD525" s="3"/>
     </row>
-    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -3676,7 +3798,7 @@
       <c r="CC559" s="3"/>
       <c r="CD559" s="3"/>
     </row>
-    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -3759,7 +3881,7 @@
       <c r="CC593" s="3"/>
       <c r="CD593" s="3"/>
     </row>
-    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -3842,7 +3964,7 @@
       <c r="CC627" s="3"/>
       <c r="CD627" s="3"/>
     </row>
-    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -3925,7 +4047,7 @@
       <c r="CC661" s="3"/>
       <c r="CD661" s="3"/>
     </row>
-    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -4008,7 +4130,7 @@
       <c r="CC695" s="3"/>
       <c r="CD695" s="3"/>
     </row>
-    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -4091,7 +4213,7 @@
       <c r="CC729" s="3"/>
       <c r="CD729" s="3"/>
     </row>
-    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -4174,7 +4296,7 @@
       <c r="CC763" s="3"/>
       <c r="CD763" s="3"/>
     </row>
-    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -4257,7 +4379,7 @@
       <c r="CC797" s="3"/>
       <c r="CD797" s="3"/>
     </row>
-    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -4340,7 +4462,7 @@
       <c r="CC831" s="3"/>
       <c r="CD831" s="3"/>
     </row>
-    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -4423,7 +4545,7 @@
       <c r="CC865" s="3"/>
       <c r="CD865" s="3"/>
     </row>
-    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -4506,7 +4628,7 @@
       <c r="CC899" s="3"/>
       <c r="CD899" s="3"/>
     </row>
-    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -4589,7 +4711,7 @@
       <c r="CC933" s="3"/>
       <c r="CD933" s="3"/>
     </row>
-    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
@@ -4672,7 +4794,7 @@
       <c r="CC967" s="3"/>
       <c r="CD967" s="3"/>
     </row>
-    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1001" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
       <c r="D1001" s="3"/>
@@ -4755,7 +4877,7 @@
       <c r="CC1001" s="3"/>
       <c r="CD1001" s="3"/>
     </row>
-    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1035" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
       <c r="D1035" s="3"/>
@@ -4838,7 +4960,7 @@
       <c r="CC1035" s="3"/>
       <c r="CD1035" s="3"/>
     </row>
-    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1069" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1069" s="3"/>
       <c r="C1069" s="3"/>
       <c r="D1069" s="3"/>
@@ -4921,7 +5043,7 @@
       <c r="CC1069" s="3"/>
       <c r="CD1069" s="3"/>
     </row>
-    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1103" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1103" s="3"/>
       <c r="C1103" s="3"/>
       <c r="D1103" s="3"/>
@@ -5004,7 +5126,7 @@
       <c r="CC1103" s="3"/>
       <c r="CD1103" s="3"/>
     </row>
-    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1137" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1137" s="3"/>
       <c r="C1137" s="3"/>
       <c r="D1137" s="3"/>
@@ -5087,7 +5209,7 @@
       <c r="CC1137" s="3"/>
       <c r="CD1137" s="3"/>
     </row>
-    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1171" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1171" s="3"/>
       <c r="C1171" s="3"/>
       <c r="D1171" s="3"/>
@@ -5170,7 +5292,7 @@
       <c r="CC1171" s="3"/>
       <c r="CD1171" s="3"/>
     </row>
-    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1205" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1205" s="3"/>
       <c r="C1205" s="3"/>
       <c r="D1205" s="3"/>
@@ -5253,7 +5375,7 @@
       <c r="CC1205" s="3"/>
       <c r="CD1205" s="3"/>
     </row>
-    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1239" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1239" s="3"/>
       <c r="C1239" s="3"/>
       <c r="D1239" s="3"/>
@@ -5336,7 +5458,7 @@
       <c r="CC1239" s="3"/>
       <c r="CD1239" s="3"/>
     </row>
-    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1273" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1273" s="3"/>
       <c r="C1273" s="3"/>
       <c r="D1273" s="3"/>
@@ -5419,7 +5541,7 @@
       <c r="CC1273" s="3"/>
       <c r="CD1273" s="3"/>
     </row>
-    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1307" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1307" s="3"/>
       <c r="C1307" s="3"/>
       <c r="D1307" s="3"/>
@@ -5502,7 +5624,7 @@
       <c r="CC1307" s="3"/>
       <c r="CD1307" s="3"/>
     </row>
-    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1341" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1341" s="3"/>
       <c r="C1341" s="3"/>
       <c r="D1341" s="3"/>
@@ -5585,7 +5707,7 @@
       <c r="CC1341" s="3"/>
       <c r="CD1341" s="3"/>
     </row>
-    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1375" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1375" s="3"/>
       <c r="C1375" s="3"/>
       <c r="D1375" s="3"/>
@@ -5668,7 +5790,7 @@
       <c r="CC1375" s="3"/>
       <c r="CD1375" s="3"/>
     </row>
-    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1409" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1409" s="3"/>
       <c r="C1409" s="3"/>
       <c r="D1409" s="3"/>
@@ -5751,7 +5873,7 @@
       <c r="CC1409" s="3"/>
       <c r="CD1409" s="3"/>
     </row>
-    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1443" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1443" s="3"/>
       <c r="C1443" s="3"/>
       <c r="D1443" s="3"/>
@@ -5834,7 +5956,7 @@
       <c r="CC1443" s="3"/>
       <c r="CD1443" s="3"/>
     </row>
-    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1477" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1477" s="3"/>
       <c r="C1477" s="3"/>
       <c r="D1477" s="3"/>
@@ -5917,7 +6039,7 @@
       <c r="CC1477" s="3"/>
       <c r="CD1477" s="3"/>
     </row>
-    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1511" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1511" s="3"/>
       <c r="C1511" s="3"/>
       <c r="D1511" s="3"/>
@@ -6000,7 +6122,7 @@
       <c r="CC1511" s="3"/>
       <c r="CD1511" s="3"/>
     </row>
-    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1545" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1545" s="3"/>
       <c r="C1545" s="3"/>
       <c r="D1545" s="3"/>
@@ -6083,7 +6205,7 @@
       <c r="CC1545" s="3"/>
       <c r="CD1545" s="3"/>
     </row>
-    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1579" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1579" s="3"/>
       <c r="C1579" s="3"/>
       <c r="D1579" s="3"/>
@@ -6166,7 +6288,7 @@
       <c r="CC1579" s="3"/>
       <c r="CD1579" s="3"/>
     </row>
-    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1613" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1613" s="3"/>
       <c r="C1613" s="3"/>
       <c r="D1613" s="3"/>
@@ -6249,7 +6371,7 @@
       <c r="CC1613" s="3"/>
       <c r="CD1613" s="3"/>
     </row>
-    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1647" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1647" s="3"/>
       <c r="C1647" s="3"/>
       <c r="D1647" s="3"/>
@@ -6332,7 +6454,7 @@
       <c r="CC1647" s="3"/>
       <c r="CD1647" s="3"/>
     </row>
-    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1681" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1681" s="3"/>
       <c r="C1681" s="3"/>
       <c r="D1681" s="3"/>
@@ -6415,7 +6537,7 @@
       <c r="CC1681" s="3"/>
       <c r="CD1681" s="3"/>
     </row>
-    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1715" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1715" s="3"/>
       <c r="C1715" s="3"/>
       <c r="D1715" s="3"/>
@@ -6498,7 +6620,7 @@
       <c r="CC1715" s="3"/>
       <c r="CD1715" s="3"/>
     </row>
-    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1749" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1749" s="3"/>
       <c r="C1749" s="3"/>
       <c r="D1749" s="3"/>
@@ -6581,7 +6703,7 @@
       <c r="CC1749" s="3"/>
       <c r="CD1749" s="3"/>
     </row>
-    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1783" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1783" s="3"/>
       <c r="C1783" s="3"/>
       <c r="D1783" s="3"/>
@@ -6664,7 +6786,7 @@
       <c r="CC1783" s="3"/>
       <c r="CD1783" s="3"/>
     </row>
-    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1817" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1817" s="3"/>
       <c r="C1817" s="3"/>
       <c r="D1817" s="3"/>
@@ -6747,7 +6869,7 @@
       <c r="CC1817" s="3"/>
       <c r="CD1817" s="3"/>
     </row>
-    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1851" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1851" s="3"/>
       <c r="C1851" s="3"/>
       <c r="D1851" s="3"/>
@@ -6830,7 +6952,7 @@
       <c r="CC1851" s="3"/>
       <c r="CD1851" s="3"/>
     </row>
-    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1885" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1885" s="3"/>
       <c r="C1885" s="3"/>
       <c r="D1885" s="3"/>
@@ -6913,7 +7035,7 @@
       <c r="CC1885" s="3"/>
       <c r="CD1885" s="3"/>
     </row>
-    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1919" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1919" s="3"/>
       <c r="C1919" s="3"/>
       <c r="D1919" s="3"/>
@@ -6996,7 +7118,7 @@
       <c r="CC1919" s="3"/>
       <c r="CD1919" s="3"/>
     </row>
-    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1953" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1953" s="3"/>
       <c r="C1953" s="3"/>
       <c r="D1953" s="3"/>
@@ -7079,7 +7201,7 @@
       <c r="CC1953" s="3"/>
       <c r="CD1953" s="3"/>
     </row>
-    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1987" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1987" s="3"/>
       <c r="C1987" s="3"/>
       <c r="D1987" s="3"/>
@@ -7162,7 +7284,7 @@
       <c r="CC1987" s="3"/>
       <c r="CD1987" s="3"/>
     </row>
-    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2021" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2021" s="3"/>
       <c r="C2021" s="3"/>
       <c r="D2021" s="3"/>
@@ -7245,7 +7367,7 @@
       <c r="CC2021" s="3"/>
       <c r="CD2021" s="3"/>
     </row>
-    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2055" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2055" s="3"/>
       <c r="C2055" s="3"/>
       <c r="D2055" s="3"/>
@@ -7328,7 +7450,7 @@
       <c r="CC2055" s="3"/>
       <c r="CD2055" s="3"/>
     </row>
-    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2089" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2089" s="3"/>
       <c r="C2089" s="3"/>
       <c r="D2089" s="3"/>
@@ -7411,7 +7533,7 @@
       <c r="CC2089" s="3"/>
       <c r="CD2089" s="3"/>
     </row>
-    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2123" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2123" s="3"/>
       <c r="C2123" s="3"/>
       <c r="D2123" s="3"/>
@@ -7494,7 +7616,7 @@
       <c r="CC2123" s="3"/>
       <c r="CD2123" s="3"/>
     </row>
-    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2157" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2157" s="3"/>
       <c r="C2157" s="3"/>
       <c r="D2157" s="3"/>
@@ -7577,7 +7699,7 @@
       <c r="CC2157" s="3"/>
       <c r="CD2157" s="3"/>
     </row>
-    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2191" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2191" s="3"/>
       <c r="C2191" s="3"/>
       <c r="D2191" s="3"/>
@@ -7660,7 +7782,7 @@
       <c r="CC2191" s="3"/>
       <c r="CD2191" s="3"/>
     </row>
-    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2225" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2225" s="3"/>
       <c r="C2225" s="3"/>
       <c r="D2225" s="3"/>
@@ -7743,7 +7865,7 @@
       <c r="CC2225" s="3"/>
       <c r="CD2225" s="3"/>
     </row>
-    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2259" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2259" s="3"/>
       <c r="C2259" s="3"/>
       <c r="D2259" s="3"/>
@@ -7826,7 +7948,7 @@
       <c r="CC2259" s="3"/>
       <c r="CD2259" s="3"/>
     </row>
-    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2293" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2293" s="3"/>
       <c r="C2293" s="3"/>
       <c r="D2293" s="3"/>
@@ -7909,7 +8031,7 @@
       <c r="CC2293" s="3"/>
       <c r="CD2293" s="3"/>
     </row>
-    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2327" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2327" s="3"/>
       <c r="C2327" s="3"/>
       <c r="D2327" s="3"/>
@@ -7992,7 +8114,7 @@
       <c r="CC2327" s="3"/>
       <c r="CD2327" s="3"/>
     </row>
-    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2361" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2361" s="3"/>
       <c r="C2361" s="3"/>
       <c r="D2361" s="3"/>
@@ -8075,7 +8197,7 @@
       <c r="CC2361" s="3"/>
       <c r="CD2361" s="3"/>
     </row>
-    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2395" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2395" s="3"/>
       <c r="C2395" s="3"/>
       <c r="D2395" s="3"/>
@@ -8158,7 +8280,7 @@
       <c r="CC2395" s="3"/>
       <c r="CD2395" s="3"/>
     </row>
-    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2429" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2429" s="3"/>
       <c r="C2429" s="3"/>
       <c r="D2429" s="3"/>
@@ -8241,7 +8363,7 @@
       <c r="CC2429" s="3"/>
       <c r="CD2429" s="3"/>
     </row>
-    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2463" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2463" s="3"/>
       <c r="C2463" s="3"/>
       <c r="D2463" s="3"/>
@@ -8324,7 +8446,7 @@
       <c r="CC2463" s="3"/>
       <c r="CD2463" s="3"/>
     </row>
-    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2497" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2497" s="3"/>
       <c r="C2497" s="3"/>
       <c r="D2497" s="3"/>
@@ -8407,7 +8529,7 @@
       <c r="CC2497" s="3"/>
       <c r="CD2497" s="3"/>
     </row>
-    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2531" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2531" s="3"/>
       <c r="C2531" s="3"/>
       <c r="D2531" s="3"/>
@@ -8490,7 +8612,7 @@
       <c r="CC2531" s="3"/>
       <c r="CD2531" s="3"/>
     </row>
-    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2565" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2565" s="3"/>
       <c r="C2565" s="3"/>
       <c r="D2565" s="3"/>
@@ -8573,7 +8695,7 @@
       <c r="CC2565" s="3"/>
       <c r="CD2565" s="3"/>
     </row>
-    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2599" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2599" s="3"/>
       <c r="C2599" s="3"/>
       <c r="D2599" s="3"/>
@@ -8656,7 +8778,7 @@
       <c r="CC2599" s="3"/>
       <c r="CD2599" s="3"/>
     </row>
-    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2633" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2633" s="3"/>
       <c r="C2633" s="3"/>
       <c r="D2633" s="3"/>
@@ -8739,7 +8861,7 @@
       <c r="CC2633" s="3"/>
       <c r="CD2633" s="3"/>
     </row>
-    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2667" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2667" s="3"/>
       <c r="C2667" s="3"/>
       <c r="D2667" s="3"/>
@@ -8822,7 +8944,7 @@
       <c r="CC2667" s="3"/>
       <c r="CD2667" s="3"/>
     </row>
-    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2701" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2701" s="3"/>
       <c r="C2701" s="3"/>
       <c r="D2701" s="3"/>
@@ -8905,7 +9027,7 @@
       <c r="CC2701" s="3"/>
       <c r="CD2701" s="3"/>
     </row>
-    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2735" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2735" s="3"/>
       <c r="C2735" s="3"/>
       <c r="D2735" s="3"/>
@@ -9225,50 +9347,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.109375" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="33.44140625" customWidth="1"/>
-    <col min="17" max="17" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.21875" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" customWidth="1"/>
-    <col min="22" max="22" width="32.77734375" customWidth="1"/>
-    <col min="23" max="23" width="33.44140625" customWidth="1"/>
-    <col min="24" max="24" width="43.6640625" customWidth="1"/>
-    <col min="25" max="25" width="43.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.5546875" customWidth="1"/>
-    <col min="27" max="27" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1"/>
-    <col min="62" max="64" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="14.6640625" customWidth="1"/>
-    <col min="98" max="99" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" customWidth="1"/>
+    <col min="10" max="10" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.08984375" customWidth="1"/>
+    <col min="12" max="13" width="32.6328125" customWidth="1"/>
+    <col min="14" max="14" width="35.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="33.453125" customWidth="1"/>
+    <col min="17" max="17" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.1796875" customWidth="1"/>
+    <col min="19" max="19" width="15.36328125" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" customWidth="1"/>
+    <col min="21" max="21" width="27.1796875" customWidth="1"/>
+    <col min="22" max="22" width="32.81640625" customWidth="1"/>
+    <col min="23" max="23" width="33.453125" customWidth="1"/>
+    <col min="24" max="24" width="43.6328125" customWidth="1"/>
+    <col min="25" max="25" width="43.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.54296875" customWidth="1"/>
+    <col min="27" max="27" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6328125" customWidth="1"/>
+    <col min="62" max="64" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="14.6328125" customWidth="1"/>
+    <col min="98" max="99" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -9283,10 +9405,10 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9306,7 +9428,7 @@
         <v>1520114.4389424899</v>
       </c>
     </row>
-    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9326,7 +9448,7 @@
         <v>472485.24524999998</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9346,7 +9468,7 @@
         <v>136151.86323993001</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9366,7 +9488,7 @@
         <v>911477.33045256895</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9386,7 +9508,7 @@
         <v>208030.913446405</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9406,7 +9528,7 @@
         <v>19366.3440218346</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9426,7 +9548,7 @@
         <v>209884.50072030199</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -9446,7 +9568,7 @@
         <v>28707.6603054484</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9466,7 +9588,7 @@
         <v>126187.53070403299</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9486,7 +9608,7 @@
         <v>282059.53383109201</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9506,7 +9628,7 @@
         <v>0.56975049023278201</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9526,7 +9648,7 @@
         <v>3.3259999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -9546,7 +9668,7 @@
         <v>17.130201149512299</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9642,7 +9764,7 @@
       <c r="CC15" s="3"/>
       <c r="CD15" s="3"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9662,7 +9784,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -9682,7 +9804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9702,7 +9824,7 @@
         <v>190.36910016875601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -9722,7 +9844,7 @@
         <v>49.747344674804701</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9742,7 +9864,7 @@
         <v>5.8451992298000297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9762,7 +9884,7 @@
         <v>1.8082384124776201</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9782,7 +9904,7 @@
         <v>0.45322773323204502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9802,7 +9924,7 @@
         <v>0.30935445335359002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9822,7 +9944,7 @@
         <v>50.422636868395202</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9842,7 +9964,7 @@
         <v>5.9507847046706299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9862,7 +9984,7 @@
         <v>11.0089517036406</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -9882,7 +10004,7 @@
         <v>19.637589525413102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -9902,7 +10024,7 @@
         <v>26.913827234038401</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9922,7 +10044,7 @@
         <v>29.283951349043399</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9942,7 +10064,7 @@
         <v>27.617694577759</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9962,7 +10084,7 @@
         <v>441656.31239151402</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -9982,7 +10104,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -10002,7 +10124,7 @@
         <v>229.43040611479501</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -10022,7 +10144,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -10042,7 +10164,7 @@
         <v>8.4710380578120002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -10062,7 +10184,7 @@
         <v>9.8825738530638301</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -10082,7 +10204,7 @@
         <v>29.614074304697599</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -10102,9 +10224,9 @@
         <v>10.707349053201099</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <f>B13-(B12^2)/(PI()*B17*B16)</f>
@@ -10127,9 +10249,9 @@
         <v>2.3909017066756071E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <f xml:space="preserve"> 6050*9.80565</f>
@@ -10153,11 +10275,11 @@
       </c>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="Y41"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B42">
         <f>B29/B$18</f>
         <v>0.15070719970440075</v>
@@ -10179,7 +10301,7 @@
         <v>0.15382722996055626</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B43">
         <f>B30/B$18</f>
         <v>0.14226654850917769</v>
@@ -10201,7 +10323,7 @@
         <v>0.14507446089347911</v>
       </c>
     </row>
-    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -10284,7 +10406,7 @@
       <c r="CC49" s="3"/>
       <c r="CD49" s="3"/>
     </row>
-    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -10367,7 +10489,7 @@
       <c r="CC83" s="3"/>
       <c r="CD83" s="3"/>
     </row>
-    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -10450,7 +10572,7 @@
       <c r="CC117" s="3"/>
       <c r="CD117" s="3"/>
     </row>
-    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -10533,7 +10655,7 @@
       <c r="CC151" s="3"/>
       <c r="CD151" s="3"/>
     </row>
-    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -10616,7 +10738,7 @@
       <c r="CC185" s="3"/>
       <c r="CD185" s="3"/>
     </row>
-    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -10699,7 +10821,7 @@
       <c r="CC219" s="3"/>
       <c r="CD219" s="3"/>
     </row>
-    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -10782,7 +10904,7 @@
       <c r="CC253" s="3"/>
       <c r="CD253" s="3"/>
     </row>
-    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -10865,7 +10987,7 @@
       <c r="CC287" s="3"/>
       <c r="CD287" s="3"/>
     </row>
-    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10948,7 +11070,7 @@
       <c r="CC321" s="3"/>
       <c r="CD321" s="3"/>
     </row>
-    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -11031,7 +11153,7 @@
       <c r="CC355" s="3"/>
       <c r="CD355" s="3"/>
     </row>
-    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -11114,7 +11236,7 @@
       <c r="CC389" s="3"/>
       <c r="CD389" s="3"/>
     </row>
-    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -11197,7 +11319,7 @@
       <c r="CC423" s="3"/>
       <c r="CD423" s="3"/>
     </row>
-    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -11280,7 +11402,7 @@
       <c r="CC457" s="3"/>
       <c r="CD457" s="3"/>
     </row>
-    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -11363,7 +11485,7 @@
       <c r="CC491" s="3"/>
       <c r="CD491" s="3"/>
     </row>
-    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -11446,7 +11568,7 @@
       <c r="CC525" s="3"/>
       <c r="CD525" s="3"/>
     </row>
-    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -11529,7 +11651,7 @@
       <c r="CC559" s="3"/>
       <c r="CD559" s="3"/>
     </row>
-    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -11612,7 +11734,7 @@
       <c r="CC593" s="3"/>
       <c r="CD593" s="3"/>
     </row>
-    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -11695,7 +11817,7 @@
       <c r="CC627" s="3"/>
       <c r="CD627" s="3"/>
     </row>
-    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -11778,7 +11900,7 @@
       <c r="CC661" s="3"/>
       <c r="CD661" s="3"/>
     </row>
-    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -11861,7 +11983,7 @@
       <c r="CC695" s="3"/>
       <c r="CD695" s="3"/>
     </row>
-    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -11944,7 +12066,7 @@
       <c r="CC729" s="3"/>
       <c r="CD729" s="3"/>
     </row>
-    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -12027,7 +12149,7 @@
       <c r="CC763" s="3"/>
       <c r="CD763" s="3"/>
     </row>
-    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -12110,7 +12232,7 @@
       <c r="CC797" s="3"/>
       <c r="CD797" s="3"/>
     </row>
-    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -12193,7 +12315,7 @@
       <c r="CC831" s="3"/>
       <c r="CD831" s="3"/>
     </row>
-    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -12276,7 +12398,7 @@
       <c r="CC865" s="3"/>
       <c r="CD865" s="3"/>
     </row>
-    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -12359,7 +12481,7 @@
       <c r="CC899" s="3"/>
       <c r="CD899" s="3"/>
     </row>
-    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -12442,7 +12564,7 @@
       <c r="CC933" s="3"/>
       <c r="CD933" s="3"/>
     </row>
-    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
@@ -12525,7 +12647,7 @@
       <c r="CC967" s="3"/>
       <c r="CD967" s="3"/>
     </row>
-    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1001" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
       <c r="D1001" s="3"/>
@@ -12608,7 +12730,7 @@
       <c r="CC1001" s="3"/>
       <c r="CD1001" s="3"/>
     </row>
-    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1035" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1035" s="3"/>
       <c r="C1035" s="3"/>
       <c r="D1035" s="3"/>
@@ -12691,7 +12813,7 @@
       <c r="CC1035" s="3"/>
       <c r="CD1035" s="3"/>
     </row>
-    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1069" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1069" s="3"/>
       <c r="C1069" s="3"/>
       <c r="D1069" s="3"/>
@@ -12774,7 +12896,7 @@
       <c r="CC1069" s="3"/>
       <c r="CD1069" s="3"/>
     </row>
-    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1103" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1103" s="3"/>
       <c r="C1103" s="3"/>
       <c r="D1103" s="3"/>
@@ -12857,7 +12979,7 @@
       <c r="CC1103" s="3"/>
       <c r="CD1103" s="3"/>
     </row>
-    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1137" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1137" s="3"/>
       <c r="C1137" s="3"/>
       <c r="D1137" s="3"/>
@@ -12940,7 +13062,7 @@
       <c r="CC1137" s="3"/>
       <c r="CD1137" s="3"/>
     </row>
-    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1171" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1171" s="3"/>
       <c r="C1171" s="3"/>
       <c r="D1171" s="3"/>
@@ -13023,7 +13145,7 @@
       <c r="CC1171" s="3"/>
       <c r="CD1171" s="3"/>
     </row>
-    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1205" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1205" s="3"/>
       <c r="C1205" s="3"/>
       <c r="D1205" s="3"/>
@@ -13106,7 +13228,7 @@
       <c r="CC1205" s="3"/>
       <c r="CD1205" s="3"/>
     </row>
-    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1239" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1239" s="3"/>
       <c r="C1239" s="3"/>
       <c r="D1239" s="3"/>
@@ -13189,7 +13311,7 @@
       <c r="CC1239" s="3"/>
       <c r="CD1239" s="3"/>
     </row>
-    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1273" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1273" s="3"/>
       <c r="C1273" s="3"/>
       <c r="D1273" s="3"/>
@@ -13272,7 +13394,7 @@
       <c r="CC1273" s="3"/>
       <c r="CD1273" s="3"/>
     </row>
-    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1307" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1307" s="3"/>
       <c r="C1307" s="3"/>
       <c r="D1307" s="3"/>
@@ -13355,7 +13477,7 @@
       <c r="CC1307" s="3"/>
       <c r="CD1307" s="3"/>
     </row>
-    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1341" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1341" s="3"/>
       <c r="C1341" s="3"/>
       <c r="D1341" s="3"/>
@@ -13438,7 +13560,7 @@
       <c r="CC1341" s="3"/>
       <c r="CD1341" s="3"/>
     </row>
-    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1375" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1375" s="3"/>
       <c r="C1375" s="3"/>
       <c r="D1375" s="3"/>
@@ -13521,7 +13643,7 @@
       <c r="CC1375" s="3"/>
       <c r="CD1375" s="3"/>
     </row>
-    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1409" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1409" s="3"/>
       <c r="C1409" s="3"/>
       <c r="D1409" s="3"/>
@@ -13604,7 +13726,7 @@
       <c r="CC1409" s="3"/>
       <c r="CD1409" s="3"/>
     </row>
-    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1443" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1443" s="3"/>
       <c r="C1443" s="3"/>
       <c r="D1443" s="3"/>
@@ -13687,7 +13809,7 @@
       <c r="CC1443" s="3"/>
       <c r="CD1443" s="3"/>
     </row>
-    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1477" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1477" s="3"/>
       <c r="C1477" s="3"/>
       <c r="D1477" s="3"/>
@@ -13770,7 +13892,7 @@
       <c r="CC1477" s="3"/>
       <c r="CD1477" s="3"/>
     </row>
-    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1511" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1511" s="3"/>
       <c r="C1511" s="3"/>
       <c r="D1511" s="3"/>
@@ -13853,7 +13975,7 @@
       <c r="CC1511" s="3"/>
       <c r="CD1511" s="3"/>
     </row>
-    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1545" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1545" s="3"/>
       <c r="C1545" s="3"/>
       <c r="D1545" s="3"/>
@@ -13936,7 +14058,7 @@
       <c r="CC1545" s="3"/>
       <c r="CD1545" s="3"/>
     </row>
-    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1579" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1579" s="3"/>
       <c r="C1579" s="3"/>
       <c r="D1579" s="3"/>
@@ -14019,7 +14141,7 @@
       <c r="CC1579" s="3"/>
       <c r="CD1579" s="3"/>
     </row>
-    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1613" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1613" s="3"/>
       <c r="C1613" s="3"/>
       <c r="D1613" s="3"/>
@@ -14102,7 +14224,7 @@
       <c r="CC1613" s="3"/>
       <c r="CD1613" s="3"/>
     </row>
-    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1647" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1647" s="3"/>
       <c r="C1647" s="3"/>
       <c r="D1647" s="3"/>
@@ -14185,7 +14307,7 @@
       <c r="CC1647" s="3"/>
       <c r="CD1647" s="3"/>
     </row>
-    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1681" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1681" s="3"/>
       <c r="C1681" s="3"/>
       <c r="D1681" s="3"/>
@@ -14268,7 +14390,7 @@
       <c r="CC1681" s="3"/>
       <c r="CD1681" s="3"/>
     </row>
-    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1715" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1715" s="3"/>
       <c r="C1715" s="3"/>
       <c r="D1715" s="3"/>
@@ -14351,7 +14473,7 @@
       <c r="CC1715" s="3"/>
       <c r="CD1715" s="3"/>
     </row>
-    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1749" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1749" s="3"/>
       <c r="C1749" s="3"/>
       <c r="D1749" s="3"/>
@@ -14434,7 +14556,7 @@
       <c r="CC1749" s="3"/>
       <c r="CD1749" s="3"/>
     </row>
-    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1783" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1783" s="3"/>
       <c r="C1783" s="3"/>
       <c r="D1783" s="3"/>
@@ -14517,7 +14639,7 @@
       <c r="CC1783" s="3"/>
       <c r="CD1783" s="3"/>
     </row>
-    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1817" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1817" s="3"/>
       <c r="C1817" s="3"/>
       <c r="D1817" s="3"/>
@@ -14600,7 +14722,7 @@
       <c r="CC1817" s="3"/>
       <c r="CD1817" s="3"/>
     </row>
-    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1851" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1851" s="3"/>
       <c r="C1851" s="3"/>
       <c r="D1851" s="3"/>
@@ -14683,7 +14805,7 @@
       <c r="CC1851" s="3"/>
       <c r="CD1851" s="3"/>
     </row>
-    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1885" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1885" s="3"/>
       <c r="C1885" s="3"/>
       <c r="D1885" s="3"/>
@@ -14766,7 +14888,7 @@
       <c r="CC1885" s="3"/>
       <c r="CD1885" s="3"/>
     </row>
-    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1919" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1919" s="3"/>
       <c r="C1919" s="3"/>
       <c r="D1919" s="3"/>
@@ -14849,7 +14971,7 @@
       <c r="CC1919" s="3"/>
       <c r="CD1919" s="3"/>
     </row>
-    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1953" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1953" s="3"/>
       <c r="C1953" s="3"/>
       <c r="D1953" s="3"/>
@@ -14932,7 +15054,7 @@
       <c r="CC1953" s="3"/>
       <c r="CD1953" s="3"/>
     </row>
-    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="1987" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B1987" s="3"/>
       <c r="C1987" s="3"/>
       <c r="D1987" s="3"/>
@@ -15015,7 +15137,7 @@
       <c r="CC1987" s="3"/>
       <c r="CD1987" s="3"/>
     </row>
-    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2021" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2021" s="3"/>
       <c r="C2021" s="3"/>
       <c r="D2021" s="3"/>
@@ -15098,7 +15220,7 @@
       <c r="CC2021" s="3"/>
       <c r="CD2021" s="3"/>
     </row>
-    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2055" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2055" s="3"/>
       <c r="C2055" s="3"/>
       <c r="D2055" s="3"/>
@@ -15181,7 +15303,7 @@
       <c r="CC2055" s="3"/>
       <c r="CD2055" s="3"/>
     </row>
-    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2089" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2089" s="3"/>
       <c r="C2089" s="3"/>
       <c r="D2089" s="3"/>
@@ -15264,7 +15386,7 @@
       <c r="CC2089" s="3"/>
       <c r="CD2089" s="3"/>
     </row>
-    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2123" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2123" s="3"/>
       <c r="C2123" s="3"/>
       <c r="D2123" s="3"/>
@@ -15347,7 +15469,7 @@
       <c r="CC2123" s="3"/>
       <c r="CD2123" s="3"/>
     </row>
-    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2157" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2157" s="3"/>
       <c r="C2157" s="3"/>
       <c r="D2157" s="3"/>
@@ -15430,7 +15552,7 @@
       <c r="CC2157" s="3"/>
       <c r="CD2157" s="3"/>
     </row>
-    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2191" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2191" s="3"/>
       <c r="C2191" s="3"/>
       <c r="D2191" s="3"/>
@@ -15513,7 +15635,7 @@
       <c r="CC2191" s="3"/>
       <c r="CD2191" s="3"/>
     </row>
-    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2225" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2225" s="3"/>
       <c r="C2225" s="3"/>
       <c r="D2225" s="3"/>
@@ -15596,7 +15718,7 @@
       <c r="CC2225" s="3"/>
       <c r="CD2225" s="3"/>
     </row>
-    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2259" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2259" s="3"/>
       <c r="C2259" s="3"/>
       <c r="D2259" s="3"/>
@@ -15679,7 +15801,7 @@
       <c r="CC2259" s="3"/>
       <c r="CD2259" s="3"/>
     </row>
-    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2293" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2293" s="3"/>
       <c r="C2293" s="3"/>
       <c r="D2293" s="3"/>
@@ -15762,7 +15884,7 @@
       <c r="CC2293" s="3"/>
       <c r="CD2293" s="3"/>
     </row>
-    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2327" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2327" s="3"/>
       <c r="C2327" s="3"/>
       <c r="D2327" s="3"/>
@@ -15845,7 +15967,7 @@
       <c r="CC2327" s="3"/>
       <c r="CD2327" s="3"/>
     </row>
-    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2361" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2361" s="3"/>
       <c r="C2361" s="3"/>
       <c r="D2361" s="3"/>
@@ -15928,7 +16050,7 @@
       <c r="CC2361" s="3"/>
       <c r="CD2361" s="3"/>
     </row>
-    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2395" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2395" s="3"/>
       <c r="C2395" s="3"/>
       <c r="D2395" s="3"/>
@@ -16011,7 +16133,7 @@
       <c r="CC2395" s="3"/>
       <c r="CD2395" s="3"/>
     </row>
-    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2429" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2429" s="3"/>
       <c r="C2429" s="3"/>
       <c r="D2429" s="3"/>
@@ -16094,7 +16216,7 @@
       <c r="CC2429" s="3"/>
       <c r="CD2429" s="3"/>
     </row>
-    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2463" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2463" s="3"/>
       <c r="C2463" s="3"/>
       <c r="D2463" s="3"/>
@@ -16177,7 +16299,7 @@
       <c r="CC2463" s="3"/>
       <c r="CD2463" s="3"/>
     </row>
-    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2497" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2497" s="3"/>
       <c r="C2497" s="3"/>
       <c r="D2497" s="3"/>
@@ -16260,7 +16382,7 @@
       <c r="CC2497" s="3"/>
       <c r="CD2497" s="3"/>
     </row>
-    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2531" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2531" s="3"/>
       <c r="C2531" s="3"/>
       <c r="D2531" s="3"/>
@@ -16343,7 +16465,7 @@
       <c r="CC2531" s="3"/>
       <c r="CD2531" s="3"/>
     </row>
-    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2565" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2565" s="3"/>
       <c r="C2565" s="3"/>
       <c r="D2565" s="3"/>
@@ -16426,7 +16548,7 @@
       <c r="CC2565" s="3"/>
       <c r="CD2565" s="3"/>
     </row>
-    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2599" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2599" s="3"/>
       <c r="C2599" s="3"/>
       <c r="D2599" s="3"/>
@@ -16509,7 +16631,7 @@
       <c r="CC2599" s="3"/>
       <c r="CD2599" s="3"/>
     </row>
-    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2633" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2633" s="3"/>
       <c r="C2633" s="3"/>
       <c r="D2633" s="3"/>
@@ -16592,7 +16714,7 @@
       <c r="CC2633" s="3"/>
       <c r="CD2633" s="3"/>
     </row>
-    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2667" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2667" s="3"/>
       <c r="C2667" s="3"/>
       <c r="D2667" s="3"/>
@@ -16675,7 +16797,7 @@
       <c r="CC2667" s="3"/>
       <c r="CD2667" s="3"/>
     </row>
-    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2701" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2701" s="3"/>
       <c r="C2701" s="3"/>
       <c r="D2701" s="3"/>
@@ -16758,7 +16880,7 @@
       <c r="CC2701" s="3"/>
       <c r="CD2701" s="3"/>
     </row>
-    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
+    <row r="2735" spans="2:82" x14ac:dyDescent="0.35">
       <c r="B2735" s="3"/>
       <c r="C2735" s="3"/>
       <c r="D2735" s="3"/>
@@ -17097,4 +17219,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6203092-C018-499C-B1D8-0A22DBDE41C9}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>0.68</v>
+      </c>
+      <c r="C47">
+        <v>0.75</v>
+      </c>
+      <c r="D47">
+        <f>((C47-B47)/B47)*100</f>
+        <v>10.294117647058815</v>
+      </c>
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47">
+        <v>8360036</v>
+      </c>
+      <c r="G47">
+        <v>6192420</v>
+      </c>
+      <c r="H47">
+        <f>((G47-F47)/F47)*100</f>
+        <v>-25.928309399624595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49">
+        <v>1000000</v>
+      </c>
+      <c r="C49">
+        <v>500000</v>
+      </c>
+      <c r="D49">
+        <f>((C49-B49)/B49)*100</f>
+        <v>-50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49">
+        <v>8360036</v>
+      </c>
+      <c r="G49">
+        <v>18888455</v>
+      </c>
+      <c r="H49">
+        <f>((G49-F49)/F49)*100</f>
+        <v>125.93748400126508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50">
+        <v>1.879E-3</v>
+      </c>
+      <c r="G50">
+        <v>9.3899999999999995E-4</v>
+      </c>
+      <c r="H50">
+        <f>((G50-F50)/F50)*100</f>
+        <v>-50.026609898882391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>62.987000000000002</v>
+      </c>
+      <c r="G51">
+        <v>31.49</v>
+      </c>
+      <c r="H51">
+        <f>((G51-F51)/F51)*100</f>
+        <v>-50.005556702176648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52">
+        <v>6298.7</v>
+      </c>
+      <c r="G52">
+        <v>3149</v>
+      </c>
+      <c r="H52">
+        <f>((G52-F52)/F52)*100</f>
+        <v>-50.005556702176634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53">
+        <v>1.879E-3</v>
+      </c>
+      <c r="G53">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="H53">
+        <f>((G53-F53)/F53)*100</f>
+        <v>171.42096860031933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <v>62.987000000000002</v>
+      </c>
+      <c r="G54">
+        <v>300</v>
+      </c>
+      <c r="H54">
+        <f>((G54-F54)/F54)*100</f>
+        <v>376.28875799768207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55">
+        <v>6298.7</v>
+      </c>
+      <c r="G55">
+        <v>1977.6</v>
+      </c>
+      <c r="H55">
+        <f>((G55-F55)/F55)*100</f>
+        <v>-68.603045072792796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E7464-E4EA-45BC-869C-74AAA5E73A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D366F1-5BFA-45D5-9304-629717FF4D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Take off weight [N]</t>
   </si>
@@ -184,35 +185,37 @@
     <t>Design 36 HIGH 4E DD STRUT</t>
   </si>
   <si>
-    <t>Design 42 LOW 2E SEMIDD</t>
+    <t>Parameter</t>
   </si>
   <si>
-    <t>Design 12 HIGH 2E SEMIDD</t>
+    <t>Design concept 1</t>
   </si>
   <si>
-    <t>Design 29 HIGH 2E SEMIDD STRUT</t>
+    <t>Design concept 2</t>
   </si>
   <si>
-    <t>Design 33 HIGH 2E DD STRUT</t>
+    <t>Design concept 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Design 54 HIGH 2E DD </t>
+    <t>Design concept 4</t>
   </si>
   <si>
-    <t>Zero-lift drag [-]</t>
+    <t>Design concept 5</t>
   </si>
   <si>
-    <t>Engine weight [N]</t>
-  </si>
-  <si>
-    <t>Parameter</t>
+    <t>Quarter chord sweep [rad]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,17 +256,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -9225,23 +9318,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.109375" customWidth="1"/>
-    <col min="12" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
     <col min="14" max="14" width="35.44140625" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="33.44140625" customWidth="1"/>
@@ -9266,311 +9356,306 @@
     <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:82" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="F1" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="20">
         <v>1580051.3060698099</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="21">
+        <v>1520114.4389424899</v>
+      </c>
+      <c r="D2" s="20">
         <v>1597097.40303844</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="21">
+        <v>1532733.6181717799</v>
+      </c>
+      <c r="F2" s="20">
         <v>1474914.2672244101</v>
       </c>
-      <c r="E2">
-        <v>1532733.6181717799</v>
-      </c>
-      <c r="F2">
-        <v>1520114.4389424899</v>
-      </c>
     </row>
     <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <v>472485.24524999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="21">
         <v>472485.24524999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="20">
         <v>472485.24524999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="21">
         <v>472485.24524999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="20">
         <v>472485.24524999998</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <v>141375.518052842</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="21">
+        <v>136151.86323993001</v>
+      </c>
+      <c r="D4" s="20">
         <v>142824.683749816</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="21">
+        <v>137159.42504139201</v>
+      </c>
+      <c r="F4" s="20">
         <v>131089.07847274601</v>
       </c>
-      <c r="E4">
-        <v>137159.42504139201</v>
-      </c>
-      <c r="F4">
-        <v>136151.86323993001</v>
-      </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="20">
         <v>966190.54276697105</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="21">
+        <v>911477.33045256895</v>
+      </c>
+      <c r="D5" s="20">
         <v>981787.474038632</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="21">
+        <v>923088.94788038905</v>
+      </c>
+      <c r="F5" s="20">
         <v>871339.94350167201</v>
       </c>
-      <c r="E5">
-        <v>923088.94788038905</v>
-      </c>
-      <c r="F5">
-        <v>911477.33045256895</v>
-      </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>214922.15532104301</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="21">
+        <v>208030.913446405</v>
+      </c>
+      <c r="D6" s="20">
         <v>222815.35528357999</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="21">
+        <v>212271.98633827601</v>
+      </c>
+      <c r="F6" s="20">
         <v>137586.79017798501</v>
       </c>
-      <c r="E6">
-        <v>212271.98633827601</v>
-      </c>
-      <c r="F6">
-        <v>208030.913446405</v>
-      </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>20916.9344340469</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="21">
+        <v>19366.3440218346</v>
+      </c>
+      <c r="D7" s="20">
         <v>19596.413771753501</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="21">
+        <v>34042.894860766501</v>
+      </c>
+      <c r="F7" s="20">
         <v>16381.0027715162</v>
       </c>
-      <c r="E7">
-        <v>34042.894860766501</v>
-      </c>
-      <c r="F7">
-        <v>19366.3440218346</v>
-      </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>244231.168107957</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="21">
+        <v>209884.50072030199</v>
+      </c>
+      <c r="D8" s="20">
         <v>248720.80338146401</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="21">
+        <v>206842.94002626301</v>
+      </c>
+      <c r="F8" s="20">
         <v>246937.263629383</v>
       </c>
-      <c r="E8">
-        <v>206842.94002626301</v>
-      </c>
-      <c r="F8">
-        <v>209884.50072030199</v>
-      </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>27753.271561695699</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="21">
+        <v>28707.6603054484</v>
+      </c>
+      <c r="D9" s="20">
         <v>30114.6264674866</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="21">
+        <v>22936.635005443401</v>
+      </c>
+      <c r="F9" s="20">
         <v>27640.1706520767</v>
       </c>
-      <c r="E9">
-        <v>22936.635005443401</v>
-      </c>
-      <c r="F9">
-        <v>28707.6603054484</v>
-      </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>126254.55726617599</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="21">
+        <v>126187.53070403299</v>
+      </c>
+      <c r="D10" s="20">
         <v>126249.70425092999</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="21">
+        <v>126282.34702421</v>
+      </c>
+      <c r="F10" s="20">
         <v>126200.83276709</v>
       </c>
-      <c r="E10">
-        <v>126282.34702421</v>
-      </c>
-      <c r="F10">
-        <v>126187.53070403299</v>
-      </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>293675.049641572</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="21">
+        <v>282059.53383109201</v>
+      </c>
+      <c r="D11" s="20">
         <v>295522.473491907</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="21">
+        <v>283239.936021681</v>
+      </c>
+      <c r="F11" s="20">
         <v>280519.77486059198</v>
       </c>
-      <c r="E11">
-        <v>283239.936021681</v>
-      </c>
-      <c r="F11">
-        <v>282059.53383109201</v>
-      </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>0.697994414465406</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
+        <v>0.56975049023278201</v>
+      </c>
+      <c r="D12" s="12">
         <v>0.69726809353464103</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="13">
+        <v>0.62918857331470801</v>
+      </c>
+      <c r="F12" s="12">
         <v>0.622110056992491</v>
       </c>
-      <c r="E12">
-        <v>0.62918857331470801</v>
-      </c>
-      <c r="F12">
-        <v>0.56975049023278201</v>
-      </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>3.7449999999999997E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
+        <v>3.3259999999999998E-2</v>
+      </c>
+      <c r="D13" s="12">
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="13">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="F13" s="12">
         <v>3.6240000000000001E-2</v>
       </c>
-      <c r="E13">
-        <v>3.1029999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>3.3259999999999998E-2</v>
-      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>18.638035099209699</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
+        <v>17.130201149512299</v>
+      </c>
+      <c r="D14" s="12">
         <v>18.272224673339601</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="13">
+        <v>20.276782897670198</v>
+      </c>
+      <c r="F14" s="12">
         <v>17.166392301117298</v>
       </c>
-      <c r="E14">
-        <v>20.276782897670198</v>
-      </c>
-      <c r="F14">
-        <v>17.130201149512299</v>
-      </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>1.29195015028586E-5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
+        <v>1.31164067406912E-5</v>
+      </c>
+      <c r="D15" s="9">
         <v>1.33501515529539E-5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="7">
+        <v>1.30722371267455E-5</v>
+      </c>
+      <c r="F15" s="9">
         <v>1.31063130205086E-5</v>
       </c>
-      <c r="E15" s="3">
-        <v>1.30722371267455E-5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.31164067406912E-5</v>
-      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -9643,576 +9728,509 @@
       <c r="CD15" s="3"/>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>0.85</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>0.85</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>0.85</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>0.85</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="18">
         <v>210.85106599578799</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="19">
+        <v>190.36910016875601</v>
+      </c>
+      <c r="D18" s="18">
         <v>199.69911450587901</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="19">
+        <v>255.70384621453101</v>
+      </c>
+      <c r="F18" s="18">
         <v>183.29025631350601</v>
       </c>
-      <c r="E18">
-        <v>255.70384621453101</v>
-      </c>
-      <c r="F18">
-        <v>190.36910016875601</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="18">
         <v>52.355170307671202</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="19">
+        <v>49.747344674804701</v>
+      </c>
+      <c r="D19" s="18">
         <v>50.951825174143003</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="19">
+        <v>61.931879458143101</v>
+      </c>
+      <c r="F19" s="18">
         <v>50.656328216611598</v>
       </c>
-      <c r="E19">
-        <v>61.931879458143101</v>
-      </c>
-      <c r="F19">
-        <v>49.747344674804701</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="18">
         <v>6.1516127777055098</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="19">
+        <v>5.8451992298000297</v>
+      </c>
+      <c r="D20" s="18">
         <v>6.04218540712652</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="19">
+        <v>6.3650329322472103</v>
+      </c>
+      <c r="F20" s="18">
         <v>5.5268596659399396</v>
       </c>
-      <c r="E20">
-        <v>6.3650329322472103</v>
-      </c>
-      <c r="F20">
-        <v>5.8451992298000297</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="18">
         <v>1.9030288080900499</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="19">
+        <v>1.8082384124776201</v>
+      </c>
+      <c r="D21" s="18">
         <v>1.7965569273570099</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="19">
+        <v>1.89255099550519</v>
+      </c>
+      <c r="F21" s="18">
         <v>1.70975865071886</v>
       </c>
-      <c r="E21">
-        <v>1.89255099550519</v>
-      </c>
-      <c r="F21">
-        <v>1.8082384124776201</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="18">
         <v>0.45322773323204502</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="19">
+        <v>0.45322773323204502</v>
+      </c>
+      <c r="D22" s="18">
         <v>0.51332191392368598</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="19">
+        <v>0.51332191392368598</v>
+      </c>
+      <c r="F22" s="18">
         <v>0.45322773323204502</v>
       </c>
-      <c r="E22">
-        <v>0.51332191392368598</v>
-      </c>
-      <c r="F22">
-        <v>0.45322773323204502</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="18">
         <v>0.30935445335359002</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="19">
+        <v>0.30935445335359002</v>
+      </c>
+      <c r="D23" s="18">
         <v>0.29733561721526203</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="19">
+        <v>0.29733561721526203</v>
+      </c>
+      <c r="F23" s="18">
         <v>0.30935445335359002</v>
       </c>
-      <c r="E23">
-        <v>0.29733561721526203</v>
-      </c>
-      <c r="F23">
-        <v>0.30935445335359002</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="18">
         <v>53.998516569010597</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="19">
+        <v>50.422636868395202</v>
+      </c>
+      <c r="D24" s="18">
         <v>53.998516569010597</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="19">
+        <v>50.422636868395202</v>
+      </c>
+      <c r="F24" s="18">
         <v>53.998516569010597</v>
       </c>
-      <c r="E24">
-        <v>50.422636868395202</v>
-      </c>
-      <c r="F24">
-        <v>50.422636868395202</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="18">
         <v>6.2877186341350804</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="19">
+        <v>5.9507847046706299</v>
+      </c>
+      <c r="D25" s="18">
         <v>6.2877186341350804</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="19">
+        <v>5.9507847046706299</v>
+      </c>
+      <c r="F25" s="18">
         <v>6.2877186341350804</v>
       </c>
-      <c r="E25">
-        <v>5.9507847046706299</v>
-      </c>
-      <c r="F25">
-        <v>5.9507847046706299</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="18">
         <v>11.6322794731499</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="19">
+        <v>11.0089517036406</v>
+      </c>
+      <c r="D26" s="18">
         <v>11.6322794731499</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="19">
+        <v>11.0089517036406</v>
+      </c>
+      <c r="F26" s="18">
         <v>11.6322794731499</v>
       </c>
-      <c r="E26">
-        <v>11.0089517036406</v>
-      </c>
-      <c r="F26">
-        <v>11.0089517036406</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="18">
         <v>20.7494714926457</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="19">
+        <v>19.637589525413102</v>
+      </c>
+      <c r="D27" s="18">
         <v>20.7494714926457</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="19">
+        <v>19.637589525413102</v>
+      </c>
+      <c r="F27" s="18">
         <v>20.7494714926457</v>
       </c>
-      <c r="E27">
-        <v>19.637589525413102</v>
-      </c>
-      <c r="F27">
-        <v>19.637589525413102</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="18">
         <v>28.910976055334501</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="19">
+        <v>26.913827234038401</v>
+      </c>
+      <c r="D28" s="18">
         <v>29.016455845168501</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="19">
+        <v>26.227753049629499</v>
+      </c>
+      <c r="F28" s="18">
         <v>29.133929444647801</v>
       </c>
-      <c r="E28">
-        <v>26.227753049629499</v>
-      </c>
-      <c r="F28">
-        <v>26.913827234038401</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="18">
         <v>31.776773710913002</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="19">
+        <v>29.283951349043399</v>
+      </c>
+      <c r="D29" s="18">
         <v>29.317448869129102</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="19">
+        <v>43.751768464589901</v>
+      </c>
+      <c r="F29" s="18">
         <v>24.627513095698902</v>
       </c>
-      <c r="E29">
-        <v>43.751768464589901</v>
-      </c>
-      <c r="F29">
-        <v>29.283951349043399</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="18">
         <v>29.9970534087016</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="19">
+        <v>27.617694577759</v>
+      </c>
+      <c r="D30" s="18">
         <v>27.583785442710901</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="19">
+        <v>47.053606684339002</v>
+      </c>
+      <c r="F30" s="18">
         <v>25.139915722426601</v>
       </c>
-      <c r="E30">
-        <v>47.053606684339002</v>
-      </c>
-      <c r="F30">
-        <v>27.617694577759</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="20">
         <v>426973.40864147199</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="21">
+        <v>441656.31239151402</v>
+      </c>
+      <c r="D31" s="20">
         <v>463301.94565364101</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="21">
+        <v>352871.30777605303</v>
+      </c>
+      <c r="F31" s="20">
         <v>425233.394647334</v>
       </c>
-      <c r="E31">
-        <v>352871.30777605303</v>
-      </c>
-      <c r="F31">
-        <v>441656.31239151402</v>
-      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>0.75</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="8">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D32">
+      <c r="E32" s="6">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F32" s="8">
         <v>0.75</v>
       </c>
-      <c r="E32">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="F32">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="18">
         <v>224.576689295661</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="19">
+        <v>229.43040611479501</v>
+      </c>
+      <c r="D33" s="18">
         <v>232.06257893885001</v>
       </c>
-      <c r="D33">
+      <c r="E33" s="19">
+        <v>228.65779722382001</v>
+      </c>
+      <c r="F33" s="18">
         <v>227.82399045096099</v>
       </c>
-      <c r="E33">
-        <v>228.65779722382001</v>
-      </c>
-      <c r="F33">
-        <v>229.43040611479501</v>
-      </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>10000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
+        <v>8500</v>
+      </c>
+      <c r="D34" s="8">
         <v>10000</v>
       </c>
-      <c r="D34">
+      <c r="E34" s="6">
+        <v>11000</v>
+      </c>
+      <c r="F34" s="8">
         <v>9000</v>
       </c>
-      <c r="E34">
-        <v>11000</v>
-      </c>
-      <c r="F34">
-        <v>8500</v>
-      </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="14">
         <v>8.1351725770621598E-3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="15">
+        <v>8.4710380578120002E-3</v>
+      </c>
+      <c r="D35" s="14">
         <v>8.3830977597687695E-3</v>
       </c>
-      <c r="D35">
+      <c r="E35" s="15">
+        <v>7.2094496184857398E-3</v>
+      </c>
+      <c r="F35" s="14">
         <v>8.1899295050168394E-3</v>
       </c>
-      <c r="E35">
-        <v>7.2094496184857398E-3</v>
-      </c>
-      <c r="F35">
-        <v>8.4710380578120002E-3</v>
-      </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="16">
         <v>13.4556108823174</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="17">
+        <v>9.8825738530638301</v>
+      </c>
+      <c r="D36" s="16">
         <v>10.818108938629999</v>
       </c>
-      <c r="D36">
+      <c r="E36" s="17">
+        <v>23.3037274629175</v>
+      </c>
+      <c r="F36" s="16">
         <v>12.873090372161199</v>
       </c>
-      <c r="E36">
-        <v>23.3037274629175</v>
-      </c>
-      <c r="F36">
-        <v>9.8825738530638301</v>
-      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="16">
         <v>24.283709451511498</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="17">
+        <v>29.614074304697599</v>
+      </c>
+      <c r="D37" s="16">
         <v>21.9762015295493</v>
       </c>
-      <c r="D37">
+      <c r="E37" s="17">
+        <v>28.101697657103198</v>
+      </c>
+      <c r="F37" s="16">
         <v>29.224562289017399</v>
       </c>
-      <c r="E37">
-        <v>28.101697657103198</v>
-      </c>
-      <c r="F37">
-        <v>29.614074304697599</v>
-      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="24">
         <v>10.397479204424799</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="25">
+        <v>10.707349053201099</v>
+      </c>
+      <c r="D38" s="24">
         <v>11.9942466975647</v>
       </c>
-      <c r="D38">
+      <c r="E38" s="25">
+        <v>15.8039258708273</v>
+      </c>
+      <c r="F38" s="24">
         <v>11.336181647266001</v>
       </c>
-      <c r="E38">
-        <v>15.8039258708273</v>
-      </c>
-      <c r="F38">
-        <v>10.707349053201099</v>
-      </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="22"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="6">
         <f>B13-(B12^2)/(PI()*B17*B16)</f>
         <v>2.3415668071791081E-2</v>
       </c>
-      <c r="C39">
-        <f t="shared" ref="C39:F39" si="0">C13-(C12^2)/(PI()*C17*C16)</f>
+      <c r="C40" s="6">
+        <f>C13-(C12^2)/(PI()*C17*C16)</f>
+        <v>2.3909017066756071E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <f>D13-(D12^2)/(PI()*D17*D16)</f>
         <v>2.4154860642002351E-2</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
+      <c r="E40" s="6">
+        <f>E13-(E12^2)/(PI()*E17*E16)</f>
+        <v>2.1146708695322546E-2</v>
+      </c>
+      <c r="F40" s="6">
+        <f>F13-(F12^2)/(PI()*F17*F16)</f>
         <v>2.5887681852567998E-2</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>2.1146708695322546E-2</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>2.3909017066756071E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40">
-        <f xml:space="preserve"> 6050*9.80565</f>
-        <v>59324.182500000003</v>
-      </c>
-      <c r="C40">
-        <f xml:space="preserve"> 6050*9.80565</f>
-        <v>59324.182500000003</v>
-      </c>
-      <c r="D40">
-        <f xml:space="preserve"> 6050*9.80565</f>
-        <v>59324.182500000003</v>
-      </c>
-      <c r="E40">
-        <f xml:space="preserve"> 6050*9.80565</f>
-        <v>59324.182500000003</v>
-      </c>
-      <c r="F40">
-        <f xml:space="preserve"> 6050*9.80565</f>
-        <v>59324.182500000003</v>
-      </c>
       <c r="Y40"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="B41" s="23"/>
       <c r="Y41"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <f>B29/B$18</f>
-        <v>0.15070719970440075</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:F42" si="1">C29/C$18</f>
-        <v>0.14680810649396253</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>0.13436346039898134</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0.17110328652578397</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>0.15382722996055626</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <f>B30/B$18</f>
-        <v>0.14226654850917769</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:F43" si="2">C30/C$18</f>
-        <v>0.13812672885887459</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>0.13715904068259044</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>0.18401603018854029</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>0.14507446089347911</v>
-      </c>
-    </row>
-    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+    <row r="49" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -10284,18 +10302,14 @@
       <c r="CC49" s="3"/>
       <c r="CD49" s="3"/>
     </row>
-    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+    <row r="83" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -10367,18 +10381,14 @@
       <c r="CC83" s="3"/>
       <c r="CD83" s="3"/>
     </row>
-    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+    <row r="117" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -10450,18 +10460,14 @@
       <c r="CC117" s="3"/>
       <c r="CD117" s="3"/>
     </row>
-    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+    <row r="151" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -10533,18 +10539,14 @@
       <c r="CC151" s="3"/>
       <c r="CD151" s="3"/>
     </row>
-    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+    <row r="185" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
@@ -10616,18 +10618,14 @@
       <c r="CC185" s="3"/>
       <c r="CD185" s="3"/>
     </row>
-    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
+    <row r="219" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
       <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -10699,18 +10697,14 @@
       <c r="CC219" s="3"/>
       <c r="CD219" s="3"/>
     </row>
-    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
+    <row r="253" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
       <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
@@ -10782,18 +10776,14 @@
       <c r="CC253" s="3"/>
       <c r="CD253" s="3"/>
     </row>
-    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
+    <row r="287" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A287" s="7"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
       <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
-      <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
-      <c r="K287" s="3"/>
-      <c r="L287" s="3"/>
       <c r="M287" s="3"/>
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
@@ -10865,18 +10855,14 @@
       <c r="CC287" s="3"/>
       <c r="CD287" s="3"/>
     </row>
-    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
+    <row r="321" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A321" s="7"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
       <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
-      <c r="K321" s="3"/>
-      <c r="L321" s="3"/>
       <c r="M321" s="3"/>
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
@@ -10948,18 +10934,14 @@
       <c r="CC321" s="3"/>
       <c r="CD321" s="3"/>
     </row>
-    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
+    <row r="355" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A355" s="7"/>
+      <c r="B355" s="7"/>
+      <c r="C355" s="7"/>
+      <c r="D355" s="7"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
       <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-      <c r="J355" s="3"/>
-      <c r="K355" s="3"/>
-      <c r="L355" s="3"/>
       <c r="M355" s="3"/>
       <c r="N355" s="3"/>
       <c r="O355" s="3"/>
@@ -11031,18 +11013,14 @@
       <c r="CC355" s="3"/>
       <c r="CD355" s="3"/>
     </row>
-    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
+    <row r="389" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A389" s="7"/>
+      <c r="B389" s="7"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="7"/>
+      <c r="E389" s="7"/>
+      <c r="F389" s="7"/>
       <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-      <c r="J389" s="3"/>
-      <c r="K389" s="3"/>
-      <c r="L389" s="3"/>
       <c r="M389" s="3"/>
       <c r="N389" s="3"/>
       <c r="O389" s="3"/>
@@ -11114,18 +11092,14 @@
       <c r="CC389" s="3"/>
       <c r="CD389" s="3"/>
     </row>
-    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B423" s="3"/>
-      <c r="C423" s="3"/>
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
+    <row r="423" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A423" s="7"/>
+      <c r="B423" s="7"/>
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+      <c r="E423" s="7"/>
+      <c r="F423" s="7"/>
       <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
-      <c r="J423" s="3"/>
-      <c r="K423" s="3"/>
-      <c r="L423" s="3"/>
       <c r="M423" s="3"/>
       <c r="N423" s="3"/>
       <c r="O423" s="3"/>
@@ -11197,18 +11171,14 @@
       <c r="CC423" s="3"/>
       <c r="CD423" s="3"/>
     </row>
-    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B457" s="3"/>
-      <c r="C457" s="3"/>
-      <c r="D457" s="3"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
+    <row r="457" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A457" s="7"/>
+      <c r="B457" s="7"/>
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
+      <c r="E457" s="7"/>
+      <c r="F457" s="7"/>
       <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
-      <c r="J457" s="3"/>
-      <c r="K457" s="3"/>
-      <c r="L457" s="3"/>
       <c r="M457" s="3"/>
       <c r="N457" s="3"/>
       <c r="O457" s="3"/>
@@ -11280,18 +11250,14 @@
       <c r="CC457" s="3"/>
       <c r="CD457" s="3"/>
     </row>
-    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
-      <c r="D491" s="3"/>
-      <c r="E491" s="3"/>
-      <c r="F491" s="3"/>
+    <row r="491" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A491" s="7"/>
+      <c r="B491" s="7"/>
+      <c r="C491" s="7"/>
+      <c r="D491" s="7"/>
+      <c r="E491" s="7"/>
+      <c r="F491" s="7"/>
       <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
-      <c r="I491" s="3"/>
-      <c r="J491" s="3"/>
-      <c r="K491" s="3"/>
-      <c r="L491" s="3"/>
       <c r="M491" s="3"/>
       <c r="N491" s="3"/>
       <c r="O491" s="3"/>
@@ -11363,18 +11329,14 @@
       <c r="CC491" s="3"/>
       <c r="CD491" s="3"/>
     </row>
-    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
-      <c r="D525" s="3"/>
-      <c r="E525" s="3"/>
-      <c r="F525" s="3"/>
+    <row r="525" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A525" s="7"/>
+      <c r="B525" s="7"/>
+      <c r="C525" s="7"/>
+      <c r="D525" s="7"/>
+      <c r="E525" s="7"/>
+      <c r="F525" s="7"/>
       <c r="G525" s="3"/>
-      <c r="H525" s="3"/>
-      <c r="I525" s="3"/>
-      <c r="J525" s="3"/>
-      <c r="K525" s="3"/>
-      <c r="L525" s="3"/>
       <c r="M525" s="3"/>
       <c r="N525" s="3"/>
       <c r="O525" s="3"/>
@@ -11446,18 +11408,14 @@
       <c r="CC525" s="3"/>
       <c r="CD525" s="3"/>
     </row>
-    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B559" s="3"/>
-      <c r="C559" s="3"/>
-      <c r="D559" s="3"/>
-      <c r="E559" s="3"/>
-      <c r="F559" s="3"/>
+    <row r="559" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A559" s="7"/>
+      <c r="B559" s="7"/>
+      <c r="C559" s="7"/>
+      <c r="D559" s="7"/>
+      <c r="E559" s="7"/>
+      <c r="F559" s="7"/>
       <c r="G559" s="3"/>
-      <c r="H559" s="3"/>
-      <c r="I559" s="3"/>
-      <c r="J559" s="3"/>
-      <c r="K559" s="3"/>
-      <c r="L559" s="3"/>
       <c r="M559" s="3"/>
       <c r="N559" s="3"/>
       <c r="O559" s="3"/>
@@ -11529,18 +11487,14 @@
       <c r="CC559" s="3"/>
       <c r="CD559" s="3"/>
     </row>
-    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B593" s="3"/>
-      <c r="C593" s="3"/>
-      <c r="D593" s="3"/>
-      <c r="E593" s="3"/>
-      <c r="F593" s="3"/>
+    <row r="593" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A593" s="7"/>
+      <c r="B593" s="7"/>
+      <c r="C593" s="7"/>
+      <c r="D593" s="7"/>
+      <c r="E593" s="7"/>
+      <c r="F593" s="7"/>
       <c r="G593" s="3"/>
-      <c r="H593" s="3"/>
-      <c r="I593" s="3"/>
-      <c r="J593" s="3"/>
-      <c r="K593" s="3"/>
-      <c r="L593" s="3"/>
       <c r="M593" s="3"/>
       <c r="N593" s="3"/>
       <c r="O593" s="3"/>
@@ -11612,18 +11566,14 @@
       <c r="CC593" s="3"/>
       <c r="CD593" s="3"/>
     </row>
-    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B627" s="3"/>
-      <c r="C627" s="3"/>
-      <c r="D627" s="3"/>
-      <c r="E627" s="3"/>
-      <c r="F627" s="3"/>
+    <row r="627" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A627" s="7"/>
+      <c r="B627" s="7"/>
+      <c r="C627" s="7"/>
+      <c r="D627" s="7"/>
+      <c r="E627" s="7"/>
+      <c r="F627" s="7"/>
       <c r="G627" s="3"/>
-      <c r="H627" s="3"/>
-      <c r="I627" s="3"/>
-      <c r="J627" s="3"/>
-      <c r="K627" s="3"/>
-      <c r="L627" s="3"/>
       <c r="M627" s="3"/>
       <c r="N627" s="3"/>
       <c r="O627" s="3"/>
@@ -11695,18 +11645,14 @@
       <c r="CC627" s="3"/>
       <c r="CD627" s="3"/>
     </row>
-    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B661" s="3"/>
-      <c r="C661" s="3"/>
-      <c r="D661" s="3"/>
-      <c r="E661" s="3"/>
-      <c r="F661" s="3"/>
+    <row r="661" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A661" s="7"/>
+      <c r="B661" s="7"/>
+      <c r="C661" s="7"/>
+      <c r="D661" s="7"/>
+      <c r="E661" s="7"/>
+      <c r="F661" s="7"/>
       <c r="G661" s="3"/>
-      <c r="H661" s="3"/>
-      <c r="I661" s="3"/>
-      <c r="J661" s="3"/>
-      <c r="K661" s="3"/>
-      <c r="L661" s="3"/>
       <c r="M661" s="3"/>
       <c r="N661" s="3"/>
       <c r="O661" s="3"/>
@@ -11778,18 +11724,14 @@
       <c r="CC661" s="3"/>
       <c r="CD661" s="3"/>
     </row>
-    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B695" s="3"/>
-      <c r="C695" s="3"/>
-      <c r="D695" s="3"/>
-      <c r="E695" s="3"/>
-      <c r="F695" s="3"/>
+    <row r="695" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A695" s="7"/>
+      <c r="B695" s="7"/>
+      <c r="C695" s="7"/>
+      <c r="D695" s="7"/>
+      <c r="E695" s="7"/>
+      <c r="F695" s="7"/>
       <c r="G695" s="3"/>
-      <c r="H695" s="3"/>
-      <c r="I695" s="3"/>
-      <c r="J695" s="3"/>
-      <c r="K695" s="3"/>
-      <c r="L695" s="3"/>
       <c r="M695" s="3"/>
       <c r="N695" s="3"/>
       <c r="O695" s="3"/>
@@ -11861,18 +11803,14 @@
       <c r="CC695" s="3"/>
       <c r="CD695" s="3"/>
     </row>
-    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B729" s="3"/>
-      <c r="C729" s="3"/>
-      <c r="D729" s="3"/>
-      <c r="E729" s="3"/>
-      <c r="F729" s="3"/>
+    <row r="729" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A729" s="7"/>
+      <c r="B729" s="7"/>
+      <c r="C729" s="7"/>
+      <c r="D729" s="7"/>
+      <c r="E729" s="7"/>
+      <c r="F729" s="7"/>
       <c r="G729" s="3"/>
-      <c r="H729" s="3"/>
-      <c r="I729" s="3"/>
-      <c r="J729" s="3"/>
-      <c r="K729" s="3"/>
-      <c r="L729" s="3"/>
       <c r="M729" s="3"/>
       <c r="N729" s="3"/>
       <c r="O729" s="3"/>
@@ -11944,18 +11882,14 @@
       <c r="CC729" s="3"/>
       <c r="CD729" s="3"/>
     </row>
-    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B763" s="3"/>
-      <c r="C763" s="3"/>
-      <c r="D763" s="3"/>
-      <c r="E763" s="3"/>
-      <c r="F763" s="3"/>
+    <row r="763" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A763" s="7"/>
+      <c r="B763" s="7"/>
+      <c r="C763" s="7"/>
+      <c r="D763" s="7"/>
+      <c r="E763" s="7"/>
+      <c r="F763" s="7"/>
       <c r="G763" s="3"/>
-      <c r="H763" s="3"/>
-      <c r="I763" s="3"/>
-      <c r="J763" s="3"/>
-      <c r="K763" s="3"/>
-      <c r="L763" s="3"/>
       <c r="M763" s="3"/>
       <c r="N763" s="3"/>
       <c r="O763" s="3"/>
@@ -12027,18 +11961,14 @@
       <c r="CC763" s="3"/>
       <c r="CD763" s="3"/>
     </row>
-    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B797" s="3"/>
-      <c r="C797" s="3"/>
-      <c r="D797" s="3"/>
-      <c r="E797" s="3"/>
-      <c r="F797" s="3"/>
+    <row r="797" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A797" s="7"/>
+      <c r="B797" s="7"/>
+      <c r="C797" s="7"/>
+      <c r="D797" s="7"/>
+      <c r="E797" s="7"/>
+      <c r="F797" s="7"/>
       <c r="G797" s="3"/>
-      <c r="H797" s="3"/>
-      <c r="I797" s="3"/>
-      <c r="J797" s="3"/>
-      <c r="K797" s="3"/>
-      <c r="L797" s="3"/>
       <c r="M797" s="3"/>
       <c r="N797" s="3"/>
       <c r="O797" s="3"/>
@@ -12110,18 +12040,14 @@
       <c r="CC797" s="3"/>
       <c r="CD797" s="3"/>
     </row>
-    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B831" s="3"/>
-      <c r="C831" s="3"/>
-      <c r="D831" s="3"/>
-      <c r="E831" s="3"/>
-      <c r="F831" s="3"/>
+    <row r="831" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A831" s="7"/>
+      <c r="B831" s="7"/>
+      <c r="C831" s="7"/>
+      <c r="D831" s="7"/>
+      <c r="E831" s="7"/>
+      <c r="F831" s="7"/>
       <c r="G831" s="3"/>
-      <c r="H831" s="3"/>
-      <c r="I831" s="3"/>
-      <c r="J831" s="3"/>
-      <c r="K831" s="3"/>
-      <c r="L831" s="3"/>
       <c r="M831" s="3"/>
       <c r="N831" s="3"/>
       <c r="O831" s="3"/>
@@ -12193,18 +12119,14 @@
       <c r="CC831" s="3"/>
       <c r="CD831" s="3"/>
     </row>
-    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B865" s="3"/>
-      <c r="C865" s="3"/>
-      <c r="D865" s="3"/>
-      <c r="E865" s="3"/>
-      <c r="F865" s="3"/>
+    <row r="865" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
       <c r="G865" s="3"/>
-      <c r="H865" s="3"/>
-      <c r="I865" s="3"/>
-      <c r="J865" s="3"/>
-      <c r="K865" s="3"/>
-      <c r="L865" s="3"/>
       <c r="M865" s="3"/>
       <c r="N865" s="3"/>
       <c r="O865" s="3"/>
@@ -12276,18 +12198,14 @@
       <c r="CC865" s="3"/>
       <c r="CD865" s="3"/>
     </row>
-    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B899" s="3"/>
-      <c r="C899" s="3"/>
-      <c r="D899" s="3"/>
-      <c r="E899" s="3"/>
-      <c r="F899" s="3"/>
+    <row r="899" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A899" s="7"/>
+      <c r="B899" s="7"/>
+      <c r="C899" s="7"/>
+      <c r="D899" s="7"/>
+      <c r="E899" s="7"/>
+      <c r="F899" s="7"/>
       <c r="G899" s="3"/>
-      <c r="H899" s="3"/>
-      <c r="I899" s="3"/>
-      <c r="J899" s="3"/>
-      <c r="K899" s="3"/>
-      <c r="L899" s="3"/>
       <c r="M899" s="3"/>
       <c r="N899" s="3"/>
       <c r="O899" s="3"/>
@@ -12359,18 +12277,14 @@
       <c r="CC899" s="3"/>
       <c r="CD899" s="3"/>
     </row>
-    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B933" s="3"/>
-      <c r="C933" s="3"/>
-      <c r="D933" s="3"/>
-      <c r="E933" s="3"/>
-      <c r="F933" s="3"/>
+    <row r="933" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A933" s="7"/>
+      <c r="B933" s="7"/>
+      <c r="C933" s="7"/>
+      <c r="D933" s="7"/>
+      <c r="E933" s="7"/>
+      <c r="F933" s="7"/>
       <c r="G933" s="3"/>
-      <c r="H933" s="3"/>
-      <c r="I933" s="3"/>
-      <c r="J933" s="3"/>
-      <c r="K933" s="3"/>
-      <c r="L933" s="3"/>
       <c r="M933" s="3"/>
       <c r="N933" s="3"/>
       <c r="O933" s="3"/>
@@ -12442,18 +12356,14 @@
       <c r="CC933" s="3"/>
       <c r="CD933" s="3"/>
     </row>
-    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B967" s="3"/>
-      <c r="C967" s="3"/>
-      <c r="D967" s="3"/>
-      <c r="E967" s="3"/>
-      <c r="F967" s="3"/>
+    <row r="967" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A967" s="7"/>
+      <c r="B967" s="7"/>
+      <c r="C967" s="7"/>
+      <c r="D967" s="7"/>
+      <c r="E967" s="7"/>
+      <c r="F967" s="7"/>
       <c r="G967" s="3"/>
-      <c r="H967" s="3"/>
-      <c r="I967" s="3"/>
-      <c r="J967" s="3"/>
-      <c r="K967" s="3"/>
-      <c r="L967" s="3"/>
       <c r="M967" s="3"/>
       <c r="N967" s="3"/>
       <c r="O967" s="3"/>
@@ -12525,18 +12435,14 @@
       <c r="CC967" s="3"/>
       <c r="CD967" s="3"/>
     </row>
-    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="3"/>
-      <c r="E1001" s="3"/>
-      <c r="F1001" s="3"/>
+    <row r="1001" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1001" s="7"/>
+      <c r="B1001" s="7"/>
+      <c r="C1001" s="7"/>
+      <c r="D1001" s="7"/>
+      <c r="E1001" s="7"/>
+      <c r="F1001" s="7"/>
       <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="3"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="3"/>
-      <c r="L1001" s="3"/>
       <c r="M1001" s="3"/>
       <c r="N1001" s="3"/>
       <c r="O1001" s="3"/>
@@ -12608,18 +12514,14 @@
       <c r="CC1001" s="3"/>
       <c r="CD1001" s="3"/>
     </row>
-    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1035" s="3"/>
-      <c r="C1035" s="3"/>
-      <c r="D1035" s="3"/>
-      <c r="E1035" s="3"/>
-      <c r="F1035" s="3"/>
+    <row r="1035" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1035" s="7"/>
+      <c r="B1035" s="7"/>
+      <c r="C1035" s="7"/>
+      <c r="D1035" s="7"/>
+      <c r="E1035" s="7"/>
+      <c r="F1035" s="7"/>
       <c r="G1035" s="3"/>
-      <c r="H1035" s="3"/>
-      <c r="I1035" s="3"/>
-      <c r="J1035" s="3"/>
-      <c r="K1035" s="3"/>
-      <c r="L1035" s="3"/>
       <c r="M1035" s="3"/>
       <c r="N1035" s="3"/>
       <c r="O1035" s="3"/>
@@ -12691,18 +12593,14 @@
       <c r="CC1035" s="3"/>
       <c r="CD1035" s="3"/>
     </row>
-    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1069" s="3"/>
-      <c r="C1069" s="3"/>
-      <c r="D1069" s="3"/>
-      <c r="E1069" s="3"/>
-      <c r="F1069" s="3"/>
+    <row r="1069" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1069" s="7"/>
+      <c r="B1069" s="7"/>
+      <c r="C1069" s="7"/>
+      <c r="D1069" s="7"/>
+      <c r="E1069" s="7"/>
+      <c r="F1069" s="7"/>
       <c r="G1069" s="3"/>
-      <c r="H1069" s="3"/>
-      <c r="I1069" s="3"/>
-      <c r="J1069" s="3"/>
-      <c r="K1069" s="3"/>
-      <c r="L1069" s="3"/>
       <c r="M1069" s="3"/>
       <c r="N1069" s="3"/>
       <c r="O1069" s="3"/>
@@ -12774,18 +12672,14 @@
       <c r="CC1069" s="3"/>
       <c r="CD1069" s="3"/>
     </row>
-    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1103" s="3"/>
-      <c r="C1103" s="3"/>
-      <c r="D1103" s="3"/>
-      <c r="E1103" s="3"/>
-      <c r="F1103" s="3"/>
+    <row r="1103" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1103" s="7"/>
+      <c r="B1103" s="7"/>
+      <c r="C1103" s="7"/>
+      <c r="D1103" s="7"/>
+      <c r="E1103" s="7"/>
+      <c r="F1103" s="7"/>
       <c r="G1103" s="3"/>
-      <c r="H1103" s="3"/>
-      <c r="I1103" s="3"/>
-      <c r="J1103" s="3"/>
-      <c r="K1103" s="3"/>
-      <c r="L1103" s="3"/>
       <c r="M1103" s="3"/>
       <c r="N1103" s="3"/>
       <c r="O1103" s="3"/>
@@ -12857,18 +12751,14 @@
       <c r="CC1103" s="3"/>
       <c r="CD1103" s="3"/>
     </row>
-    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1137" s="3"/>
-      <c r="C1137" s="3"/>
-      <c r="D1137" s="3"/>
-      <c r="E1137" s="3"/>
-      <c r="F1137" s="3"/>
+    <row r="1137" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1137" s="7"/>
+      <c r="B1137" s="7"/>
+      <c r="C1137" s="7"/>
+      <c r="D1137" s="7"/>
+      <c r="E1137" s="7"/>
+      <c r="F1137" s="7"/>
       <c r="G1137" s="3"/>
-      <c r="H1137" s="3"/>
-      <c r="I1137" s="3"/>
-      <c r="J1137" s="3"/>
-      <c r="K1137" s="3"/>
-      <c r="L1137" s="3"/>
       <c r="M1137" s="3"/>
       <c r="N1137" s="3"/>
       <c r="O1137" s="3"/>
@@ -12940,18 +12830,14 @@
       <c r="CC1137" s="3"/>
       <c r="CD1137" s="3"/>
     </row>
-    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1171" s="3"/>
-      <c r="C1171" s="3"/>
-      <c r="D1171" s="3"/>
-      <c r="E1171" s="3"/>
-      <c r="F1171" s="3"/>
+    <row r="1171" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1171" s="7"/>
+      <c r="B1171" s="7"/>
+      <c r="C1171" s="7"/>
+      <c r="D1171" s="7"/>
+      <c r="E1171" s="7"/>
+      <c r="F1171" s="7"/>
       <c r="G1171" s="3"/>
-      <c r="H1171" s="3"/>
-      <c r="I1171" s="3"/>
-      <c r="J1171" s="3"/>
-      <c r="K1171" s="3"/>
-      <c r="L1171" s="3"/>
       <c r="M1171" s="3"/>
       <c r="N1171" s="3"/>
       <c r="O1171" s="3"/>
@@ -13023,18 +12909,14 @@
       <c r="CC1171" s="3"/>
       <c r="CD1171" s="3"/>
     </row>
-    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1205" s="3"/>
-      <c r="C1205" s="3"/>
-      <c r="D1205" s="3"/>
-      <c r="E1205" s="3"/>
-      <c r="F1205" s="3"/>
+    <row r="1205" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1205" s="7"/>
+      <c r="B1205" s="7"/>
+      <c r="C1205" s="7"/>
+      <c r="D1205" s="7"/>
+      <c r="E1205" s="7"/>
+      <c r="F1205" s="7"/>
       <c r="G1205" s="3"/>
-      <c r="H1205" s="3"/>
-      <c r="I1205" s="3"/>
-      <c r="J1205" s="3"/>
-      <c r="K1205" s="3"/>
-      <c r="L1205" s="3"/>
       <c r="M1205" s="3"/>
       <c r="N1205" s="3"/>
       <c r="O1205" s="3"/>
@@ -13106,18 +12988,14 @@
       <c r="CC1205" s="3"/>
       <c r="CD1205" s="3"/>
     </row>
-    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1239" s="3"/>
-      <c r="C1239" s="3"/>
-      <c r="D1239" s="3"/>
-      <c r="E1239" s="3"/>
-      <c r="F1239" s="3"/>
+    <row r="1239" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1239" s="7"/>
+      <c r="B1239" s="7"/>
+      <c r="C1239" s="7"/>
+      <c r="D1239" s="7"/>
+      <c r="E1239" s="7"/>
+      <c r="F1239" s="7"/>
       <c r="G1239" s="3"/>
-      <c r="H1239" s="3"/>
-      <c r="I1239" s="3"/>
-      <c r="J1239" s="3"/>
-      <c r="K1239" s="3"/>
-      <c r="L1239" s="3"/>
       <c r="M1239" s="3"/>
       <c r="N1239" s="3"/>
       <c r="O1239" s="3"/>
@@ -13189,18 +13067,14 @@
       <c r="CC1239" s="3"/>
       <c r="CD1239" s="3"/>
     </row>
-    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1273" s="3"/>
-      <c r="C1273" s="3"/>
-      <c r="D1273" s="3"/>
-      <c r="E1273" s="3"/>
-      <c r="F1273" s="3"/>
+    <row r="1273" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1273" s="7"/>
+      <c r="B1273" s="7"/>
+      <c r="C1273" s="7"/>
+      <c r="D1273" s="7"/>
+      <c r="E1273" s="7"/>
+      <c r="F1273" s="7"/>
       <c r="G1273" s="3"/>
-      <c r="H1273" s="3"/>
-      <c r="I1273" s="3"/>
-      <c r="J1273" s="3"/>
-      <c r="K1273" s="3"/>
-      <c r="L1273" s="3"/>
       <c r="M1273" s="3"/>
       <c r="N1273" s="3"/>
       <c r="O1273" s="3"/>
@@ -13272,18 +13146,14 @@
       <c r="CC1273" s="3"/>
       <c r="CD1273" s="3"/>
     </row>
-    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1307" s="3"/>
-      <c r="C1307" s="3"/>
-      <c r="D1307" s="3"/>
-      <c r="E1307" s="3"/>
-      <c r="F1307" s="3"/>
+    <row r="1307" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1307" s="7"/>
+      <c r="B1307" s="7"/>
+      <c r="C1307" s="7"/>
+      <c r="D1307" s="7"/>
+      <c r="E1307" s="7"/>
+      <c r="F1307" s="7"/>
       <c r="G1307" s="3"/>
-      <c r="H1307" s="3"/>
-      <c r="I1307" s="3"/>
-      <c r="J1307" s="3"/>
-      <c r="K1307" s="3"/>
-      <c r="L1307" s="3"/>
       <c r="M1307" s="3"/>
       <c r="N1307" s="3"/>
       <c r="O1307" s="3"/>
@@ -13355,18 +13225,14 @@
       <c r="CC1307" s="3"/>
       <c r="CD1307" s="3"/>
     </row>
-    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1341" s="3"/>
-      <c r="C1341" s="3"/>
-      <c r="D1341" s="3"/>
-      <c r="E1341" s="3"/>
-      <c r="F1341" s="3"/>
+    <row r="1341" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1341" s="7"/>
+      <c r="B1341" s="7"/>
+      <c r="C1341" s="7"/>
+      <c r="D1341" s="7"/>
+      <c r="E1341" s="7"/>
+      <c r="F1341" s="7"/>
       <c r="G1341" s="3"/>
-      <c r="H1341" s="3"/>
-      <c r="I1341" s="3"/>
-      <c r="J1341" s="3"/>
-      <c r="K1341" s="3"/>
-      <c r="L1341" s="3"/>
       <c r="M1341" s="3"/>
       <c r="N1341" s="3"/>
       <c r="O1341" s="3"/>
@@ -13438,18 +13304,14 @@
       <c r="CC1341" s="3"/>
       <c r="CD1341" s="3"/>
     </row>
-    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1375" s="3"/>
-      <c r="C1375" s="3"/>
-      <c r="D1375" s="3"/>
-      <c r="E1375" s="3"/>
-      <c r="F1375" s="3"/>
+    <row r="1375" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1375" s="7"/>
+      <c r="B1375" s="7"/>
+      <c r="C1375" s="7"/>
+      <c r="D1375" s="7"/>
+      <c r="E1375" s="7"/>
+      <c r="F1375" s="7"/>
       <c r="G1375" s="3"/>
-      <c r="H1375" s="3"/>
-      <c r="I1375" s="3"/>
-      <c r="J1375" s="3"/>
-      <c r="K1375" s="3"/>
-      <c r="L1375" s="3"/>
       <c r="M1375" s="3"/>
       <c r="N1375" s="3"/>
       <c r="O1375" s="3"/>
@@ -13521,18 +13383,14 @@
       <c r="CC1375" s="3"/>
       <c r="CD1375" s="3"/>
     </row>
-    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1409" s="3"/>
-      <c r="C1409" s="3"/>
-      <c r="D1409" s="3"/>
-      <c r="E1409" s="3"/>
-      <c r="F1409" s="3"/>
+    <row r="1409" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1409" s="7"/>
+      <c r="B1409" s="7"/>
+      <c r="C1409" s="7"/>
+      <c r="D1409" s="7"/>
+      <c r="E1409" s="7"/>
+      <c r="F1409" s="7"/>
       <c r="G1409" s="3"/>
-      <c r="H1409" s="3"/>
-      <c r="I1409" s="3"/>
-      <c r="J1409" s="3"/>
-      <c r="K1409" s="3"/>
-      <c r="L1409" s="3"/>
       <c r="M1409" s="3"/>
       <c r="N1409" s="3"/>
       <c r="O1409" s="3"/>
@@ -13604,18 +13462,14 @@
       <c r="CC1409" s="3"/>
       <c r="CD1409" s="3"/>
     </row>
-    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1443" s="3"/>
-      <c r="C1443" s="3"/>
-      <c r="D1443" s="3"/>
-      <c r="E1443" s="3"/>
-      <c r="F1443" s="3"/>
+    <row r="1443" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1443" s="7"/>
+      <c r="B1443" s="7"/>
+      <c r="C1443" s="7"/>
+      <c r="D1443" s="7"/>
+      <c r="E1443" s="7"/>
+      <c r="F1443" s="7"/>
       <c r="G1443" s="3"/>
-      <c r="H1443" s="3"/>
-      <c r="I1443" s="3"/>
-      <c r="J1443" s="3"/>
-      <c r="K1443" s="3"/>
-      <c r="L1443" s="3"/>
       <c r="M1443" s="3"/>
       <c r="N1443" s="3"/>
       <c r="O1443" s="3"/>
@@ -13687,18 +13541,14 @@
       <c r="CC1443" s="3"/>
       <c r="CD1443" s="3"/>
     </row>
-    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1477" s="3"/>
-      <c r="C1477" s="3"/>
-      <c r="D1477" s="3"/>
-      <c r="E1477" s="3"/>
-      <c r="F1477" s="3"/>
+    <row r="1477" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1477" s="7"/>
+      <c r="B1477" s="7"/>
+      <c r="C1477" s="7"/>
+      <c r="D1477" s="7"/>
+      <c r="E1477" s="7"/>
+      <c r="F1477" s="7"/>
       <c r="G1477" s="3"/>
-      <c r="H1477" s="3"/>
-      <c r="I1477" s="3"/>
-      <c r="J1477" s="3"/>
-      <c r="K1477" s="3"/>
-      <c r="L1477" s="3"/>
       <c r="M1477" s="3"/>
       <c r="N1477" s="3"/>
       <c r="O1477" s="3"/>
@@ -13770,18 +13620,14 @@
       <c r="CC1477" s="3"/>
       <c r="CD1477" s="3"/>
     </row>
-    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1511" s="3"/>
-      <c r="C1511" s="3"/>
-      <c r="D1511" s="3"/>
-      <c r="E1511" s="3"/>
-      <c r="F1511" s="3"/>
+    <row r="1511" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1511" s="7"/>
+      <c r="B1511" s="7"/>
+      <c r="C1511" s="7"/>
+      <c r="D1511" s="7"/>
+      <c r="E1511" s="7"/>
+      <c r="F1511" s="7"/>
       <c r="G1511" s="3"/>
-      <c r="H1511" s="3"/>
-      <c r="I1511" s="3"/>
-      <c r="J1511" s="3"/>
-      <c r="K1511" s="3"/>
-      <c r="L1511" s="3"/>
       <c r="M1511" s="3"/>
       <c r="N1511" s="3"/>
       <c r="O1511" s="3"/>
@@ -13853,18 +13699,14 @@
       <c r="CC1511" s="3"/>
       <c r="CD1511" s="3"/>
     </row>
-    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1545" s="3"/>
-      <c r="C1545" s="3"/>
-      <c r="D1545" s="3"/>
-      <c r="E1545" s="3"/>
-      <c r="F1545" s="3"/>
+    <row r="1545" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1545" s="7"/>
+      <c r="B1545" s="7"/>
+      <c r="C1545" s="7"/>
+      <c r="D1545" s="7"/>
+      <c r="E1545" s="7"/>
+      <c r="F1545" s="7"/>
       <c r="G1545" s="3"/>
-      <c r="H1545" s="3"/>
-      <c r="I1545" s="3"/>
-      <c r="J1545" s="3"/>
-      <c r="K1545" s="3"/>
-      <c r="L1545" s="3"/>
       <c r="M1545" s="3"/>
       <c r="N1545" s="3"/>
       <c r="O1545" s="3"/>
@@ -13936,18 +13778,14 @@
       <c r="CC1545" s="3"/>
       <c r="CD1545" s="3"/>
     </row>
-    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1579" s="3"/>
-      <c r="C1579" s="3"/>
-      <c r="D1579" s="3"/>
-      <c r="E1579" s="3"/>
-      <c r="F1579" s="3"/>
+    <row r="1579" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1579" s="7"/>
+      <c r="B1579" s="7"/>
+      <c r="C1579" s="7"/>
+      <c r="D1579" s="7"/>
+      <c r="E1579" s="7"/>
+      <c r="F1579" s="7"/>
       <c r="G1579" s="3"/>
-      <c r="H1579" s="3"/>
-      <c r="I1579" s="3"/>
-      <c r="J1579" s="3"/>
-      <c r="K1579" s="3"/>
-      <c r="L1579" s="3"/>
       <c r="M1579" s="3"/>
       <c r="N1579" s="3"/>
       <c r="O1579" s="3"/>
@@ -14019,18 +13857,14 @@
       <c r="CC1579" s="3"/>
       <c r="CD1579" s="3"/>
     </row>
-    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1613" s="3"/>
-      <c r="C1613" s="3"/>
-      <c r="D1613" s="3"/>
-      <c r="E1613" s="3"/>
-      <c r="F1613" s="3"/>
+    <row r="1613" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1613" s="7"/>
+      <c r="B1613" s="7"/>
+      <c r="C1613" s="7"/>
+      <c r="D1613" s="7"/>
+      <c r="E1613" s="7"/>
+      <c r="F1613" s="7"/>
       <c r="G1613" s="3"/>
-      <c r="H1613" s="3"/>
-      <c r="I1613" s="3"/>
-      <c r="J1613" s="3"/>
-      <c r="K1613" s="3"/>
-      <c r="L1613" s="3"/>
       <c r="M1613" s="3"/>
       <c r="N1613" s="3"/>
       <c r="O1613" s="3"/>
@@ -14102,18 +13936,14 @@
       <c r="CC1613" s="3"/>
       <c r="CD1613" s="3"/>
     </row>
-    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1647" s="3"/>
-      <c r="C1647" s="3"/>
-      <c r="D1647" s="3"/>
-      <c r="E1647" s="3"/>
-      <c r="F1647" s="3"/>
+    <row r="1647" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1647" s="7"/>
+      <c r="B1647" s="7"/>
+      <c r="C1647" s="7"/>
+      <c r="D1647" s="7"/>
+      <c r="E1647" s="7"/>
+      <c r="F1647" s="7"/>
       <c r="G1647" s="3"/>
-      <c r="H1647" s="3"/>
-      <c r="I1647" s="3"/>
-      <c r="J1647" s="3"/>
-      <c r="K1647" s="3"/>
-      <c r="L1647" s="3"/>
       <c r="M1647" s="3"/>
       <c r="N1647" s="3"/>
       <c r="O1647" s="3"/>
@@ -14185,18 +14015,14 @@
       <c r="CC1647" s="3"/>
       <c r="CD1647" s="3"/>
     </row>
-    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1681" s="3"/>
-      <c r="C1681" s="3"/>
-      <c r="D1681" s="3"/>
-      <c r="E1681" s="3"/>
-      <c r="F1681" s="3"/>
+    <row r="1681" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1681" s="7"/>
+      <c r="B1681" s="7"/>
+      <c r="C1681" s="7"/>
+      <c r="D1681" s="7"/>
+      <c r="E1681" s="7"/>
+      <c r="F1681" s="7"/>
       <c r="G1681" s="3"/>
-      <c r="H1681" s="3"/>
-      <c r="I1681" s="3"/>
-      <c r="J1681" s="3"/>
-      <c r="K1681" s="3"/>
-      <c r="L1681" s="3"/>
       <c r="M1681" s="3"/>
       <c r="N1681" s="3"/>
       <c r="O1681" s="3"/>
@@ -14268,18 +14094,14 @@
       <c r="CC1681" s="3"/>
       <c r="CD1681" s="3"/>
     </row>
-    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1715" s="3"/>
-      <c r="C1715" s="3"/>
-      <c r="D1715" s="3"/>
-      <c r="E1715" s="3"/>
-      <c r="F1715" s="3"/>
+    <row r="1715" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1715" s="7"/>
+      <c r="B1715" s="7"/>
+      <c r="C1715" s="7"/>
+      <c r="D1715" s="7"/>
+      <c r="E1715" s="7"/>
+      <c r="F1715" s="7"/>
       <c r="G1715" s="3"/>
-      <c r="H1715" s="3"/>
-      <c r="I1715" s="3"/>
-      <c r="J1715" s="3"/>
-      <c r="K1715" s="3"/>
-      <c r="L1715" s="3"/>
       <c r="M1715" s="3"/>
       <c r="N1715" s="3"/>
       <c r="O1715" s="3"/>
@@ -14351,18 +14173,14 @@
       <c r="CC1715" s="3"/>
       <c r="CD1715" s="3"/>
     </row>
-    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1749" s="3"/>
-      <c r="C1749" s="3"/>
-      <c r="D1749" s="3"/>
-      <c r="E1749" s="3"/>
-      <c r="F1749" s="3"/>
+    <row r="1749" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1749" s="7"/>
+      <c r="B1749" s="7"/>
+      <c r="C1749" s="7"/>
+      <c r="D1749" s="7"/>
+      <c r="E1749" s="7"/>
+      <c r="F1749" s="7"/>
       <c r="G1749" s="3"/>
-      <c r="H1749" s="3"/>
-      <c r="I1749" s="3"/>
-      <c r="J1749" s="3"/>
-      <c r="K1749" s="3"/>
-      <c r="L1749" s="3"/>
       <c r="M1749" s="3"/>
       <c r="N1749" s="3"/>
       <c r="O1749" s="3"/>
@@ -14434,18 +14252,14 @@
       <c r="CC1749" s="3"/>
       <c r="CD1749" s="3"/>
     </row>
-    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1783" s="3"/>
-      <c r="C1783" s="3"/>
-      <c r="D1783" s="3"/>
-      <c r="E1783" s="3"/>
-      <c r="F1783" s="3"/>
+    <row r="1783" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1783" s="7"/>
+      <c r="B1783" s="7"/>
+      <c r="C1783" s="7"/>
+      <c r="D1783" s="7"/>
+      <c r="E1783" s="7"/>
+      <c r="F1783" s="7"/>
       <c r="G1783" s="3"/>
-      <c r="H1783" s="3"/>
-      <c r="I1783" s="3"/>
-      <c r="J1783" s="3"/>
-      <c r="K1783" s="3"/>
-      <c r="L1783" s="3"/>
       <c r="M1783" s="3"/>
       <c r="N1783" s="3"/>
       <c r="O1783" s="3"/>
@@ -14517,18 +14331,14 @@
       <c r="CC1783" s="3"/>
       <c r="CD1783" s="3"/>
     </row>
-    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1817" s="3"/>
-      <c r="C1817" s="3"/>
-      <c r="D1817" s="3"/>
-      <c r="E1817" s="3"/>
-      <c r="F1817" s="3"/>
+    <row r="1817" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1817" s="7"/>
+      <c r="B1817" s="7"/>
+      <c r="C1817" s="7"/>
+      <c r="D1817" s="7"/>
+      <c r="E1817" s="7"/>
+      <c r="F1817" s="7"/>
       <c r="G1817" s="3"/>
-      <c r="H1817" s="3"/>
-      <c r="I1817" s="3"/>
-      <c r="J1817" s="3"/>
-      <c r="K1817" s="3"/>
-      <c r="L1817" s="3"/>
       <c r="M1817" s="3"/>
       <c r="N1817" s="3"/>
       <c r="O1817" s="3"/>
@@ -14600,18 +14410,14 @@
       <c r="CC1817" s="3"/>
       <c r="CD1817" s="3"/>
     </row>
-    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1851" s="3"/>
-      <c r="C1851" s="3"/>
-      <c r="D1851" s="3"/>
-      <c r="E1851" s="3"/>
-      <c r="F1851" s="3"/>
+    <row r="1851" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1851" s="7"/>
+      <c r="B1851" s="7"/>
+      <c r="C1851" s="7"/>
+      <c r="D1851" s="7"/>
+      <c r="E1851" s="7"/>
+      <c r="F1851" s="7"/>
       <c r="G1851" s="3"/>
-      <c r="H1851" s="3"/>
-      <c r="I1851" s="3"/>
-      <c r="J1851" s="3"/>
-      <c r="K1851" s="3"/>
-      <c r="L1851" s="3"/>
       <c r="M1851" s="3"/>
       <c r="N1851" s="3"/>
       <c r="O1851" s="3"/>
@@ -14683,18 +14489,14 @@
       <c r="CC1851" s="3"/>
       <c r="CD1851" s="3"/>
     </row>
-    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1885" s="3"/>
-      <c r="C1885" s="3"/>
-      <c r="D1885" s="3"/>
-      <c r="E1885" s="3"/>
-      <c r="F1885" s="3"/>
+    <row r="1885" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1885" s="7"/>
+      <c r="B1885" s="7"/>
+      <c r="C1885" s="7"/>
+      <c r="D1885" s="7"/>
+      <c r="E1885" s="7"/>
+      <c r="F1885" s="7"/>
       <c r="G1885" s="3"/>
-      <c r="H1885" s="3"/>
-      <c r="I1885" s="3"/>
-      <c r="J1885" s="3"/>
-      <c r="K1885" s="3"/>
-      <c r="L1885" s="3"/>
       <c r="M1885" s="3"/>
       <c r="N1885" s="3"/>
       <c r="O1885" s="3"/>
@@ -14766,18 +14568,14 @@
       <c r="CC1885" s="3"/>
       <c r="CD1885" s="3"/>
     </row>
-    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1919" s="3"/>
-      <c r="C1919" s="3"/>
-      <c r="D1919" s="3"/>
-      <c r="E1919" s="3"/>
-      <c r="F1919" s="3"/>
+    <row r="1919" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1919" s="7"/>
+      <c r="B1919" s="7"/>
+      <c r="C1919" s="7"/>
+      <c r="D1919" s="7"/>
+      <c r="E1919" s="7"/>
+      <c r="F1919" s="7"/>
       <c r="G1919" s="3"/>
-      <c r="H1919" s="3"/>
-      <c r="I1919" s="3"/>
-      <c r="J1919" s="3"/>
-      <c r="K1919" s="3"/>
-      <c r="L1919" s="3"/>
       <c r="M1919" s="3"/>
       <c r="N1919" s="3"/>
       <c r="O1919" s="3"/>
@@ -14849,18 +14647,14 @@
       <c r="CC1919" s="3"/>
       <c r="CD1919" s="3"/>
     </row>
-    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1953" s="3"/>
-      <c r="C1953" s="3"/>
-      <c r="D1953" s="3"/>
-      <c r="E1953" s="3"/>
-      <c r="F1953" s="3"/>
+    <row r="1953" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1953" s="7"/>
+      <c r="B1953" s="7"/>
+      <c r="C1953" s="7"/>
+      <c r="D1953" s="7"/>
+      <c r="E1953" s="7"/>
+      <c r="F1953" s="7"/>
       <c r="G1953" s="3"/>
-      <c r="H1953" s="3"/>
-      <c r="I1953" s="3"/>
-      <c r="J1953" s="3"/>
-      <c r="K1953" s="3"/>
-      <c r="L1953" s="3"/>
       <c r="M1953" s="3"/>
       <c r="N1953" s="3"/>
       <c r="O1953" s="3"/>
@@ -14932,18 +14726,14 @@
       <c r="CC1953" s="3"/>
       <c r="CD1953" s="3"/>
     </row>
-    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B1987" s="3"/>
-      <c r="C1987" s="3"/>
-      <c r="D1987" s="3"/>
-      <c r="E1987" s="3"/>
-      <c r="F1987" s="3"/>
+    <row r="1987" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1987" s="7"/>
+      <c r="B1987" s="7"/>
+      <c r="C1987" s="7"/>
+      <c r="D1987" s="7"/>
+      <c r="E1987" s="7"/>
+      <c r="F1987" s="7"/>
       <c r="G1987" s="3"/>
-      <c r="H1987" s="3"/>
-      <c r="I1987" s="3"/>
-      <c r="J1987" s="3"/>
-      <c r="K1987" s="3"/>
-      <c r="L1987" s="3"/>
       <c r="M1987" s="3"/>
       <c r="N1987" s="3"/>
       <c r="O1987" s="3"/>
@@ -15015,18 +14805,14 @@
       <c r="CC1987" s="3"/>
       <c r="CD1987" s="3"/>
     </row>
-    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2021" s="3"/>
-      <c r="C2021" s="3"/>
-      <c r="D2021" s="3"/>
-      <c r="E2021" s="3"/>
-      <c r="F2021" s="3"/>
+    <row r="2021" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2021" s="7"/>
+      <c r="B2021" s="7"/>
+      <c r="C2021" s="7"/>
+      <c r="D2021" s="7"/>
+      <c r="E2021" s="7"/>
+      <c r="F2021" s="7"/>
       <c r="G2021" s="3"/>
-      <c r="H2021" s="3"/>
-      <c r="I2021" s="3"/>
-      <c r="J2021" s="3"/>
-      <c r="K2021" s="3"/>
-      <c r="L2021" s="3"/>
       <c r="M2021" s="3"/>
       <c r="N2021" s="3"/>
       <c r="O2021" s="3"/>
@@ -15098,18 +14884,14 @@
       <c r="CC2021" s="3"/>
       <c r="CD2021" s="3"/>
     </row>
-    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2055" s="3"/>
-      <c r="C2055" s="3"/>
-      <c r="D2055" s="3"/>
-      <c r="E2055" s="3"/>
-      <c r="F2055" s="3"/>
+    <row r="2055" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2055" s="7"/>
+      <c r="B2055" s="7"/>
+      <c r="C2055" s="7"/>
+      <c r="D2055" s="7"/>
+      <c r="E2055" s="7"/>
+      <c r="F2055" s="7"/>
       <c r="G2055" s="3"/>
-      <c r="H2055" s="3"/>
-      <c r="I2055" s="3"/>
-      <c r="J2055" s="3"/>
-      <c r="K2055" s="3"/>
-      <c r="L2055" s="3"/>
       <c r="M2055" s="3"/>
       <c r="N2055" s="3"/>
       <c r="O2055" s="3"/>
@@ -15181,18 +14963,14 @@
       <c r="CC2055" s="3"/>
       <c r="CD2055" s="3"/>
     </row>
-    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2089" s="3"/>
-      <c r="C2089" s="3"/>
-      <c r="D2089" s="3"/>
-      <c r="E2089" s="3"/>
-      <c r="F2089" s="3"/>
+    <row r="2089" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2089" s="7"/>
+      <c r="B2089" s="7"/>
+      <c r="C2089" s="7"/>
+      <c r="D2089" s="7"/>
+      <c r="E2089" s="7"/>
+      <c r="F2089" s="7"/>
       <c r="G2089" s="3"/>
-      <c r="H2089" s="3"/>
-      <c r="I2089" s="3"/>
-      <c r="J2089" s="3"/>
-      <c r="K2089" s="3"/>
-      <c r="L2089" s="3"/>
       <c r="M2089" s="3"/>
       <c r="N2089" s="3"/>
       <c r="O2089" s="3"/>
@@ -15264,18 +15042,14 @@
       <c r="CC2089" s="3"/>
       <c r="CD2089" s="3"/>
     </row>
-    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2123" s="3"/>
-      <c r="C2123" s="3"/>
-      <c r="D2123" s="3"/>
-      <c r="E2123" s="3"/>
-      <c r="F2123" s="3"/>
+    <row r="2123" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2123" s="7"/>
+      <c r="B2123" s="7"/>
+      <c r="C2123" s="7"/>
+      <c r="D2123" s="7"/>
+      <c r="E2123" s="7"/>
+      <c r="F2123" s="7"/>
       <c r="G2123" s="3"/>
-      <c r="H2123" s="3"/>
-      <c r="I2123" s="3"/>
-      <c r="J2123" s="3"/>
-      <c r="K2123" s="3"/>
-      <c r="L2123" s="3"/>
       <c r="M2123" s="3"/>
       <c r="N2123" s="3"/>
       <c r="O2123" s="3"/>
@@ -15347,18 +15121,14 @@
       <c r="CC2123" s="3"/>
       <c r="CD2123" s="3"/>
     </row>
-    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2157" s="3"/>
-      <c r="C2157" s="3"/>
-      <c r="D2157" s="3"/>
-      <c r="E2157" s="3"/>
-      <c r="F2157" s="3"/>
+    <row r="2157" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2157" s="7"/>
+      <c r="B2157" s="7"/>
+      <c r="C2157" s="7"/>
+      <c r="D2157" s="7"/>
+      <c r="E2157" s="7"/>
+      <c r="F2157" s="7"/>
       <c r="G2157" s="3"/>
-      <c r="H2157" s="3"/>
-      <c r="I2157" s="3"/>
-      <c r="J2157" s="3"/>
-      <c r="K2157" s="3"/>
-      <c r="L2157" s="3"/>
       <c r="M2157" s="3"/>
       <c r="N2157" s="3"/>
       <c r="O2157" s="3"/>
@@ -15430,18 +15200,14 @@
       <c r="CC2157" s="3"/>
       <c r="CD2157" s="3"/>
     </row>
-    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2191" s="3"/>
-      <c r="C2191" s="3"/>
-      <c r="D2191" s="3"/>
-      <c r="E2191" s="3"/>
-      <c r="F2191" s="3"/>
+    <row r="2191" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2191" s="7"/>
+      <c r="B2191" s="7"/>
+      <c r="C2191" s="7"/>
+      <c r="D2191" s="7"/>
+      <c r="E2191" s="7"/>
+      <c r="F2191" s="7"/>
       <c r="G2191" s="3"/>
-      <c r="H2191" s="3"/>
-      <c r="I2191" s="3"/>
-      <c r="J2191" s="3"/>
-      <c r="K2191" s="3"/>
-      <c r="L2191" s="3"/>
       <c r="M2191" s="3"/>
       <c r="N2191" s="3"/>
       <c r="O2191" s="3"/>
@@ -15513,18 +15279,14 @@
       <c r="CC2191" s="3"/>
       <c r="CD2191" s="3"/>
     </row>
-    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2225" s="3"/>
-      <c r="C2225" s="3"/>
-      <c r="D2225" s="3"/>
-      <c r="E2225" s="3"/>
-      <c r="F2225" s="3"/>
+    <row r="2225" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2225" s="7"/>
+      <c r="B2225" s="7"/>
+      <c r="C2225" s="7"/>
+      <c r="D2225" s="7"/>
+      <c r="E2225" s="7"/>
+      <c r="F2225" s="7"/>
       <c r="G2225" s="3"/>
-      <c r="H2225" s="3"/>
-      <c r="I2225" s="3"/>
-      <c r="J2225" s="3"/>
-      <c r="K2225" s="3"/>
-      <c r="L2225" s="3"/>
       <c r="M2225" s="3"/>
       <c r="N2225" s="3"/>
       <c r="O2225" s="3"/>
@@ -15596,18 +15358,14 @@
       <c r="CC2225" s="3"/>
       <c r="CD2225" s="3"/>
     </row>
-    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2259" s="3"/>
-      <c r="C2259" s="3"/>
-      <c r="D2259" s="3"/>
-      <c r="E2259" s="3"/>
-      <c r="F2259" s="3"/>
+    <row r="2259" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2259" s="7"/>
+      <c r="B2259" s="7"/>
+      <c r="C2259" s="7"/>
+      <c r="D2259" s="7"/>
+      <c r="E2259" s="7"/>
+      <c r="F2259" s="7"/>
       <c r="G2259" s="3"/>
-      <c r="H2259" s="3"/>
-      <c r="I2259" s="3"/>
-      <c r="J2259" s="3"/>
-      <c r="K2259" s="3"/>
-      <c r="L2259" s="3"/>
       <c r="M2259" s="3"/>
       <c r="N2259" s="3"/>
       <c r="O2259" s="3"/>
@@ -15679,18 +15437,14 @@
       <c r="CC2259" s="3"/>
       <c r="CD2259" s="3"/>
     </row>
-    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2293" s="3"/>
-      <c r="C2293" s="3"/>
-      <c r="D2293" s="3"/>
-      <c r="E2293" s="3"/>
-      <c r="F2293" s="3"/>
+    <row r="2293" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2293" s="7"/>
+      <c r="B2293" s="7"/>
+      <c r="C2293" s="7"/>
+      <c r="D2293" s="7"/>
+      <c r="E2293" s="7"/>
+      <c r="F2293" s="7"/>
       <c r="G2293" s="3"/>
-      <c r="H2293" s="3"/>
-      <c r="I2293" s="3"/>
-      <c r="J2293" s="3"/>
-      <c r="K2293" s="3"/>
-      <c r="L2293" s="3"/>
       <c r="M2293" s="3"/>
       <c r="N2293" s="3"/>
       <c r="O2293" s="3"/>
@@ -15762,18 +15516,14 @@
       <c r="CC2293" s="3"/>
       <c r="CD2293" s="3"/>
     </row>
-    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2327" s="3"/>
-      <c r="C2327" s="3"/>
-      <c r="D2327" s="3"/>
-      <c r="E2327" s="3"/>
-      <c r="F2327" s="3"/>
+    <row r="2327" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2327" s="7"/>
+      <c r="B2327" s="7"/>
+      <c r="C2327" s="7"/>
+      <c r="D2327" s="7"/>
+      <c r="E2327" s="7"/>
+      <c r="F2327" s="7"/>
       <c r="G2327" s="3"/>
-      <c r="H2327" s="3"/>
-      <c r="I2327" s="3"/>
-      <c r="J2327" s="3"/>
-      <c r="K2327" s="3"/>
-      <c r="L2327" s="3"/>
       <c r="M2327" s="3"/>
       <c r="N2327" s="3"/>
       <c r="O2327" s="3"/>
@@ -15845,18 +15595,14 @@
       <c r="CC2327" s="3"/>
       <c r="CD2327" s="3"/>
     </row>
-    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2361" s="3"/>
-      <c r="C2361" s="3"/>
-      <c r="D2361" s="3"/>
-      <c r="E2361" s="3"/>
-      <c r="F2361" s="3"/>
+    <row r="2361" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2361" s="7"/>
+      <c r="B2361" s="7"/>
+      <c r="C2361" s="7"/>
+      <c r="D2361" s="7"/>
+      <c r="E2361" s="7"/>
+      <c r="F2361" s="7"/>
       <c r="G2361" s="3"/>
-      <c r="H2361" s="3"/>
-      <c r="I2361" s="3"/>
-      <c r="J2361" s="3"/>
-      <c r="K2361" s="3"/>
-      <c r="L2361" s="3"/>
       <c r="M2361" s="3"/>
       <c r="N2361" s="3"/>
       <c r="O2361" s="3"/>
@@ -15928,18 +15674,14 @@
       <c r="CC2361" s="3"/>
       <c r="CD2361" s="3"/>
     </row>
-    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2395" s="3"/>
-      <c r="C2395" s="3"/>
-      <c r="D2395" s="3"/>
-      <c r="E2395" s="3"/>
-      <c r="F2395" s="3"/>
+    <row r="2395" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2395" s="7"/>
+      <c r="B2395" s="7"/>
+      <c r="C2395" s="7"/>
+      <c r="D2395" s="7"/>
+      <c r="E2395" s="7"/>
+      <c r="F2395" s="7"/>
       <c r="G2395" s="3"/>
-      <c r="H2395" s="3"/>
-      <c r="I2395" s="3"/>
-      <c r="J2395" s="3"/>
-      <c r="K2395" s="3"/>
-      <c r="L2395" s="3"/>
       <c r="M2395" s="3"/>
       <c r="N2395" s="3"/>
       <c r="O2395" s="3"/>
@@ -16011,18 +15753,14 @@
       <c r="CC2395" s="3"/>
       <c r="CD2395" s="3"/>
     </row>
-    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2429" s="3"/>
-      <c r="C2429" s="3"/>
-      <c r="D2429" s="3"/>
-      <c r="E2429" s="3"/>
-      <c r="F2429" s="3"/>
+    <row r="2429" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2429" s="7"/>
+      <c r="B2429" s="7"/>
+      <c r="C2429" s="7"/>
+      <c r="D2429" s="7"/>
+      <c r="E2429" s="7"/>
+      <c r="F2429" s="7"/>
       <c r="G2429" s="3"/>
-      <c r="H2429" s="3"/>
-      <c r="I2429" s="3"/>
-      <c r="J2429" s="3"/>
-      <c r="K2429" s="3"/>
-      <c r="L2429" s="3"/>
       <c r="M2429" s="3"/>
       <c r="N2429" s="3"/>
       <c r="O2429" s="3"/>
@@ -16094,18 +15832,14 @@
       <c r="CC2429" s="3"/>
       <c r="CD2429" s="3"/>
     </row>
-    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2463" s="3"/>
-      <c r="C2463" s="3"/>
-      <c r="D2463" s="3"/>
-      <c r="E2463" s="3"/>
-      <c r="F2463" s="3"/>
+    <row r="2463" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2463" s="7"/>
+      <c r="B2463" s="7"/>
+      <c r="C2463" s="7"/>
+      <c r="D2463" s="7"/>
+      <c r="E2463" s="7"/>
+      <c r="F2463" s="7"/>
       <c r="G2463" s="3"/>
-      <c r="H2463" s="3"/>
-      <c r="I2463" s="3"/>
-      <c r="J2463" s="3"/>
-      <c r="K2463" s="3"/>
-      <c r="L2463" s="3"/>
       <c r="M2463" s="3"/>
       <c r="N2463" s="3"/>
       <c r="O2463" s="3"/>
@@ -16177,18 +15911,14 @@
       <c r="CC2463" s="3"/>
       <c r="CD2463" s="3"/>
     </row>
-    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2497" s="3"/>
-      <c r="C2497" s="3"/>
-      <c r="D2497" s="3"/>
-      <c r="E2497" s="3"/>
-      <c r="F2497" s="3"/>
+    <row r="2497" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2497" s="7"/>
+      <c r="B2497" s="7"/>
+      <c r="C2497" s="7"/>
+      <c r="D2497" s="7"/>
+      <c r="E2497" s="7"/>
+      <c r="F2497" s="7"/>
       <c r="G2497" s="3"/>
-      <c r="H2497" s="3"/>
-      <c r="I2497" s="3"/>
-      <c r="J2497" s="3"/>
-      <c r="K2497" s="3"/>
-      <c r="L2497" s="3"/>
       <c r="M2497" s="3"/>
       <c r="N2497" s="3"/>
       <c r="O2497" s="3"/>
@@ -16260,18 +15990,14 @@
       <c r="CC2497" s="3"/>
       <c r="CD2497" s="3"/>
     </row>
-    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2531" s="3"/>
-      <c r="C2531" s="3"/>
-      <c r="D2531" s="3"/>
-      <c r="E2531" s="3"/>
-      <c r="F2531" s="3"/>
+    <row r="2531" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2531" s="7"/>
+      <c r="B2531" s="7"/>
+      <c r="C2531" s="7"/>
+      <c r="D2531" s="7"/>
+      <c r="E2531" s="7"/>
+      <c r="F2531" s="7"/>
       <c r="G2531" s="3"/>
-      <c r="H2531" s="3"/>
-      <c r="I2531" s="3"/>
-      <c r="J2531" s="3"/>
-      <c r="K2531" s="3"/>
-      <c r="L2531" s="3"/>
       <c r="M2531" s="3"/>
       <c r="N2531" s="3"/>
       <c r="O2531" s="3"/>
@@ -16343,18 +16069,14 @@
       <c r="CC2531" s="3"/>
       <c r="CD2531" s="3"/>
     </row>
-    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2565" s="3"/>
-      <c r="C2565" s="3"/>
-      <c r="D2565" s="3"/>
-      <c r="E2565" s="3"/>
-      <c r="F2565" s="3"/>
+    <row r="2565" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2565" s="7"/>
+      <c r="B2565" s="7"/>
+      <c r="C2565" s="7"/>
+      <c r="D2565" s="7"/>
+      <c r="E2565" s="7"/>
+      <c r="F2565" s="7"/>
       <c r="G2565" s="3"/>
-      <c r="H2565" s="3"/>
-      <c r="I2565" s="3"/>
-      <c r="J2565" s="3"/>
-      <c r="K2565" s="3"/>
-      <c r="L2565" s="3"/>
       <c r="M2565" s="3"/>
       <c r="N2565" s="3"/>
       <c r="O2565" s="3"/>
@@ -16426,18 +16148,14 @@
       <c r="CC2565" s="3"/>
       <c r="CD2565" s="3"/>
     </row>
-    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2599" s="3"/>
-      <c r="C2599" s="3"/>
-      <c r="D2599" s="3"/>
-      <c r="E2599" s="3"/>
-      <c r="F2599" s="3"/>
+    <row r="2599" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2599" s="7"/>
+      <c r="B2599" s="7"/>
+      <c r="C2599" s="7"/>
+      <c r="D2599" s="7"/>
+      <c r="E2599" s="7"/>
+      <c r="F2599" s="7"/>
       <c r="G2599" s="3"/>
-      <c r="H2599" s="3"/>
-      <c r="I2599" s="3"/>
-      <c r="J2599" s="3"/>
-      <c r="K2599" s="3"/>
-      <c r="L2599" s="3"/>
       <c r="M2599" s="3"/>
       <c r="N2599" s="3"/>
       <c r="O2599" s="3"/>
@@ -16509,18 +16227,14 @@
       <c r="CC2599" s="3"/>
       <c r="CD2599" s="3"/>
     </row>
-    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2633" s="3"/>
-      <c r="C2633" s="3"/>
-      <c r="D2633" s="3"/>
-      <c r="E2633" s="3"/>
-      <c r="F2633" s="3"/>
+    <row r="2633" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2633" s="7"/>
+      <c r="B2633" s="7"/>
+      <c r="C2633" s="7"/>
+      <c r="D2633" s="7"/>
+      <c r="E2633" s="7"/>
+      <c r="F2633" s="7"/>
       <c r="G2633" s="3"/>
-      <c r="H2633" s="3"/>
-      <c r="I2633" s="3"/>
-      <c r="J2633" s="3"/>
-      <c r="K2633" s="3"/>
-      <c r="L2633" s="3"/>
       <c r="M2633" s="3"/>
       <c r="N2633" s="3"/>
       <c r="O2633" s="3"/>
@@ -16592,18 +16306,14 @@
       <c r="CC2633" s="3"/>
       <c r="CD2633" s="3"/>
     </row>
-    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2667" s="3"/>
-      <c r="C2667" s="3"/>
-      <c r="D2667" s="3"/>
-      <c r="E2667" s="3"/>
-      <c r="F2667" s="3"/>
+    <row r="2667" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2667" s="7"/>
+      <c r="B2667" s="7"/>
+      <c r="C2667" s="7"/>
+      <c r="D2667" s="7"/>
+      <c r="E2667" s="7"/>
+      <c r="F2667" s="7"/>
       <c r="G2667" s="3"/>
-      <c r="H2667" s="3"/>
-      <c r="I2667" s="3"/>
-      <c r="J2667" s="3"/>
-      <c r="K2667" s="3"/>
-      <c r="L2667" s="3"/>
       <c r="M2667" s="3"/>
       <c r="N2667" s="3"/>
       <c r="O2667" s="3"/>
@@ -16675,18 +16385,14 @@
       <c r="CC2667" s="3"/>
       <c r="CD2667" s="3"/>
     </row>
-    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2701" s="3"/>
-      <c r="C2701" s="3"/>
-      <c r="D2701" s="3"/>
-      <c r="E2701" s="3"/>
-      <c r="F2701" s="3"/>
+    <row r="2701" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2701" s="7"/>
+      <c r="B2701" s="7"/>
+      <c r="C2701" s="7"/>
+      <c r="D2701" s="7"/>
+      <c r="E2701" s="7"/>
+      <c r="F2701" s="7"/>
       <c r="G2701" s="3"/>
-      <c r="H2701" s="3"/>
-      <c r="I2701" s="3"/>
-      <c r="J2701" s="3"/>
-      <c r="K2701" s="3"/>
-      <c r="L2701" s="3"/>
       <c r="M2701" s="3"/>
       <c r="N2701" s="3"/>
       <c r="O2701" s="3"/>
@@ -16758,18 +16464,14 @@
       <c r="CC2701" s="3"/>
       <c r="CD2701" s="3"/>
     </row>
-    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B2735" s="3"/>
-      <c r="C2735" s="3"/>
-      <c r="D2735" s="3"/>
-      <c r="E2735" s="3"/>
-      <c r="F2735" s="3"/>
+    <row r="2735" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2735" s="7"/>
+      <c r="B2735" s="7"/>
+      <c r="C2735" s="7"/>
+      <c r="D2735" s="7"/>
+      <c r="E2735" s="7"/>
+      <c r="F2735" s="7"/>
       <c r="G2735" s="3"/>
-      <c r="H2735" s="3"/>
-      <c r="I2735" s="3"/>
-      <c r="J2735" s="3"/>
-      <c r="K2735" s="3"/>
-      <c r="L2735" s="3"/>
       <c r="M2735" s="3"/>
       <c r="N2735" s="3"/>
       <c r="O2735" s="3"/>
@@ -16842,8 +16544,11 @@
       <c r="CD2735" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD2">
-    <cfRule type="colorScale" priority="21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:CV40">
+    <sortCondition ref="A1:CV1"/>
+  </sortState>
+  <conditionalFormatting sqref="M2:XFD2 A2:G2">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16854,8 +16559,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="M4:XFD4 A4:G4">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16866,8 +16571,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="M5:XFD5 A5:G5">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16878,8 +16583,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:XFD6">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="M6:XFD6 A6:G6">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16890,8 +16595,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:XFD7">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="M7:XFD7 A7:G7">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16902,8 +16607,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:XFD8">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="M8:XFD8 A8:G8">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16914,8 +16619,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="M9:XFD9 A9:G9">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16926,8 +16631,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="M10:XFD10 A10:G10">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16938,8 +16643,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:XFD11">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="M11:XFD11 A11:G11">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16950,8 +16655,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:XFD12">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="M12:XFD12 A12:G12">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16962,8 +16667,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:XFD13">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="M13:XFD13 A13:G13">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16974,8 +16679,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:XFD14">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="M14:XFD14 A14:G14">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16986,8 +16691,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:XFD15">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="M15:XFD15 A15:G15">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16998,8 +16703,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="M31:XFD31 A31:G31">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17010,8 +16715,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="M33:XFD33 A33:G33">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17022,8 +16727,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="M35:XFD35 A35:G35">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17034,8 +16739,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="M36:XFD36 A36:G36">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17046,8 +16751,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="M37:XFD37 A37:G37">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17058,8 +16763,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="M38:XFD38 A38:G38">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17070,8 +16775,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="M39:XFD39 A39:G39">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17082,7 +16787,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD43">
+  <conditionalFormatting sqref="M42:XFD43 B42:G43">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:XFD40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excel_results/combined_results.xlsx
+++ b/excel_results/combined_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D366F1-5BFA-45D5-9304-629717FF4D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD42329-F475-469A-8204-E20E612F6C33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{6F5A8ADC-0BBA-479C-8570-84A74105B782}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Take off weight [N]</t>
   </si>
@@ -188,34 +187,47 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Design concept 1</t>
+    <t>Quarter chord sweep [rad]</t>
   </si>
   <si>
-    <t>Design concept 2</t>
+    <t>Zero-lift drag coefficient [-]</t>
   </si>
   <si>
-    <t>Design concept 3</t>
+    <t>HIGH SEMIDD 2E</t>
   </si>
   <si>
-    <t>Design concept 4</t>
+    <t>HIGH DD 2E</t>
   </si>
   <si>
-    <t>Design concept 5</t>
+    <t>LOW SEMIDD 2E</t>
   </si>
   <si>
-    <t>Quarter chord sweep [rad]</t>
+    <t>HIGH DD 2E STRUT</t>
+  </si>
+  <si>
+    <t>HIGH SEMIDD 2E STRUT</t>
+  </si>
+  <si>
+    <t>Landing gear weight [N]</t>
+  </si>
+  <si>
+    <t>W/S [N/m^2]</t>
+  </si>
+  <si>
+    <t>T/w [-]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +245,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -319,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -330,8 +349,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -349,6 +366,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -9318,8 +9338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871581C-8947-4279-9BF5-986AB6A255DE}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9356,288 +9376,288 @@
     <col min="100" max="100" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:82" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="28" t="s">
         <v>55</v>
       </c>
+      <c r="E1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>1580051.3060698099</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1520114.4389424899</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>1597097.40303844</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>1532733.6181717799</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>1474914.2672244101</v>
       </c>
     </row>
     <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>472485.24524999998</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>472485.24524999998</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>472485.24524999998</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>472485.24524999998</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>472485.24524999998</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>141375.518052842</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>136151.86323993001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>142824.683749816</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>137159.42504139201</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>131089.07847274601</v>
       </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>966190.54276697105</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>911477.33045256895</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>981787.474038632</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>923088.94788038905</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>871339.94350167201</v>
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>214922.15532104301</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>208030.913446405</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>222815.35528357999</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>212271.98633827601</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>137586.79017798501</v>
       </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>20916.9344340469</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>19366.3440218346</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>19596.413771753501</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>34042.894860766501</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>16381.0027715162</v>
       </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>244231.168107957</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>209884.50072030199</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>248720.80338146401</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>206842.94002626301</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>246937.263629383</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>27753.271561695699</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>28707.6603054484</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>30114.6264674866</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>22936.635005443401</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>27640.1706520767</v>
       </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>126254.55726617599</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>126187.53070403299</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>126249.70425092999</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>126282.34702421</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>126200.83276709</v>
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>293675.049641572</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>282059.53383109201</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>295522.473491907</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>283239.936021681</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>280519.77486059198</v>
       </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>0.697994414465406</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>0.56975049023278201</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>0.69726809353464103</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>0.62918857331470801</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>0.622110056992491</v>
       </c>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>3.7449999999999997E-2</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>3.3259999999999998E-2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>3.1029999999999999E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>3.6240000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>18.638035099209699</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>17.130201149512299</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>18.272224673339601</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>20.276782897670198</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>17.166392301117298</v>
       </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="9">
@@ -9728,7 +9748,7 @@
       <c r="CD15" s="3"/>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="8">
@@ -9748,7 +9768,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="8">
@@ -9768,287 +9788,287 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="16">
         <v>210.85106599578799</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>190.36910016875601</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>199.69911450587901</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>255.70384621453101</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>183.29025631350601</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>52.355170307671202</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>49.747344674804701</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>50.951825174143003</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>61.931879458143101</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>50.656328216611598</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <v>6.1516127777055098</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>5.8451992298000297</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>6.04218540712652</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>6.3650329322472103</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>5.5268596659399396</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <v>1.9030288080900499</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>1.8082384124776201</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>1.7965569273570099</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>1.89255099550519</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>1.70975865071886</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="A22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="16">
         <v>0.45322773323204502</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>0.45322773323204502</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>0.51332191392368598</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>0.51332191392368598</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>0.45322773323204502</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>0.30935445335359002</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>0.30935445335359002</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <v>0.29733561721526203</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>0.29733561721526203</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>0.30935445335359002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="16">
         <v>53.998516569010597</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>50.422636868395202</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <v>53.998516569010597</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>50.422636868395202</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>53.998516569010597</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <v>6.2877186341350804</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>5.9507847046706299</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <v>6.2877186341350804</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>5.9507847046706299</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>6.2877186341350804</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="16">
         <v>11.6322794731499</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>11.0089517036406</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="16">
         <v>11.6322794731499</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <v>11.0089517036406</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>11.6322794731499</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>20.7494714926457</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>19.637589525413102</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <v>20.7494714926457</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="17">
         <v>19.637589525413102</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>20.7494714926457</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>28.910976055334501</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>26.913827234038401</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>29.016455845168501</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>26.227753049629499</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>29.133929444647801</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>31.776773710913002</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="17">
         <v>29.283951349043399</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <v>29.317448869129102</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>43.751768464589901</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>24.627513095698902</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>29.9970534087016</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>27.617694577759</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>27.583785442710901</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>47.053606684339002</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>25.139915722426601</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="18">
         <v>426973.40864147199</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <v>441656.31239151402</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>463301.94565364101</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>352871.30777605303</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>425233.394647334</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="8">
@@ -10068,27 +10088,27 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <v>224.576689295661</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>229.43040611479501</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="16">
         <v>232.06257893885001</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>228.65779722382001</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>227.82399045096099</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="8">
@@ -10108,120 +10128,241 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>8.1351725770621598E-3</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>8.4710380578120002E-3</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>8.3830977597687695E-3</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>7.2094496184857398E-3</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>8.1899295050168394E-3</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <v>13.4556108823174</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <v>9.8825738530638301</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <v>10.818108938629999</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>23.3037274629175</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <v>12.873090372161199</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <v>24.283709451511498</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="15">
         <v>29.614074304697599</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <v>21.9762015295493</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>28.101697657103198</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="14">
         <v>29.224562289017399</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="22">
         <v>10.397479204424799</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="23">
         <v>10.707349053201099</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="22">
         <v>11.9942466975647</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="23">
         <v>15.8039258708273</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="22">
         <v>11.336181647266001</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="6">
+      <c r="A40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="27">
         <f>B13-(B12^2)/(PI()*B17*B16)</f>
         <v>2.3415668071791081E-2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="27">
         <f>C13-(C12^2)/(PI()*C17*C16)</f>
         <v>2.3909017066756071E-2</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="27">
         <f>D13-(D12^2)/(PI()*D17*D16)</f>
         <v>2.4154860642002351E-2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="27">
         <f>E13-(E12^2)/(PI()*E17*E16)</f>
         <v>2.1146708695322546E-2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="27">
         <f>F13-(F12^2)/(PI()*F17*F16)</f>
         <v>2.5887681852567998E-2</v>
       </c>
       <c r="Y40"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="Y41"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B42" s="19">
+        <f>SUM(B6:B11)</f>
+        <v>927753.13633249071</v>
+      </c>
+      <c r="C42" s="19">
+        <f t="shared" ref="C42:F42" si="0">SUM(C6:C11)</f>
+        <v>874236.48302911501</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" si="0"/>
+        <v>943019.37664712116</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="0"/>
+        <v>885616.73927663988</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="0"/>
+        <v>835265.83485864289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="19">
+        <f>B5-B42</f>
+        <v>38437.406434480334</v>
+      </c>
+      <c r="C43" s="19">
+        <f t="shared" ref="C43:F43" si="1">C5-C42</f>
+        <v>37240.847423453932</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" si="1"/>
+        <v>38768.097391510848</v>
+      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="1"/>
+        <v>37472.208603749168</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="1"/>
+        <v>36074.108643029118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="6">
+        <f>B2/B18</f>
+        <v>7493.6842202228818</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" ref="C45:F45" si="2">C2/C18</f>
+        <v>7985.0902147195002</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="2"/>
+        <v>7997.518702024202</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="2"/>
+        <v>5994.1750617464058</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>8046.8776512684099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="6">
+        <f>B31/B2</f>
+        <v>0.27022755970090467</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" ref="C46:F46" si="3">C31/C2</f>
+        <v>0.29054148890182541</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="3"/>
+        <v>0.29008997495845901</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="3"/>
+        <v>0.23022350628477262</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="3"/>
+        <v>0.28831058461965114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
+        <f>B4/B2</f>
+        <v>8.9475270524282419E-2</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" ref="C48:F48" si="4">C4/C2</f>
+        <v>8.9566850858049774E-2</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="4"/>
+        <v>8.9427660127738867E-2</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="4"/>
+        <v>8.9486798890073008E-2</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="4"/>
+        <v>8.8879117509275976E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
